--- a/OPiS7 Inventory.xlsx
+++ b/OPiS7 Inventory.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\msi-od002\users$\msolo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dottore\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7D6E5-C73C-4EC5-BB4E-C2D9C695946F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Supplies" sheetId="1" r:id="rId1"/>
     <sheet name="Prizes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
   <si>
     <t>Summer 2018</t>
   </si>
@@ -487,11 +488,20 @@
   <si>
     <t>BO, half to arrive mid-June</t>
   </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BO (Amazon) + Nasco</t>
+  </si>
+  <si>
+    <t>No longer available through Nasco, earthball.com sells them for $12 ea.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -650,7 +660,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +743,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -824,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -976,15 +992,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1010,7 +1017,6 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1029,7 +1035,6 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1076,6 +1081,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,28 +1372,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="10" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="14.44140625" style="20"/>
+    <col min="4" max="4" width="9.28515625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="92" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.4" customHeight="1">
+    <row r="1" spans="1:21" ht="23.45" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>135</v>
       </c>
@@ -1384,7 +1401,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="22.2" customHeight="1">
+    <row r="2" spans="1:21" ht="22.15" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1411,7 @@
       <c r="D2" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="92" t="s">
         <v>128</v>
       </c>
       <c r="G2" s="19"/>
@@ -1413,7 +1430,7 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" ht="14.4">
+    <row r="3" spans="1:21" ht="15">
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
@@ -1424,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.4">
+    <row r="4" spans="1:21" ht="15">
       <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
@@ -1435,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.4">
+    <row r="5" spans="1:21" ht="15">
       <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
@@ -1445,11 +1462,11 @@
       <c r="D5" s="62">
         <v>0</v>
       </c>
-      <c r="E5" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.4">
+      <c r="E5" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
       <c r="B6" s="27" t="s">
         <v>29</v>
       </c>
@@ -1459,11 +1476,11 @@
       <c r="D6" s="62">
         <v>5</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="92">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.4">
+    <row r="7" spans="1:21" ht="15">
       <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
@@ -1473,11 +1490,11 @@
       <c r="D7" s="62">
         <v>0</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="92">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.4">
+    <row r="8" spans="1:21" ht="15">
       <c r="B8" s="42" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1504,7 @@
       <c r="D8" s="63">
         <v>29</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="92">
         <v>76</v>
       </c>
       <c r="G8" s="21"/>
@@ -1506,24 +1523,24 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" s="41" customFormat="1" ht="14.4">
+    <row r="9" spans="1:21" s="41" customFormat="1" ht="15">
       <c r="A9" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="91">
         <v>140</v>
       </c>
       <c r="D9" s="76">
         <v>6</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="93">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" customFormat="1" ht="13.2">
+    <row r="10" spans="1:21" customFormat="1" ht="12.75">
       <c r="B10" s="20" t="s">
         <v>33</v>
       </c>
@@ -1537,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28.8">
+    <row r="11" spans="1:21" ht="30">
       <c r="B11" s="58" t="s">
         <v>34</v>
       </c>
@@ -1547,11 +1564,11 @@
       <c r="D11" s="62">
         <v>8</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="92">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.4">
+    <row r="12" spans="1:21" ht="15">
       <c r="B12" s="27" t="s">
         <v>35</v>
       </c>
@@ -1561,11 +1578,11 @@
       <c r="D12" s="62">
         <v>4</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="92">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.4">
+    <row r="13" spans="1:21" ht="15">
       <c r="B13" s="27" t="s">
         <v>36</v>
       </c>
@@ -1575,59 +1592,59 @@
       <c r="D13" s="62">
         <v>1</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="92">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.4">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="91">
         <v>7</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="115" t="s">
         <v>129</v>
       </c>
       <c r="E14" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A15" s="93"/>
-      <c r="B15" s="102" t="s">
+    <row r="15" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A15" s="89"/>
+      <c r="B15" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="87">
         <v>7</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="88">
         <v>1</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E15" s="98">
         <v>6</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-    </row>
-    <row r="16" spans="1:21" ht="14.4">
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+    </row>
+    <row r="16" spans="1:21" ht="15">
       <c r="B16" s="29" t="s">
         <v>39</v>
       </c>
@@ -1637,7 +1654,7 @@
       <c r="D16" s="64">
         <v>0</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="92">
         <v>35</v>
       </c>
       <c r="G16" s="22"/>
@@ -1656,7 +1673,7 @@
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:21" ht="14.4">
+    <row r="17" spans="1:21" ht="15">
       <c r="B17" s="27" t="s">
         <v>121</v>
       </c>
@@ -1666,11 +1683,11 @@
       <c r="D17" s="62">
         <v>0</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.4">
+    <row r="18" spans="1:21" ht="15">
       <c r="B18" s="27" t="s">
         <v>40</v>
       </c>
@@ -1680,11 +1697,11 @@
       <c r="D18" s="62">
         <v>4</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="92">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.4">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="74" t="s">
         <v>131</v>
       </c>
@@ -1697,11 +1714,11 @@
       <c r="D19" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="94">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.4">
+    <row r="20" spans="1:21" ht="15">
       <c r="B20" s="27" t="s">
         <v>42</v>
       </c>
@@ -1711,11 +1728,11 @@
       <c r="D20" s="62">
         <v>0</v>
       </c>
-      <c r="E20" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.4">
+      <c r="E20" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15">
       <c r="B21" s="29" t="s">
         <v>43</v>
       </c>
@@ -1725,7 +1742,7 @@
       <c r="D21" s="64">
         <v>0</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="92">
         <v>35</v>
       </c>
       <c r="G21" s="22"/>
@@ -1744,7 +1761,7 @@
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
     </row>
-    <row r="22" spans="1:21" ht="14.4">
+    <row r="22" spans="1:21" ht="15">
       <c r="B22" s="32" t="s">
         <v>44</v>
       </c>
@@ -1754,11 +1771,11 @@
       <c r="D22" s="65">
         <v>0</v>
       </c>
-      <c r="E22" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.4">
+      <c r="E22" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -1768,59 +1785,59 @@
       <c r="D23" s="65">
         <v>2</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="92">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.4">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="117">
         <v>840</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="118">
         <v>60</v>
       </c>
-      <c r="E24" s="124">
+      <c r="E24" s="119">
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A25" s="93"/>
-      <c r="B25" s="90" t="s">
+    <row r="25" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A25" s="89"/>
+      <c r="B25" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="87">
         <v>3</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="88">
         <v>1</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="98">
         <v>2</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-    </row>
-    <row r="26" spans="1:21" ht="14.4">
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+    </row>
+    <row r="26" spans="1:21" ht="15">
       <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
@@ -1830,11 +1847,11 @@
       <c r="D26" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="92">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.4">
+    <row r="27" spans="1:21" ht="15">
       <c r="B27" s="27" t="s">
         <v>49</v>
       </c>
@@ -1844,11 +1861,11 @@
       <c r="D27" s="62">
         <v>7</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="92">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.4">
+    <row r="28" spans="1:21" ht="15">
       <c r="B28" s="27" t="s">
         <v>50</v>
       </c>
@@ -1858,11 +1875,11 @@
       <c r="D28" s="62">
         <v>7</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="92">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.4">
+    <row r="29" spans="1:21" ht="15">
       <c r="B29" s="27" t="s">
         <v>51</v>
       </c>
@@ -1872,11 +1889,11 @@
       <c r="D29" s="62">
         <v>35</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="92">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.4">
+    <row r="30" spans="1:21" ht="15">
       <c r="B30" s="27" t="s">
         <v>52</v>
       </c>
@@ -1886,11 +1903,11 @@
       <c r="D30" s="62">
         <v>5</v>
       </c>
-      <c r="E30" s="96">
+      <c r="E30" s="92">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.4">
+    <row r="31" spans="1:21" ht="15">
       <c r="B31" s="27" t="s">
         <v>53</v>
       </c>
@@ -1900,11 +1917,11 @@
       <c r="D31" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="96">
+      <c r="E31" s="92">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.4">
+    <row r="32" spans="1:21" ht="15">
       <c r="B32" s="27" t="s">
         <v>122</v>
       </c>
@@ -1914,11 +1931,11 @@
       <c r="D32" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="92">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="27">
+    <row r="33" spans="1:21" ht="26.25">
       <c r="B33" s="59" t="s">
         <v>123</v>
       </c>
@@ -1928,11 +1945,11 @@
       <c r="D33" s="62">
         <v>0</v>
       </c>
-      <c r="E33" s="96">
+      <c r="E33" s="92">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.4">
+    <row r="34" spans="1:21" ht="15">
       <c r="B34" s="27" t="s">
         <v>54</v>
       </c>
@@ -1942,11 +1959,11 @@
       <c r="D34" s="62">
         <v>0</v>
       </c>
-      <c r="E34" s="96">
+      <c r="E34" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.4">
+    <row r="35" spans="1:21" ht="15">
       <c r="B35" s="27" t="s">
         <v>55</v>
       </c>
@@ -1956,12 +1973,12 @@
       <c r="D35" s="62">
         <v>0</v>
       </c>
-      <c r="E35" s="96">
+      <c r="E35" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.4">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:21" ht="15">
+      <c r="A36" s="92" t="s">
         <v>138</v>
       </c>
       <c r="B36" s="72" t="s">
@@ -1977,55 +1994,55 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.4">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="117">
         <v>105</v>
       </c>
-      <c r="D37" s="123">
+      <c r="D37" s="118">
         <v>0</v>
       </c>
-      <c r="E37" s="124">
+      <c r="E37" s="119">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A38" s="93"/>
-      <c r="B38" s="102" t="s">
+    <row r="38" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A38" s="89"/>
+      <c r="B38" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="91">
-        <v>35</v>
-      </c>
-      <c r="D38" s="92">
+      <c r="C38" s="87">
+        <v>35</v>
+      </c>
+      <c r="D38" s="88">
         <v>0</v>
       </c>
-      <c r="E38" s="103">
-        <v>35</v>
-      </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="105"/>
-    </row>
-    <row r="39" spans="1:21" s="41" customFormat="1" ht="14.4">
+      <c r="E38" s="98">
+        <v>35</v>
+      </c>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
+    </row>
+    <row r="39" spans="1:21" s="41" customFormat="1" ht="15">
       <c r="A39" s="71" t="s">
         <v>137</v>
       </c>
@@ -2038,11 +2055,11 @@
       <c r="D39" s="66">
         <v>6</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="95">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.4">
+    <row r="40" spans="1:21" ht="15">
       <c r="B40" s="27" t="s">
         <v>60</v>
       </c>
@@ -2052,21 +2069,24 @@
       <c r="D40" s="62">
         <v>0</v>
       </c>
-      <c r="E40" s="96">
+      <c r="E40" s="92">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.4">
-      <c r="B41" s="89" t="s">
+    <row r="41" spans="1:21" ht="15">
+      <c r="A41" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="78">
+      <c r="C41" s="117">
         <v>210</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="118">
         <v>38</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="119">
         <v>172</v>
       </c>
       <c r="G41" s="21"/>
@@ -2085,17 +2105,20 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
     </row>
-    <row r="42" spans="1:21" ht="14.4">
-      <c r="B42" s="27" t="s">
+    <row r="42" spans="1:21" ht="15">
+      <c r="A42" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="28">
-        <v>35</v>
-      </c>
-      <c r="D42" s="62">
+      <c r="C42" s="45">
+        <v>35</v>
+      </c>
+      <c r="D42" s="67">
         <v>2</v>
       </c>
-      <c r="E42" s="96">
+      <c r="E42" s="71">
         <v>33</v>
       </c>
       <c r="G42" s="23"/>
@@ -2114,77 +2137,95 @@
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
     </row>
-    <row r="43" spans="1:21" ht="14.4">
-      <c r="B43" s="27" t="s">
+    <row r="43" spans="1:21" ht="15">
+      <c r="A43" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="28">
-        <v>35</v>
-      </c>
-      <c r="D43" s="62">
+      <c r="C43" s="45">
+        <v>35</v>
+      </c>
+      <c r="D43" s="67">
         <v>0</v>
       </c>
-      <c r="E43" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="14.4">
-      <c r="B44" s="27" t="s">
+      <c r="E43" s="71">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15">
+      <c r="A44" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="28">
-        <v>35</v>
-      </c>
-      <c r="D44" s="62">
+      <c r="C44" s="45">
+        <v>35</v>
+      </c>
+      <c r="D44" s="67">
         <v>0</v>
       </c>
-      <c r="E44" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="14.4">
-      <c r="B45" s="27" t="s">
+      <c r="E44" s="71">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15">
+      <c r="A45" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="45">
         <v>70</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="67">
         <v>20</v>
       </c>
-      <c r="E45" s="96">
+      <c r="E45" s="71">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.4">
-      <c r="B46" s="27" t="s">
+    <row r="46" spans="1:21" ht="15">
+      <c r="A46" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="45">
         <v>70</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="67">
         <v>29</v>
       </c>
-      <c r="E46" s="96">
+      <c r="E46" s="71">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.4">
-      <c r="B47" s="27" t="s">
+    <row r="47" spans="1:21" ht="15">
+      <c r="A47" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="45">
         <v>17</v>
       </c>
-      <c r="D47" s="62">
+      <c r="D47" s="67">
         <v>0</v>
       </c>
-      <c r="E47" s="96">
+      <c r="E47" s="71">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="14.4">
+    <row r="48" spans="1:21" ht="15">
+      <c r="A48" s="71" t="s">
+        <v>129</v>
+      </c>
       <c r="B48" s="44" t="s">
         <v>68</v>
       </c>
@@ -2194,11 +2235,14 @@
       <c r="D48" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="96">
+      <c r="E48" s="92">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="14.4">
+    <row r="49" spans="1:21" ht="15">
+      <c r="A49" s="92" t="s">
+        <v>139</v>
+      </c>
       <c r="B49" s="27" t="s">
         <v>69</v>
       </c>
@@ -2208,93 +2252,108 @@
       <c r="D49" s="62">
         <v>28</v>
       </c>
-      <c r="E49" s="96">
+      <c r="E49" s="92">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="14.4">
-      <c r="B50" s="31" t="s">
+    <row r="50" spans="1:21" ht="15">
+      <c r="A50" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="28">
-        <v>35</v>
-      </c>
-      <c r="D50" s="62">
+      <c r="C50" s="123">
+        <v>35</v>
+      </c>
+      <c r="D50" s="124">
         <v>20</v>
       </c>
-      <c r="E50" s="96">
+      <c r="E50" s="125">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="14.4">
-      <c r="B51" s="77" t="s">
+      <c r="F50" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15">
+      <c r="A51" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="78">
+      <c r="C51" s="117">
         <v>525</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="118">
         <v>60</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E51" s="119">
         <v>465</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="14.4">
-      <c r="B52" s="77" t="s">
+    <row r="52" spans="1:21" ht="15">
+      <c r="A52" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="78">
+      <c r="C52" s="117">
         <v>525</v>
       </c>
-      <c r="D52" s="79">
+      <c r="D52" s="118">
         <v>30</v>
       </c>
-      <c r="E52" s="100">
+      <c r="E52" s="119">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.4">
-      <c r="B53" s="27" t="s">
+    <row r="53" spans="1:21" ht="15">
+      <c r="A53" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="28">
-        <v>35</v>
-      </c>
-      <c r="D53" s="62">
+      <c r="C53" s="45">
+        <v>35</v>
+      </c>
+      <c r="D53" s="67">
         <v>2</v>
       </c>
-      <c r="E53" s="96">
+      <c r="E53" s="71">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A54" s="93"/>
-      <c r="B54" s="107" t="s">
+    <row r="54" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A54" s="89"/>
+      <c r="B54" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="108">
-        <v>35</v>
-      </c>
-      <c r="D54" s="109"/>
-      <c r="E54" s="103"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-      <c r="U54" s="111"/>
-    </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="C54" s="103">
+        <v>35</v>
+      </c>
+      <c r="D54" s="104"/>
+      <c r="E54" s="98"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+    </row>
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="15">
       <c r="A55" s="70"/>
       <c r="B55" s="44" t="s">
         <v>81</v>
@@ -2303,50 +2362,50 @@
         <v>35</v>
       </c>
       <c r="D55" s="67"/>
-      <c r="E55" s="96"/>
-    </row>
-    <row r="56" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A56" s="93"/>
-      <c r="B56" s="102" t="s">
+      <c r="E55" s="92"/>
+    </row>
+    <row r="56" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A56" s="89"/>
+      <c r="B56" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="91">
-        <v>35</v>
-      </c>
-      <c r="D56" s="92">
+      <c r="C56" s="87">
+        <v>35</v>
+      </c>
+      <c r="D56" s="88">
         <v>0</v>
       </c>
-      <c r="E56" s="103">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A57" s="93"/>
-      <c r="B57" s="107" t="s">
+      <c r="E56" s="98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A57" s="89"/>
+      <c r="B57" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="108">
-        <v>35</v>
-      </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="103"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="111"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="111"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
-    </row>
-    <row r="58" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="C57" s="103">
+        <v>35</v>
+      </c>
+      <c r="D57" s="104"/>
+      <c r="E57" s="98"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+    </row>
+    <row r="58" spans="1:21" s="18" customFormat="1" ht="15">
       <c r="A58" s="70"/>
       <c r="B58" s="44" t="s">
         <v>84</v>
@@ -2355,9 +2414,9 @@
         <v>35</v>
       </c>
       <c r="D58" s="67"/>
-      <c r="E58" s="96"/>
-    </row>
-    <row r="59" spans="1:21" s="49" customFormat="1" ht="14.4">
+      <c r="E58" s="92"/>
+    </row>
+    <row r="59" spans="1:21" s="49" customFormat="1" ht="15">
       <c r="A59" s="70"/>
       <c r="B59" s="47" t="s">
         <v>85</v>
@@ -2366,9 +2425,9 @@
         <v>210</v>
       </c>
       <c r="D59" s="68"/>
-      <c r="E59" s="96"/>
-    </row>
-    <row r="60" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="E59" s="92"/>
+    </row>
+    <row r="60" spans="1:21" s="18" customFormat="1" ht="15">
       <c r="A60" s="70"/>
       <c r="B60" s="44" t="s">
         <v>86</v>
@@ -2377,203 +2436,205 @@
         <v>35</v>
       </c>
       <c r="D60" s="67"/>
-      <c r="E60" s="96"/>
-    </row>
-    <row r="61" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A61" s="93"/>
-      <c r="B61" s="102" t="s">
+      <c r="E60" s="92"/>
+    </row>
+    <row r="61" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A61" s="89"/>
+      <c r="B61" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="91">
+      <c r="C61" s="87">
         <v>7</v>
       </c>
-      <c r="D61" s="92"/>
-      <c r="E61" s="103"/>
-    </row>
-    <row r="62" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A62" s="93"/>
-      <c r="B62" s="107" t="s">
+      <c r="D61" s="88"/>
+      <c r="E61" s="98"/>
+    </row>
+    <row r="62" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A62" s="89"/>
+      <c r="B62" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="108">
+      <c r="C62" s="103">
         <v>105</v>
       </c>
-      <c r="D62" s="109"/>
-      <c r="E62" s="103"/>
-    </row>
-    <row r="63" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A63" s="93"/>
-      <c r="B63" s="112" t="s">
+      <c r="D62" s="104"/>
+      <c r="E62" s="98"/>
+    </row>
+    <row r="63" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A63" s="89"/>
+      <c r="B63" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="113">
-        <v>35</v>
-      </c>
-      <c r="D63" s="109"/>
-      <c r="E63" s="103"/>
-    </row>
-    <row r="64" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A64" s="93"/>
-      <c r="B64" s="112" t="s">
+      <c r="C63" s="108">
+        <v>35</v>
+      </c>
+      <c r="D63" s="104"/>
+      <c r="E63" s="98"/>
+    </row>
+    <row r="64" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A64" s="89"/>
+      <c r="B64" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="113">
-        <v>35</v>
-      </c>
-      <c r="D64" s="109"/>
-      <c r="E64" s="103"/>
-    </row>
-    <row r="65" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A65" s="93"/>
-      <c r="B65" s="112" t="s">
+      <c r="C64" s="108">
+        <v>35</v>
+      </c>
+      <c r="D64" s="104"/>
+      <c r="E64" s="98"/>
+    </row>
+    <row r="65" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A65" s="89"/>
+      <c r="B65" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="113">
-        <v>35</v>
-      </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="103"/>
-    </row>
-    <row r="66" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A66" s="93"/>
-      <c r="B66" s="102" t="s">
+      <c r="C65" s="108">
+        <v>35</v>
+      </c>
+      <c r="D65" s="104"/>
+      <c r="E65" s="98"/>
+    </row>
+    <row r="66" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A66" s="89"/>
+      <c r="B66" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="91">
-        <v>35</v>
-      </c>
-      <c r="D66" s="92" t="s">
+      <c r="C66" s="87">
+        <v>35</v>
+      </c>
+      <c r="D66" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="103"/>
-    </row>
-    <row r="67" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A67" s="93"/>
-      <c r="B67" s="107" t="s">
+      <c r="E66" s="98"/>
+    </row>
+    <row r="67" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A67" s="89"/>
+      <c r="B67" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="108">
-        <v>35</v>
-      </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="103"/>
-    </row>
-    <row r="68" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A68" s="93"/>
-      <c r="B68" s="102" t="s">
+      <c r="C67" s="103">
+        <v>35</v>
+      </c>
+      <c r="D67" s="104"/>
+      <c r="E67" s="98"/>
+    </row>
+    <row r="68" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A68" s="89"/>
+      <c r="B68" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="91">
-        <v>35</v>
-      </c>
-      <c r="D68" s="92">
+      <c r="C68" s="87">
+        <v>35</v>
+      </c>
+      <c r="D68" s="88">
         <v>0</v>
       </c>
-      <c r="E68" s="103">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A69" s="93"/>
-      <c r="B69" s="112" t="s">
+      <c r="E68" s="98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A69" s="89"/>
+      <c r="B69" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="113">
+      <c r="C69" s="108">
         <v>70</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="103"/>
-    </row>
-    <row r="70" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A70" s="93"/>
-      <c r="B70" s="114" t="s">
+      <c r="D69" s="104"/>
+      <c r="E69" s="98"/>
+    </row>
+    <row r="70" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A70" s="89"/>
+      <c r="B70" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="113">
-        <v>35</v>
-      </c>
-      <c r="D70" s="109"/>
-      <c r="E70" s="103"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="111"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="111"/>
-    </row>
-    <row r="71" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A71" s="93"/>
-      <c r="B71" s="107" t="s">
+      <c r="C70" s="108">
+        <v>35</v>
+      </c>
+      <c r="D70" s="104"/>
+      <c r="E70" s="98"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="106"/>
+      <c r="R70" s="106"/>
+      <c r="S70" s="106"/>
+      <c r="T70" s="106"/>
+      <c r="U70" s="106"/>
+    </row>
+    <row r="71" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A71" s="89"/>
+      <c r="B71" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="108">
+      <c r="C71" s="103">
         <v>15</v>
       </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="103"/>
-    </row>
-    <row r="72" spans="1:21" s="110" customFormat="1" ht="14.4">
-      <c r="A72" s="93"/>
-      <c r="B72" s="112" t="s">
+      <c r="D71" s="104"/>
+      <c r="E71" s="98"/>
+    </row>
+    <row r="72" spans="1:21" s="105" customFormat="1" ht="15">
+      <c r="A72" s="89"/>
+      <c r="B72" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="113">
-        <v>35</v>
-      </c>
-      <c r="D72" s="109"/>
-      <c r="E72" s="103"/>
-    </row>
-    <row r="73" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A73" s="93"/>
+      <c r="C72" s="108">
+        <v>35</v>
+      </c>
+      <c r="D72" s="104"/>
+      <c r="E72" s="98"/>
+    </row>
+    <row r="73" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A73" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B73" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="91">
+      <c r="C73" s="103">
         <v>17</v>
       </c>
-      <c r="D73" s="92">
+      <c r="D73" s="88">
         <v>3600</v>
       </c>
-      <c r="E73" s="103">
+      <c r="E73" s="98">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="74" spans="1:21" s="18" customFormat="1" ht="15">
       <c r="A74" s="70"/>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="81">
+      <c r="C74" s="78">
         <v>12</v>
       </c>
-      <c r="D74" s="82"/>
-      <c r="E74" s="96"/>
-    </row>
-    <row r="75" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="D74" s="79"/>
+      <c r="E74" s="92"/>
+    </row>
+    <row r="75" spans="1:21" s="18" customFormat="1" ht="15">
       <c r="A75" s="70"/>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="84">
-        <v>35</v>
-      </c>
-      <c r="D75" s="85">
+      <c r="C75" s="81">
+        <v>35</v>
+      </c>
+      <c r="D75" s="82">
         <v>0</v>
       </c>
-      <c r="E75" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" s="41" customFormat="1" ht="14.4">
+      <c r="E75" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="41" customFormat="1" ht="15">
       <c r="A76" s="70"/>
       <c r="B76" s="42" t="s">
         <v>102</v>
@@ -2584,116 +2645,116 @@
       <c r="D76" s="63">
         <v>17</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="92">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A77" s="115" t="s">
+    <row r="77" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A77" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="107" t="s">
+      <c r="B77" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="108">
-        <v>35</v>
-      </c>
-      <c r="D77" s="109">
+      <c r="C77" s="103">
+        <v>35</v>
+      </c>
+      <c r="D77" s="104">
         <v>8</v>
       </c>
-      <c r="E77" s="115">
+      <c r="E77" s="110">
         <v>27</v>
       </c>
-      <c r="F77" s="104"/>
-    </row>
-    <row r="78" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A78" s="115" t="s">
+      <c r="F77" s="99"/>
+    </row>
+    <row r="78" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A78" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="108">
-        <v>35</v>
-      </c>
-      <c r="D78" s="109">
+      <c r="C78" s="103">
+        <v>35</v>
+      </c>
+      <c r="D78" s="104">
         <v>0</v>
       </c>
-      <c r="E78" s="115">
-        <v>35</v>
-      </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="105"/>
-      <c r="M78" s="105"/>
-      <c r="N78" s="105"/>
-      <c r="O78" s="105"/>
-      <c r="P78" s="105"/>
-      <c r="Q78" s="105"/>
-      <c r="R78" s="105"/>
-      <c r="S78" s="105"/>
-      <c r="T78" s="105"/>
-      <c r="U78" s="105"/>
-    </row>
-    <row r="79" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A79" s="115" t="s">
+      <c r="E78" s="110">
+        <v>35</v>
+      </c>
+      <c r="F78" s="99"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="100"/>
+      <c r="M78" s="100"/>
+      <c r="N78" s="100"/>
+      <c r="O78" s="100"/>
+      <c r="P78" s="100"/>
+      <c r="Q78" s="100"/>
+      <c r="R78" s="100"/>
+      <c r="S78" s="100"/>
+      <c r="T78" s="100"/>
+      <c r="U78" s="100"/>
+    </row>
+    <row r="79" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A79" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="107" t="s">
+      <c r="B79" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="108">
-        <v>35</v>
-      </c>
-      <c r="D79" s="109">
+      <c r="C79" s="103">
+        <v>35</v>
+      </c>
+      <c r="D79" s="104">
         <v>21</v>
       </c>
-      <c r="E79" s="115">
+      <c r="E79" s="110">
         <v>15</v>
       </c>
-      <c r="F79" s="104"/>
-    </row>
-    <row r="80" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A80" s="115" t="s">
+      <c r="F79" s="99"/>
+    </row>
+    <row r="80" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A80" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="116" t="s">
+      <c r="B80" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="108">
-        <v>35</v>
-      </c>
-      <c r="D80" s="92">
+      <c r="C80" s="103">
+        <v>35</v>
+      </c>
+      <c r="D80" s="88">
         <v>8</v>
       </c>
-      <c r="E80" s="103">
+      <c r="E80" s="98">
         <v>27</v>
       </c>
-      <c r="F80" s="104"/>
-    </row>
-    <row r="81" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A81" s="115" t="s">
+      <c r="F80" s="99"/>
+    </row>
+    <row r="81" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A81" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="95">
+      <c r="C81" s="91">
         <v>70</v>
       </c>
-      <c r="D81" s="120" t="s">
+      <c r="D81" s="115" t="s">
         <v>129</v>
       </c>
       <c r="E81" s="73">
         <v>0</v>
       </c>
-      <c r="F81" s="104"/>
-    </row>
-    <row r="82" spans="1:21" ht="14.4">
+      <c r="F81" s="99"/>
+    </row>
+    <row r="82" spans="1:21" ht="15">
       <c r="B82" s="31" t="s">
         <v>108</v>
       </c>
@@ -2703,72 +2764,72 @@
       <c r="D82" s="62">
         <v>65</v>
       </c>
-      <c r="E82" s="96">
+      <c r="E82" s="92">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="14.4">
-      <c r="B83" s="86" t="s">
+    <row r="83" spans="1:21" ht="15">
+      <c r="B83" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="87">
+      <c r="C83" s="84">
         <v>210</v>
       </c>
-      <c r="D83" s="88">
+      <c r="D83" s="85">
         <v>22</v>
       </c>
-      <c r="E83" s="101">
+      <c r="E83" s="96">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A84" s="93"/>
-      <c r="B84" s="117" t="s">
+    <row r="84" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A84" s="89"/>
+      <c r="B84" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="118">
-        <v>35</v>
-      </c>
-      <c r="D84" s="119">
+      <c r="C84" s="113">
+        <v>35</v>
+      </c>
+      <c r="D84" s="114">
         <v>2</v>
       </c>
-      <c r="E84" s="103">
+      <c r="E84" s="98">
         <v>33</v>
       </c>
-      <c r="F84" s="104"/>
-    </row>
-    <row r="85" spans="1:21" s="106" customFormat="1" ht="14.4">
-      <c r="A85" s="93"/>
-      <c r="B85" s="102" t="s">
+      <c r="F84" s="99"/>
+    </row>
+    <row r="85" spans="1:21" s="101" customFormat="1" ht="15">
+      <c r="A85" s="89"/>
+      <c r="B85" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C85" s="91">
-        <v>35</v>
-      </c>
-      <c r="D85" s="92">
+      <c r="C85" s="87">
+        <v>35</v>
+      </c>
+      <c r="D85" s="88">
         <v>0</v>
       </c>
-      <c r="E85" s="103">
-        <v>35</v>
-      </c>
-      <c r="F85" s="104"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="105"/>
-      <c r="N85" s="105"/>
-      <c r="O85" s="105"/>
-      <c r="P85" s="105"/>
-      <c r="Q85" s="105"/>
-      <c r="R85" s="105"/>
-      <c r="S85" s="105"/>
-      <c r="T85" s="105"/>
-      <c r="U85" s="105"/>
-    </row>
-    <row r="86" spans="1:21" ht="14.4">
+      <c r="E85" s="98">
+        <v>35</v>
+      </c>
+      <c r="F85" s="99"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="100"/>
+      <c r="P85" s="100"/>
+      <c r="Q85" s="100"/>
+      <c r="R85" s="100"/>
+      <c r="S85" s="100"/>
+      <c r="T85" s="100"/>
+      <c r="U85" s="100"/>
+    </row>
+    <row r="86" spans="1:21" ht="15">
       <c r="B86" s="32" t="s">
         <v>112</v>
       </c>
@@ -2778,11 +2839,11 @@
       <c r="D86" s="65">
         <v>0</v>
       </c>
-      <c r="E86" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="14.4">
+      <c r="E86" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="15">
       <c r="B87" s="31" t="s">
         <v>113</v>
       </c>
@@ -2792,11 +2853,11 @@
       <c r="D87" s="62">
         <v>4</v>
       </c>
-      <c r="E87" s="96">
+      <c r="E87" s="92">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.4">
+    <row r="88" spans="1:21" ht="15">
       <c r="B88" s="27" t="s">
         <v>114</v>
       </c>
@@ -2806,11 +2867,11 @@
       <c r="D88" s="62">
         <v>3</v>
       </c>
-      <c r="E88" s="96">
+      <c r="E88" s="92">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="14.4">
+    <row r="89" spans="1:21" ht="15">
       <c r="B89" s="31" t="s">
         <v>115</v>
       </c>
@@ -2820,11 +2881,11 @@
       <c r="D89" s="62">
         <v>0</v>
       </c>
-      <c r="E89" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="14.4">
+      <c r="E89" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15">
       <c r="B90" s="27" t="s">
         <v>116</v>
       </c>
@@ -2834,11 +2895,11 @@
       <c r="D90" s="62">
         <v>5</v>
       </c>
-      <c r="E90" s="96">
+      <c r="E90" s="92">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="14.4">
+    <row r="91" spans="1:21" ht="15">
       <c r="B91" s="27" t="s">
         <v>117</v>
       </c>
@@ -2848,11 +2909,11 @@
       <c r="D91" s="62">
         <v>6</v>
       </c>
-      <c r="E91" s="96">
+      <c r="E91" s="92">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="14.4">
+    <row r="92" spans="1:21" ht="15">
       <c r="B92" s="37" t="s">
         <v>118</v>
       </c>
@@ -2862,11 +2923,11 @@
       <c r="D92" s="62">
         <v>1</v>
       </c>
-      <c r="E92" s="96">
+      <c r="E92" s="92">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="14.4">
+    <row r="93" spans="1:21" ht="15">
       <c r="B93" s="27" t="s">
         <v>119</v>
       </c>
@@ -2876,18 +2937,18 @@
       <c r="D93" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="96">
+      <c r="E93" s="92">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="14.4">
+    <row r="94" spans="1:21" ht="15">
       <c r="A94" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="94" t="s">
+      <c r="B94" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="95">
+      <c r="C94" s="91">
         <v>1</v>
       </c>
       <c r="D94" s="76" t="s">
@@ -2897,19 +2958,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="13.2">
+    <row r="95" spans="1:21" ht="12.75">
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
       <c r="D95" s="52"/>
     </row>
-    <row r="96" spans="1:21" ht="14.4">
+    <row r="96" spans="1:21" ht="15">
       <c r="B96" s="38" t="s">
         <v>125</v>
       </c>
       <c r="C96" s="27"/>
       <c r="D96" s="52"/>
     </row>
-    <row r="97" spans="2:5" ht="27">
+    <row r="97" spans="2:5" ht="25.5">
       <c r="B97" s="50" t="s">
         <v>13</v>
       </c>
@@ -2919,11 +2980,11 @@
       <c r="D97" s="52">
         <v>0</v>
       </c>
-      <c r="E97" s="96">
+      <c r="E97" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="13.2">
+    <row r="98" spans="2:5" ht="12.75">
       <c r="B98" s="51" t="s">
         <v>18</v>
       </c>
@@ -2933,11 +2994,11 @@
       <c r="D98" s="52">
         <v>0</v>
       </c>
-      <c r="E98" s="96">
+      <c r="E98" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="13.2">
+    <row r="99" spans="2:5" ht="12.75">
       <c r="B99" s="51" t="s">
         <v>22</v>
       </c>
@@ -2947,11 +3008,11 @@
       <c r="D99" s="52">
         <v>0</v>
       </c>
-      <c r="E99" s="96">
+      <c r="E99" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="26.4">
+    <row r="100" spans="2:5" ht="25.5">
       <c r="B100" s="50" t="s">
         <v>25</v>
       </c>
@@ -2961,11 +3022,11 @@
       <c r="D100" s="52">
         <v>0</v>
       </c>
-      <c r="E100" s="96">
+      <c r="E100" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="14.4">
+    <row r="101" spans="2:5" ht="15">
       <c r="B101" s="34" t="s">
         <v>74</v>
       </c>
@@ -2975,11 +3036,11 @@
       <c r="D101" s="53">
         <v>0</v>
       </c>
-      <c r="E101" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="14.4">
+      <c r="E101" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="15">
       <c r="B102" s="34" t="s">
         <v>75</v>
       </c>
@@ -2989,11 +3050,11 @@
       <c r="D102" s="53">
         <v>0</v>
       </c>
-      <c r="E102" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="14.4">
+      <c r="E102" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="15">
       <c r="B103" s="34" t="s">
         <v>76</v>
       </c>
@@ -3003,11 +3064,11 @@
       <c r="D103" s="53">
         <v>0</v>
       </c>
-      <c r="E103" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="14.4">
+      <c r="E103" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="15">
       <c r="B104" s="34" t="s">
         <v>77</v>
       </c>
@@ -3017,11 +3078,11 @@
       <c r="D104" s="53">
         <v>5</v>
       </c>
-      <c r="E104" s="96">
+      <c r="E104" s="92">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="14.4">
+    <row r="105" spans="2:5" ht="15">
       <c r="B105" s="34" t="s">
         <v>78</v>
       </c>
@@ -3031,11 +3092,11 @@
       <c r="D105" s="53">
         <v>0</v>
       </c>
-      <c r="E105" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="14.4">
+      <c r="E105" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="15">
       <c r="B106" s="36" t="s">
         <v>79</v>
       </c>
@@ -3045,2588 +3106,2588 @@
       <c r="D106" s="53">
         <v>0</v>
       </c>
-      <c r="E106" s="96">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="13.2">
+      <c r="E106" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="12.75">
       <c r="B107" s="24"/>
     </row>
-    <row r="108" spans="2:5" ht="13.2">
+    <row r="108" spans="2:5" ht="12.75">
       <c r="B108" s="24"/>
     </row>
-    <row r="109" spans="2:5" ht="13.2">
+    <row r="109" spans="2:5" ht="12.75">
       <c r="B109" s="24"/>
     </row>
-    <row r="110" spans="2:5" ht="13.2">
+    <row r="110" spans="2:5" ht="12.75">
       <c r="B110" s="24"/>
     </row>
-    <row r="111" spans="2:5" ht="13.2">
+    <row r="111" spans="2:5" ht="12.75">
       <c r="B111" s="24"/>
     </row>
-    <row r="112" spans="2:5" ht="13.2">
+    <row r="112" spans="2:5" ht="12.75">
       <c r="B112" s="24"/>
     </row>
-    <row r="113" spans="2:2" ht="13.2">
+    <row r="113" spans="2:2" ht="12.75">
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="2:2" ht="13.2">
+    <row r="114" spans="2:2" ht="12.75">
       <c r="B114" s="24"/>
     </row>
-    <row r="115" spans="2:2" ht="13.2">
+    <row r="115" spans="2:2" ht="12.75">
       <c r="B115" s="24"/>
     </row>
-    <row r="116" spans="2:2" ht="13.2">
+    <row r="116" spans="2:2" ht="12.75">
       <c r="B116" s="24"/>
     </row>
-    <row r="117" spans="2:2" ht="13.2">
+    <row r="117" spans="2:2" ht="12.75">
       <c r="B117" s="24"/>
     </row>
-    <row r="118" spans="2:2" ht="13.2">
+    <row r="118" spans="2:2" ht="12.75">
       <c r="B118" s="24"/>
     </row>
-    <row r="119" spans="2:2" ht="13.2">
+    <row r="119" spans="2:2" ht="12.75">
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="2:2" ht="13.2">
+    <row r="120" spans="2:2" ht="12.75">
       <c r="B120" s="24"/>
     </row>
-    <row r="121" spans="2:2" ht="13.2">
+    <row r="121" spans="2:2" ht="12.75">
       <c r="B121" s="24"/>
     </row>
-    <row r="122" spans="2:2" ht="13.2">
+    <row r="122" spans="2:2" ht="12.75">
       <c r="B122" s="24"/>
     </row>
-    <row r="123" spans="2:2" ht="13.2">
+    <row r="123" spans="2:2" ht="12.75">
       <c r="B123" s="24"/>
     </row>
-    <row r="124" spans="2:2" ht="13.2">
+    <row r="124" spans="2:2" ht="12.75">
       <c r="B124" s="24"/>
     </row>
-    <row r="125" spans="2:2" ht="13.2">
+    <row r="125" spans="2:2" ht="12.75">
       <c r="B125" s="24"/>
     </row>
-    <row r="126" spans="2:2" ht="13.2">
+    <row r="126" spans="2:2" ht="12.75">
       <c r="B126" s="24"/>
     </row>
-    <row r="127" spans="2:2" ht="13.2">
+    <row r="127" spans="2:2" ht="12.75">
       <c r="B127" s="24"/>
     </row>
-    <row r="128" spans="2:2" ht="13.2">
+    <row r="128" spans="2:2" ht="12.75">
       <c r="B128" s="24"/>
     </row>
-    <row r="129" spans="2:2" ht="13.2">
+    <row r="129" spans="2:2" ht="12.75">
       <c r="B129" s="24"/>
     </row>
-    <row r="130" spans="2:2" ht="13.2">
+    <row r="130" spans="2:2" ht="12.75">
       <c r="B130" s="24"/>
     </row>
-    <row r="131" spans="2:2" ht="13.2">
+    <row r="131" spans="2:2" ht="12.75">
       <c r="B131" s="24"/>
     </row>
-    <row r="132" spans="2:2" ht="13.2">
+    <row r="132" spans="2:2" ht="12.75">
       <c r="B132" s="24"/>
     </row>
-    <row r="133" spans="2:2" ht="13.2">
+    <row r="133" spans="2:2" ht="12.75">
       <c r="B133" s="24"/>
     </row>
-    <row r="134" spans="2:2" ht="13.2">
+    <row r="134" spans="2:2" ht="12.75">
       <c r="B134" s="24"/>
     </row>
-    <row r="135" spans="2:2" ht="13.2">
+    <row r="135" spans="2:2" ht="12.75">
       <c r="B135" s="24"/>
     </row>
-    <row r="136" spans="2:2" ht="13.2">
+    <row r="136" spans="2:2" ht="12.75">
       <c r="B136" s="24"/>
     </row>
-    <row r="137" spans="2:2" ht="13.2">
+    <row r="137" spans="2:2" ht="12.75">
       <c r="B137" s="24"/>
     </row>
-    <row r="138" spans="2:2" ht="13.2">
+    <row r="138" spans="2:2" ht="12.75">
       <c r="B138" s="24"/>
     </row>
-    <row r="139" spans="2:2" ht="13.2">
+    <row r="139" spans="2:2" ht="12.75">
       <c r="B139" s="24"/>
     </row>
-    <row r="140" spans="2:2" ht="13.2">
+    <row r="140" spans="2:2" ht="12.75">
       <c r="B140" s="24"/>
     </row>
-    <row r="141" spans="2:2" ht="13.2">
+    <row r="141" spans="2:2" ht="12.75">
       <c r="B141" s="24"/>
     </row>
-    <row r="142" spans="2:2" ht="13.2">
+    <row r="142" spans="2:2" ht="12.75">
       <c r="B142" s="24"/>
     </row>
-    <row r="143" spans="2:2" ht="13.2">
+    <row r="143" spans="2:2" ht="12.75">
       <c r="B143" s="24"/>
     </row>
-    <row r="144" spans="2:2" ht="13.2">
+    <row r="144" spans="2:2" ht="12.75">
       <c r="B144" s="24"/>
     </row>
-    <row r="145" spans="2:2" ht="13.2">
+    <row r="145" spans="2:2" ht="12.75">
       <c r="B145" s="24"/>
     </row>
-    <row r="146" spans="2:2" ht="13.2">
+    <row r="146" spans="2:2" ht="12.75">
       <c r="B146" s="24"/>
     </row>
-    <row r="147" spans="2:2" ht="13.2">
+    <row r="147" spans="2:2" ht="12.75">
       <c r="B147" s="24"/>
     </row>
-    <row r="148" spans="2:2" ht="13.2">
+    <row r="148" spans="2:2" ht="12.75">
       <c r="B148" s="24"/>
     </row>
-    <row r="149" spans="2:2" ht="13.2">
+    <row r="149" spans="2:2" ht="12.75">
       <c r="B149" s="24"/>
     </row>
-    <row r="150" spans="2:2" ht="13.2">
+    <row r="150" spans="2:2" ht="12.75">
       <c r="B150" s="24"/>
     </row>
-    <row r="151" spans="2:2" ht="13.2">
+    <row r="151" spans="2:2" ht="12.75">
       <c r="B151" s="24"/>
     </row>
-    <row r="152" spans="2:2" ht="13.2">
+    <row r="152" spans="2:2" ht="12.75">
       <c r="B152" s="24"/>
     </row>
-    <row r="153" spans="2:2" ht="13.2">
+    <row r="153" spans="2:2" ht="12.75">
       <c r="B153" s="24"/>
     </row>
-    <row r="154" spans="2:2" ht="13.2">
+    <row r="154" spans="2:2" ht="12.75">
       <c r="B154" s="24"/>
     </row>
-    <row r="155" spans="2:2" ht="13.2">
+    <row r="155" spans="2:2" ht="12.75">
       <c r="B155" s="24"/>
     </row>
-    <row r="156" spans="2:2" ht="13.2">
+    <row r="156" spans="2:2" ht="12.75">
       <c r="B156" s="24"/>
     </row>
-    <row r="157" spans="2:2" ht="13.2">
+    <row r="157" spans="2:2" ht="12.75">
       <c r="B157" s="24"/>
     </row>
-    <row r="158" spans="2:2" ht="13.2">
+    <row r="158" spans="2:2" ht="12.75">
       <c r="B158" s="24"/>
     </row>
-    <row r="159" spans="2:2" ht="13.2">
+    <row r="159" spans="2:2" ht="12.75">
       <c r="B159" s="24"/>
     </row>
-    <row r="160" spans="2:2" ht="13.2">
+    <row r="160" spans="2:2" ht="12.75">
       <c r="B160" s="24"/>
     </row>
-    <row r="161" spans="2:2" ht="13.2">
+    <row r="161" spans="2:2" ht="12.75">
       <c r="B161" s="24"/>
     </row>
-    <row r="162" spans="2:2" ht="13.2">
+    <row r="162" spans="2:2" ht="12.75">
       <c r="B162" s="24"/>
     </row>
-    <row r="163" spans="2:2" ht="13.2">
+    <row r="163" spans="2:2" ht="12.75">
       <c r="B163" s="24"/>
     </row>
-    <row r="164" spans="2:2" ht="13.2">
+    <row r="164" spans="2:2" ht="12.75">
       <c r="B164" s="24"/>
     </row>
-    <row r="165" spans="2:2" ht="13.2">
+    <row r="165" spans="2:2" ht="12.75">
       <c r="B165" s="24"/>
     </row>
-    <row r="166" spans="2:2" ht="13.2">
+    <row r="166" spans="2:2" ht="12.75">
       <c r="B166" s="24"/>
     </row>
-    <row r="167" spans="2:2" ht="13.2">
+    <row r="167" spans="2:2" ht="12.75">
       <c r="B167" s="24"/>
     </row>
-    <row r="168" spans="2:2" ht="13.2">
+    <row r="168" spans="2:2" ht="12.75">
       <c r="B168" s="24"/>
     </row>
-    <row r="169" spans="2:2" ht="13.2">
+    <row r="169" spans="2:2" ht="12.75">
       <c r="B169" s="24"/>
     </row>
-    <row r="170" spans="2:2" ht="13.2">
+    <row r="170" spans="2:2" ht="12.75">
       <c r="B170" s="24"/>
     </row>
-    <row r="171" spans="2:2" ht="13.2">
+    <row r="171" spans="2:2" ht="12.75">
       <c r="B171" s="24"/>
     </row>
-    <row r="172" spans="2:2" ht="13.2">
+    <row r="172" spans="2:2" ht="12.75">
       <c r="B172" s="24"/>
     </row>
-    <row r="173" spans="2:2" ht="13.2">
+    <row r="173" spans="2:2" ht="12.75">
       <c r="B173" s="24"/>
     </row>
-    <row r="174" spans="2:2" ht="13.2">
+    <row r="174" spans="2:2" ht="12.75">
       <c r="B174" s="24"/>
     </row>
-    <row r="175" spans="2:2" ht="13.2">
+    <row r="175" spans="2:2" ht="12.75">
       <c r="B175" s="24"/>
     </row>
-    <row r="176" spans="2:2" ht="13.2">
+    <row r="176" spans="2:2" ht="12.75">
       <c r="B176" s="24"/>
     </row>
-    <row r="177" spans="2:2" ht="13.2">
+    <row r="177" spans="2:2" ht="12.75">
       <c r="B177" s="24"/>
     </row>
-    <row r="178" spans="2:2" ht="13.2">
+    <row r="178" spans="2:2" ht="12.75">
       <c r="B178" s="24"/>
     </row>
-    <row r="179" spans="2:2" ht="13.2">
+    <row r="179" spans="2:2" ht="12.75">
       <c r="B179" s="24"/>
     </row>
-    <row r="180" spans="2:2" ht="13.2">
+    <row r="180" spans="2:2" ht="12.75">
       <c r="B180" s="24"/>
     </row>
-    <row r="181" spans="2:2" ht="13.2">
+    <row r="181" spans="2:2" ht="12.75">
       <c r="B181" s="24"/>
     </row>
-    <row r="182" spans="2:2" ht="13.2">
+    <row r="182" spans="2:2" ht="12.75">
       <c r="B182" s="24"/>
     </row>
-    <row r="183" spans="2:2" ht="13.2">
+    <row r="183" spans="2:2" ht="12.75">
       <c r="B183" s="24"/>
     </row>
-    <row r="184" spans="2:2" ht="13.2">
+    <row r="184" spans="2:2" ht="12.75">
       <c r="B184" s="24"/>
     </row>
-    <row r="185" spans="2:2" ht="13.2">
+    <row r="185" spans="2:2" ht="12.75">
       <c r="B185" s="24"/>
     </row>
-    <row r="186" spans="2:2" ht="13.2">
+    <row r="186" spans="2:2" ht="12.75">
       <c r="B186" s="24"/>
     </row>
-    <row r="187" spans="2:2" ht="13.2">
+    <row r="187" spans="2:2" ht="12.75">
       <c r="B187" s="24"/>
     </row>
-    <row r="188" spans="2:2" ht="13.2">
+    <row r="188" spans="2:2" ht="12.75">
       <c r="B188" s="24"/>
     </row>
-    <row r="189" spans="2:2" ht="13.2">
+    <row r="189" spans="2:2" ht="12.75">
       <c r="B189" s="24"/>
     </row>
-    <row r="190" spans="2:2" ht="13.2">
+    <row r="190" spans="2:2" ht="12.75">
       <c r="B190" s="24"/>
     </row>
-    <row r="191" spans="2:2" ht="13.2">
+    <row r="191" spans="2:2" ht="12.75">
       <c r="B191" s="24"/>
     </row>
-    <row r="192" spans="2:2" ht="13.2">
+    <row r="192" spans="2:2" ht="12.75">
       <c r="B192" s="24"/>
     </row>
-    <row r="193" spans="2:2" ht="13.2">
+    <row r="193" spans="2:2" ht="12.75">
       <c r="B193" s="24"/>
     </row>
-    <row r="194" spans="2:2" ht="13.2">
+    <row r="194" spans="2:2" ht="12.75">
       <c r="B194" s="24"/>
     </row>
-    <row r="195" spans="2:2" ht="13.2">
+    <row r="195" spans="2:2" ht="12.75">
       <c r="B195" s="24"/>
     </row>
-    <row r="196" spans="2:2" ht="13.2">
+    <row r="196" spans="2:2" ht="12.75">
       <c r="B196" s="24"/>
     </row>
-    <row r="197" spans="2:2" ht="13.2">
+    <row r="197" spans="2:2" ht="12.75">
       <c r="B197" s="24"/>
     </row>
-    <row r="198" spans="2:2" ht="13.2">
+    <row r="198" spans="2:2" ht="12.75">
       <c r="B198" s="24"/>
     </row>
-    <row r="199" spans="2:2" ht="13.2">
+    <row r="199" spans="2:2" ht="12.75">
       <c r="B199" s="24"/>
     </row>
-    <row r="200" spans="2:2" ht="13.2">
+    <row r="200" spans="2:2" ht="12.75">
       <c r="B200" s="24"/>
     </row>
-    <row r="201" spans="2:2" ht="13.2">
+    <row r="201" spans="2:2" ht="12.75">
       <c r="B201" s="24"/>
     </row>
-    <row r="202" spans="2:2" ht="13.2">
+    <row r="202" spans="2:2" ht="12.75">
       <c r="B202" s="24"/>
     </row>
-    <row r="203" spans="2:2" ht="13.2">
+    <row r="203" spans="2:2" ht="12.75">
       <c r="B203" s="24"/>
     </row>
-    <row r="204" spans="2:2" ht="13.2">
+    <row r="204" spans="2:2" ht="12.75">
       <c r="B204" s="24"/>
     </row>
-    <row r="205" spans="2:2" ht="13.2">
+    <row r="205" spans="2:2" ht="12.75">
       <c r="B205" s="24"/>
     </row>
-    <row r="206" spans="2:2" ht="13.2">
+    <row r="206" spans="2:2" ht="12.75">
       <c r="B206" s="24"/>
     </row>
-    <row r="207" spans="2:2" ht="13.2">
+    <row r="207" spans="2:2" ht="12.75">
       <c r="B207" s="24"/>
     </row>
-    <row r="208" spans="2:2" ht="13.2">
+    <row r="208" spans="2:2" ht="12.75">
       <c r="B208" s="24"/>
     </row>
-    <row r="209" spans="2:2" ht="13.2">
+    <row r="209" spans="2:2" ht="12.75">
       <c r="B209" s="24"/>
     </row>
-    <row r="210" spans="2:2" ht="13.2">
+    <row r="210" spans="2:2" ht="12.75">
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="2:2" ht="13.2">
+    <row r="211" spans="2:2" ht="12.75">
       <c r="B211" s="24"/>
     </row>
-    <row r="212" spans="2:2" ht="13.2">
+    <row r="212" spans="2:2" ht="12.75">
       <c r="B212" s="24"/>
     </row>
-    <row r="213" spans="2:2" ht="13.2">
+    <row r="213" spans="2:2" ht="12.75">
       <c r="B213" s="24"/>
     </row>
-    <row r="214" spans="2:2" ht="13.2">
+    <row r="214" spans="2:2" ht="12.75">
       <c r="B214" s="24"/>
     </row>
-    <row r="215" spans="2:2" ht="13.2">
+    <row r="215" spans="2:2" ht="12.75">
       <c r="B215" s="24"/>
     </row>
-    <row r="216" spans="2:2" ht="13.2">
+    <row r="216" spans="2:2" ht="12.75">
       <c r="B216" s="24"/>
     </row>
-    <row r="217" spans="2:2" ht="13.2">
+    <row r="217" spans="2:2" ht="12.75">
       <c r="B217" s="24"/>
     </row>
-    <row r="218" spans="2:2" ht="13.2">
+    <row r="218" spans="2:2" ht="12.75">
       <c r="B218" s="24"/>
     </row>
-    <row r="219" spans="2:2" ht="13.2">
+    <row r="219" spans="2:2" ht="12.75">
       <c r="B219" s="24"/>
     </row>
-    <row r="220" spans="2:2" ht="13.2">
+    <row r="220" spans="2:2" ht="12.75">
       <c r="B220" s="24"/>
     </row>
-    <row r="221" spans="2:2" ht="13.2">
+    <row r="221" spans="2:2" ht="12.75">
       <c r="B221" s="24"/>
     </row>
-    <row r="222" spans="2:2" ht="13.2">
+    <row r="222" spans="2:2" ht="12.75">
       <c r="B222" s="24"/>
     </row>
-    <row r="223" spans="2:2" ht="13.2">
+    <row r="223" spans="2:2" ht="12.75">
       <c r="B223" s="24"/>
     </row>
-    <row r="224" spans="2:2" ht="13.2">
+    <row r="224" spans="2:2" ht="12.75">
       <c r="B224" s="24"/>
     </row>
-    <row r="225" spans="2:2" ht="13.2">
+    <row r="225" spans="2:2" ht="12.75">
       <c r="B225" s="24"/>
     </row>
-    <row r="226" spans="2:2" ht="13.2">
+    <row r="226" spans="2:2" ht="12.75">
       <c r="B226" s="24"/>
     </row>
-    <row r="227" spans="2:2" ht="13.2">
+    <row r="227" spans="2:2" ht="12.75">
       <c r="B227" s="24"/>
     </row>
-    <row r="228" spans="2:2" ht="13.2">
+    <row r="228" spans="2:2" ht="12.75">
       <c r="B228" s="24"/>
     </row>
-    <row r="229" spans="2:2" ht="13.2">
+    <row r="229" spans="2:2" ht="12.75">
       <c r="B229" s="24"/>
     </row>
-    <row r="230" spans="2:2" ht="13.2">
+    <row r="230" spans="2:2" ht="12.75">
       <c r="B230" s="24"/>
     </row>
-    <row r="231" spans="2:2" ht="13.2">
+    <row r="231" spans="2:2" ht="12.75">
       <c r="B231" s="24"/>
     </row>
-    <row r="232" spans="2:2" ht="13.2">
+    <row r="232" spans="2:2" ht="12.75">
       <c r="B232" s="24"/>
     </row>
-    <row r="233" spans="2:2" ht="13.2">
+    <row r="233" spans="2:2" ht="12.75">
       <c r="B233" s="24"/>
     </row>
-    <row r="234" spans="2:2" ht="13.2">
+    <row r="234" spans="2:2" ht="12.75">
       <c r="B234" s="24"/>
     </row>
-    <row r="235" spans="2:2" ht="13.2">
+    <row r="235" spans="2:2" ht="12.75">
       <c r="B235" s="24"/>
     </row>
-    <row r="236" spans="2:2" ht="13.2">
+    <row r="236" spans="2:2" ht="12.75">
       <c r="B236" s="24"/>
     </row>
-    <row r="237" spans="2:2" ht="13.2">
+    <row r="237" spans="2:2" ht="12.75">
       <c r="B237" s="24"/>
     </row>
-    <row r="238" spans="2:2" ht="13.2">
+    <row r="238" spans="2:2" ht="12.75">
       <c r="B238" s="24"/>
     </row>
-    <row r="239" spans="2:2" ht="13.2">
+    <row r="239" spans="2:2" ht="12.75">
       <c r="B239" s="24"/>
     </row>
-    <row r="240" spans="2:2" ht="13.2">
+    <row r="240" spans="2:2" ht="12.75">
       <c r="B240" s="24"/>
     </row>
-    <row r="241" spans="2:2" ht="13.2">
+    <row r="241" spans="2:2" ht="12.75">
       <c r="B241" s="24"/>
     </row>
-    <row r="242" spans="2:2" ht="13.2">
+    <row r="242" spans="2:2" ht="12.75">
       <c r="B242" s="24"/>
     </row>
-    <row r="243" spans="2:2" ht="13.2">
+    <row r="243" spans="2:2" ht="12.75">
       <c r="B243" s="24"/>
     </row>
-    <row r="244" spans="2:2" ht="13.2">
+    <row r="244" spans="2:2" ht="12.75">
       <c r="B244" s="24"/>
     </row>
-    <row r="245" spans="2:2" ht="13.2">
+    <row r="245" spans="2:2" ht="12.75">
       <c r="B245" s="24"/>
     </row>
-    <row r="246" spans="2:2" ht="13.2">
+    <row r="246" spans="2:2" ht="12.75">
       <c r="B246" s="24"/>
     </row>
-    <row r="247" spans="2:2" ht="13.2">
+    <row r="247" spans="2:2" ht="12.75">
       <c r="B247" s="24"/>
     </row>
-    <row r="248" spans="2:2" ht="13.2">
+    <row r="248" spans="2:2" ht="12.75">
       <c r="B248" s="24"/>
     </row>
-    <row r="249" spans="2:2" ht="13.2">
+    <row r="249" spans="2:2" ht="12.75">
       <c r="B249" s="24"/>
     </row>
-    <row r="250" spans="2:2" ht="13.2">
+    <row r="250" spans="2:2" ht="12.75">
       <c r="B250" s="24"/>
     </row>
-    <row r="251" spans="2:2" ht="13.2">
+    <row r="251" spans="2:2" ht="12.75">
       <c r="B251" s="24"/>
     </row>
-    <row r="252" spans="2:2" ht="13.2">
+    <row r="252" spans="2:2" ht="12.75">
       <c r="B252" s="24"/>
     </row>
-    <row r="253" spans="2:2" ht="13.2">
+    <row r="253" spans="2:2" ht="12.75">
       <c r="B253" s="24"/>
     </row>
-    <row r="254" spans="2:2" ht="13.2">
+    <row r="254" spans="2:2" ht="12.75">
       <c r="B254" s="24"/>
     </row>
-    <row r="255" spans="2:2" ht="13.2">
+    <row r="255" spans="2:2" ht="12.75">
       <c r="B255" s="24"/>
     </row>
-    <row r="256" spans="2:2" ht="13.2">
+    <row r="256" spans="2:2" ht="12.75">
       <c r="B256" s="24"/>
     </row>
-    <row r="257" spans="2:2" ht="13.2">
+    <row r="257" spans="2:2" ht="12.75">
       <c r="B257" s="24"/>
     </row>
-    <row r="258" spans="2:2" ht="13.2">
+    <row r="258" spans="2:2" ht="12.75">
       <c r="B258" s="24"/>
     </row>
-    <row r="259" spans="2:2" ht="13.2">
+    <row r="259" spans="2:2" ht="12.75">
       <c r="B259" s="24"/>
     </row>
-    <row r="260" spans="2:2" ht="13.2">
+    <row r="260" spans="2:2" ht="12.75">
       <c r="B260" s="24"/>
     </row>
-    <row r="261" spans="2:2" ht="13.2">
+    <row r="261" spans="2:2" ht="12.75">
       <c r="B261" s="24"/>
     </row>
-    <row r="262" spans="2:2" ht="13.2">
+    <row r="262" spans="2:2" ht="12.75">
       <c r="B262" s="24"/>
     </row>
-    <row r="263" spans="2:2" ht="13.2">
+    <row r="263" spans="2:2" ht="12.75">
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="2:2" ht="13.2">
+    <row r="264" spans="2:2" ht="12.75">
       <c r="B264" s="24"/>
     </row>
-    <row r="265" spans="2:2" ht="13.2">
+    <row r="265" spans="2:2" ht="12.75">
       <c r="B265" s="24"/>
     </row>
-    <row r="266" spans="2:2" ht="13.2">
+    <row r="266" spans="2:2" ht="12.75">
       <c r="B266" s="24"/>
     </row>
-    <row r="267" spans="2:2" ht="13.2">
+    <row r="267" spans="2:2" ht="12.75">
       <c r="B267" s="24"/>
     </row>
-    <row r="268" spans="2:2" ht="13.2">
+    <row r="268" spans="2:2" ht="12.75">
       <c r="B268" s="24"/>
     </row>
-    <row r="269" spans="2:2" ht="13.2">
+    <row r="269" spans="2:2" ht="12.75">
       <c r="B269" s="24"/>
     </row>
-    <row r="270" spans="2:2" ht="13.2">
+    <row r="270" spans="2:2" ht="12.75">
       <c r="B270" s="24"/>
     </row>
-    <row r="271" spans="2:2" ht="13.2">
+    <row r="271" spans="2:2" ht="12.75">
       <c r="B271" s="24"/>
     </row>
-    <row r="272" spans="2:2" ht="13.2">
+    <row r="272" spans="2:2" ht="12.75">
       <c r="B272" s="24"/>
     </row>
-    <row r="273" spans="2:2" ht="13.2">
+    <row r="273" spans="2:2" ht="12.75">
       <c r="B273" s="24"/>
     </row>
-    <row r="274" spans="2:2" ht="13.2">
+    <row r="274" spans="2:2" ht="12.75">
       <c r="B274" s="24"/>
     </row>
-    <row r="275" spans="2:2" ht="13.2">
+    <row r="275" spans="2:2" ht="12.75">
       <c r="B275" s="24"/>
     </row>
-    <row r="276" spans="2:2" ht="13.2">
+    <row r="276" spans="2:2" ht="12.75">
       <c r="B276" s="24"/>
     </row>
-    <row r="277" spans="2:2" ht="13.2">
+    <row r="277" spans="2:2" ht="12.75">
       <c r="B277" s="24"/>
     </row>
-    <row r="278" spans="2:2" ht="13.2">
+    <row r="278" spans="2:2" ht="12.75">
       <c r="B278" s="24"/>
     </row>
-    <row r="279" spans="2:2" ht="13.2">
+    <row r="279" spans="2:2" ht="12.75">
       <c r="B279" s="24"/>
     </row>
-    <row r="280" spans="2:2" ht="13.2">
+    <row r="280" spans="2:2" ht="12.75">
       <c r="B280" s="24"/>
     </row>
-    <row r="281" spans="2:2" ht="13.2">
+    <row r="281" spans="2:2" ht="12.75">
       <c r="B281" s="24"/>
     </row>
-    <row r="282" spans="2:2" ht="13.2">
+    <row r="282" spans="2:2" ht="12.75">
       <c r="B282" s="24"/>
     </row>
-    <row r="283" spans="2:2" ht="13.2">
+    <row r="283" spans="2:2" ht="12.75">
       <c r="B283" s="24"/>
     </row>
-    <row r="284" spans="2:2" ht="13.2">
+    <row r="284" spans="2:2" ht="12.75">
       <c r="B284" s="24"/>
     </row>
-    <row r="285" spans="2:2" ht="13.2">
+    <row r="285" spans="2:2" ht="12.75">
       <c r="B285" s="24"/>
     </row>
-    <row r="286" spans="2:2" ht="13.2">
+    <row r="286" spans="2:2" ht="12.75">
       <c r="B286" s="24"/>
     </row>
-    <row r="287" spans="2:2" ht="13.2">
+    <row r="287" spans="2:2" ht="12.75">
       <c r="B287" s="24"/>
     </row>
-    <row r="288" spans="2:2" ht="13.2">
+    <row r="288" spans="2:2" ht="12.75">
       <c r="B288" s="24"/>
     </row>
-    <row r="289" spans="2:2" ht="13.2">
+    <row r="289" spans="2:2" ht="12.75">
       <c r="B289" s="24"/>
     </row>
-    <row r="290" spans="2:2" ht="13.2">
+    <row r="290" spans="2:2" ht="12.75">
       <c r="B290" s="24"/>
     </row>
-    <row r="291" spans="2:2" ht="13.2">
+    <row r="291" spans="2:2" ht="12.75">
       <c r="B291" s="24"/>
     </row>
-    <row r="292" spans="2:2" ht="13.2">
+    <row r="292" spans="2:2" ht="12.75">
       <c r="B292" s="24"/>
     </row>
-    <row r="293" spans="2:2" ht="13.2">
+    <row r="293" spans="2:2" ht="12.75">
       <c r="B293" s="24"/>
     </row>
-    <row r="294" spans="2:2" ht="13.2">
+    <row r="294" spans="2:2" ht="12.75">
       <c r="B294" s="24"/>
     </row>
-    <row r="295" spans="2:2" ht="13.2">
+    <row r="295" spans="2:2" ht="12.75">
       <c r="B295" s="24"/>
     </row>
-    <row r="296" spans="2:2" ht="13.2">
+    <row r="296" spans="2:2" ht="12.75">
       <c r="B296" s="24"/>
     </row>
-    <row r="297" spans="2:2" ht="13.2">
+    <row r="297" spans="2:2" ht="12.75">
       <c r="B297" s="24"/>
     </row>
-    <row r="298" spans="2:2" ht="13.2">
+    <row r="298" spans="2:2" ht="12.75">
       <c r="B298" s="24"/>
     </row>
-    <row r="299" spans="2:2" ht="13.2">
+    <row r="299" spans="2:2" ht="12.75">
       <c r="B299" s="24"/>
     </row>
-    <row r="300" spans="2:2" ht="13.2">
+    <row r="300" spans="2:2" ht="12.75">
       <c r="B300" s="24"/>
     </row>
-    <row r="301" spans="2:2" ht="13.2">
+    <row r="301" spans="2:2" ht="12.75">
       <c r="B301" s="24"/>
     </row>
-    <row r="302" spans="2:2" ht="13.2">
+    <row r="302" spans="2:2" ht="12.75">
       <c r="B302" s="24"/>
     </row>
-    <row r="303" spans="2:2" ht="13.2">
+    <row r="303" spans="2:2" ht="12.75">
       <c r="B303" s="24"/>
     </row>
-    <row r="304" spans="2:2" ht="13.2">
+    <row r="304" spans="2:2" ht="12.75">
       <c r="B304" s="24"/>
     </row>
-    <row r="305" spans="2:2" ht="13.2">
+    <row r="305" spans="2:2" ht="12.75">
       <c r="B305" s="24"/>
     </row>
-    <row r="306" spans="2:2" ht="13.2">
+    <row r="306" spans="2:2" ht="12.75">
       <c r="B306" s="24"/>
     </row>
-    <row r="307" spans="2:2" ht="13.2">
+    <row r="307" spans="2:2" ht="12.75">
       <c r="B307" s="24"/>
     </row>
-    <row r="308" spans="2:2" ht="13.2">
+    <row r="308" spans="2:2" ht="12.75">
       <c r="B308" s="24"/>
     </row>
-    <row r="309" spans="2:2" ht="13.2">
+    <row r="309" spans="2:2" ht="12.75">
       <c r="B309" s="24"/>
     </row>
-    <row r="310" spans="2:2" ht="13.2">
+    <row r="310" spans="2:2" ht="12.75">
       <c r="B310" s="24"/>
     </row>
-    <row r="311" spans="2:2" ht="13.2">
+    <row r="311" spans="2:2" ht="12.75">
       <c r="B311" s="24"/>
     </row>
-    <row r="312" spans="2:2" ht="13.2">
+    <row r="312" spans="2:2" ht="12.75">
       <c r="B312" s="24"/>
     </row>
-    <row r="313" spans="2:2" ht="13.2">
+    <row r="313" spans="2:2" ht="12.75">
       <c r="B313" s="24"/>
     </row>
-    <row r="314" spans="2:2" ht="13.2">
+    <row r="314" spans="2:2" ht="12.75">
       <c r="B314" s="24"/>
     </row>
-    <row r="315" spans="2:2" ht="13.2">
+    <row r="315" spans="2:2" ht="12.75">
       <c r="B315" s="24"/>
     </row>
-    <row r="316" spans="2:2" ht="13.2">
+    <row r="316" spans="2:2" ht="12.75">
       <c r="B316" s="24"/>
     </row>
-    <row r="317" spans="2:2" ht="13.2">
+    <row r="317" spans="2:2" ht="12.75">
       <c r="B317" s="24"/>
     </row>
-    <row r="318" spans="2:2" ht="13.2">
+    <row r="318" spans="2:2" ht="12.75">
       <c r="B318" s="24"/>
     </row>
-    <row r="319" spans="2:2" ht="13.2">
+    <row r="319" spans="2:2" ht="12.75">
       <c r="B319" s="24"/>
     </row>
-    <row r="320" spans="2:2" ht="13.2">
+    <row r="320" spans="2:2" ht="12.75">
       <c r="B320" s="24"/>
     </row>
-    <row r="321" spans="2:2" ht="13.2">
+    <row r="321" spans="2:2" ht="12.75">
       <c r="B321" s="24"/>
     </row>
-    <row r="322" spans="2:2" ht="13.2">
+    <row r="322" spans="2:2" ht="12.75">
       <c r="B322" s="24"/>
     </row>
-    <row r="323" spans="2:2" ht="13.2">
+    <row r="323" spans="2:2" ht="12.75">
       <c r="B323" s="24"/>
     </row>
-    <row r="324" spans="2:2" ht="13.2">
+    <row r="324" spans="2:2" ht="12.75">
       <c r="B324" s="24"/>
     </row>
-    <row r="325" spans="2:2" ht="13.2">
+    <row r="325" spans="2:2" ht="12.75">
       <c r="B325" s="24"/>
     </row>
-    <row r="326" spans="2:2" ht="13.2">
+    <row r="326" spans="2:2" ht="12.75">
       <c r="B326" s="24"/>
     </row>
-    <row r="327" spans="2:2" ht="13.2">
+    <row r="327" spans="2:2" ht="12.75">
       <c r="B327" s="24"/>
     </row>
-    <row r="328" spans="2:2" ht="13.2">
+    <row r="328" spans="2:2" ht="12.75">
       <c r="B328" s="24"/>
     </row>
-    <row r="329" spans="2:2" ht="13.2">
+    <row r="329" spans="2:2" ht="12.75">
       <c r="B329" s="24"/>
     </row>
-    <row r="330" spans="2:2" ht="13.2">
+    <row r="330" spans="2:2" ht="12.75">
       <c r="B330" s="24"/>
     </row>
-    <row r="331" spans="2:2" ht="13.2">
+    <row r="331" spans="2:2" ht="12.75">
       <c r="B331" s="24"/>
     </row>
-    <row r="332" spans="2:2" ht="13.2">
+    <row r="332" spans="2:2" ht="12.75">
       <c r="B332" s="24"/>
     </row>
-    <row r="333" spans="2:2" ht="13.2">
+    <row r="333" spans="2:2" ht="12.75">
       <c r="B333" s="24"/>
     </row>
-    <row r="334" spans="2:2" ht="13.2">
+    <row r="334" spans="2:2" ht="12.75">
       <c r="B334" s="24"/>
     </row>
-    <row r="335" spans="2:2" ht="13.2">
+    <row r="335" spans="2:2" ht="12.75">
       <c r="B335" s="24"/>
     </row>
-    <row r="336" spans="2:2" ht="13.2">
+    <row r="336" spans="2:2" ht="12.75">
       <c r="B336" s="24"/>
     </row>
-    <row r="337" spans="2:2" ht="13.2">
+    <row r="337" spans="2:2" ht="12.75">
       <c r="B337" s="24"/>
     </row>
-    <row r="338" spans="2:2" ht="13.2">
+    <row r="338" spans="2:2" ht="12.75">
       <c r="B338" s="24"/>
     </row>
-    <row r="339" spans="2:2" ht="13.2">
+    <row r="339" spans="2:2" ht="12.75">
       <c r="B339" s="24"/>
     </row>
-    <row r="340" spans="2:2" ht="13.2">
+    <row r="340" spans="2:2" ht="12.75">
       <c r="B340" s="24"/>
     </row>
-    <row r="341" spans="2:2" ht="13.2">
+    <row r="341" spans="2:2" ht="12.75">
       <c r="B341" s="24"/>
     </row>
-    <row r="342" spans="2:2" ht="13.2">
+    <row r="342" spans="2:2" ht="12.75">
       <c r="B342" s="24"/>
     </row>
-    <row r="343" spans="2:2" ht="13.2">
+    <row r="343" spans="2:2" ht="12.75">
       <c r="B343" s="24"/>
     </row>
-    <row r="344" spans="2:2" ht="13.2">
+    <row r="344" spans="2:2" ht="12.75">
       <c r="B344" s="24"/>
     </row>
-    <row r="345" spans="2:2" ht="13.2">
+    <row r="345" spans="2:2" ht="12.75">
       <c r="B345" s="24"/>
     </row>
-    <row r="346" spans="2:2" ht="13.2">
+    <row r="346" spans="2:2" ht="12.75">
       <c r="B346" s="24"/>
     </row>
-    <row r="347" spans="2:2" ht="13.2">
+    <row r="347" spans="2:2" ht="12.75">
       <c r="B347" s="24"/>
     </row>
-    <row r="348" spans="2:2" ht="13.2">
+    <row r="348" spans="2:2" ht="12.75">
       <c r="B348" s="24"/>
     </row>
-    <row r="349" spans="2:2" ht="13.2">
+    <row r="349" spans="2:2" ht="12.75">
       <c r="B349" s="24"/>
     </row>
-    <row r="350" spans="2:2" ht="13.2">
+    <row r="350" spans="2:2" ht="12.75">
       <c r="B350" s="24"/>
     </row>
-    <row r="351" spans="2:2" ht="13.2">
+    <row r="351" spans="2:2" ht="12.75">
       <c r="B351" s="24"/>
     </row>
-    <row r="352" spans="2:2" ht="13.2">
+    <row r="352" spans="2:2" ht="12.75">
       <c r="B352" s="24"/>
     </row>
-    <row r="353" spans="2:2" ht="13.2">
+    <row r="353" spans="2:2" ht="12.75">
       <c r="B353" s="24"/>
     </row>
-    <row r="354" spans="2:2" ht="13.2">
+    <row r="354" spans="2:2" ht="12.75">
       <c r="B354" s="24"/>
     </row>
-    <row r="355" spans="2:2" ht="13.2">
+    <row r="355" spans="2:2" ht="12.75">
       <c r="B355" s="24"/>
     </row>
-    <row r="356" spans="2:2" ht="13.2">
+    <row r="356" spans="2:2" ht="12.75">
       <c r="B356" s="24"/>
     </row>
-    <row r="357" spans="2:2" ht="13.2">
+    <row r="357" spans="2:2" ht="12.75">
       <c r="B357" s="24"/>
     </row>
-    <row r="358" spans="2:2" ht="13.2">
+    <row r="358" spans="2:2" ht="12.75">
       <c r="B358" s="24"/>
     </row>
-    <row r="359" spans="2:2" ht="13.2">
+    <row r="359" spans="2:2" ht="12.75">
       <c r="B359" s="24"/>
     </row>
-    <row r="360" spans="2:2" ht="13.2">
+    <row r="360" spans="2:2" ht="12.75">
       <c r="B360" s="24"/>
     </row>
-    <row r="361" spans="2:2" ht="13.2">
+    <row r="361" spans="2:2" ht="12.75">
       <c r="B361" s="24"/>
     </row>
-    <row r="362" spans="2:2" ht="13.2">
+    <row r="362" spans="2:2" ht="12.75">
       <c r="B362" s="24"/>
     </row>
-    <row r="363" spans="2:2" ht="13.2">
+    <row r="363" spans="2:2" ht="12.75">
       <c r="B363" s="24"/>
     </row>
-    <row r="364" spans="2:2" ht="13.2">
+    <row r="364" spans="2:2" ht="12.75">
       <c r="B364" s="24"/>
     </row>
-    <row r="365" spans="2:2" ht="13.2">
+    <row r="365" spans="2:2" ht="12.75">
       <c r="B365" s="24"/>
     </row>
-    <row r="366" spans="2:2" ht="13.2">
+    <row r="366" spans="2:2" ht="12.75">
       <c r="B366" s="24"/>
     </row>
-    <row r="367" spans="2:2" ht="13.2">
+    <row r="367" spans="2:2" ht="12.75">
       <c r="B367" s="24"/>
     </row>
-    <row r="368" spans="2:2" ht="13.2">
+    <row r="368" spans="2:2" ht="12.75">
       <c r="B368" s="24"/>
     </row>
-    <row r="369" spans="2:2" ht="13.2">
+    <row r="369" spans="2:2" ht="12.75">
       <c r="B369" s="24"/>
     </row>
-    <row r="370" spans="2:2" ht="13.2">
+    <row r="370" spans="2:2" ht="12.75">
       <c r="B370" s="24"/>
     </row>
-    <row r="371" spans="2:2" ht="13.2">
+    <row r="371" spans="2:2" ht="12.75">
       <c r="B371" s="24"/>
     </row>
-    <row r="372" spans="2:2" ht="13.2">
+    <row r="372" spans="2:2" ht="12.75">
       <c r="B372" s="24"/>
     </row>
-    <row r="373" spans="2:2" ht="13.2">
+    <row r="373" spans="2:2" ht="12.75">
       <c r="B373" s="24"/>
     </row>
-    <row r="374" spans="2:2" ht="13.2">
+    <row r="374" spans="2:2" ht="12.75">
       <c r="B374" s="24"/>
     </row>
-    <row r="375" spans="2:2" ht="13.2">
+    <row r="375" spans="2:2" ht="12.75">
       <c r="B375" s="24"/>
     </row>
-    <row r="376" spans="2:2" ht="13.2">
+    <row r="376" spans="2:2" ht="12.75">
       <c r="B376" s="24"/>
     </row>
-    <row r="377" spans="2:2" ht="13.2">
+    <row r="377" spans="2:2" ht="12.75">
       <c r="B377" s="24"/>
     </row>
-    <row r="378" spans="2:2" ht="13.2">
+    <row r="378" spans="2:2" ht="12.75">
       <c r="B378" s="24"/>
     </row>
-    <row r="379" spans="2:2" ht="13.2">
+    <row r="379" spans="2:2" ht="12.75">
       <c r="B379" s="24"/>
     </row>
-    <row r="380" spans="2:2" ht="13.2">
+    <row r="380" spans="2:2" ht="12.75">
       <c r="B380" s="24"/>
     </row>
-    <row r="381" spans="2:2" ht="13.2">
+    <row r="381" spans="2:2" ht="12.75">
       <c r="B381" s="24"/>
     </row>
-    <row r="382" spans="2:2" ht="13.2">
+    <row r="382" spans="2:2" ht="12.75">
       <c r="B382" s="24"/>
     </row>
-    <row r="383" spans="2:2" ht="13.2">
+    <row r="383" spans="2:2" ht="12.75">
       <c r="B383" s="24"/>
     </row>
-    <row r="384" spans="2:2" ht="13.2">
+    <row r="384" spans="2:2" ht="12.75">
       <c r="B384" s="24"/>
     </row>
-    <row r="385" spans="2:2" ht="13.2">
+    <row r="385" spans="2:2" ht="12.75">
       <c r="B385" s="24"/>
     </row>
-    <row r="386" spans="2:2" ht="13.2">
+    <row r="386" spans="2:2" ht="12.75">
       <c r="B386" s="24"/>
     </row>
-    <row r="387" spans="2:2" ht="13.2">
+    <row r="387" spans="2:2" ht="12.75">
       <c r="B387" s="24"/>
     </row>
-    <row r="388" spans="2:2" ht="13.2">
+    <row r="388" spans="2:2" ht="12.75">
       <c r="B388" s="24"/>
     </row>
-    <row r="389" spans="2:2" ht="13.2">
+    <row r="389" spans="2:2" ht="12.75">
       <c r="B389" s="24"/>
     </row>
-    <row r="390" spans="2:2" ht="13.2">
+    <row r="390" spans="2:2" ht="12.75">
       <c r="B390" s="24"/>
     </row>
-    <row r="391" spans="2:2" ht="13.2">
+    <row r="391" spans="2:2" ht="12.75">
       <c r="B391" s="24"/>
     </row>
-    <row r="392" spans="2:2" ht="13.2">
+    <row r="392" spans="2:2" ht="12.75">
       <c r="B392" s="24"/>
     </row>
-    <row r="393" spans="2:2" ht="13.2">
+    <row r="393" spans="2:2" ht="12.75">
       <c r="B393" s="24"/>
     </row>
-    <row r="394" spans="2:2" ht="13.2">
+    <row r="394" spans="2:2" ht="12.75">
       <c r="B394" s="24"/>
     </row>
-    <row r="395" spans="2:2" ht="13.2">
+    <row r="395" spans="2:2" ht="12.75">
       <c r="B395" s="24"/>
     </row>
-    <row r="396" spans="2:2" ht="13.2">
+    <row r="396" spans="2:2" ht="12.75">
       <c r="B396" s="24"/>
     </row>
-    <row r="397" spans="2:2" ht="13.2">
+    <row r="397" spans="2:2" ht="12.75">
       <c r="B397" s="24"/>
     </row>
-    <row r="398" spans="2:2" ht="13.2">
+    <row r="398" spans="2:2" ht="12.75">
       <c r="B398" s="24"/>
     </row>
-    <row r="399" spans="2:2" ht="13.2">
+    <row r="399" spans="2:2" ht="12.75">
       <c r="B399" s="24"/>
     </row>
-    <row r="400" spans="2:2" ht="13.2">
+    <row r="400" spans="2:2" ht="12.75">
       <c r="B400" s="24"/>
     </row>
-    <row r="401" spans="2:2" ht="13.2">
+    <row r="401" spans="2:2" ht="12.75">
       <c r="B401" s="24"/>
     </row>
-    <row r="402" spans="2:2" ht="13.2">
+    <row r="402" spans="2:2" ht="12.75">
       <c r="B402" s="24"/>
     </row>
-    <row r="403" spans="2:2" ht="13.2">
+    <row r="403" spans="2:2" ht="12.75">
       <c r="B403" s="24"/>
     </row>
-    <row r="404" spans="2:2" ht="13.2">
+    <row r="404" spans="2:2" ht="12.75">
       <c r="B404" s="24"/>
     </row>
-    <row r="405" spans="2:2" ht="13.2">
+    <row r="405" spans="2:2" ht="12.75">
       <c r="B405" s="24"/>
     </row>
-    <row r="406" spans="2:2" ht="13.2">
+    <row r="406" spans="2:2" ht="12.75">
       <c r="B406" s="24"/>
     </row>
-    <row r="407" spans="2:2" ht="13.2">
+    <row r="407" spans="2:2" ht="12.75">
       <c r="B407" s="24"/>
     </row>
-    <row r="408" spans="2:2" ht="13.2">
+    <row r="408" spans="2:2" ht="12.75">
       <c r="B408" s="24"/>
     </row>
-    <row r="409" spans="2:2" ht="13.2">
+    <row r="409" spans="2:2" ht="12.75">
       <c r="B409" s="24"/>
     </row>
-    <row r="410" spans="2:2" ht="13.2">
+    <row r="410" spans="2:2" ht="12.75">
       <c r="B410" s="24"/>
     </row>
-    <row r="411" spans="2:2" ht="13.2">
+    <row r="411" spans="2:2" ht="12.75">
       <c r="B411" s="24"/>
     </row>
-    <row r="412" spans="2:2" ht="13.2">
+    <row r="412" spans="2:2" ht="12.75">
       <c r="B412" s="24"/>
     </row>
-    <row r="413" spans="2:2" ht="13.2">
+    <row r="413" spans="2:2" ht="12.75">
       <c r="B413" s="24"/>
     </row>
-    <row r="414" spans="2:2" ht="13.2">
+    <row r="414" spans="2:2" ht="12.75">
       <c r="B414" s="24"/>
     </row>
-    <row r="415" spans="2:2" ht="13.2">
+    <row r="415" spans="2:2" ht="12.75">
       <c r="B415" s="24"/>
     </row>
-    <row r="416" spans="2:2" ht="13.2">
+    <row r="416" spans="2:2" ht="12.75">
       <c r="B416" s="24"/>
     </row>
-    <row r="417" spans="2:2" ht="13.2">
+    <row r="417" spans="2:2" ht="12.75">
       <c r="B417" s="24"/>
     </row>
-    <row r="418" spans="2:2" ht="13.2">
+    <row r="418" spans="2:2" ht="12.75">
       <c r="B418" s="24"/>
     </row>
-    <row r="419" spans="2:2" ht="13.2">
+    <row r="419" spans="2:2" ht="12.75">
       <c r="B419" s="24"/>
     </row>
-    <row r="420" spans="2:2" ht="13.2">
+    <row r="420" spans="2:2" ht="12.75">
       <c r="B420" s="24"/>
     </row>
-    <row r="421" spans="2:2" ht="13.2">
+    <row r="421" spans="2:2" ht="12.75">
       <c r="B421" s="24"/>
     </row>
-    <row r="422" spans="2:2" ht="13.2">
+    <row r="422" spans="2:2" ht="12.75">
       <c r="B422" s="24"/>
     </row>
-    <row r="423" spans="2:2" ht="13.2">
+    <row r="423" spans="2:2" ht="12.75">
       <c r="B423" s="24"/>
     </row>
-    <row r="424" spans="2:2" ht="13.2">
+    <row r="424" spans="2:2" ht="12.75">
       <c r="B424" s="24"/>
     </row>
-    <row r="425" spans="2:2" ht="13.2">
+    <row r="425" spans="2:2" ht="12.75">
       <c r="B425" s="24"/>
     </row>
-    <row r="426" spans="2:2" ht="13.2">
+    <row r="426" spans="2:2" ht="12.75">
       <c r="B426" s="24"/>
     </row>
-    <row r="427" spans="2:2" ht="13.2">
+    <row r="427" spans="2:2" ht="12.75">
       <c r="B427" s="24"/>
     </row>
-    <row r="428" spans="2:2" ht="13.2">
+    <row r="428" spans="2:2" ht="12.75">
       <c r="B428" s="24"/>
     </row>
-    <row r="429" spans="2:2" ht="13.2">
+    <row r="429" spans="2:2" ht="12.75">
       <c r="B429" s="24"/>
     </row>
-    <row r="430" spans="2:2" ht="13.2">
+    <row r="430" spans="2:2" ht="12.75">
       <c r="B430" s="24"/>
     </row>
-    <row r="431" spans="2:2" ht="13.2">
+    <row r="431" spans="2:2" ht="12.75">
       <c r="B431" s="24"/>
     </row>
-    <row r="432" spans="2:2" ht="13.2">
+    <row r="432" spans="2:2" ht="12.75">
       <c r="B432" s="24"/>
     </row>
-    <row r="433" spans="2:2" ht="13.2">
+    <row r="433" spans="2:2" ht="12.75">
       <c r="B433" s="24"/>
     </row>
-    <row r="434" spans="2:2" ht="13.2">
+    <row r="434" spans="2:2" ht="12.75">
       <c r="B434" s="24"/>
     </row>
-    <row r="435" spans="2:2" ht="13.2">
+    <row r="435" spans="2:2" ht="12.75">
       <c r="B435" s="24"/>
     </row>
-    <row r="436" spans="2:2" ht="13.2">
+    <row r="436" spans="2:2" ht="12.75">
       <c r="B436" s="24"/>
     </row>
-    <row r="437" spans="2:2" ht="13.2">
+    <row r="437" spans="2:2" ht="12.75">
       <c r="B437" s="24"/>
     </row>
-    <row r="438" spans="2:2" ht="13.2">
+    <row r="438" spans="2:2" ht="12.75">
       <c r="B438" s="24"/>
     </row>
-    <row r="439" spans="2:2" ht="13.2">
+    <row r="439" spans="2:2" ht="12.75">
       <c r="B439" s="24"/>
     </row>
-    <row r="440" spans="2:2" ht="13.2">
+    <row r="440" spans="2:2" ht="12.75">
       <c r="B440" s="24"/>
     </row>
-    <row r="441" spans="2:2" ht="13.2">
+    <row r="441" spans="2:2" ht="12.75">
       <c r="B441" s="24"/>
     </row>
-    <row r="442" spans="2:2" ht="13.2">
+    <row r="442" spans="2:2" ht="12.75">
       <c r="B442" s="24"/>
     </row>
-    <row r="443" spans="2:2" ht="13.2">
+    <row r="443" spans="2:2" ht="12.75">
       <c r="B443" s="24"/>
     </row>
-    <row r="444" spans="2:2" ht="13.2">
+    <row r="444" spans="2:2" ht="12.75">
       <c r="B444" s="24"/>
     </row>
-    <row r="445" spans="2:2" ht="13.2">
+    <row r="445" spans="2:2" ht="12.75">
       <c r="B445" s="24"/>
     </row>
-    <row r="446" spans="2:2" ht="13.2">
+    <row r="446" spans="2:2" ht="12.75">
       <c r="B446" s="24"/>
     </row>
-    <row r="447" spans="2:2" ht="13.2">
+    <row r="447" spans="2:2" ht="12.75">
       <c r="B447" s="24"/>
     </row>
-    <row r="448" spans="2:2" ht="13.2">
+    <row r="448" spans="2:2" ht="12.75">
       <c r="B448" s="24"/>
     </row>
-    <row r="449" spans="2:2" ht="13.2">
+    <row r="449" spans="2:2" ht="12.75">
       <c r="B449" s="24"/>
     </row>
-    <row r="450" spans="2:2" ht="13.2">
+    <row r="450" spans="2:2" ht="12.75">
       <c r="B450" s="24"/>
     </row>
-    <row r="451" spans="2:2" ht="13.2">
+    <row r="451" spans="2:2" ht="12.75">
       <c r="B451" s="24"/>
     </row>
-    <row r="452" spans="2:2" ht="13.2">
+    <row r="452" spans="2:2" ht="12.75">
       <c r="B452" s="24"/>
     </row>
-    <row r="453" spans="2:2" ht="13.2">
+    <row r="453" spans="2:2" ht="12.75">
       <c r="B453" s="24"/>
     </row>
-    <row r="454" spans="2:2" ht="13.2">
+    <row r="454" spans="2:2" ht="12.75">
       <c r="B454" s="24"/>
     </row>
-    <row r="455" spans="2:2" ht="13.2">
+    <row r="455" spans="2:2" ht="12.75">
       <c r="B455" s="24"/>
     </row>
-    <row r="456" spans="2:2" ht="13.2">
+    <row r="456" spans="2:2" ht="12.75">
       <c r="B456" s="24"/>
     </row>
-    <row r="457" spans="2:2" ht="13.2">
+    <row r="457" spans="2:2" ht="12.75">
       <c r="B457" s="24"/>
     </row>
-    <row r="458" spans="2:2" ht="13.2">
+    <row r="458" spans="2:2" ht="12.75">
       <c r="B458" s="24"/>
     </row>
-    <row r="459" spans="2:2" ht="13.2">
+    <row r="459" spans="2:2" ht="12.75">
       <c r="B459" s="24"/>
     </row>
-    <row r="460" spans="2:2" ht="13.2">
+    <row r="460" spans="2:2" ht="12.75">
       <c r="B460" s="24"/>
     </row>
-    <row r="461" spans="2:2" ht="13.2">
+    <row r="461" spans="2:2" ht="12.75">
       <c r="B461" s="24"/>
     </row>
-    <row r="462" spans="2:2" ht="13.2">
+    <row r="462" spans="2:2" ht="12.75">
       <c r="B462" s="24"/>
     </row>
-    <row r="463" spans="2:2" ht="13.2">
+    <row r="463" spans="2:2" ht="12.75">
       <c r="B463" s="24"/>
     </row>
-    <row r="464" spans="2:2" ht="13.2">
+    <row r="464" spans="2:2" ht="12.75">
       <c r="B464" s="24"/>
     </row>
-    <row r="465" spans="2:2" ht="13.2">
+    <row r="465" spans="2:2" ht="12.75">
       <c r="B465" s="24"/>
     </row>
-    <row r="466" spans="2:2" ht="13.2">
+    <row r="466" spans="2:2" ht="12.75">
       <c r="B466" s="24"/>
     </row>
-    <row r="467" spans="2:2" ht="13.2">
+    <row r="467" spans="2:2" ht="12.75">
       <c r="B467" s="24"/>
     </row>
-    <row r="468" spans="2:2" ht="13.2">
+    <row r="468" spans="2:2" ht="12.75">
       <c r="B468" s="24"/>
     </row>
-    <row r="469" spans="2:2" ht="13.2">
+    <row r="469" spans="2:2" ht="12.75">
       <c r="B469" s="24"/>
     </row>
-    <row r="470" spans="2:2" ht="13.2">
+    <row r="470" spans="2:2" ht="12.75">
       <c r="B470" s="24"/>
     </row>
-    <row r="471" spans="2:2" ht="13.2">
+    <row r="471" spans="2:2" ht="12.75">
       <c r="B471" s="24"/>
     </row>
-    <row r="472" spans="2:2" ht="13.2">
+    <row r="472" spans="2:2" ht="12.75">
       <c r="B472" s="24"/>
     </row>
-    <row r="473" spans="2:2" ht="13.2">
+    <row r="473" spans="2:2" ht="12.75">
       <c r="B473" s="24"/>
     </row>
-    <row r="474" spans="2:2" ht="13.2">
+    <row r="474" spans="2:2" ht="12.75">
       <c r="B474" s="24"/>
     </row>
-    <row r="475" spans="2:2" ht="13.2">
+    <row r="475" spans="2:2" ht="12.75">
       <c r="B475" s="24"/>
     </row>
-    <row r="476" spans="2:2" ht="13.2">
+    <row r="476" spans="2:2" ht="12.75">
       <c r="B476" s="24"/>
     </row>
-    <row r="477" spans="2:2" ht="13.2">
+    <row r="477" spans="2:2" ht="12.75">
       <c r="B477" s="24"/>
     </row>
-    <row r="478" spans="2:2" ht="13.2">
+    <row r="478" spans="2:2" ht="12.75">
       <c r="B478" s="24"/>
     </row>
-    <row r="479" spans="2:2" ht="13.2">
+    <row r="479" spans="2:2" ht="12.75">
       <c r="B479" s="24"/>
     </row>
-    <row r="480" spans="2:2" ht="13.2">
+    <row r="480" spans="2:2" ht="12.75">
       <c r="B480" s="24"/>
     </row>
-    <row r="481" spans="2:2" ht="13.2">
+    <row r="481" spans="2:2" ht="12.75">
       <c r="B481" s="24"/>
     </row>
-    <row r="482" spans="2:2" ht="13.2">
+    <row r="482" spans="2:2" ht="12.75">
       <c r="B482" s="24"/>
     </row>
-    <row r="483" spans="2:2" ht="13.2">
+    <row r="483" spans="2:2" ht="12.75">
       <c r="B483" s="24"/>
     </row>
-    <row r="484" spans="2:2" ht="13.2">
+    <row r="484" spans="2:2" ht="12.75">
       <c r="B484" s="24"/>
     </row>
-    <row r="485" spans="2:2" ht="13.2">
+    <row r="485" spans="2:2" ht="12.75">
       <c r="B485" s="24"/>
     </row>
-    <row r="486" spans="2:2" ht="13.2">
+    <row r="486" spans="2:2" ht="12.75">
       <c r="B486" s="24"/>
     </row>
-    <row r="487" spans="2:2" ht="13.2">
+    <row r="487" spans="2:2" ht="12.75">
       <c r="B487" s="24"/>
     </row>
-    <row r="488" spans="2:2" ht="13.2">
+    <row r="488" spans="2:2" ht="12.75">
       <c r="B488" s="24"/>
     </row>
-    <row r="489" spans="2:2" ht="13.2">
+    <row r="489" spans="2:2" ht="12.75">
       <c r="B489" s="24"/>
     </row>
-    <row r="490" spans="2:2" ht="13.2">
+    <row r="490" spans="2:2" ht="12.75">
       <c r="B490" s="24"/>
     </row>
-    <row r="491" spans="2:2" ht="13.2">
+    <row r="491" spans="2:2" ht="12.75">
       <c r="B491" s="24"/>
     </row>
-    <row r="492" spans="2:2" ht="13.2">
+    <row r="492" spans="2:2" ht="12.75">
       <c r="B492" s="24"/>
     </row>
-    <row r="493" spans="2:2" ht="13.2">
+    <row r="493" spans="2:2" ht="12.75">
       <c r="B493" s="24"/>
     </row>
-    <row r="494" spans="2:2" ht="13.2">
+    <row r="494" spans="2:2" ht="12.75">
       <c r="B494" s="24"/>
     </row>
-    <row r="495" spans="2:2" ht="13.2">
+    <row r="495" spans="2:2" ht="12.75">
       <c r="B495" s="24"/>
     </row>
-    <row r="496" spans="2:2" ht="13.2">
+    <row r="496" spans="2:2" ht="12.75">
       <c r="B496" s="24"/>
     </row>
-    <row r="497" spans="2:2" ht="13.2">
+    <row r="497" spans="2:2" ht="12.75">
       <c r="B497" s="24"/>
     </row>
-    <row r="498" spans="2:2" ht="13.2">
+    <row r="498" spans="2:2" ht="12.75">
       <c r="B498" s="24"/>
     </row>
-    <row r="499" spans="2:2" ht="13.2">
+    <row r="499" spans="2:2" ht="12.75">
       <c r="B499" s="24"/>
     </row>
-    <row r="500" spans="2:2" ht="13.2">
+    <row r="500" spans="2:2" ht="12.75">
       <c r="B500" s="24"/>
     </row>
-    <row r="501" spans="2:2" ht="13.2">
+    <row r="501" spans="2:2" ht="12.75">
       <c r="B501" s="24"/>
     </row>
-    <row r="502" spans="2:2" ht="13.2">
+    <row r="502" spans="2:2" ht="12.75">
       <c r="B502" s="24"/>
     </row>
-    <row r="503" spans="2:2" ht="13.2">
+    <row r="503" spans="2:2" ht="12.75">
       <c r="B503" s="24"/>
     </row>
-    <row r="504" spans="2:2" ht="13.2">
+    <row r="504" spans="2:2" ht="12.75">
       <c r="B504" s="24"/>
     </row>
-    <row r="505" spans="2:2" ht="13.2">
+    <row r="505" spans="2:2" ht="12.75">
       <c r="B505" s="24"/>
     </row>
-    <row r="506" spans="2:2" ht="13.2">
+    <row r="506" spans="2:2" ht="12.75">
       <c r="B506" s="24"/>
     </row>
-    <row r="507" spans="2:2" ht="13.2">
+    <row r="507" spans="2:2" ht="12.75">
       <c r="B507" s="24"/>
     </row>
-    <row r="508" spans="2:2" ht="13.2">
+    <row r="508" spans="2:2" ht="12.75">
       <c r="B508" s="24"/>
     </row>
-    <row r="509" spans="2:2" ht="13.2">
+    <row r="509" spans="2:2" ht="12.75">
       <c r="B509" s="24"/>
     </row>
-    <row r="510" spans="2:2" ht="13.2">
+    <row r="510" spans="2:2" ht="12.75">
       <c r="B510" s="24"/>
     </row>
-    <row r="511" spans="2:2" ht="13.2">
+    <row r="511" spans="2:2" ht="12.75">
       <c r="B511" s="24"/>
     </row>
-    <row r="512" spans="2:2" ht="13.2">
+    <row r="512" spans="2:2" ht="12.75">
       <c r="B512" s="24"/>
     </row>
-    <row r="513" spans="2:2" ht="13.2">
+    <row r="513" spans="2:2" ht="12.75">
       <c r="B513" s="24"/>
     </row>
-    <row r="514" spans="2:2" ht="13.2">
+    <row r="514" spans="2:2" ht="12.75">
       <c r="B514" s="24"/>
     </row>
-    <row r="515" spans="2:2" ht="13.2">
+    <row r="515" spans="2:2" ht="12.75">
       <c r="B515" s="24"/>
     </row>
-    <row r="516" spans="2:2" ht="13.2">
+    <row r="516" spans="2:2" ht="12.75">
       <c r="B516" s="24"/>
     </row>
-    <row r="517" spans="2:2" ht="13.2">
+    <row r="517" spans="2:2" ht="12.75">
       <c r="B517" s="24"/>
     </row>
-    <row r="518" spans="2:2" ht="13.2">
+    <row r="518" spans="2:2" ht="12.75">
       <c r="B518" s="24"/>
     </row>
-    <row r="519" spans="2:2" ht="13.2">
+    <row r="519" spans="2:2" ht="12.75">
       <c r="B519" s="24"/>
     </row>
-    <row r="520" spans="2:2" ht="13.2">
+    <row r="520" spans="2:2" ht="12.75">
       <c r="B520" s="24"/>
     </row>
-    <row r="521" spans="2:2" ht="13.2">
+    <row r="521" spans="2:2" ht="12.75">
       <c r="B521" s="24"/>
     </row>
-    <row r="522" spans="2:2" ht="13.2">
+    <row r="522" spans="2:2" ht="12.75">
       <c r="B522" s="24"/>
     </row>
-    <row r="523" spans="2:2" ht="13.2">
+    <row r="523" spans="2:2" ht="12.75">
       <c r="B523" s="24"/>
     </row>
-    <row r="524" spans="2:2" ht="13.2">
+    <row r="524" spans="2:2" ht="12.75">
       <c r="B524" s="24"/>
     </row>
-    <row r="525" spans="2:2" ht="13.2">
+    <row r="525" spans="2:2" ht="12.75">
       <c r="B525" s="24"/>
     </row>
-    <row r="526" spans="2:2" ht="13.2">
+    <row r="526" spans="2:2" ht="12.75">
       <c r="B526" s="24"/>
     </row>
-    <row r="527" spans="2:2" ht="13.2">
+    <row r="527" spans="2:2" ht="12.75">
       <c r="B527" s="24"/>
     </row>
-    <row r="528" spans="2:2" ht="13.2">
+    <row r="528" spans="2:2" ht="12.75">
       <c r="B528" s="24"/>
     </row>
-    <row r="529" spans="2:2" ht="13.2">
+    <row r="529" spans="2:2" ht="12.75">
       <c r="B529" s="24"/>
     </row>
-    <row r="530" spans="2:2" ht="13.2">
+    <row r="530" spans="2:2" ht="12.75">
       <c r="B530" s="24"/>
     </row>
-    <row r="531" spans="2:2" ht="13.2">
+    <row r="531" spans="2:2" ht="12.75">
       <c r="B531" s="24"/>
     </row>
-    <row r="532" spans="2:2" ht="13.2">
+    <row r="532" spans="2:2" ht="12.75">
       <c r="B532" s="24"/>
     </row>
-    <row r="533" spans="2:2" ht="13.2">
+    <row r="533" spans="2:2" ht="12.75">
       <c r="B533" s="24"/>
     </row>
-    <row r="534" spans="2:2" ht="13.2">
+    <row r="534" spans="2:2" ht="12.75">
       <c r="B534" s="24"/>
     </row>
-    <row r="535" spans="2:2" ht="13.2">
+    <row r="535" spans="2:2" ht="12.75">
       <c r="B535" s="24"/>
     </row>
-    <row r="536" spans="2:2" ht="13.2">
+    <row r="536" spans="2:2" ht="12.75">
       <c r="B536" s="24"/>
     </row>
-    <row r="537" spans="2:2" ht="13.2">
+    <row r="537" spans="2:2" ht="12.75">
       <c r="B537" s="24"/>
     </row>
-    <row r="538" spans="2:2" ht="13.2">
+    <row r="538" spans="2:2" ht="12.75">
       <c r="B538" s="24"/>
     </row>
-    <row r="539" spans="2:2" ht="13.2">
+    <row r="539" spans="2:2" ht="12.75">
       <c r="B539" s="24"/>
     </row>
-    <row r="540" spans="2:2" ht="13.2">
+    <row r="540" spans="2:2" ht="12.75">
       <c r="B540" s="24"/>
     </row>
-    <row r="541" spans="2:2" ht="13.2">
+    <row r="541" spans="2:2" ht="12.75">
       <c r="B541" s="24"/>
     </row>
-    <row r="542" spans="2:2" ht="13.2">
+    <row r="542" spans="2:2" ht="12.75">
       <c r="B542" s="24"/>
     </row>
-    <row r="543" spans="2:2" ht="13.2">
+    <row r="543" spans="2:2" ht="12.75">
       <c r="B543" s="24"/>
     </row>
-    <row r="544" spans="2:2" ht="13.2">
+    <row r="544" spans="2:2" ht="12.75">
       <c r="B544" s="24"/>
     </row>
-    <row r="545" spans="2:2" ht="13.2">
+    <row r="545" spans="2:2" ht="12.75">
       <c r="B545" s="24"/>
     </row>
-    <row r="546" spans="2:2" ht="13.2">
+    <row r="546" spans="2:2" ht="12.75">
       <c r="B546" s="24"/>
     </row>
-    <row r="547" spans="2:2" ht="13.2">
+    <row r="547" spans="2:2" ht="12.75">
       <c r="B547" s="24"/>
     </row>
-    <row r="548" spans="2:2" ht="13.2">
+    <row r="548" spans="2:2" ht="12.75">
       <c r="B548" s="24"/>
     </row>
-    <row r="549" spans="2:2" ht="13.2">
+    <row r="549" spans="2:2" ht="12.75">
       <c r="B549" s="24"/>
     </row>
-    <row r="550" spans="2:2" ht="13.2">
+    <row r="550" spans="2:2" ht="12.75">
       <c r="B550" s="24"/>
     </row>
-    <row r="551" spans="2:2" ht="13.2">
+    <row r="551" spans="2:2" ht="12.75">
       <c r="B551" s="24"/>
     </row>
-    <row r="552" spans="2:2" ht="13.2">
+    <row r="552" spans="2:2" ht="12.75">
       <c r="B552" s="24"/>
     </row>
-    <row r="553" spans="2:2" ht="13.2">
+    <row r="553" spans="2:2" ht="12.75">
       <c r="B553" s="24"/>
     </row>
-    <row r="554" spans="2:2" ht="13.2">
+    <row r="554" spans="2:2" ht="12.75">
       <c r="B554" s="24"/>
     </row>
-    <row r="555" spans="2:2" ht="13.2">
+    <row r="555" spans="2:2" ht="12.75">
       <c r="B555" s="24"/>
     </row>
-    <row r="556" spans="2:2" ht="13.2">
+    <row r="556" spans="2:2" ht="12.75">
       <c r="B556" s="24"/>
     </row>
-    <row r="557" spans="2:2" ht="13.2">
+    <row r="557" spans="2:2" ht="12.75">
       <c r="B557" s="24"/>
     </row>
-    <row r="558" spans="2:2" ht="13.2">
+    <row r="558" spans="2:2" ht="12.75">
       <c r="B558" s="24"/>
     </row>
-    <row r="559" spans="2:2" ht="13.2">
+    <row r="559" spans="2:2" ht="12.75">
       <c r="B559" s="24"/>
     </row>
-    <row r="560" spans="2:2" ht="13.2">
+    <row r="560" spans="2:2" ht="12.75">
       <c r="B560" s="24"/>
     </row>
-    <row r="561" spans="2:2" ht="13.2">
+    <row r="561" spans="2:2" ht="12.75">
       <c r="B561" s="24"/>
     </row>
-    <row r="562" spans="2:2" ht="13.2">
+    <row r="562" spans="2:2" ht="12.75">
       <c r="B562" s="24"/>
     </row>
-    <row r="563" spans="2:2" ht="13.2">
+    <row r="563" spans="2:2" ht="12.75">
       <c r="B563" s="24"/>
     </row>
-    <row r="564" spans="2:2" ht="13.2">
+    <row r="564" spans="2:2" ht="12.75">
       <c r="B564" s="24"/>
     </row>
-    <row r="565" spans="2:2" ht="13.2">
+    <row r="565" spans="2:2" ht="12.75">
       <c r="B565" s="24"/>
     </row>
-    <row r="566" spans="2:2" ht="13.2">
+    <row r="566" spans="2:2" ht="12.75">
       <c r="B566" s="24"/>
     </row>
-    <row r="567" spans="2:2" ht="13.2">
+    <row r="567" spans="2:2" ht="12.75">
       <c r="B567" s="24"/>
     </row>
-    <row r="568" spans="2:2" ht="13.2">
+    <row r="568" spans="2:2" ht="12.75">
       <c r="B568" s="24"/>
     </row>
-    <row r="569" spans="2:2" ht="13.2">
+    <row r="569" spans="2:2" ht="12.75">
       <c r="B569" s="24"/>
     </row>
-    <row r="570" spans="2:2" ht="13.2">
+    <row r="570" spans="2:2" ht="12.75">
       <c r="B570" s="24"/>
     </row>
-    <row r="571" spans="2:2" ht="13.2">
+    <row r="571" spans="2:2" ht="12.75">
       <c r="B571" s="24"/>
     </row>
-    <row r="572" spans="2:2" ht="13.2">
+    <row r="572" spans="2:2" ht="12.75">
       <c r="B572" s="24"/>
     </row>
-    <row r="573" spans="2:2" ht="13.2">
+    <row r="573" spans="2:2" ht="12.75">
       <c r="B573" s="24"/>
     </row>
-    <row r="574" spans="2:2" ht="13.2">
+    <row r="574" spans="2:2" ht="12.75">
       <c r="B574" s="24"/>
     </row>
-    <row r="575" spans="2:2" ht="13.2">
+    <row r="575" spans="2:2" ht="12.75">
       <c r="B575" s="24"/>
     </row>
-    <row r="576" spans="2:2" ht="13.2">
+    <row r="576" spans="2:2" ht="12.75">
       <c r="B576" s="24"/>
     </row>
-    <row r="577" spans="2:2" ht="13.2">
+    <row r="577" spans="2:2" ht="12.75">
       <c r="B577" s="24"/>
     </row>
-    <row r="578" spans="2:2" ht="13.2">
+    <row r="578" spans="2:2" ht="12.75">
       <c r="B578" s="24"/>
     </row>
-    <row r="579" spans="2:2" ht="13.2">
+    <row r="579" spans="2:2" ht="12.75">
       <c r="B579" s="24"/>
     </row>
-    <row r="580" spans="2:2" ht="13.2">
+    <row r="580" spans="2:2" ht="12.75">
       <c r="B580" s="24"/>
     </row>
-    <row r="581" spans="2:2" ht="13.2">
+    <row r="581" spans="2:2" ht="12.75">
       <c r="B581" s="24"/>
     </row>
-    <row r="582" spans="2:2" ht="13.2">
+    <row r="582" spans="2:2" ht="12.75">
       <c r="B582" s="24"/>
     </row>
-    <row r="583" spans="2:2" ht="13.2">
+    <row r="583" spans="2:2" ht="12.75">
       <c r="B583" s="24"/>
     </row>
-    <row r="584" spans="2:2" ht="13.2">
+    <row r="584" spans="2:2" ht="12.75">
       <c r="B584" s="24"/>
     </row>
-    <row r="585" spans="2:2" ht="13.2">
+    <row r="585" spans="2:2" ht="12.75">
       <c r="B585" s="24"/>
     </row>
-    <row r="586" spans="2:2" ht="13.2">
+    <row r="586" spans="2:2" ht="12.75">
       <c r="B586" s="24"/>
     </row>
-    <row r="587" spans="2:2" ht="13.2">
+    <row r="587" spans="2:2" ht="12.75">
       <c r="B587" s="24"/>
     </row>
-    <row r="588" spans="2:2" ht="13.2">
+    <row r="588" spans="2:2" ht="12.75">
       <c r="B588" s="24"/>
     </row>
-    <row r="589" spans="2:2" ht="13.2">
+    <row r="589" spans="2:2" ht="12.75">
       <c r="B589" s="24"/>
     </row>
-    <row r="590" spans="2:2" ht="13.2">
+    <row r="590" spans="2:2" ht="12.75">
       <c r="B590" s="24"/>
     </row>
-    <row r="591" spans="2:2" ht="13.2">
+    <row r="591" spans="2:2" ht="12.75">
       <c r="B591" s="24"/>
     </row>
-    <row r="592" spans="2:2" ht="13.2">
+    <row r="592" spans="2:2" ht="12.75">
       <c r="B592" s="24"/>
     </row>
-    <row r="593" spans="2:2" ht="13.2">
+    <row r="593" spans="2:2" ht="12.75">
       <c r="B593" s="24"/>
     </row>
-    <row r="594" spans="2:2" ht="13.2">
+    <row r="594" spans="2:2" ht="12.75">
       <c r="B594" s="24"/>
     </row>
-    <row r="595" spans="2:2" ht="13.2">
+    <row r="595" spans="2:2" ht="12.75">
       <c r="B595" s="24"/>
     </row>
-    <row r="596" spans="2:2" ht="13.2">
+    <row r="596" spans="2:2" ht="12.75">
       <c r="B596" s="24"/>
     </row>
-    <row r="597" spans="2:2" ht="13.2">
+    <row r="597" spans="2:2" ht="12.75">
       <c r="B597" s="24"/>
     </row>
-    <row r="598" spans="2:2" ht="13.2">
+    <row r="598" spans="2:2" ht="12.75">
       <c r="B598" s="24"/>
     </row>
-    <row r="599" spans="2:2" ht="13.2">
+    <row r="599" spans="2:2" ht="12.75">
       <c r="B599" s="24"/>
     </row>
-    <row r="600" spans="2:2" ht="13.2">
+    <row r="600" spans="2:2" ht="12.75">
       <c r="B600" s="24"/>
     </row>
-    <row r="601" spans="2:2" ht="13.2">
+    <row r="601" spans="2:2" ht="12.75">
       <c r="B601" s="24"/>
     </row>
-    <row r="602" spans="2:2" ht="13.2">
+    <row r="602" spans="2:2" ht="12.75">
       <c r="B602" s="24"/>
     </row>
-    <row r="603" spans="2:2" ht="13.2">
+    <row r="603" spans="2:2" ht="12.75">
       <c r="B603" s="24"/>
     </row>
-    <row r="604" spans="2:2" ht="13.2">
+    <row r="604" spans="2:2" ht="12.75">
       <c r="B604" s="24"/>
     </row>
-    <row r="605" spans="2:2" ht="13.2">
+    <row r="605" spans="2:2" ht="12.75">
       <c r="B605" s="24"/>
     </row>
-    <row r="606" spans="2:2" ht="13.2">
+    <row r="606" spans="2:2" ht="12.75">
       <c r="B606" s="24"/>
     </row>
-    <row r="607" spans="2:2" ht="13.2">
+    <row r="607" spans="2:2" ht="12.75">
       <c r="B607" s="24"/>
     </row>
-    <row r="608" spans="2:2" ht="13.2">
+    <row r="608" spans="2:2" ht="12.75">
       <c r="B608" s="24"/>
     </row>
-    <row r="609" spans="2:2" ht="13.2">
+    <row r="609" spans="2:2" ht="12.75">
       <c r="B609" s="24"/>
     </row>
-    <row r="610" spans="2:2" ht="13.2">
+    <row r="610" spans="2:2" ht="12.75">
       <c r="B610" s="24"/>
     </row>
-    <row r="611" spans="2:2" ht="13.2">
+    <row r="611" spans="2:2" ht="12.75">
       <c r="B611" s="24"/>
     </row>
-    <row r="612" spans="2:2" ht="13.2">
+    <row r="612" spans="2:2" ht="12.75">
       <c r="B612" s="24"/>
     </row>
-    <row r="613" spans="2:2" ht="13.2">
+    <row r="613" spans="2:2" ht="12.75">
       <c r="B613" s="24"/>
     </row>
-    <row r="614" spans="2:2" ht="13.2">
+    <row r="614" spans="2:2" ht="12.75">
       <c r="B614" s="24"/>
     </row>
-    <row r="615" spans="2:2" ht="13.2">
+    <row r="615" spans="2:2" ht="12.75">
       <c r="B615" s="24"/>
     </row>
-    <row r="616" spans="2:2" ht="13.2">
+    <row r="616" spans="2:2" ht="12.75">
       <c r="B616" s="24"/>
     </row>
-    <row r="617" spans="2:2" ht="13.2">
+    <row r="617" spans="2:2" ht="12.75">
       <c r="B617" s="24"/>
     </row>
-    <row r="618" spans="2:2" ht="13.2">
+    <row r="618" spans="2:2" ht="12.75">
       <c r="B618" s="24"/>
     </row>
-    <row r="619" spans="2:2" ht="13.2">
+    <row r="619" spans="2:2" ht="12.75">
       <c r="B619" s="24"/>
     </row>
-    <row r="620" spans="2:2" ht="13.2">
+    <row r="620" spans="2:2" ht="12.75">
       <c r="B620" s="24"/>
     </row>
-    <row r="621" spans="2:2" ht="13.2">
+    <row r="621" spans="2:2" ht="12.75">
       <c r="B621" s="24"/>
     </row>
-    <row r="622" spans="2:2" ht="13.2">
+    <row r="622" spans="2:2" ht="12.75">
       <c r="B622" s="24"/>
     </row>
-    <row r="623" spans="2:2" ht="13.2">
+    <row r="623" spans="2:2" ht="12.75">
       <c r="B623" s="24"/>
     </row>
-    <row r="624" spans="2:2" ht="13.2">
+    <row r="624" spans="2:2" ht="12.75">
       <c r="B624" s="24"/>
     </row>
-    <row r="625" spans="2:2" ht="13.2">
+    <row r="625" spans="2:2" ht="12.75">
       <c r="B625" s="24"/>
     </row>
-    <row r="626" spans="2:2" ht="13.2">
+    <row r="626" spans="2:2" ht="12.75">
       <c r="B626" s="24"/>
     </row>
-    <row r="627" spans="2:2" ht="13.2">
+    <row r="627" spans="2:2" ht="12.75">
       <c r="B627" s="24"/>
     </row>
-    <row r="628" spans="2:2" ht="13.2">
+    <row r="628" spans="2:2" ht="12.75">
       <c r="B628" s="24"/>
     </row>
-    <row r="629" spans="2:2" ht="13.2">
+    <row r="629" spans="2:2" ht="12.75">
       <c r="B629" s="24"/>
     </row>
-    <row r="630" spans="2:2" ht="13.2">
+    <row r="630" spans="2:2" ht="12.75">
       <c r="B630" s="24"/>
     </row>
-    <row r="631" spans="2:2" ht="13.2">
+    <row r="631" spans="2:2" ht="12.75">
       <c r="B631" s="24"/>
     </row>
-    <row r="632" spans="2:2" ht="13.2">
+    <row r="632" spans="2:2" ht="12.75">
       <c r="B632" s="24"/>
     </row>
-    <row r="633" spans="2:2" ht="13.2">
+    <row r="633" spans="2:2" ht="12.75">
       <c r="B633" s="24"/>
     </row>
-    <row r="634" spans="2:2" ht="13.2">
+    <row r="634" spans="2:2" ht="12.75">
       <c r="B634" s="24"/>
     </row>
-    <row r="635" spans="2:2" ht="13.2">
+    <row r="635" spans="2:2" ht="12.75">
       <c r="B635" s="24"/>
     </row>
-    <row r="636" spans="2:2" ht="13.2">
+    <row r="636" spans="2:2" ht="12.75">
       <c r="B636" s="24"/>
     </row>
-    <row r="637" spans="2:2" ht="13.2">
+    <row r="637" spans="2:2" ht="12.75">
       <c r="B637" s="24"/>
     </row>
-    <row r="638" spans="2:2" ht="13.2">
+    <row r="638" spans="2:2" ht="12.75">
       <c r="B638" s="24"/>
     </row>
-    <row r="639" spans="2:2" ht="13.2">
+    <row r="639" spans="2:2" ht="12.75">
       <c r="B639" s="24"/>
     </row>
-    <row r="640" spans="2:2" ht="13.2">
+    <row r="640" spans="2:2" ht="12.75">
       <c r="B640" s="24"/>
     </row>
-    <row r="641" spans="2:2" ht="13.2">
+    <row r="641" spans="2:2" ht="12.75">
       <c r="B641" s="24"/>
     </row>
-    <row r="642" spans="2:2" ht="13.2">
+    <row r="642" spans="2:2" ht="12.75">
       <c r="B642" s="24"/>
     </row>
-    <row r="643" spans="2:2" ht="13.2">
+    <row r="643" spans="2:2" ht="12.75">
       <c r="B643" s="24"/>
     </row>
-    <row r="644" spans="2:2" ht="13.2">
+    <row r="644" spans="2:2" ht="12.75">
       <c r="B644" s="24"/>
     </row>
-    <row r="645" spans="2:2" ht="13.2">
+    <row r="645" spans="2:2" ht="12.75">
       <c r="B645" s="24"/>
     </row>
-    <row r="646" spans="2:2" ht="13.2">
+    <row r="646" spans="2:2" ht="12.75">
       <c r="B646" s="24"/>
     </row>
-    <row r="647" spans="2:2" ht="13.2">
+    <row r="647" spans="2:2" ht="12.75">
       <c r="B647" s="24"/>
     </row>
-    <row r="648" spans="2:2" ht="13.2">
+    <row r="648" spans="2:2" ht="12.75">
       <c r="B648" s="24"/>
     </row>
-    <row r="649" spans="2:2" ht="13.2">
+    <row r="649" spans="2:2" ht="12.75">
       <c r="B649" s="24"/>
     </row>
-    <row r="650" spans="2:2" ht="13.2">
+    <row r="650" spans="2:2" ht="12.75">
       <c r="B650" s="24"/>
     </row>
-    <row r="651" spans="2:2" ht="13.2">
+    <row r="651" spans="2:2" ht="12.75">
       <c r="B651" s="24"/>
     </row>
-    <row r="652" spans="2:2" ht="13.2">
+    <row r="652" spans="2:2" ht="12.75">
       <c r="B652" s="24"/>
     </row>
-    <row r="653" spans="2:2" ht="13.2">
+    <row r="653" spans="2:2" ht="12.75">
       <c r="B653" s="24"/>
     </row>
-    <row r="654" spans="2:2" ht="13.2">
+    <row r="654" spans="2:2" ht="12.75">
       <c r="B654" s="24"/>
     </row>
-    <row r="655" spans="2:2" ht="13.2">
+    <row r="655" spans="2:2" ht="12.75">
       <c r="B655" s="24"/>
     </row>
-    <row r="656" spans="2:2" ht="13.2">
+    <row r="656" spans="2:2" ht="12.75">
       <c r="B656" s="24"/>
     </row>
-    <row r="657" spans="2:2" ht="13.2">
+    <row r="657" spans="2:2" ht="12.75">
       <c r="B657" s="24"/>
     </row>
-    <row r="658" spans="2:2" ht="13.2">
+    <row r="658" spans="2:2" ht="12.75">
       <c r="B658" s="24"/>
     </row>
-    <row r="659" spans="2:2" ht="13.2">
+    <row r="659" spans="2:2" ht="12.75">
       <c r="B659" s="24"/>
     </row>
-    <row r="660" spans="2:2" ht="13.2">
+    <row r="660" spans="2:2" ht="12.75">
       <c r="B660" s="24"/>
     </row>
-    <row r="661" spans="2:2" ht="13.2">
+    <row r="661" spans="2:2" ht="12.75">
       <c r="B661" s="24"/>
     </row>
-    <row r="662" spans="2:2" ht="13.2">
+    <row r="662" spans="2:2" ht="12.75">
       <c r="B662" s="24"/>
     </row>
-    <row r="663" spans="2:2" ht="13.2">
+    <row r="663" spans="2:2" ht="12.75">
       <c r="B663" s="24"/>
     </row>
-    <row r="664" spans="2:2" ht="13.2">
+    <row r="664" spans="2:2" ht="12.75">
       <c r="B664" s="24"/>
     </row>
-    <row r="665" spans="2:2" ht="13.2">
+    <row r="665" spans="2:2" ht="12.75">
       <c r="B665" s="24"/>
     </row>
-    <row r="666" spans="2:2" ht="13.2">
+    <row r="666" spans="2:2" ht="12.75">
       <c r="B666" s="24"/>
     </row>
-    <row r="667" spans="2:2" ht="13.2">
+    <row r="667" spans="2:2" ht="12.75">
       <c r="B667" s="24"/>
     </row>
-    <row r="668" spans="2:2" ht="13.2">
+    <row r="668" spans="2:2" ht="12.75">
       <c r="B668" s="24"/>
     </row>
-    <row r="669" spans="2:2" ht="13.2">
+    <row r="669" spans="2:2" ht="12.75">
       <c r="B669" s="24"/>
     </row>
-    <row r="670" spans="2:2" ht="13.2">
+    <row r="670" spans="2:2" ht="12.75">
       <c r="B670" s="24"/>
     </row>
-    <row r="671" spans="2:2" ht="13.2">
+    <row r="671" spans="2:2" ht="12.75">
       <c r="B671" s="24"/>
     </row>
-    <row r="672" spans="2:2" ht="13.2">
+    <row r="672" spans="2:2" ht="12.75">
       <c r="B672" s="24"/>
     </row>
-    <row r="673" spans="2:2" ht="13.2">
+    <row r="673" spans="2:2" ht="12.75">
       <c r="B673" s="24"/>
     </row>
-    <row r="674" spans="2:2" ht="13.2">
+    <row r="674" spans="2:2" ht="12.75">
       <c r="B674" s="24"/>
     </row>
-    <row r="675" spans="2:2" ht="13.2">
+    <row r="675" spans="2:2" ht="12.75">
       <c r="B675" s="24"/>
     </row>
-    <row r="676" spans="2:2" ht="13.2">
+    <row r="676" spans="2:2" ht="12.75">
       <c r="B676" s="24"/>
     </row>
-    <row r="677" spans="2:2" ht="13.2">
+    <row r="677" spans="2:2" ht="12.75">
       <c r="B677" s="24"/>
     </row>
-    <row r="678" spans="2:2" ht="13.2">
+    <row r="678" spans="2:2" ht="12.75">
       <c r="B678" s="24"/>
     </row>
-    <row r="679" spans="2:2" ht="13.2">
+    <row r="679" spans="2:2" ht="12.75">
       <c r="B679" s="24"/>
     </row>
-    <row r="680" spans="2:2" ht="13.2">
+    <row r="680" spans="2:2" ht="12.75">
       <c r="B680" s="24"/>
     </row>
-    <row r="681" spans="2:2" ht="13.2">
+    <row r="681" spans="2:2" ht="12.75">
       <c r="B681" s="24"/>
     </row>
-    <row r="682" spans="2:2" ht="13.2">
+    <row r="682" spans="2:2" ht="12.75">
       <c r="B682" s="24"/>
     </row>
-    <row r="683" spans="2:2" ht="13.2">
+    <row r="683" spans="2:2" ht="12.75">
       <c r="B683" s="24"/>
     </row>
-    <row r="684" spans="2:2" ht="13.2">
+    <row r="684" spans="2:2" ht="12.75">
       <c r="B684" s="24"/>
     </row>
-    <row r="685" spans="2:2" ht="13.2">
+    <row r="685" spans="2:2" ht="12.75">
       <c r="B685" s="24"/>
     </row>
-    <row r="686" spans="2:2" ht="13.2">
+    <row r="686" spans="2:2" ht="12.75">
       <c r="B686" s="24"/>
     </row>
-    <row r="687" spans="2:2" ht="13.2">
+    <row r="687" spans="2:2" ht="12.75">
       <c r="B687" s="24"/>
     </row>
-    <row r="688" spans="2:2" ht="13.2">
+    <row r="688" spans="2:2" ht="12.75">
       <c r="B688" s="24"/>
     </row>
-    <row r="689" spans="2:2" ht="13.2">
+    <row r="689" spans="2:2" ht="12.75">
       <c r="B689" s="24"/>
     </row>
-    <row r="690" spans="2:2" ht="13.2">
+    <row r="690" spans="2:2" ht="12.75">
       <c r="B690" s="24"/>
     </row>
-    <row r="691" spans="2:2" ht="13.2">
+    <row r="691" spans="2:2" ht="12.75">
       <c r="B691" s="24"/>
     </row>
-    <row r="692" spans="2:2" ht="13.2">
+    <row r="692" spans="2:2" ht="12.75">
       <c r="B692" s="24"/>
     </row>
-    <row r="693" spans="2:2" ht="13.2">
+    <row r="693" spans="2:2" ht="12.75">
       <c r="B693" s="24"/>
     </row>
-    <row r="694" spans="2:2" ht="13.2">
+    <row r="694" spans="2:2" ht="12.75">
       <c r="B694" s="24"/>
     </row>
-    <row r="695" spans="2:2" ht="13.2">
+    <row r="695" spans="2:2" ht="12.75">
       <c r="B695" s="24"/>
     </row>
-    <row r="696" spans="2:2" ht="13.2">
+    <row r="696" spans="2:2" ht="12.75">
       <c r="B696" s="24"/>
     </row>
-    <row r="697" spans="2:2" ht="13.2">
+    <row r="697" spans="2:2" ht="12.75">
       <c r="B697" s="24"/>
     </row>
-    <row r="698" spans="2:2" ht="13.2">
+    <row r="698" spans="2:2" ht="12.75">
       <c r="B698" s="24"/>
     </row>
-    <row r="699" spans="2:2" ht="13.2">
+    <row r="699" spans="2:2" ht="12.75">
       <c r="B699" s="24"/>
     </row>
-    <row r="700" spans="2:2" ht="13.2">
+    <row r="700" spans="2:2" ht="12.75">
       <c r="B700" s="24"/>
     </row>
-    <row r="701" spans="2:2" ht="13.2">
+    <row r="701" spans="2:2" ht="12.75">
       <c r="B701" s="24"/>
     </row>
-    <row r="702" spans="2:2" ht="13.2">
+    <row r="702" spans="2:2" ht="12.75">
       <c r="B702" s="24"/>
     </row>
-    <row r="703" spans="2:2" ht="13.2">
+    <row r="703" spans="2:2" ht="12.75">
       <c r="B703" s="24"/>
     </row>
-    <row r="704" spans="2:2" ht="13.2">
+    <row r="704" spans="2:2" ht="12.75">
       <c r="B704" s="24"/>
     </row>
-    <row r="705" spans="2:2" ht="13.2">
+    <row r="705" spans="2:2" ht="12.75">
       <c r="B705" s="24"/>
     </row>
-    <row r="706" spans="2:2" ht="13.2">
+    <row r="706" spans="2:2" ht="12.75">
       <c r="B706" s="24"/>
     </row>
-    <row r="707" spans="2:2" ht="13.2">
+    <row r="707" spans="2:2" ht="12.75">
       <c r="B707" s="24"/>
     </row>
-    <row r="708" spans="2:2" ht="13.2">
+    <row r="708" spans="2:2" ht="12.75">
       <c r="B708" s="24"/>
     </row>
-    <row r="709" spans="2:2" ht="13.2">
+    <row r="709" spans="2:2" ht="12.75">
       <c r="B709" s="24"/>
     </row>
-    <row r="710" spans="2:2" ht="13.2">
+    <row r="710" spans="2:2" ht="12.75">
       <c r="B710" s="24"/>
     </row>
-    <row r="711" spans="2:2" ht="13.2">
+    <row r="711" spans="2:2" ht="12.75">
       <c r="B711" s="24"/>
     </row>
-    <row r="712" spans="2:2" ht="13.2">
+    <row r="712" spans="2:2" ht="12.75">
       <c r="B712" s="24"/>
     </row>
-    <row r="713" spans="2:2" ht="13.2">
+    <row r="713" spans="2:2" ht="12.75">
       <c r="B713" s="24"/>
     </row>
-    <row r="714" spans="2:2" ht="13.2">
+    <row r="714" spans="2:2" ht="12.75">
       <c r="B714" s="24"/>
     </row>
-    <row r="715" spans="2:2" ht="13.2">
+    <row r="715" spans="2:2" ht="12.75">
       <c r="B715" s="24"/>
     </row>
-    <row r="716" spans="2:2" ht="13.2">
+    <row r="716" spans="2:2" ht="12.75">
       <c r="B716" s="24"/>
     </row>
-    <row r="717" spans="2:2" ht="13.2">
+    <row r="717" spans="2:2" ht="12.75">
       <c r="B717" s="24"/>
     </row>
-    <row r="718" spans="2:2" ht="13.2">
+    <row r="718" spans="2:2" ht="12.75">
       <c r="B718" s="24"/>
     </row>
-    <row r="719" spans="2:2" ht="13.2">
+    <row r="719" spans="2:2" ht="12.75">
       <c r="B719" s="24"/>
     </row>
-    <row r="720" spans="2:2" ht="13.2">
+    <row r="720" spans="2:2" ht="12.75">
       <c r="B720" s="24"/>
     </row>
-    <row r="721" spans="2:2" ht="13.2">
+    <row r="721" spans="2:2" ht="12.75">
       <c r="B721" s="24"/>
     </row>
-    <row r="722" spans="2:2" ht="13.2">
+    <row r="722" spans="2:2" ht="12.75">
       <c r="B722" s="24"/>
     </row>
-    <row r="723" spans="2:2" ht="13.2">
+    <row r="723" spans="2:2" ht="12.75">
       <c r="B723" s="24"/>
     </row>
-    <row r="724" spans="2:2" ht="13.2">
+    <row r="724" spans="2:2" ht="12.75">
       <c r="B724" s="24"/>
     </row>
-    <row r="725" spans="2:2" ht="13.2">
+    <row r="725" spans="2:2" ht="12.75">
       <c r="B725" s="24"/>
     </row>
-    <row r="726" spans="2:2" ht="13.2">
+    <row r="726" spans="2:2" ht="12.75">
       <c r="B726" s="24"/>
     </row>
-    <row r="727" spans="2:2" ht="13.2">
+    <row r="727" spans="2:2" ht="12.75">
       <c r="B727" s="24"/>
     </row>
-    <row r="728" spans="2:2" ht="13.2">
+    <row r="728" spans="2:2" ht="12.75">
       <c r="B728" s="24"/>
     </row>
-    <row r="729" spans="2:2" ht="13.2">
+    <row r="729" spans="2:2" ht="12.75">
       <c r="B729" s="24"/>
     </row>
-    <row r="730" spans="2:2" ht="13.2">
+    <row r="730" spans="2:2" ht="12.75">
       <c r="B730" s="24"/>
     </row>
-    <row r="731" spans="2:2" ht="13.2">
+    <row r="731" spans="2:2" ht="12.75">
       <c r="B731" s="24"/>
     </row>
-    <row r="732" spans="2:2" ht="13.2">
+    <row r="732" spans="2:2" ht="12.75">
       <c r="B732" s="24"/>
     </row>
-    <row r="733" spans="2:2" ht="13.2">
+    <row r="733" spans="2:2" ht="12.75">
       <c r="B733" s="24"/>
     </row>
-    <row r="734" spans="2:2" ht="13.2">
+    <row r="734" spans="2:2" ht="12.75">
       <c r="B734" s="24"/>
     </row>
-    <row r="735" spans="2:2" ht="13.2">
+    <row r="735" spans="2:2" ht="12.75">
       <c r="B735" s="24"/>
     </row>
-    <row r="736" spans="2:2" ht="13.2">
+    <row r="736" spans="2:2" ht="12.75">
       <c r="B736" s="24"/>
     </row>
-    <row r="737" spans="2:2" ht="13.2">
+    <row r="737" spans="2:2" ht="12.75">
       <c r="B737" s="24"/>
     </row>
-    <row r="738" spans="2:2" ht="13.2">
+    <row r="738" spans="2:2" ht="12.75">
       <c r="B738" s="24"/>
     </row>
-    <row r="739" spans="2:2" ht="13.2">
+    <row r="739" spans="2:2" ht="12.75">
       <c r="B739" s="24"/>
     </row>
-    <row r="740" spans="2:2" ht="13.2">
+    <row r="740" spans="2:2" ht="12.75">
       <c r="B740" s="24"/>
     </row>
-    <row r="741" spans="2:2" ht="13.2">
+    <row r="741" spans="2:2" ht="12.75">
       <c r="B741" s="24"/>
     </row>
-    <row r="742" spans="2:2" ht="13.2">
+    <row r="742" spans="2:2" ht="12.75">
       <c r="B742" s="24"/>
     </row>
-    <row r="743" spans="2:2" ht="13.2">
+    <row r="743" spans="2:2" ht="12.75">
       <c r="B743" s="24"/>
     </row>
-    <row r="744" spans="2:2" ht="13.2">
+    <row r="744" spans="2:2" ht="12.75">
       <c r="B744" s="24"/>
     </row>
-    <row r="745" spans="2:2" ht="13.2">
+    <row r="745" spans="2:2" ht="12.75">
       <c r="B745" s="24"/>
     </row>
-    <row r="746" spans="2:2" ht="13.2">
+    <row r="746" spans="2:2" ht="12.75">
       <c r="B746" s="24"/>
     </row>
-    <row r="747" spans="2:2" ht="13.2">
+    <row r="747" spans="2:2" ht="12.75">
       <c r="B747" s="24"/>
     </row>
-    <row r="748" spans="2:2" ht="13.2">
+    <row r="748" spans="2:2" ht="12.75">
       <c r="B748" s="24"/>
     </row>
-    <row r="749" spans="2:2" ht="13.2">
+    <row r="749" spans="2:2" ht="12.75">
       <c r="B749" s="24"/>
     </row>
-    <row r="750" spans="2:2" ht="13.2">
+    <row r="750" spans="2:2" ht="12.75">
       <c r="B750" s="24"/>
     </row>
-    <row r="751" spans="2:2" ht="13.2">
+    <row r="751" spans="2:2" ht="12.75">
       <c r="B751" s="24"/>
     </row>
-    <row r="752" spans="2:2" ht="13.2">
+    <row r="752" spans="2:2" ht="12.75">
       <c r="B752" s="24"/>
     </row>
-    <row r="753" spans="2:2" ht="13.2">
+    <row r="753" spans="2:2" ht="12.75">
       <c r="B753" s="24"/>
     </row>
-    <row r="754" spans="2:2" ht="13.2">
+    <row r="754" spans="2:2" ht="12.75">
       <c r="B754" s="24"/>
     </row>
-    <row r="755" spans="2:2" ht="13.2">
+    <row r="755" spans="2:2" ht="12.75">
       <c r="B755" s="24"/>
     </row>
-    <row r="756" spans="2:2" ht="13.2">
+    <row r="756" spans="2:2" ht="12.75">
       <c r="B756" s="24"/>
     </row>
-    <row r="757" spans="2:2" ht="13.2">
+    <row r="757" spans="2:2" ht="12.75">
       <c r="B757" s="24"/>
     </row>
-    <row r="758" spans="2:2" ht="13.2">
+    <row r="758" spans="2:2" ht="12.75">
       <c r="B758" s="24"/>
     </row>
-    <row r="759" spans="2:2" ht="13.2">
+    <row r="759" spans="2:2" ht="12.75">
       <c r="B759" s="24"/>
     </row>
-    <row r="760" spans="2:2" ht="13.2">
+    <row r="760" spans="2:2" ht="12.75">
       <c r="B760" s="24"/>
     </row>
-    <row r="761" spans="2:2" ht="13.2">
+    <row r="761" spans="2:2" ht="12.75">
       <c r="B761" s="24"/>
     </row>
-    <row r="762" spans="2:2" ht="13.2">
+    <row r="762" spans="2:2" ht="12.75">
       <c r="B762" s="24"/>
     </row>
-    <row r="763" spans="2:2" ht="13.2">
+    <row r="763" spans="2:2" ht="12.75">
       <c r="B763" s="24"/>
     </row>
-    <row r="764" spans="2:2" ht="13.2">
+    <row r="764" spans="2:2" ht="12.75">
       <c r="B764" s="24"/>
     </row>
-    <row r="765" spans="2:2" ht="13.2">
+    <row r="765" spans="2:2" ht="12.75">
       <c r="B765" s="24"/>
     </row>
-    <row r="766" spans="2:2" ht="13.2">
+    <row r="766" spans="2:2" ht="12.75">
       <c r="B766" s="24"/>
     </row>
-    <row r="767" spans="2:2" ht="13.2">
+    <row r="767" spans="2:2" ht="12.75">
       <c r="B767" s="24"/>
     </row>
-    <row r="768" spans="2:2" ht="13.2">
+    <row r="768" spans="2:2" ht="12.75">
       <c r="B768" s="24"/>
     </row>
-    <row r="769" spans="2:2" ht="13.2">
+    <row r="769" spans="2:2" ht="12.75">
       <c r="B769" s="24"/>
     </row>
-    <row r="770" spans="2:2" ht="13.2">
+    <row r="770" spans="2:2" ht="12.75">
       <c r="B770" s="24"/>
     </row>
-    <row r="771" spans="2:2" ht="13.2">
+    <row r="771" spans="2:2" ht="12.75">
       <c r="B771" s="24"/>
     </row>
-    <row r="772" spans="2:2" ht="13.2">
+    <row r="772" spans="2:2" ht="12.75">
       <c r="B772" s="24"/>
     </row>
-    <row r="773" spans="2:2" ht="13.2">
+    <row r="773" spans="2:2" ht="12.75">
       <c r="B773" s="24"/>
     </row>
-    <row r="774" spans="2:2" ht="13.2">
+    <row r="774" spans="2:2" ht="12.75">
       <c r="B774" s="24"/>
     </row>
-    <row r="775" spans="2:2" ht="13.2">
+    <row r="775" spans="2:2" ht="12.75">
       <c r="B775" s="24"/>
     </row>
-    <row r="776" spans="2:2" ht="13.2">
+    <row r="776" spans="2:2" ht="12.75">
       <c r="B776" s="24"/>
     </row>
-    <row r="777" spans="2:2" ht="13.2">
+    <row r="777" spans="2:2" ht="12.75">
       <c r="B777" s="24"/>
     </row>
-    <row r="778" spans="2:2" ht="13.2">
+    <row r="778" spans="2:2" ht="12.75">
       <c r="B778" s="24"/>
     </row>
-    <row r="779" spans="2:2" ht="13.2">
+    <row r="779" spans="2:2" ht="12.75">
       <c r="B779" s="24"/>
     </row>
-    <row r="780" spans="2:2" ht="13.2">
+    <row r="780" spans="2:2" ht="12.75">
       <c r="B780" s="24"/>
     </row>
-    <row r="781" spans="2:2" ht="13.2">
+    <row r="781" spans="2:2" ht="12.75">
       <c r="B781" s="24"/>
     </row>
-    <row r="782" spans="2:2" ht="13.2">
+    <row r="782" spans="2:2" ht="12.75">
       <c r="B782" s="24"/>
     </row>
-    <row r="783" spans="2:2" ht="13.2">
+    <row r="783" spans="2:2" ht="12.75">
       <c r="B783" s="24"/>
     </row>
-    <row r="784" spans="2:2" ht="13.2">
+    <row r="784" spans="2:2" ht="12.75">
       <c r="B784" s="24"/>
     </row>
-    <row r="785" spans="2:2" ht="13.2">
+    <row r="785" spans="2:2" ht="12.75">
       <c r="B785" s="24"/>
     </row>
-    <row r="786" spans="2:2" ht="13.2">
+    <row r="786" spans="2:2" ht="12.75">
       <c r="B786" s="24"/>
     </row>
-    <row r="787" spans="2:2" ht="13.2">
+    <row r="787" spans="2:2" ht="12.75">
       <c r="B787" s="24"/>
     </row>
-    <row r="788" spans="2:2" ht="13.2">
+    <row r="788" spans="2:2" ht="12.75">
       <c r="B788" s="24"/>
     </row>
-    <row r="789" spans="2:2" ht="13.2">
+    <row r="789" spans="2:2" ht="12.75">
       <c r="B789" s="24"/>
     </row>
-    <row r="790" spans="2:2" ht="13.2">
+    <row r="790" spans="2:2" ht="12.75">
       <c r="B790" s="24"/>
     </row>
-    <row r="791" spans="2:2" ht="13.2">
+    <row r="791" spans="2:2" ht="12.75">
       <c r="B791" s="24"/>
     </row>
-    <row r="792" spans="2:2" ht="13.2">
+    <row r="792" spans="2:2" ht="12.75">
       <c r="B792" s="24"/>
     </row>
-    <row r="793" spans="2:2" ht="13.2">
+    <row r="793" spans="2:2" ht="12.75">
       <c r="B793" s="24"/>
     </row>
-    <row r="794" spans="2:2" ht="13.2">
+    <row r="794" spans="2:2" ht="12.75">
       <c r="B794" s="24"/>
     </row>
-    <row r="795" spans="2:2" ht="13.2">
+    <row r="795" spans="2:2" ht="12.75">
       <c r="B795" s="24"/>
     </row>
-    <row r="796" spans="2:2" ht="13.2">
+    <row r="796" spans="2:2" ht="12.75">
       <c r="B796" s="24"/>
     </row>
-    <row r="797" spans="2:2" ht="13.2">
+    <row r="797" spans="2:2" ht="12.75">
       <c r="B797" s="24"/>
     </row>
-    <row r="798" spans="2:2" ht="13.2">
+    <row r="798" spans="2:2" ht="12.75">
       <c r="B798" s="24"/>
     </row>
-    <row r="799" spans="2:2" ht="13.2">
+    <row r="799" spans="2:2" ht="12.75">
       <c r="B799" s="24"/>
     </row>
-    <row r="800" spans="2:2" ht="13.2">
+    <row r="800" spans="2:2" ht="12.75">
       <c r="B800" s="24"/>
     </row>
-    <row r="801" spans="2:2" ht="13.2">
+    <row r="801" spans="2:2" ht="12.75">
       <c r="B801" s="24"/>
     </row>
-    <row r="802" spans="2:2" ht="13.2">
+    <row r="802" spans="2:2" ht="12.75">
       <c r="B802" s="24"/>
     </row>
-    <row r="803" spans="2:2" ht="13.2">
+    <row r="803" spans="2:2" ht="12.75">
       <c r="B803" s="24"/>
     </row>
-    <row r="804" spans="2:2" ht="13.2">
+    <row r="804" spans="2:2" ht="12.75">
       <c r="B804" s="24"/>
     </row>
-    <row r="805" spans="2:2" ht="13.2">
+    <row r="805" spans="2:2" ht="12.75">
       <c r="B805" s="24"/>
     </row>
-    <row r="806" spans="2:2" ht="13.2">
+    <row r="806" spans="2:2" ht="12.75">
       <c r="B806" s="24"/>
     </row>
-    <row r="807" spans="2:2" ht="13.2">
+    <row r="807" spans="2:2" ht="12.75">
       <c r="B807" s="24"/>
     </row>
-    <row r="808" spans="2:2" ht="13.2">
+    <row r="808" spans="2:2" ht="12.75">
       <c r="B808" s="24"/>
     </row>
-    <row r="809" spans="2:2" ht="13.2">
+    <row r="809" spans="2:2" ht="12.75">
       <c r="B809" s="24"/>
     </row>
-    <row r="810" spans="2:2" ht="13.2">
+    <row r="810" spans="2:2" ht="12.75">
       <c r="B810" s="24"/>
     </row>
-    <row r="811" spans="2:2" ht="13.2">
+    <row r="811" spans="2:2" ht="12.75">
       <c r="B811" s="24"/>
     </row>
-    <row r="812" spans="2:2" ht="13.2">
+    <row r="812" spans="2:2" ht="12.75">
       <c r="B812" s="24"/>
     </row>
-    <row r="813" spans="2:2" ht="13.2">
+    <row r="813" spans="2:2" ht="12.75">
       <c r="B813" s="24"/>
     </row>
-    <row r="814" spans="2:2" ht="13.2">
+    <row r="814" spans="2:2" ht="12.75">
       <c r="B814" s="24"/>
     </row>
-    <row r="815" spans="2:2" ht="13.2">
+    <row r="815" spans="2:2" ht="12.75">
       <c r="B815" s="24"/>
     </row>
-    <row r="816" spans="2:2" ht="13.2">
+    <row r="816" spans="2:2" ht="12.75">
       <c r="B816" s="24"/>
     </row>
-    <row r="817" spans="2:2" ht="13.2">
+    <row r="817" spans="2:2" ht="12.75">
       <c r="B817" s="24"/>
     </row>
-    <row r="818" spans="2:2" ht="13.2">
+    <row r="818" spans="2:2" ht="12.75">
       <c r="B818" s="24"/>
     </row>
-    <row r="819" spans="2:2" ht="13.2">
+    <row r="819" spans="2:2" ht="12.75">
       <c r="B819" s="24"/>
     </row>
-    <row r="820" spans="2:2" ht="13.2">
+    <row r="820" spans="2:2" ht="12.75">
       <c r="B820" s="24"/>
     </row>
-    <row r="821" spans="2:2" ht="13.2">
+    <row r="821" spans="2:2" ht="12.75">
       <c r="B821" s="24"/>
     </row>
-    <row r="822" spans="2:2" ht="13.2">
+    <row r="822" spans="2:2" ht="12.75">
       <c r="B822" s="24"/>
     </row>
-    <row r="823" spans="2:2" ht="13.2">
+    <row r="823" spans="2:2" ht="12.75">
       <c r="B823" s="24"/>
     </row>
-    <row r="824" spans="2:2" ht="13.2">
+    <row r="824" spans="2:2" ht="12.75">
       <c r="B824" s="24"/>
     </row>
-    <row r="825" spans="2:2" ht="13.2">
+    <row r="825" spans="2:2" ht="12.75">
       <c r="B825" s="24"/>
     </row>
-    <row r="826" spans="2:2" ht="13.2">
+    <row r="826" spans="2:2" ht="12.75">
       <c r="B826" s="24"/>
     </row>
-    <row r="827" spans="2:2" ht="13.2">
+    <row r="827" spans="2:2" ht="12.75">
       <c r="B827" s="24"/>
     </row>
-    <row r="828" spans="2:2" ht="13.2">
+    <row r="828" spans="2:2" ht="12.75">
       <c r="B828" s="24"/>
     </row>
-    <row r="829" spans="2:2" ht="13.2">
+    <row r="829" spans="2:2" ht="12.75">
       <c r="B829" s="24"/>
     </row>
-    <row r="830" spans="2:2" ht="13.2">
+    <row r="830" spans="2:2" ht="12.75">
       <c r="B830" s="24"/>
     </row>
-    <row r="831" spans="2:2" ht="13.2">
+    <row r="831" spans="2:2" ht="12.75">
       <c r="B831" s="24"/>
     </row>
-    <row r="832" spans="2:2" ht="13.2">
+    <row r="832" spans="2:2" ht="12.75">
       <c r="B832" s="24"/>
     </row>
-    <row r="833" spans="2:2" ht="13.2">
+    <row r="833" spans="2:2" ht="12.75">
       <c r="B833" s="24"/>
     </row>
-    <row r="834" spans="2:2" ht="13.2">
+    <row r="834" spans="2:2" ht="12.75">
       <c r="B834" s="24"/>
     </row>
-    <row r="835" spans="2:2" ht="13.2">
+    <row r="835" spans="2:2" ht="12.75">
       <c r="B835" s="24"/>
     </row>
-    <row r="836" spans="2:2" ht="13.2">
+    <row r="836" spans="2:2" ht="12.75">
       <c r="B836" s="24"/>
     </row>
-    <row r="837" spans="2:2" ht="13.2">
+    <row r="837" spans="2:2" ht="12.75">
       <c r="B837" s="24"/>
     </row>
-    <row r="838" spans="2:2" ht="13.2">
+    <row r="838" spans="2:2" ht="12.75">
       <c r="B838" s="24"/>
     </row>
-    <row r="839" spans="2:2" ht="13.2">
+    <row r="839" spans="2:2" ht="12.75">
       <c r="B839" s="24"/>
     </row>
-    <row r="840" spans="2:2" ht="13.2">
+    <row r="840" spans="2:2" ht="12.75">
       <c r="B840" s="24"/>
     </row>
-    <row r="841" spans="2:2" ht="13.2">
+    <row r="841" spans="2:2" ht="12.75">
       <c r="B841" s="24"/>
     </row>
-    <row r="842" spans="2:2" ht="13.2">
+    <row r="842" spans="2:2" ht="12.75">
       <c r="B842" s="24"/>
     </row>
-    <row r="843" spans="2:2" ht="13.2">
+    <row r="843" spans="2:2" ht="12.75">
       <c r="B843" s="24"/>
     </row>
-    <row r="844" spans="2:2" ht="13.2">
+    <row r="844" spans="2:2" ht="12.75">
       <c r="B844" s="24"/>
     </row>
-    <row r="845" spans="2:2" ht="13.2">
+    <row r="845" spans="2:2" ht="12.75">
       <c r="B845" s="24"/>
     </row>
-    <row r="846" spans="2:2" ht="13.2">
+    <row r="846" spans="2:2" ht="12.75">
       <c r="B846" s="24"/>
     </row>
-    <row r="847" spans="2:2" ht="13.2">
+    <row r="847" spans="2:2" ht="12.75">
       <c r="B847" s="24"/>
     </row>
-    <row r="848" spans="2:2" ht="13.2">
+    <row r="848" spans="2:2" ht="12.75">
       <c r="B848" s="24"/>
     </row>
-    <row r="849" spans="2:2" ht="13.2">
+    <row r="849" spans="2:2" ht="12.75">
       <c r="B849" s="24"/>
     </row>
-    <row r="850" spans="2:2" ht="13.2">
+    <row r="850" spans="2:2" ht="12.75">
       <c r="B850" s="24"/>
     </row>
-    <row r="851" spans="2:2" ht="13.2">
+    <row r="851" spans="2:2" ht="12.75">
       <c r="B851" s="24"/>
     </row>
-    <row r="852" spans="2:2" ht="13.2">
+    <row r="852" spans="2:2" ht="12.75">
       <c r="B852" s="24"/>
     </row>
-    <row r="853" spans="2:2" ht="13.2">
+    <row r="853" spans="2:2" ht="12.75">
       <c r="B853" s="24"/>
     </row>
-    <row r="854" spans="2:2" ht="13.2">
+    <row r="854" spans="2:2" ht="12.75">
       <c r="B854" s="24"/>
     </row>
-    <row r="855" spans="2:2" ht="13.2">
+    <row r="855" spans="2:2" ht="12.75">
       <c r="B855" s="24"/>
     </row>
-    <row r="856" spans="2:2" ht="13.2">
+    <row r="856" spans="2:2" ht="12.75">
       <c r="B856" s="24"/>
     </row>
-    <row r="857" spans="2:2" ht="13.2">
+    <row r="857" spans="2:2" ht="12.75">
       <c r="B857" s="24"/>
     </row>
-    <row r="858" spans="2:2" ht="13.2">
+    <row r="858" spans="2:2" ht="12.75">
       <c r="B858" s="24"/>
     </row>
-    <row r="859" spans="2:2" ht="13.2">
+    <row r="859" spans="2:2" ht="12.75">
       <c r="B859" s="24"/>
     </row>
-    <row r="860" spans="2:2" ht="13.2">
+    <row r="860" spans="2:2" ht="12.75">
       <c r="B860" s="24"/>
     </row>
-    <row r="861" spans="2:2" ht="13.2">
+    <row r="861" spans="2:2" ht="12.75">
       <c r="B861" s="24"/>
     </row>
-    <row r="862" spans="2:2" ht="13.2">
+    <row r="862" spans="2:2" ht="12.75">
       <c r="B862" s="24"/>
     </row>
-    <row r="863" spans="2:2" ht="13.2">
+    <row r="863" spans="2:2" ht="12.75">
       <c r="B863" s="24"/>
     </row>
-    <row r="864" spans="2:2" ht="13.2">
+    <row r="864" spans="2:2" ht="12.75">
       <c r="B864" s="24"/>
     </row>
-    <row r="865" spans="2:2" ht="13.2">
+    <row r="865" spans="2:2" ht="12.75">
       <c r="B865" s="24"/>
     </row>
-    <row r="866" spans="2:2" ht="13.2">
+    <row r="866" spans="2:2" ht="12.75">
       <c r="B866" s="24"/>
     </row>
-    <row r="867" spans="2:2" ht="13.2">
+    <row r="867" spans="2:2" ht="12.75">
       <c r="B867" s="24"/>
     </row>
-    <row r="868" spans="2:2" ht="13.2">
+    <row r="868" spans="2:2" ht="12.75">
       <c r="B868" s="24"/>
     </row>
-    <row r="869" spans="2:2" ht="13.2">
+    <row r="869" spans="2:2" ht="12.75">
       <c r="B869" s="24"/>
     </row>
-    <row r="870" spans="2:2" ht="13.2">
+    <row r="870" spans="2:2" ht="12.75">
       <c r="B870" s="24"/>
     </row>
-    <row r="871" spans="2:2" ht="13.2">
+    <row r="871" spans="2:2" ht="12.75">
       <c r="B871" s="24"/>
     </row>
-    <row r="872" spans="2:2" ht="13.2">
+    <row r="872" spans="2:2" ht="12.75">
       <c r="B872" s="24"/>
     </row>
-    <row r="873" spans="2:2" ht="13.2">
+    <row r="873" spans="2:2" ht="12.75">
       <c r="B873" s="24"/>
     </row>
-    <row r="874" spans="2:2" ht="13.2">
+    <row r="874" spans="2:2" ht="12.75">
       <c r="B874" s="24"/>
     </row>
-    <row r="875" spans="2:2" ht="13.2">
+    <row r="875" spans="2:2" ht="12.75">
       <c r="B875" s="24"/>
     </row>
-    <row r="876" spans="2:2" ht="13.2">
+    <row r="876" spans="2:2" ht="12.75">
       <c r="B876" s="24"/>
     </row>
-    <row r="877" spans="2:2" ht="13.2">
+    <row r="877" spans="2:2" ht="12.75">
       <c r="B877" s="24"/>
     </row>
-    <row r="878" spans="2:2" ht="13.2">
+    <row r="878" spans="2:2" ht="12.75">
       <c r="B878" s="24"/>
     </row>
-    <row r="879" spans="2:2" ht="13.2">
+    <row r="879" spans="2:2" ht="12.75">
       <c r="B879" s="24"/>
     </row>
-    <row r="880" spans="2:2" ht="13.2">
+    <row r="880" spans="2:2" ht="12.75">
       <c r="B880" s="24"/>
     </row>
-    <row r="881" spans="2:2" ht="13.2">
+    <row r="881" spans="2:2" ht="12.75">
       <c r="B881" s="24"/>
     </row>
-    <row r="882" spans="2:2" ht="13.2">
+    <row r="882" spans="2:2" ht="12.75">
       <c r="B882" s="24"/>
     </row>
-    <row r="883" spans="2:2" ht="13.2">
+    <row r="883" spans="2:2" ht="12.75">
       <c r="B883" s="24"/>
     </row>
-    <row r="884" spans="2:2" ht="13.2">
+    <row r="884" spans="2:2" ht="12.75">
       <c r="B884" s="24"/>
     </row>
-    <row r="885" spans="2:2" ht="13.2">
+    <row r="885" spans="2:2" ht="12.75">
       <c r="B885" s="24"/>
     </row>
-    <row r="886" spans="2:2" ht="13.2">
+    <row r="886" spans="2:2" ht="12.75">
       <c r="B886" s="24"/>
     </row>
-    <row r="887" spans="2:2" ht="13.2">
+    <row r="887" spans="2:2" ht="12.75">
       <c r="B887" s="24"/>
     </row>
-    <row r="888" spans="2:2" ht="13.2">
+    <row r="888" spans="2:2" ht="12.75">
       <c r="B888" s="24"/>
     </row>
-    <row r="889" spans="2:2" ht="13.2">
+    <row r="889" spans="2:2" ht="12.75">
       <c r="B889" s="24"/>
     </row>
-    <row r="890" spans="2:2" ht="13.2">
+    <row r="890" spans="2:2" ht="12.75">
       <c r="B890" s="24"/>
     </row>
-    <row r="891" spans="2:2" ht="13.2">
+    <row r="891" spans="2:2" ht="12.75">
       <c r="B891" s="24"/>
     </row>
-    <row r="892" spans="2:2" ht="13.2">
+    <row r="892" spans="2:2" ht="12.75">
       <c r="B892" s="24"/>
     </row>
-    <row r="893" spans="2:2" ht="13.2">
+    <row r="893" spans="2:2" ht="12.75">
       <c r="B893" s="24"/>
     </row>
-    <row r="894" spans="2:2" ht="13.2">
+    <row r="894" spans="2:2" ht="12.75">
       <c r="B894" s="24"/>
     </row>
-    <row r="895" spans="2:2" ht="13.2">
+    <row r="895" spans="2:2" ht="12.75">
       <c r="B895" s="24"/>
     </row>
-    <row r="896" spans="2:2" ht="13.2">
+    <row r="896" spans="2:2" ht="12.75">
       <c r="B896" s="24"/>
     </row>
-    <row r="897" spans="2:2" ht="13.2">
+    <row r="897" spans="2:2" ht="12.75">
       <c r="B897" s="24"/>
     </row>
-    <row r="898" spans="2:2" ht="13.2">
+    <row r="898" spans="2:2" ht="12.75">
       <c r="B898" s="24"/>
     </row>
-    <row r="899" spans="2:2" ht="13.2">
+    <row r="899" spans="2:2" ht="12.75">
       <c r="B899" s="24"/>
     </row>
-    <row r="900" spans="2:2" ht="13.2">
+    <row r="900" spans="2:2" ht="12.75">
       <c r="B900" s="24"/>
     </row>
-    <row r="901" spans="2:2" ht="13.2">
+    <row r="901" spans="2:2" ht="12.75">
       <c r="B901" s="24"/>
     </row>
-    <row r="902" spans="2:2" ht="13.2">
+    <row r="902" spans="2:2" ht="12.75">
       <c r="B902" s="24"/>
     </row>
-    <row r="903" spans="2:2" ht="13.2">
+    <row r="903" spans="2:2" ht="12.75">
       <c r="B903" s="24"/>
     </row>
-    <row r="904" spans="2:2" ht="13.2">
+    <row r="904" spans="2:2" ht="12.75">
       <c r="B904" s="24"/>
     </row>
-    <row r="905" spans="2:2" ht="13.2">
+    <row r="905" spans="2:2" ht="12.75">
       <c r="B905" s="24"/>
     </row>
-    <row r="906" spans="2:2" ht="13.2">
+    <row r="906" spans="2:2" ht="12.75">
       <c r="B906" s="24"/>
     </row>
-    <row r="907" spans="2:2" ht="13.2">
+    <row r="907" spans="2:2" ht="12.75">
       <c r="B907" s="24"/>
     </row>
-    <row r="908" spans="2:2" ht="13.2">
+    <row r="908" spans="2:2" ht="12.75">
       <c r="B908" s="24"/>
     </row>
-    <row r="909" spans="2:2" ht="13.2">
+    <row r="909" spans="2:2" ht="12.75">
       <c r="B909" s="24"/>
     </row>
-    <row r="910" spans="2:2" ht="13.2">
+    <row r="910" spans="2:2" ht="12.75">
       <c r="B910" s="24"/>
     </row>
-    <row r="911" spans="2:2" ht="13.2">
+    <row r="911" spans="2:2" ht="12.75">
       <c r="B911" s="24"/>
     </row>
-    <row r="912" spans="2:2" ht="13.2">
+    <row r="912" spans="2:2" ht="12.75">
       <c r="B912" s="24"/>
     </row>
-    <row r="913" spans="2:2" ht="13.2">
+    <row r="913" spans="2:2" ht="12.75">
       <c r="B913" s="24"/>
     </row>
-    <row r="914" spans="2:2" ht="13.2">
+    <row r="914" spans="2:2" ht="12.75">
       <c r="B914" s="24"/>
     </row>
-    <row r="915" spans="2:2" ht="13.2">
+    <row r="915" spans="2:2" ht="12.75">
       <c r="B915" s="24"/>
     </row>
-    <row r="916" spans="2:2" ht="13.2">
+    <row r="916" spans="2:2" ht="12.75">
       <c r="B916" s="24"/>
     </row>
-    <row r="917" spans="2:2" ht="13.2">
+    <row r="917" spans="2:2" ht="12.75">
       <c r="B917" s="24"/>
     </row>
-    <row r="918" spans="2:2" ht="13.2">
+    <row r="918" spans="2:2" ht="12.75">
       <c r="B918" s="24"/>
     </row>
-    <row r="919" spans="2:2" ht="13.2">
+    <row r="919" spans="2:2" ht="12.75">
       <c r="B919" s="24"/>
     </row>
-    <row r="920" spans="2:2" ht="13.2">
+    <row r="920" spans="2:2" ht="12.75">
       <c r="B920" s="24"/>
     </row>
-    <row r="921" spans="2:2" ht="13.2">
+    <row r="921" spans="2:2" ht="12.75">
       <c r="B921" s="24"/>
     </row>
-    <row r="922" spans="2:2" ht="13.2">
+    <row r="922" spans="2:2" ht="12.75">
       <c r="B922" s="24"/>
     </row>
-    <row r="923" spans="2:2" ht="13.2">
+    <row r="923" spans="2:2" ht="12.75">
       <c r="B923" s="24"/>
     </row>
-    <row r="924" spans="2:2" ht="13.2">
+    <row r="924" spans="2:2" ht="12.75">
       <c r="B924" s="24"/>
     </row>
-    <row r="925" spans="2:2" ht="13.2">
+    <row r="925" spans="2:2" ht="12.75">
       <c r="B925" s="24"/>
     </row>
-    <row r="926" spans="2:2" ht="13.2">
+    <row r="926" spans="2:2" ht="12.75">
       <c r="B926" s="24"/>
     </row>
-    <row r="927" spans="2:2" ht="13.2">
+    <row r="927" spans="2:2" ht="12.75">
       <c r="B927" s="24"/>
     </row>
-    <row r="928" spans="2:2" ht="13.2">
+    <row r="928" spans="2:2" ht="12.75">
       <c r="B928" s="24"/>
     </row>
-    <row r="929" spans="2:2" ht="13.2">
+    <row r="929" spans="2:2" ht="12.75">
       <c r="B929" s="24"/>
     </row>
-    <row r="930" spans="2:2" ht="13.2">
+    <row r="930" spans="2:2" ht="12.75">
       <c r="B930" s="24"/>
     </row>
-    <row r="931" spans="2:2" ht="13.2">
+    <row r="931" spans="2:2" ht="12.75">
       <c r="B931" s="24"/>
     </row>
-    <row r="932" spans="2:2" ht="13.2">
+    <row r="932" spans="2:2" ht="12.75">
       <c r="B932" s="24"/>
     </row>
-    <row r="933" spans="2:2" ht="13.2">
+    <row r="933" spans="2:2" ht="12.75">
       <c r="B933" s="24"/>
     </row>
-    <row r="934" spans="2:2" ht="13.2">
+    <row r="934" spans="2:2" ht="12.75">
       <c r="B934" s="24"/>
     </row>
-    <row r="935" spans="2:2" ht="13.2">
+    <row r="935" spans="2:2" ht="12.75">
       <c r="B935" s="24"/>
     </row>
-    <row r="936" spans="2:2" ht="13.2">
+    <row r="936" spans="2:2" ht="12.75">
       <c r="B936" s="24"/>
     </row>
-    <row r="937" spans="2:2" ht="13.2">
+    <row r="937" spans="2:2" ht="12.75">
       <c r="B937" s="24"/>
     </row>
-    <row r="938" spans="2:2" ht="13.2">
+    <row r="938" spans="2:2" ht="12.75">
       <c r="B938" s="24"/>
     </row>
-    <row r="939" spans="2:2" ht="13.2">
+    <row r="939" spans="2:2" ht="12.75">
       <c r="B939" s="24"/>
     </row>
-    <row r="940" spans="2:2" ht="13.2">
+    <row r="940" spans="2:2" ht="12.75">
       <c r="B940" s="24"/>
     </row>
-    <row r="941" spans="2:2" ht="13.2">
+    <row r="941" spans="2:2" ht="12.75">
       <c r="B941" s="24"/>
     </row>
-    <row r="942" spans="2:2" ht="13.2">
+    <row r="942" spans="2:2" ht="12.75">
       <c r="B942" s="24"/>
     </row>
-    <row r="943" spans="2:2" ht="13.2">
+    <row r="943" spans="2:2" ht="12.75">
       <c r="B943" s="24"/>
     </row>
-    <row r="944" spans="2:2" ht="13.2">
+    <row r="944" spans="2:2" ht="12.75">
       <c r="B944" s="24"/>
     </row>
-    <row r="945" spans="2:2" ht="13.2">
+    <row r="945" spans="2:2" ht="12.75">
       <c r="B945" s="24"/>
     </row>
-    <row r="946" spans="2:2" ht="13.2">
+    <row r="946" spans="2:2" ht="12.75">
       <c r="B946" s="24"/>
     </row>
-    <row r="947" spans="2:2" ht="13.2">
+    <row r="947" spans="2:2" ht="12.75">
       <c r="B947" s="24"/>
     </row>
-    <row r="948" spans="2:2" ht="13.2">
+    <row r="948" spans="2:2" ht="12.75">
       <c r="B948" s="24"/>
     </row>
-    <row r="949" spans="2:2" ht="13.2">
+    <row r="949" spans="2:2" ht="12.75">
       <c r="B949" s="24"/>
     </row>
-    <row r="950" spans="2:2" ht="13.2">
+    <row r="950" spans="2:2" ht="12.75">
       <c r="B950" s="24"/>
     </row>
-    <row r="951" spans="2:2" ht="13.2">
+    <row r="951" spans="2:2" ht="12.75">
       <c r="B951" s="24"/>
     </row>
-    <row r="952" spans="2:2" ht="13.2">
+    <row r="952" spans="2:2" ht="12.75">
       <c r="B952" s="24"/>
     </row>
-    <row r="953" spans="2:2" ht="13.2">
+    <row r="953" spans="2:2" ht="12.75">
       <c r="B953" s="24"/>
     </row>
-    <row r="954" spans="2:2" ht="13.2">
+    <row r="954" spans="2:2" ht="12.75">
       <c r="B954" s="24"/>
     </row>
-    <row r="955" spans="2:2" ht="13.2">
+    <row r="955" spans="2:2" ht="12.75">
       <c r="B955" s="24"/>
     </row>
-    <row r="956" spans="2:2" ht="13.2">
+    <row r="956" spans="2:2" ht="12.75">
       <c r="B956" s="24"/>
     </row>
-    <row r="957" spans="2:2" ht="13.2">
+    <row r="957" spans="2:2" ht="12.75">
       <c r="B957" s="24"/>
     </row>
-    <row r="958" spans="2:2" ht="13.2">
+    <row r="958" spans="2:2" ht="12.75">
       <c r="B958" s="24"/>
     </row>
-    <row r="959" spans="2:2" ht="13.2">
+    <row r="959" spans="2:2" ht="12.75">
       <c r="B959" s="24"/>
     </row>
-    <row r="960" spans="2:2" ht="13.2">
+    <row r="960" spans="2:2" ht="12.75">
       <c r="B960" s="24"/>
     </row>
-    <row r="961" spans="2:2" ht="13.2">
+    <row r="961" spans="2:2" ht="12.75">
       <c r="B961" s="24"/>
     </row>
-    <row r="962" spans="2:2" ht="13.2">
+    <row r="962" spans="2:2" ht="12.75">
       <c r="B962" s="24"/>
     </row>
-    <row r="963" spans="2:2" ht="13.2">
+    <row r="963" spans="2:2" ht="12.75">
       <c r="B963" s="24"/>
     </row>
-    <row r="964" spans="2:2" ht="13.2">
+    <row r="964" spans="2:2" ht="12.75">
       <c r="B964" s="24"/>
     </row>
-    <row r="965" spans="2:2" ht="13.2">
+    <row r="965" spans="2:2" ht="12.75">
       <c r="B965" s="24"/>
     </row>
-    <row r="966" spans="2:2" ht="13.2">
+    <row r="966" spans="2:2" ht="12.75">
       <c r="B966" s="24"/>
     </row>
   </sheetData>
@@ -5636,7 +5697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5646,14 +5707,14 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="85.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="153.33203125" customWidth="1"/>
+    <col min="4" max="4" width="85.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="153.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5819,10 +5880,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OPiS7 Inventory.xlsx
+++ b/OPiS7 Inventory.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dottore\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\msi-od002\users$\msolo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7D6E5-C73C-4EC5-BB4E-C2D9C695946F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Supplies" sheetId="1" r:id="rId1"/>
     <sheet name="Prizes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="152">
   <si>
     <t>Summer 2018</t>
   </si>
@@ -378,9 +377,6 @@
   </si>
   <si>
     <t>Striped Plastic Straws, Assorted 100ct</t>
-  </si>
-  <si>
-    <t>paper clips (pack of 10 boxes, 100 clips/box)</t>
   </si>
   <si>
     <t>Calculator Tape (100 rolls)</t>
@@ -465,9 +461,6 @@
     <t>ordererd.</t>
   </si>
   <si>
-    <t>1 ordered. 1 IH?</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -483,9 +476,6 @@
     <t>Ordered</t>
   </si>
   <si>
-    <t xml:space="preserve">13 from EI, </t>
-  </si>
-  <si>
     <t>BO, half to arrive mid-June</t>
   </si>
   <si>
@@ -496,16 +486,55 @@
   </si>
   <si>
     <t>No longer available through Nasco, earthball.com sells them for $12 ea.</t>
+  </si>
+  <si>
+    <t>BO, 100 from Flinn</t>
+  </si>
+  <si>
+    <t>Ordered 300</t>
+  </si>
+  <si>
+    <t>only 20 ordered</t>
+  </si>
+  <si>
+    <t>only 13 ordered</t>
+  </si>
+  <si>
+    <t>ordered. 1 IH?</t>
+  </si>
+  <si>
+    <t>7 ord Amz, 35 ord Crlna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ord Amz, </t>
+  </si>
+  <si>
+    <t>Ordered. Amz.</t>
+  </si>
+  <si>
+    <t>only 25 ord</t>
+  </si>
+  <si>
+    <t>only 47 ordered, Amz, Wmt</t>
+  </si>
+  <si>
+    <t>only 5 ordered</t>
+  </si>
+  <si>
+    <t>only 10 ordered</t>
+  </si>
+  <si>
+    <t>ordered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -647,20 +676,24 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,12 +722,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -747,8 +774,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -840,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,15 +923,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -912,71 +931,55 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -984,41 +987,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1027,15 +1015,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1061,38 +1047,63 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,47 +1383,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U966"/>
+  <dimension ref="A1:U965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" style="20" customWidth="1"/>
     <col min="3" max="3" width="10" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="92" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="20"/>
+    <col min="4" max="4" width="9.33203125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.45" customHeight="1">
-      <c r="A1" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="22.15" customHeight="1">
+    <row r="1" spans="1:21" ht="23.4" customHeight="1">
+      <c r="A1" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="22.2" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>127</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -1430,231 +1441,266 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" ht="15">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:21" ht="14.4">
+      <c r="A3" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28">
-        <v>35</v>
-      </c>
-      <c r="D3" s="62">
+      <c r="C3" s="40">
+        <v>35</v>
+      </c>
+      <c r="D3" s="55">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:21" ht="14.4">
+      <c r="A4" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="28">
-        <v>35</v>
-      </c>
-      <c r="D4" s="62">
+      <c r="C4" s="40">
+        <v>35</v>
+      </c>
+      <c r="D4" s="58">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:21" ht="14.4">
+      <c r="A5" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="28">
-        <v>35</v>
-      </c>
-      <c r="D5" s="62">
+      <c r="C5" s="40">
+        <v>35</v>
+      </c>
+      <c r="D5" s="58">
         <v>0</v>
       </c>
-      <c r="E5" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15">
-      <c r="B6" s="27" t="s">
+      <c r="E5" s="61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.4">
+      <c r="A6" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="28">
-        <v>35</v>
-      </c>
-      <c r="D6" s="62">
+      <c r="C6" s="40">
+        <v>35</v>
+      </c>
+      <c r="D6" s="58">
         <v>5</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="61">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:21" ht="14.4">
+      <c r="A7" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="40">
         <v>6</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="58">
         <v>0</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="61">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A8" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="38">
         <v>105</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="56">
         <v>29</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="79">
         <v>76</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-    </row>
-    <row r="9" spans="1:21" s="41" customFormat="1" ht="15">
-      <c r="A9" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="90" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+    </row>
+    <row r="9" spans="1:21" s="36" customFormat="1" ht="14.4">
+      <c r="A9" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="76">
         <v>140</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="65">
         <v>6</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="78">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" customFormat="1" ht="12.75">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:21" customFormat="1" ht="13.2">
+      <c r="A10" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="20">
-        <v>35</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="18">
+        <v>35</v>
+      </c>
+      <c r="D10" s="18">
         <v>30</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30">
-      <c r="B11" s="58" t="s">
+    <row r="11" spans="1:21" ht="29.4" customHeight="1">
+      <c r="A11" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="28">
-        <v>35</v>
-      </c>
-      <c r="D11" s="62">
+      <c r="C11" s="40">
+        <v>35</v>
+      </c>
+      <c r="D11" s="58">
         <v>8</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="61">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
-      <c r="B12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="28">
-        <v>35</v>
-      </c>
-      <c r="D12" s="62">
+    <row r="12" spans="1:21" ht="14.4">
+      <c r="A12" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="86">
+        <v>35</v>
+      </c>
+      <c r="D12" s="87">
         <v>4</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="93">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:21" ht="14.4">
+      <c r="A13" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="40">
         <v>7</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="58">
         <v>1</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="61">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
-      <c r="A14" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="90" t="s">
+    <row r="14" spans="1:21" ht="14.4">
+      <c r="A14" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="76">
         <v>7</v>
       </c>
-      <c r="D14" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="73">
+      <c r="D14" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="63">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A15" s="89"/>
-      <c r="B15" s="97" t="s">
+    <row r="15" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A15" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="38">
         <v>7</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="56">
         <v>1</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="79">
         <v>6</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-    </row>
-    <row r="16" spans="1:21" ht="15">
-      <c r="B16" s="29" t="s">
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+    </row>
+    <row r="16" spans="1:21" ht="14.4">
+      <c r="A16" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="30">
-        <v>35</v>
-      </c>
-      <c r="D16" s="64">
+      <c r="C16" s="106">
+        <v>35</v>
+      </c>
+      <c r="D16" s="107">
         <v>0</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="61">
         <v>35</v>
       </c>
       <c r="G16" s="22"/>
@@ -1673,76 +1719,89 @@
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:21" ht="15">
-      <c r="B17" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="28">
+    <row r="17" spans="1:21" ht="14.4">
+      <c r="A17" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="40">
         <v>1</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="58">
         <v>0</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:21" ht="14.4">
+      <c r="A18" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="28">
-        <v>35</v>
-      </c>
-      <c r="D18" s="62">
+      <c r="C18" s="38">
+        <v>35</v>
+      </c>
+      <c r="D18" s="56">
         <v>4</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="79">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15">
-      <c r="A19" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="75" t="s">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" ht="14.4">
+      <c r="A19" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="113">
         <v>2</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="94">
+      <c r="D19" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="64">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="1:21" ht="14.4">
+      <c r="A20" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="28">
-        <v>35</v>
-      </c>
-      <c r="D20" s="62">
+      <c r="C20" s="40">
+        <v>35</v>
+      </c>
+      <c r="D20" s="58">
         <v>0</v>
       </c>
-      <c r="E20" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15">
-      <c r="B21" s="29" t="s">
+      <c r="E20" s="61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14.4">
+      <c r="A21" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="30">
-        <v>35</v>
-      </c>
-      <c r="D21" s="64">
+      <c r="C21" s="106">
+        <v>35</v>
+      </c>
+      <c r="D21" s="107">
         <v>0</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="61">
         <v>35</v>
       </c>
       <c r="G21" s="22"/>
@@ -1761,332 +1820,344 @@
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
     </row>
-    <row r="22" spans="1:21" ht="15">
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="1:21" ht="14.4">
+      <c r="A22" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="35">
         <v>7</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="57">
         <v>0</v>
       </c>
-      <c r="E22" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15">
-      <c r="B23" s="32" t="s">
+      <c r="E22" s="79">
+        <v>35</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" ht="14.4">
+      <c r="A23" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="109">
         <v>18</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="110">
         <v>2</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="61">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
-      <c r="A24" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="116" t="s">
+    <row r="24" spans="1:21" ht="14.4">
+      <c r="A24" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="99">
         <v>840</v>
       </c>
-      <c r="D24" s="118">
+      <c r="D24" s="100">
         <v>60</v>
       </c>
-      <c r="E24" s="119">
+      <c r="E24" s="101">
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A25" s="89"/>
-      <c r="B25" s="86" t="s">
+    <row r="25" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A25" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="86">
         <v>3</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="87">
         <v>1</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="93">
         <v>2</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-    </row>
-    <row r="26" spans="1:21" ht="15">
-      <c r="B26" s="27" t="s">
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+    </row>
+    <row r="26" spans="1:21" ht="14.4">
+      <c r="A26" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="28">
-        <v>35</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="92">
+      <c r="C26" s="40">
+        <v>35</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="14.4">
       <c r="B27" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="28">
         <v>35</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="55">
         <v>7</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="77">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="14.4">
       <c r="B28" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="28">
         <v>35</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="55">
         <v>7</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="77">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="14.4">
       <c r="B29" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="28">
         <v>105</v>
       </c>
-      <c r="D29" s="62">
-        <v>35</v>
-      </c>
-      <c r="E29" s="92">
+      <c r="D29" s="55">
+        <v>35</v>
+      </c>
+      <c r="E29" s="77">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="14.4">
       <c r="B30" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="28">
         <v>35</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="55">
         <v>5</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="77">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="14.4">
       <c r="B31" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="28">
         <v>4</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="92">
+      <c r="D31" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="14.4">
       <c r="B32" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="28">
         <v>3</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="92">
+      <c r="D32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="26.25">
-      <c r="B33" s="59" t="s">
-        <v>123</v>
+    <row r="33" spans="1:21" ht="27">
+      <c r="B33" s="52" t="s">
+        <v>122</v>
       </c>
       <c r="C33" s="28">
         <v>3</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="55">
         <v>0</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="77">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="14.4">
       <c r="B34" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="28">
         <v>2</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="55">
         <v>0</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E34" s="77">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="14.4">
       <c r="B35" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="28">
         <v>1</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="55">
         <v>0</v>
       </c>
-      <c r="E35" s="92">
+      <c r="E35" s="77">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15">
-      <c r="A36" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="72" t="s">
+    <row r="36" spans="1:21" ht="14.4">
+      <c r="A36" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="40">
         <v>280</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="58">
         <v>0</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="61">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15">
-      <c r="A37" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="116" t="s">
+    <row r="37" spans="1:21" ht="14.4">
+      <c r="A37" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="117">
+      <c r="C37" s="99">
         <v>105</v>
       </c>
-      <c r="D37" s="118">
+      <c r="D37" s="100">
         <v>0</v>
       </c>
-      <c r="E37" s="119">
+      <c r="E37" s="101">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A38" s="89"/>
-      <c r="B38" s="97" t="s">
+    <row r="38" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A38" s="74"/>
+      <c r="B38" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="87">
-        <v>35</v>
-      </c>
-      <c r="D38" s="88">
+      <c r="C38" s="72">
+        <v>35</v>
+      </c>
+      <c r="D38" s="73">
         <v>0</v>
       </c>
-      <c r="E38" s="98">
-        <v>35</v>
-      </c>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-    </row>
-    <row r="39" spans="1:21" s="41" customFormat="1" ht="15">
-      <c r="A39" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="39" t="s">
+      <c r="E38" s="81">
+        <v>35</v>
+      </c>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+    </row>
+    <row r="39" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A39" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="40">
-        <v>35</v>
-      </c>
-      <c r="D39" s="66">
+      <c r="C39" s="91">
+        <v>35</v>
+      </c>
+      <c r="D39" s="103">
         <v>6</v>
       </c>
-      <c r="E39" s="95">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15">
+      <c r="E39" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="14.4">
       <c r="B40" s="27" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="28">
         <v>4</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="55">
         <v>0</v>
       </c>
-      <c r="E40" s="92">
+      <c r="E40" s="77">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15">
-      <c r="A41" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="120" t="s">
+    <row r="41" spans="1:21" ht="14.4">
+      <c r="A41" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="117">
+      <c r="C41" s="99">
         <v>210</v>
       </c>
-      <c r="D41" s="118">
+      <c r="D41" s="100">
         <v>38</v>
       </c>
-      <c r="E41" s="119">
+      <c r="E41" s="101">
         <v>172</v>
       </c>
       <c r="G41" s="21"/>
@@ -2105,20 +2176,20 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
-      <c r="A42" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="44" t="s">
+    <row r="42" spans="1:21" ht="14.4">
+      <c r="A42" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="45">
-        <v>35</v>
-      </c>
-      <c r="D42" s="67">
+      <c r="C42" s="40">
+        <v>35</v>
+      </c>
+      <c r="D42" s="58">
         <v>2</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="61">
         <v>33</v>
       </c>
       <c r="G42" s="23"/>
@@ -2137,3567 +2208,3618 @@
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:21" ht="14.4">
+      <c r="A43" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="40">
+        <v>35</v>
+      </c>
+      <c r="D43" s="58">
+        <v>0</v>
+      </c>
+      <c r="E43" s="61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="14.4">
+      <c r="A44" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="40">
+        <v>35</v>
+      </c>
+      <c r="D44" s="58">
+        <v>0</v>
+      </c>
+      <c r="E44" s="61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="14.4">
+      <c r="A45" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="40">
+        <v>70</v>
+      </c>
+      <c r="D45" s="58">
+        <v>20</v>
+      </c>
+      <c r="E45" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.4">
+      <c r="A46" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="40">
+        <v>70</v>
+      </c>
+      <c r="D46" s="58">
+        <v>29</v>
+      </c>
+      <c r="E46" s="61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="14.4">
+      <c r="A47" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="40">
+        <v>17</v>
+      </c>
+      <c r="D47" s="58">
+        <v>0</v>
+      </c>
+      <c r="E47" s="61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="14.4">
+      <c r="A48" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="40">
+        <v>35</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A49" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="45">
-        <v>35</v>
-      </c>
-      <c r="D43" s="67">
+      <c r="B49" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="40">
+        <v>70</v>
+      </c>
+      <c r="D49" s="58">
+        <v>28</v>
+      </c>
+      <c r="E49" s="61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A50" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="86">
+        <v>35</v>
+      </c>
+      <c r="D50" s="87">
+        <v>20</v>
+      </c>
+      <c r="E50" s="93">
+        <v>15</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A51" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="86">
+        <v>525</v>
+      </c>
+      <c r="D51" s="87">
+        <v>60</v>
+      </c>
+      <c r="E51" s="93">
+        <v>465</v>
+      </c>
+      <c r="F51" s="82"/>
+    </row>
+    <row r="52" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A52" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="86">
+        <v>525</v>
+      </c>
+      <c r="D52" s="87">
+        <v>30</v>
+      </c>
+      <c r="E52" s="93">
+        <v>500</v>
+      </c>
+      <c r="F52" s="82"/>
+    </row>
+    <row r="53" spans="1:21" ht="14.4">
+      <c r="A53" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="40">
+        <v>35</v>
+      </c>
+      <c r="D53" s="58">
+        <v>2</v>
+      </c>
+      <c r="E53" s="61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A54" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="86">
+        <v>35</v>
+      </c>
+      <c r="D54" s="87"/>
+      <c r="E54" s="81"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+    </row>
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A55" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="40">
+        <v>35</v>
+      </c>
+      <c r="D55" s="58"/>
+      <c r="E55" s="77"/>
+    </row>
+    <row r="56" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A56" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="86">
+        <v>35</v>
+      </c>
+      <c r="D56" s="87">
         <v>0</v>
       </c>
-      <c r="E43" s="71">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15">
-      <c r="A44" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="45">
-        <v>35</v>
-      </c>
-      <c r="D44" s="67">
+      <c r="E56" s="93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A57" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="86">
+        <v>35</v>
+      </c>
+      <c r="D57" s="87"/>
+      <c r="E57" s="81"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
+    </row>
+    <row r="58" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A58" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="40">
+        <v>35</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="77"/>
+    </row>
+    <row r="59" spans="1:21" s="43" customFormat="1" ht="14.4">
+      <c r="A59" s="60"/>
+      <c r="B59" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="42">
+        <v>210</v>
+      </c>
+      <c r="D59" s="59"/>
+      <c r="E59" s="77"/>
+    </row>
+    <row r="60" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A60" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="40">
+        <v>35</v>
+      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="77"/>
+    </row>
+    <row r="61" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A61" s="74"/>
+      <c r="B61" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="72">
+        <v>7</v>
+      </c>
+      <c r="D61" s="73"/>
+      <c r="E61" s="81"/>
+    </row>
+    <row r="62" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A62" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="86">
+        <v>105</v>
+      </c>
+      <c r="D62" s="87"/>
+      <c r="E62" s="81"/>
+    </row>
+    <row r="63" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A63" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="91">
+        <v>35</v>
+      </c>
+      <c r="D63" s="87"/>
+      <c r="E63" s="81"/>
+    </row>
+    <row r="64" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A64" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="91">
+        <v>35</v>
+      </c>
+      <c r="D64" s="87"/>
+      <c r="E64" s="81"/>
+    </row>
+    <row r="65" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A65" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="91">
+        <v>35</v>
+      </c>
+      <c r="D65" s="87"/>
+      <c r="E65" s="81"/>
+    </row>
+    <row r="66" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A66" s="74"/>
+      <c r="B66" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="72">
+        <v>35</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="81"/>
+    </row>
+    <row r="67" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A67" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="86">
+        <v>35</v>
+      </c>
+      <c r="D67" s="87"/>
+      <c r="E67" s="81"/>
+    </row>
+    <row r="68" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A68" s="74"/>
+      <c r="B68" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="72">
+        <v>35</v>
+      </c>
+      <c r="D68" s="73">
         <v>0</v>
       </c>
-      <c r="E44" s="71">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15">
-      <c r="A45" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="44" t="s">
+      <c r="E68" s="81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A69" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="91">
+        <v>70</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="81"/>
+    </row>
+    <row r="70" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A70" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="91">
+        <v>35</v>
+      </c>
+      <c r="D70" s="87"/>
+      <c r="E70" s="81"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
+    </row>
+    <row r="71" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A71" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="86">
+        <v>15</v>
+      </c>
+      <c r="D71" s="87"/>
+      <c r="E71" s="81"/>
+    </row>
+    <row r="72" spans="1:21" s="88" customFormat="1" ht="14.4">
+      <c r="A72" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="91">
+        <v>35</v>
+      </c>
+      <c r="D72" s="87"/>
+      <c r="E72" s="81"/>
+    </row>
+    <row r="73" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A73" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="86">
+        <v>17</v>
+      </c>
+      <c r="D73" s="73">
+        <v>3600</v>
+      </c>
+      <c r="E73" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A74" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="67">
+        <v>12</v>
+      </c>
+      <c r="D74" s="68"/>
+      <c r="E74" s="77"/>
+    </row>
+    <row r="75" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A75" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="70">
+        <v>35</v>
+      </c>
+      <c r="D75" s="71">
+        <v>0</v>
+      </c>
+      <c r="E75" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="36" customFormat="1" ht="14.4">
+      <c r="A76" s="60"/>
+      <c r="B76" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="38">
+        <v>210</v>
+      </c>
+      <c r="D76" s="56">
+        <v>17</v>
+      </c>
+      <c r="E76" s="77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A77" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="86">
+        <v>35</v>
+      </c>
+      <c r="D77" s="87">
+        <v>8</v>
+      </c>
+      <c r="E77" s="93">
+        <v>27</v>
+      </c>
+      <c r="F77" s="82"/>
+    </row>
+    <row r="78" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A78" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="86">
+        <v>35</v>
+      </c>
+      <c r="D78" s="87">
+        <v>0</v>
+      </c>
+      <c r="E78" s="93">
+        <v>35</v>
+      </c>
+      <c r="F78" s="82"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="83"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="Q78" s="83"/>
+      <c r="R78" s="83"/>
+      <c r="S78" s="83"/>
+      <c r="T78" s="83"/>
+      <c r="U78" s="83"/>
+    </row>
+    <row r="79" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A79" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="86">
+        <v>35</v>
+      </c>
+      <c r="D79" s="87">
+        <v>21</v>
+      </c>
+      <c r="E79" s="93">
+        <v>15</v>
+      </c>
+      <c r="F79" s="82"/>
+    </row>
+    <row r="80" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A80" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="86">
+        <v>35</v>
+      </c>
+      <c r="D80" s="73">
+        <v>8</v>
+      </c>
+      <c r="E80" s="81">
+        <v>27</v>
+      </c>
+      <c r="F80" s="82"/>
+    </row>
+    <row r="81" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A81" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="76">
+        <v>70</v>
+      </c>
+      <c r="D81" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="63">
+        <v>0</v>
+      </c>
+      <c r="F81" s="82"/>
+    </row>
+    <row r="82" spans="1:21" ht="14.4">
+      <c r="A82" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="40">
+        <v>280</v>
+      </c>
+      <c r="D82" s="58">
         <v>65</v>
       </c>
-      <c r="C45" s="45">
-        <v>70</v>
-      </c>
-      <c r="D45" s="67">
-        <v>20</v>
-      </c>
-      <c r="E45" s="71">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15">
-      <c r="A46" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="45">
-        <v>70</v>
-      </c>
-      <c r="D46" s="67">
+      <c r="E82" s="61">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="14.4">
+      <c r="A83" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="91">
+        <v>210</v>
+      </c>
+      <c r="D83" s="103">
+        <v>22</v>
+      </c>
+      <c r="E83" s="118">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A84" s="74"/>
+      <c r="B84" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="95">
+        <v>35</v>
+      </c>
+      <c r="D84" s="96">
+        <v>2</v>
+      </c>
+      <c r="E84" s="81">
+        <v>33</v>
+      </c>
+      <c r="F84" s="82"/>
+    </row>
+    <row r="85" spans="1:21" s="84" customFormat="1" ht="14.4">
+      <c r="A85" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="38">
+        <v>35</v>
+      </c>
+      <c r="D85" s="56">
+        <v>0</v>
+      </c>
+      <c r="E85" s="79">
+        <v>35</v>
+      </c>
+      <c r="F85" s="82"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="83"/>
+      <c r="K85" s="83"/>
+      <c r="L85" s="83"/>
+      <c r="M85" s="83"/>
+      <c r="N85" s="83"/>
+      <c r="O85" s="83"/>
+      <c r="P85" s="83"/>
+      <c r="Q85" s="83"/>
+      <c r="R85" s="83"/>
+      <c r="S85" s="83"/>
+      <c r="T85" s="83"/>
+      <c r="U85" s="83"/>
+    </row>
+    <row r="86" spans="1:21" ht="14.4">
+      <c r="A86" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="35">
+        <v>35</v>
+      </c>
+      <c r="D86" s="57">
+        <v>0</v>
+      </c>
+      <c r="E86" s="79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="14.4">
+      <c r="A87" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="28">
+        <v>35</v>
+      </c>
+      <c r="D87" s="55">
+        <v>4</v>
+      </c>
+      <c r="E87" s="77">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="14.4">
+      <c r="A88" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="28">
+        <v>35</v>
+      </c>
+      <c r="D88" s="55">
+        <v>3</v>
+      </c>
+      <c r="E88" s="77">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="14.4">
+      <c r="A89" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="28">
+        <v>35</v>
+      </c>
+      <c r="D89" s="55">
+        <v>0</v>
+      </c>
+      <c r="E89" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="14.4">
+      <c r="A90" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="28">
+        <v>35</v>
+      </c>
+      <c r="D90" s="55">
+        <v>5</v>
+      </c>
+      <c r="E90" s="77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="14.4">
+      <c r="A91" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="28">
+        <v>35</v>
+      </c>
+      <c r="D91" s="55">
+        <v>6</v>
+      </c>
+      <c r="E91" s="77">
         <v>29</v>
       </c>
-      <c r="E46" s="71">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15">
-      <c r="A47" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="45">
-        <v>17</v>
-      </c>
-      <c r="D47" s="67">
+    </row>
+    <row r="92" spans="1:21" ht="14.4">
+      <c r="A92" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="38">
+        <v>35</v>
+      </c>
+      <c r="D92" s="56">
+        <v>1</v>
+      </c>
+      <c r="E92" s="79">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="14.4">
+      <c r="A93" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="76">
+        <v>1</v>
+      </c>
+      <c r="D93" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="63">
         <v>0</v>
       </c>
-      <c r="E47" s="71">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15">
-      <c r="A48" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="45">
-        <v>35</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="92">
+    </row>
+    <row r="94" spans="1:21" ht="13.2">
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="46"/>
+    </row>
+    <row r="95" spans="1:21" ht="14.4">
+      <c r="B95" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="46"/>
+    </row>
+    <row r="96" spans="1:21" ht="27">
+      <c r="B96" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="48">
+        <v>1</v>
+      </c>
+      <c r="D96" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15">
-      <c r="A49" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="28">
-        <v>70</v>
-      </c>
-      <c r="D49" s="62">
-        <v>28</v>
-      </c>
-      <c r="E49" s="92">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15">
-      <c r="A50" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="123">
-        <v>35</v>
-      </c>
-      <c r="D50" s="124">
-        <v>20</v>
-      </c>
-      <c r="E50" s="125">
-        <v>15</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="15">
-      <c r="A51" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="117">
-        <v>525</v>
-      </c>
-      <c r="D51" s="118">
-        <v>60</v>
-      </c>
-      <c r="E51" s="119">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="15">
-      <c r="A52" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="117">
-        <v>525</v>
-      </c>
-      <c r="D52" s="118">
+      <c r="E96" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="13.2">
+      <c r="B97" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="49">
+        <v>1</v>
+      </c>
+      <c r="D97" s="46">
+        <v>0</v>
+      </c>
+      <c r="E97" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="13.2">
+      <c r="B98" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="50">
+        <v>1</v>
+      </c>
+      <c r="D98" s="46">
+        <v>0</v>
+      </c>
+      <c r="E98" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="26.4">
+      <c r="B99" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="51">
+        <v>1</v>
+      </c>
+      <c r="D99" s="46">
+        <v>0</v>
+      </c>
+      <c r="E99" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="14.4">
+      <c r="B100" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="31">
+        <v>35</v>
+      </c>
+      <c r="D100" s="47">
+        <v>0</v>
+      </c>
+      <c r="E100" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="14.4">
+      <c r="B101" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="31">
+        <v>35</v>
+      </c>
+      <c r="D101" s="47">
+        <v>0</v>
+      </c>
+      <c r="E101" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="14.4">
+      <c r="B102" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="31">
+        <v>35</v>
+      </c>
+      <c r="D102" s="47">
+        <v>0</v>
+      </c>
+      <c r="E102" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="14.4">
+      <c r="B103" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" s="31">
+        <v>35</v>
+      </c>
+      <c r="D103" s="47">
+        <v>5</v>
+      </c>
+      <c r="E103" s="77">
         <v>30</v>
       </c>
-      <c r="E52" s="119">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="15">
-      <c r="A53" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="45">
-        <v>35</v>
-      </c>
-      <c r="D53" s="67">
-        <v>2</v>
-      </c>
-      <c r="E53" s="71">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A54" s="89"/>
-      <c r="B54" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="103">
-        <v>35</v>
-      </c>
-      <c r="D54" s="104"/>
-      <c r="E54" s="98"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="106"/>
-      <c r="R54" s="106"/>
-      <c r="S54" s="106"/>
-      <c r="T54" s="106"/>
-      <c r="U54" s="106"/>
-    </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="45">
-        <v>35</v>
-      </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="92"/>
-    </row>
-    <row r="56" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A56" s="89"/>
-      <c r="B56" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="87">
-        <v>35</v>
-      </c>
-      <c r="D56" s="88">
+    </row>
+    <row r="104" spans="2:5" ht="14.4">
+      <c r="B104" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="31">
+        <v>35</v>
+      </c>
+      <c r="D104" s="47">
         <v>0</v>
       </c>
-      <c r="E56" s="98">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A57" s="89"/>
-      <c r="B57" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="103">
-        <v>35</v>
-      </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="98"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-    </row>
-    <row r="58" spans="1:21" s="18" customFormat="1" ht="15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="45">
-        <v>35</v>
-      </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="92"/>
-    </row>
-    <row r="59" spans="1:21" s="49" customFormat="1" ht="15">
-      <c r="A59" s="70"/>
-      <c r="B59" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="48">
-        <v>210</v>
-      </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="92"/>
-    </row>
-    <row r="60" spans="1:21" s="18" customFormat="1" ht="15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="45">
-        <v>35</v>
-      </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="92"/>
-    </row>
-    <row r="61" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A61" s="89"/>
-      <c r="B61" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="87">
-        <v>7</v>
-      </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="98"/>
-    </row>
-    <row r="62" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A62" s="89"/>
-      <c r="B62" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="103">
-        <v>105</v>
-      </c>
-      <c r="D62" s="104"/>
-      <c r="E62" s="98"/>
-    </row>
-    <row r="63" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A63" s="89"/>
-      <c r="B63" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="108">
-        <v>35</v>
-      </c>
-      <c r="D63" s="104"/>
-      <c r="E63" s="98"/>
-    </row>
-    <row r="64" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A64" s="89"/>
-      <c r="B64" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="108">
-        <v>35</v>
-      </c>
-      <c r="D64" s="104"/>
-      <c r="E64" s="98"/>
-    </row>
-    <row r="65" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A65" s="89"/>
-      <c r="B65" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="108">
-        <v>35</v>
-      </c>
-      <c r="D65" s="104"/>
-      <c r="E65" s="98"/>
-    </row>
-    <row r="66" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A66" s="89"/>
-      <c r="B66" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="87">
-        <v>35</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="98"/>
-    </row>
-    <row r="67" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A67" s="89"/>
-      <c r="B67" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="103">
-        <v>35</v>
-      </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="98"/>
-    </row>
-    <row r="68" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A68" s="89"/>
-      <c r="B68" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="87">
-        <v>35</v>
-      </c>
-      <c r="D68" s="88">
+      <c r="E104" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="14.4">
+      <c r="B105" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="29">
+        <v>35</v>
+      </c>
+      <c r="D105" s="47">
         <v>0</v>
       </c>
-      <c r="E68" s="98">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A69" s="89"/>
-      <c r="B69" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="108">
-        <v>70</v>
-      </c>
-      <c r="D69" s="104"/>
-      <c r="E69" s="98"/>
-    </row>
-    <row r="70" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A70" s="89"/>
-      <c r="B70" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="108">
-        <v>35</v>
-      </c>
-      <c r="D70" s="104"/>
-      <c r="E70" s="98"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="106"/>
-      <c r="N70" s="106"/>
-      <c r="O70" s="106"/>
-      <c r="P70" s="106"/>
-      <c r="Q70" s="106"/>
-      <c r="R70" s="106"/>
-      <c r="S70" s="106"/>
-      <c r="T70" s="106"/>
-      <c r="U70" s="106"/>
-    </row>
-    <row r="71" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A71" s="89"/>
-      <c r="B71" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="103">
-        <v>15</v>
-      </c>
-      <c r="D71" s="104"/>
-      <c r="E71" s="98"/>
-    </row>
-    <row r="72" spans="1:21" s="105" customFormat="1" ht="15">
-      <c r="A72" s="89"/>
-      <c r="B72" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="108">
-        <v>35</v>
-      </c>
-      <c r="D72" s="104"/>
-      <c r="E72" s="98"/>
-    </row>
-    <row r="73" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A73" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="103">
-        <v>17</v>
-      </c>
-      <c r="D73" s="88">
-        <v>3600</v>
-      </c>
-      <c r="E73" s="98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" s="18" customFormat="1" ht="15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="78">
-        <v>12</v>
-      </c>
-      <c r="D74" s="79"/>
-      <c r="E74" s="92"/>
-    </row>
-    <row r="75" spans="1:21" s="18" customFormat="1" ht="15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="81">
-        <v>35</v>
-      </c>
-      <c r="D75" s="82">
-        <v>0</v>
-      </c>
-      <c r="E75" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" s="41" customFormat="1" ht="15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="43">
-        <v>210</v>
-      </c>
-      <c r="D76" s="63">
-        <v>17</v>
-      </c>
-      <c r="E76" s="92">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A77" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="103">
-        <v>35</v>
-      </c>
-      <c r="D77" s="104">
-        <v>8</v>
-      </c>
-      <c r="E77" s="110">
-        <v>27</v>
-      </c>
-      <c r="F77" s="99"/>
-    </row>
-    <row r="78" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A78" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="103">
-        <v>35</v>
-      </c>
-      <c r="D78" s="104">
-        <v>0</v>
-      </c>
-      <c r="E78" s="110">
-        <v>35</v>
-      </c>
-      <c r="F78" s="99"/>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="100"/>
-      <c r="K78" s="100"/>
-      <c r="L78" s="100"/>
-      <c r="M78" s="100"/>
-      <c r="N78" s="100"/>
-      <c r="O78" s="100"/>
-      <c r="P78" s="100"/>
-      <c r="Q78" s="100"/>
-      <c r="R78" s="100"/>
-      <c r="S78" s="100"/>
-      <c r="T78" s="100"/>
-      <c r="U78" s="100"/>
-    </row>
-    <row r="79" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A79" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="103">
-        <v>35</v>
-      </c>
-      <c r="D79" s="104">
-        <v>21</v>
-      </c>
-      <c r="E79" s="110">
-        <v>15</v>
-      </c>
-      <c r="F79" s="99"/>
-    </row>
-    <row r="80" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A80" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="103">
-        <v>35</v>
-      </c>
-      <c r="D80" s="88">
-        <v>8</v>
-      </c>
-      <c r="E80" s="98">
-        <v>27</v>
-      </c>
-      <c r="F80" s="99"/>
-    </row>
-    <row r="81" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A81" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="91">
-        <v>70</v>
-      </c>
-      <c r="D81" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="73">
-        <v>0</v>
-      </c>
-      <c r="F81" s="99"/>
-    </row>
-    <row r="82" spans="1:21" ht="15">
-      <c r="B82" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="28">
-        <v>280</v>
-      </c>
-      <c r="D82" s="62">
-        <v>65</v>
-      </c>
-      <c r="E82" s="92">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="15">
-      <c r="B83" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="84">
-        <v>210</v>
-      </c>
-      <c r="D83" s="85">
-        <v>22</v>
-      </c>
-      <c r="E83" s="96">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A84" s="89"/>
-      <c r="B84" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="113">
-        <v>35</v>
-      </c>
-      <c r="D84" s="114">
-        <v>2</v>
-      </c>
-      <c r="E84" s="98">
-        <v>33</v>
-      </c>
-      <c r="F84" s="99"/>
-    </row>
-    <row r="85" spans="1:21" s="101" customFormat="1" ht="15">
-      <c r="A85" s="89"/>
-      <c r="B85" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="87">
-        <v>35</v>
-      </c>
-      <c r="D85" s="88">
-        <v>0</v>
-      </c>
-      <c r="E85" s="98">
-        <v>35</v>
-      </c>
-      <c r="F85" s="99"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="100"/>
-      <c r="K85" s="100"/>
-      <c r="L85" s="100"/>
-      <c r="M85" s="100"/>
-      <c r="N85" s="100"/>
-      <c r="O85" s="100"/>
-      <c r="P85" s="100"/>
-      <c r="Q85" s="100"/>
-      <c r="R85" s="100"/>
-      <c r="S85" s="100"/>
-      <c r="T85" s="100"/>
-      <c r="U85" s="100"/>
-    </row>
-    <row r="86" spans="1:21" ht="15">
-      <c r="B86" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="33">
-        <v>35</v>
-      </c>
-      <c r="D86" s="65">
-        <v>0</v>
-      </c>
-      <c r="E86" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="15">
-      <c r="B87" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="28">
-        <v>35</v>
-      </c>
-      <c r="D87" s="62">
-        <v>4</v>
-      </c>
-      <c r="E87" s="92">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="15">
-      <c r="B88" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="28">
-        <v>35</v>
-      </c>
-      <c r="D88" s="62">
-        <v>3</v>
-      </c>
-      <c r="E88" s="92">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="15">
-      <c r="B89" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="28">
-        <v>35</v>
-      </c>
-      <c r="D89" s="62">
-        <v>0</v>
-      </c>
-      <c r="E89" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="15">
-      <c r="B90" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="28">
-        <v>35</v>
-      </c>
-      <c r="D90" s="62">
-        <v>5</v>
-      </c>
-      <c r="E90" s="92">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="15">
-      <c r="B91" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="28">
-        <v>35</v>
-      </c>
-      <c r="D91" s="62">
-        <v>6</v>
-      </c>
-      <c r="E91" s="92">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="15">
-      <c r="B92" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="28">
-        <v>35</v>
-      </c>
-      <c r="D92" s="62">
-        <v>1</v>
-      </c>
-      <c r="E92" s="92">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="15">
-      <c r="B93" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="28">
-        <v>7</v>
-      </c>
-      <c r="D93" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="15">
-      <c r="A94" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="91">
-        <v>1</v>
-      </c>
-      <c r="D94" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="12.75">
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="52"/>
-    </row>
-    <row r="96" spans="1:21" ht="15">
-      <c r="B96" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="52"/>
-    </row>
-    <row r="97" spans="2:5" ht="25.5">
-      <c r="B97" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="54">
-        <v>1</v>
-      </c>
-      <c r="D97" s="52">
-        <v>0</v>
-      </c>
-      <c r="E97" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="12.75">
-      <c r="B98" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="55">
-        <v>1</v>
-      </c>
-      <c r="D98" s="52">
-        <v>0</v>
-      </c>
-      <c r="E98" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="12.75">
-      <c r="B99" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="56">
-        <v>1</v>
-      </c>
-      <c r="D99" s="52">
-        <v>0</v>
-      </c>
-      <c r="E99" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="25.5">
-      <c r="B100" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="57">
-        <v>1</v>
-      </c>
-      <c r="D100" s="52">
-        <v>0</v>
-      </c>
-      <c r="E100" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="15">
-      <c r="B101" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="35">
-        <v>35</v>
-      </c>
-      <c r="D101" s="53">
-        <v>0</v>
-      </c>
-      <c r="E101" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="15">
-      <c r="B102" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="35">
-        <v>35</v>
-      </c>
-      <c r="D102" s="53">
-        <v>0</v>
-      </c>
-      <c r="E102" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="15">
-      <c r="B103" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="35">
-        <v>35</v>
-      </c>
-      <c r="D103" s="53">
-        <v>0</v>
-      </c>
-      <c r="E103" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="15">
-      <c r="B104" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" s="35">
-        <v>35</v>
-      </c>
-      <c r="D104" s="53">
-        <v>5</v>
-      </c>
-      <c r="E104" s="92">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="15">
-      <c r="B105" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" s="35">
-        <v>35</v>
-      </c>
-      <c r="D105" s="53">
-        <v>0</v>
-      </c>
-      <c r="E105" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="15">
-      <c r="B106" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="30">
-        <v>35</v>
-      </c>
-      <c r="D106" s="53">
-        <v>0</v>
-      </c>
-      <c r="E106" s="92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="12.75">
+      <c r="E105" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="13.2">
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="2:5" ht="13.2">
       <c r="B107" s="24"/>
     </row>
-    <row r="108" spans="2:5" ht="12.75">
+    <row r="108" spans="2:5" ht="13.2">
       <c r="B108" s="24"/>
     </row>
-    <row r="109" spans="2:5" ht="12.75">
+    <row r="109" spans="2:5" ht="13.2">
       <c r="B109" s="24"/>
     </row>
-    <row r="110" spans="2:5" ht="12.75">
+    <row r="110" spans="2:5" ht="13.2">
       <c r="B110" s="24"/>
     </row>
-    <row r="111" spans="2:5" ht="12.75">
+    <row r="111" spans="2:5" ht="13.2">
       <c r="B111" s="24"/>
     </row>
-    <row r="112" spans="2:5" ht="12.75">
+    <row r="112" spans="2:5" ht="13.2">
       <c r="B112" s="24"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75">
+    <row r="113" spans="2:2" ht="13.2">
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75">
+    <row r="114" spans="2:2" ht="13.2">
       <c r="B114" s="24"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75">
+    <row r="115" spans="2:2" ht="13.2">
       <c r="B115" s="24"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75">
+    <row r="116" spans="2:2" ht="13.2">
       <c r="B116" s="24"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75">
+    <row r="117" spans="2:2" ht="13.2">
       <c r="B117" s="24"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75">
+    <row r="118" spans="2:2" ht="13.2">
       <c r="B118" s="24"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75">
+    <row r="119" spans="2:2" ht="13.2">
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75">
+    <row r="120" spans="2:2" ht="13.2">
       <c r="B120" s="24"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75">
+    <row r="121" spans="2:2" ht="13.2">
       <c r="B121" s="24"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75">
+    <row r="122" spans="2:2" ht="13.2">
       <c r="B122" s="24"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75">
+    <row r="123" spans="2:2" ht="13.2">
       <c r="B123" s="24"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75">
+    <row r="124" spans="2:2" ht="13.2">
       <c r="B124" s="24"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75">
+    <row r="125" spans="2:2" ht="13.2">
       <c r="B125" s="24"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75">
+    <row r="126" spans="2:2" ht="13.2">
       <c r="B126" s="24"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75">
+    <row r="127" spans="2:2" ht="13.2">
       <c r="B127" s="24"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75">
+    <row r="128" spans="2:2" ht="13.2">
       <c r="B128" s="24"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75">
+    <row r="129" spans="2:2" ht="13.2">
       <c r="B129" s="24"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75">
+    <row r="130" spans="2:2" ht="13.2">
       <c r="B130" s="24"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75">
+    <row r="131" spans="2:2" ht="13.2">
       <c r="B131" s="24"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75">
+    <row r="132" spans="2:2" ht="13.2">
       <c r="B132" s="24"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75">
+    <row r="133" spans="2:2" ht="13.2">
       <c r="B133" s="24"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75">
+    <row r="134" spans="2:2" ht="13.2">
       <c r="B134" s="24"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75">
+    <row r="135" spans="2:2" ht="13.2">
       <c r="B135" s="24"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75">
+    <row r="136" spans="2:2" ht="13.2">
       <c r="B136" s="24"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75">
+    <row r="137" spans="2:2" ht="13.2">
       <c r="B137" s="24"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75">
+    <row r="138" spans="2:2" ht="13.2">
       <c r="B138" s="24"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75">
+    <row r="139" spans="2:2" ht="13.2">
       <c r="B139" s="24"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75">
+    <row r="140" spans="2:2" ht="13.2">
       <c r="B140" s="24"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75">
+    <row r="141" spans="2:2" ht="13.2">
       <c r="B141" s="24"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75">
+    <row r="142" spans="2:2" ht="13.2">
       <c r="B142" s="24"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75">
+    <row r="143" spans="2:2" ht="13.2">
       <c r="B143" s="24"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75">
+    <row r="144" spans="2:2" ht="13.2">
       <c r="B144" s="24"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75">
+    <row r="145" spans="2:2" ht="13.2">
       <c r="B145" s="24"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75">
+    <row r="146" spans="2:2" ht="13.2">
       <c r="B146" s="24"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75">
+    <row r="147" spans="2:2" ht="13.2">
       <c r="B147" s="24"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75">
+    <row r="148" spans="2:2" ht="13.2">
       <c r="B148" s="24"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75">
+    <row r="149" spans="2:2" ht="13.2">
       <c r="B149" s="24"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75">
+    <row r="150" spans="2:2" ht="13.2">
       <c r="B150" s="24"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75">
+    <row r="151" spans="2:2" ht="13.2">
       <c r="B151" s="24"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75">
+    <row r="152" spans="2:2" ht="13.2">
       <c r="B152" s="24"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75">
+    <row r="153" spans="2:2" ht="13.2">
       <c r="B153" s="24"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75">
+    <row r="154" spans="2:2" ht="13.2">
       <c r="B154" s="24"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75">
+    <row r="155" spans="2:2" ht="13.2">
       <c r="B155" s="24"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75">
+    <row r="156" spans="2:2" ht="13.2">
       <c r="B156" s="24"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75">
+    <row r="157" spans="2:2" ht="13.2">
       <c r="B157" s="24"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75">
+    <row r="158" spans="2:2" ht="13.2">
       <c r="B158" s="24"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75">
+    <row r="159" spans="2:2" ht="13.2">
       <c r="B159" s="24"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75">
+    <row r="160" spans="2:2" ht="13.2">
       <c r="B160" s="24"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75">
+    <row r="161" spans="2:2" ht="13.2">
       <c r="B161" s="24"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75">
+    <row r="162" spans="2:2" ht="13.2">
       <c r="B162" s="24"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75">
+    <row r="163" spans="2:2" ht="13.2">
       <c r="B163" s="24"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75">
+    <row r="164" spans="2:2" ht="13.2">
       <c r="B164" s="24"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75">
+    <row r="165" spans="2:2" ht="13.2">
       <c r="B165" s="24"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75">
+    <row r="166" spans="2:2" ht="13.2">
       <c r="B166" s="24"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75">
+    <row r="167" spans="2:2" ht="13.2">
       <c r="B167" s="24"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75">
+    <row r="168" spans="2:2" ht="13.2">
       <c r="B168" s="24"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75">
+    <row r="169" spans="2:2" ht="13.2">
       <c r="B169" s="24"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75">
+    <row r="170" spans="2:2" ht="13.2">
       <c r="B170" s="24"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75">
+    <row r="171" spans="2:2" ht="13.2">
       <c r="B171" s="24"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75">
+    <row r="172" spans="2:2" ht="13.2">
       <c r="B172" s="24"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75">
+    <row r="173" spans="2:2" ht="13.2">
       <c r="B173" s="24"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75">
+    <row r="174" spans="2:2" ht="13.2">
       <c r="B174" s="24"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75">
+    <row r="175" spans="2:2" ht="13.2">
       <c r="B175" s="24"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75">
+    <row r="176" spans="2:2" ht="13.2">
       <c r="B176" s="24"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75">
+    <row r="177" spans="2:2" ht="13.2">
       <c r="B177" s="24"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75">
+    <row r="178" spans="2:2" ht="13.2">
       <c r="B178" s="24"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75">
+    <row r="179" spans="2:2" ht="13.2">
       <c r="B179" s="24"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75">
+    <row r="180" spans="2:2" ht="13.2">
       <c r="B180" s="24"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75">
+    <row r="181" spans="2:2" ht="13.2">
       <c r="B181" s="24"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75">
+    <row r="182" spans="2:2" ht="13.2">
       <c r="B182" s="24"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75">
+    <row r="183" spans="2:2" ht="13.2">
       <c r="B183" s="24"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75">
+    <row r="184" spans="2:2" ht="13.2">
       <c r="B184" s="24"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75">
+    <row r="185" spans="2:2" ht="13.2">
       <c r="B185" s="24"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75">
+    <row r="186" spans="2:2" ht="13.2">
       <c r="B186" s="24"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75">
+    <row r="187" spans="2:2" ht="13.2">
       <c r="B187" s="24"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75">
+    <row r="188" spans="2:2" ht="13.2">
       <c r="B188" s="24"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75">
+    <row r="189" spans="2:2" ht="13.2">
       <c r="B189" s="24"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75">
+    <row r="190" spans="2:2" ht="13.2">
       <c r="B190" s="24"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75">
+    <row r="191" spans="2:2" ht="13.2">
       <c r="B191" s="24"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75">
+    <row r="192" spans="2:2" ht="13.2">
       <c r="B192" s="24"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75">
+    <row r="193" spans="2:2" ht="13.2">
       <c r="B193" s="24"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75">
+    <row r="194" spans="2:2" ht="13.2">
       <c r="B194" s="24"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75">
+    <row r="195" spans="2:2" ht="13.2">
       <c r="B195" s="24"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75">
+    <row r="196" spans="2:2" ht="13.2">
       <c r="B196" s="24"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75">
+    <row r="197" spans="2:2" ht="13.2">
       <c r="B197" s="24"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75">
+    <row r="198" spans="2:2" ht="13.2">
       <c r="B198" s="24"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75">
+    <row r="199" spans="2:2" ht="13.2">
       <c r="B199" s="24"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75">
+    <row r="200" spans="2:2" ht="13.2">
       <c r="B200" s="24"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75">
+    <row r="201" spans="2:2" ht="13.2">
       <c r="B201" s="24"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75">
+    <row r="202" spans="2:2" ht="13.2">
       <c r="B202" s="24"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75">
+    <row r="203" spans="2:2" ht="13.2">
       <c r="B203" s="24"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75">
+    <row r="204" spans="2:2" ht="13.2">
       <c r="B204" s="24"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75">
+    <row r="205" spans="2:2" ht="13.2">
       <c r="B205" s="24"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75">
+    <row r="206" spans="2:2" ht="13.2">
       <c r="B206" s="24"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75">
+    <row r="207" spans="2:2" ht="13.2">
       <c r="B207" s="24"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75">
+    <row r="208" spans="2:2" ht="13.2">
       <c r="B208" s="24"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75">
+    <row r="209" spans="2:2" ht="13.2">
       <c r="B209" s="24"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75">
+    <row r="210" spans="2:2" ht="13.2">
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75">
+    <row r="211" spans="2:2" ht="13.2">
       <c r="B211" s="24"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75">
+    <row r="212" spans="2:2" ht="13.2">
       <c r="B212" s="24"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75">
+    <row r="213" spans="2:2" ht="13.2">
       <c r="B213" s="24"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75">
+    <row r="214" spans="2:2" ht="13.2">
       <c r="B214" s="24"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75">
+    <row r="215" spans="2:2" ht="13.2">
       <c r="B215" s="24"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75">
+    <row r="216" spans="2:2" ht="13.2">
       <c r="B216" s="24"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75">
+    <row r="217" spans="2:2" ht="13.2">
       <c r="B217" s="24"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75">
+    <row r="218" spans="2:2" ht="13.2">
       <c r="B218" s="24"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75">
+    <row r="219" spans="2:2" ht="13.2">
       <c r="B219" s="24"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75">
+    <row r="220" spans="2:2" ht="13.2">
       <c r="B220" s="24"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75">
+    <row r="221" spans="2:2" ht="13.2">
       <c r="B221" s="24"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75">
+    <row r="222" spans="2:2" ht="13.2">
       <c r="B222" s="24"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75">
+    <row r="223" spans="2:2" ht="13.2">
       <c r="B223" s="24"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75">
+    <row r="224" spans="2:2" ht="13.2">
       <c r="B224" s="24"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75">
+    <row r="225" spans="2:2" ht="13.2">
       <c r="B225" s="24"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75">
+    <row r="226" spans="2:2" ht="13.2">
       <c r="B226" s="24"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75">
+    <row r="227" spans="2:2" ht="13.2">
       <c r="B227" s="24"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75">
+    <row r="228" spans="2:2" ht="13.2">
       <c r="B228" s="24"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75">
+    <row r="229" spans="2:2" ht="13.2">
       <c r="B229" s="24"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75">
+    <row r="230" spans="2:2" ht="13.2">
       <c r="B230" s="24"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75">
+    <row r="231" spans="2:2" ht="13.2">
       <c r="B231" s="24"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75">
+    <row r="232" spans="2:2" ht="13.2">
       <c r="B232" s="24"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75">
+    <row r="233" spans="2:2" ht="13.2">
       <c r="B233" s="24"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75">
+    <row r="234" spans="2:2" ht="13.2">
       <c r="B234" s="24"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75">
+    <row r="235" spans="2:2" ht="13.2">
       <c r="B235" s="24"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75">
+    <row r="236" spans="2:2" ht="13.2">
       <c r="B236" s="24"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75">
+    <row r="237" spans="2:2" ht="13.2">
       <c r="B237" s="24"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75">
+    <row r="238" spans="2:2" ht="13.2">
       <c r="B238" s="24"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75">
+    <row r="239" spans="2:2" ht="13.2">
       <c r="B239" s="24"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75">
+    <row r="240" spans="2:2" ht="13.2">
       <c r="B240" s="24"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75">
+    <row r="241" spans="2:2" ht="13.2">
       <c r="B241" s="24"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75">
+    <row r="242" spans="2:2" ht="13.2">
       <c r="B242" s="24"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75">
+    <row r="243" spans="2:2" ht="13.2">
       <c r="B243" s="24"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75">
+    <row r="244" spans="2:2" ht="13.2">
       <c r="B244" s="24"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75">
+    <row r="245" spans="2:2" ht="13.2">
       <c r="B245" s="24"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75">
+    <row r="246" spans="2:2" ht="13.2">
       <c r="B246" s="24"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75">
+    <row r="247" spans="2:2" ht="13.2">
       <c r="B247" s="24"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75">
+    <row r="248" spans="2:2" ht="13.2">
       <c r="B248" s="24"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75">
+    <row r="249" spans="2:2" ht="13.2">
       <c r="B249" s="24"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75">
+    <row r="250" spans="2:2" ht="13.2">
       <c r="B250" s="24"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75">
+    <row r="251" spans="2:2" ht="13.2">
       <c r="B251" s="24"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75">
+    <row r="252" spans="2:2" ht="13.2">
       <c r="B252" s="24"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75">
+    <row r="253" spans="2:2" ht="13.2">
       <c r="B253" s="24"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75">
+    <row r="254" spans="2:2" ht="13.2">
       <c r="B254" s="24"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75">
+    <row r="255" spans="2:2" ht="13.2">
       <c r="B255" s="24"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75">
+    <row r="256" spans="2:2" ht="13.2">
       <c r="B256" s="24"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75">
+    <row r="257" spans="2:2" ht="13.2">
       <c r="B257" s="24"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75">
+    <row r="258" spans="2:2" ht="13.2">
       <c r="B258" s="24"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75">
+    <row r="259" spans="2:2" ht="13.2">
       <c r="B259" s="24"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75">
+    <row r="260" spans="2:2" ht="13.2">
       <c r="B260" s="24"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75">
+    <row r="261" spans="2:2" ht="13.2">
       <c r="B261" s="24"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75">
+    <row r="262" spans="2:2" ht="13.2">
       <c r="B262" s="24"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75">
+    <row r="263" spans="2:2" ht="13.2">
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75">
+    <row r="264" spans="2:2" ht="13.2">
       <c r="B264" s="24"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75">
+    <row r="265" spans="2:2" ht="13.2">
       <c r="B265" s="24"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75">
+    <row r="266" spans="2:2" ht="13.2">
       <c r="B266" s="24"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75">
+    <row r="267" spans="2:2" ht="13.2">
       <c r="B267" s="24"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75">
+    <row r="268" spans="2:2" ht="13.2">
       <c r="B268" s="24"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75">
+    <row r="269" spans="2:2" ht="13.2">
       <c r="B269" s="24"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75">
+    <row r="270" spans="2:2" ht="13.2">
       <c r="B270" s="24"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75">
+    <row r="271" spans="2:2" ht="13.2">
       <c r="B271" s="24"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75">
+    <row r="272" spans="2:2" ht="13.2">
       <c r="B272" s="24"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75">
+    <row r="273" spans="2:2" ht="13.2">
       <c r="B273" s="24"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75">
+    <row r="274" spans="2:2" ht="13.2">
       <c r="B274" s="24"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75">
+    <row r="275" spans="2:2" ht="13.2">
       <c r="B275" s="24"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75">
+    <row r="276" spans="2:2" ht="13.2">
       <c r="B276" s="24"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75">
+    <row r="277" spans="2:2" ht="13.2">
       <c r="B277" s="24"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75">
+    <row r="278" spans="2:2" ht="13.2">
       <c r="B278" s="24"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75">
+    <row r="279" spans="2:2" ht="13.2">
       <c r="B279" s="24"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75">
+    <row r="280" spans="2:2" ht="13.2">
       <c r="B280" s="24"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75">
+    <row r="281" spans="2:2" ht="13.2">
       <c r="B281" s="24"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75">
+    <row r="282" spans="2:2" ht="13.2">
       <c r="B282" s="24"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75">
+    <row r="283" spans="2:2" ht="13.2">
       <c r="B283" s="24"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75">
+    <row r="284" spans="2:2" ht="13.2">
       <c r="B284" s="24"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75">
+    <row r="285" spans="2:2" ht="13.2">
       <c r="B285" s="24"/>
     </row>
-    <row r="286" spans="2:2" ht="12.75">
+    <row r="286" spans="2:2" ht="13.2">
       <c r="B286" s="24"/>
     </row>
-    <row r="287" spans="2:2" ht="12.75">
+    <row r="287" spans="2:2" ht="13.2">
       <c r="B287" s="24"/>
     </row>
-    <row r="288" spans="2:2" ht="12.75">
+    <row r="288" spans="2:2" ht="13.2">
       <c r="B288" s="24"/>
     </row>
-    <row r="289" spans="2:2" ht="12.75">
+    <row r="289" spans="2:2" ht="13.2">
       <c r="B289" s="24"/>
     </row>
-    <row r="290" spans="2:2" ht="12.75">
+    <row r="290" spans="2:2" ht="13.2">
       <c r="B290" s="24"/>
     </row>
-    <row r="291" spans="2:2" ht="12.75">
+    <row r="291" spans="2:2" ht="13.2">
       <c r="B291" s="24"/>
     </row>
-    <row r="292" spans="2:2" ht="12.75">
+    <row r="292" spans="2:2" ht="13.2">
       <c r="B292" s="24"/>
     </row>
-    <row r="293" spans="2:2" ht="12.75">
+    <row r="293" spans="2:2" ht="13.2">
       <c r="B293" s="24"/>
     </row>
-    <row r="294" spans="2:2" ht="12.75">
+    <row r="294" spans="2:2" ht="13.2">
       <c r="B294" s="24"/>
     </row>
-    <row r="295" spans="2:2" ht="12.75">
+    <row r="295" spans="2:2" ht="13.2">
       <c r="B295" s="24"/>
     </row>
-    <row r="296" spans="2:2" ht="12.75">
+    <row r="296" spans="2:2" ht="13.2">
       <c r="B296" s="24"/>
     </row>
-    <row r="297" spans="2:2" ht="12.75">
+    <row r="297" spans="2:2" ht="13.2">
       <c r="B297" s="24"/>
     </row>
-    <row r="298" spans="2:2" ht="12.75">
+    <row r="298" spans="2:2" ht="13.2">
       <c r="B298" s="24"/>
     </row>
-    <row r="299" spans="2:2" ht="12.75">
+    <row r="299" spans="2:2" ht="13.2">
       <c r="B299" s="24"/>
     </row>
-    <row r="300" spans="2:2" ht="12.75">
+    <row r="300" spans="2:2" ht="13.2">
       <c r="B300" s="24"/>
     </row>
-    <row r="301" spans="2:2" ht="12.75">
+    <row r="301" spans="2:2" ht="13.2">
       <c r="B301" s="24"/>
     </row>
-    <row r="302" spans="2:2" ht="12.75">
+    <row r="302" spans="2:2" ht="13.2">
       <c r="B302" s="24"/>
     </row>
-    <row r="303" spans="2:2" ht="12.75">
+    <row r="303" spans="2:2" ht="13.2">
       <c r="B303" s="24"/>
     </row>
-    <row r="304" spans="2:2" ht="12.75">
+    <row r="304" spans="2:2" ht="13.2">
       <c r="B304" s="24"/>
     </row>
-    <row r="305" spans="2:2" ht="12.75">
+    <row r="305" spans="2:2" ht="13.2">
       <c r="B305" s="24"/>
     </row>
-    <row r="306" spans="2:2" ht="12.75">
+    <row r="306" spans="2:2" ht="13.2">
       <c r="B306" s="24"/>
     </row>
-    <row r="307" spans="2:2" ht="12.75">
+    <row r="307" spans="2:2" ht="13.2">
       <c r="B307" s="24"/>
     </row>
-    <row r="308" spans="2:2" ht="12.75">
+    <row r="308" spans="2:2" ht="13.2">
       <c r="B308" s="24"/>
     </row>
-    <row r="309" spans="2:2" ht="12.75">
+    <row r="309" spans="2:2" ht="13.2">
       <c r="B309" s="24"/>
     </row>
-    <row r="310" spans="2:2" ht="12.75">
+    <row r="310" spans="2:2" ht="13.2">
       <c r="B310" s="24"/>
     </row>
-    <row r="311" spans="2:2" ht="12.75">
+    <row r="311" spans="2:2" ht="13.2">
       <c r="B311" s="24"/>
     </row>
-    <row r="312" spans="2:2" ht="12.75">
+    <row r="312" spans="2:2" ht="13.2">
       <c r="B312" s="24"/>
     </row>
-    <row r="313" spans="2:2" ht="12.75">
+    <row r="313" spans="2:2" ht="13.2">
       <c r="B313" s="24"/>
     </row>
-    <row r="314" spans="2:2" ht="12.75">
+    <row r="314" spans="2:2" ht="13.2">
       <c r="B314" s="24"/>
     </row>
-    <row r="315" spans="2:2" ht="12.75">
+    <row r="315" spans="2:2" ht="13.2">
       <c r="B315" s="24"/>
     </row>
-    <row r="316" spans="2:2" ht="12.75">
+    <row r="316" spans="2:2" ht="13.2">
       <c r="B316" s="24"/>
     </row>
-    <row r="317" spans="2:2" ht="12.75">
+    <row r="317" spans="2:2" ht="13.2">
       <c r="B317" s="24"/>
     </row>
-    <row r="318" spans="2:2" ht="12.75">
+    <row r="318" spans="2:2" ht="13.2">
       <c r="B318" s="24"/>
     </row>
-    <row r="319" spans="2:2" ht="12.75">
+    <row r="319" spans="2:2" ht="13.2">
       <c r="B319" s="24"/>
     </row>
-    <row r="320" spans="2:2" ht="12.75">
+    <row r="320" spans="2:2" ht="13.2">
       <c r="B320" s="24"/>
     </row>
-    <row r="321" spans="2:2" ht="12.75">
+    <row r="321" spans="2:2" ht="13.2">
       <c r="B321" s="24"/>
     </row>
-    <row r="322" spans="2:2" ht="12.75">
+    <row r="322" spans="2:2" ht="13.2">
       <c r="B322" s="24"/>
     </row>
-    <row r="323" spans="2:2" ht="12.75">
+    <row r="323" spans="2:2" ht="13.2">
       <c r="B323" s="24"/>
     </row>
-    <row r="324" spans="2:2" ht="12.75">
+    <row r="324" spans="2:2" ht="13.2">
       <c r="B324" s="24"/>
     </row>
-    <row r="325" spans="2:2" ht="12.75">
+    <row r="325" spans="2:2" ht="13.2">
       <c r="B325" s="24"/>
     </row>
-    <row r="326" spans="2:2" ht="12.75">
+    <row r="326" spans="2:2" ht="13.2">
       <c r="B326" s="24"/>
     </row>
-    <row r="327" spans="2:2" ht="12.75">
+    <row r="327" spans="2:2" ht="13.2">
       <c r="B327" s="24"/>
     </row>
-    <row r="328" spans="2:2" ht="12.75">
+    <row r="328" spans="2:2" ht="13.2">
       <c r="B328" s="24"/>
     </row>
-    <row r="329" spans="2:2" ht="12.75">
+    <row r="329" spans="2:2" ht="13.2">
       <c r="B329" s="24"/>
     </row>
-    <row r="330" spans="2:2" ht="12.75">
+    <row r="330" spans="2:2" ht="13.2">
       <c r="B330" s="24"/>
     </row>
-    <row r="331" spans="2:2" ht="12.75">
+    <row r="331" spans="2:2" ht="13.2">
       <c r="B331" s="24"/>
     </row>
-    <row r="332" spans="2:2" ht="12.75">
+    <row r="332" spans="2:2" ht="13.2">
       <c r="B332" s="24"/>
     </row>
-    <row r="333" spans="2:2" ht="12.75">
+    <row r="333" spans="2:2" ht="13.2">
       <c r="B333" s="24"/>
     </row>
-    <row r="334" spans="2:2" ht="12.75">
+    <row r="334" spans="2:2" ht="13.2">
       <c r="B334" s="24"/>
     </row>
-    <row r="335" spans="2:2" ht="12.75">
+    <row r="335" spans="2:2" ht="13.2">
       <c r="B335" s="24"/>
     </row>
-    <row r="336" spans="2:2" ht="12.75">
+    <row r="336" spans="2:2" ht="13.2">
       <c r="B336" s="24"/>
     </row>
-    <row r="337" spans="2:2" ht="12.75">
+    <row r="337" spans="2:2" ht="13.2">
       <c r="B337" s="24"/>
     </row>
-    <row r="338" spans="2:2" ht="12.75">
+    <row r="338" spans="2:2" ht="13.2">
       <c r="B338" s="24"/>
     </row>
-    <row r="339" spans="2:2" ht="12.75">
+    <row r="339" spans="2:2" ht="13.2">
       <c r="B339" s="24"/>
     </row>
-    <row r="340" spans="2:2" ht="12.75">
+    <row r="340" spans="2:2" ht="13.2">
       <c r="B340" s="24"/>
     </row>
-    <row r="341" spans="2:2" ht="12.75">
+    <row r="341" spans="2:2" ht="13.2">
       <c r="B341" s="24"/>
     </row>
-    <row r="342" spans="2:2" ht="12.75">
+    <row r="342" spans="2:2" ht="13.2">
       <c r="B342" s="24"/>
     </row>
-    <row r="343" spans="2:2" ht="12.75">
+    <row r="343" spans="2:2" ht="13.2">
       <c r="B343" s="24"/>
     </row>
-    <row r="344" spans="2:2" ht="12.75">
+    <row r="344" spans="2:2" ht="13.2">
       <c r="B344" s="24"/>
     </row>
-    <row r="345" spans="2:2" ht="12.75">
+    <row r="345" spans="2:2" ht="13.2">
       <c r="B345" s="24"/>
     </row>
-    <row r="346" spans="2:2" ht="12.75">
+    <row r="346" spans="2:2" ht="13.2">
       <c r="B346" s="24"/>
     </row>
-    <row r="347" spans="2:2" ht="12.75">
+    <row r="347" spans="2:2" ht="13.2">
       <c r="B347" s="24"/>
     </row>
-    <row r="348" spans="2:2" ht="12.75">
+    <row r="348" spans="2:2" ht="13.2">
       <c r="B348" s="24"/>
     </row>
-    <row r="349" spans="2:2" ht="12.75">
+    <row r="349" spans="2:2" ht="13.2">
       <c r="B349" s="24"/>
     </row>
-    <row r="350" spans="2:2" ht="12.75">
+    <row r="350" spans="2:2" ht="13.2">
       <c r="B350" s="24"/>
     </row>
-    <row r="351" spans="2:2" ht="12.75">
+    <row r="351" spans="2:2" ht="13.2">
       <c r="B351" s="24"/>
     </row>
-    <row r="352" spans="2:2" ht="12.75">
+    <row r="352" spans="2:2" ht="13.2">
       <c r="B352" s="24"/>
     </row>
-    <row r="353" spans="2:2" ht="12.75">
+    <row r="353" spans="2:2" ht="13.2">
       <c r="B353" s="24"/>
     </row>
-    <row r="354" spans="2:2" ht="12.75">
+    <row r="354" spans="2:2" ht="13.2">
       <c r="B354" s="24"/>
     </row>
-    <row r="355" spans="2:2" ht="12.75">
+    <row r="355" spans="2:2" ht="13.2">
       <c r="B355" s="24"/>
     </row>
-    <row r="356" spans="2:2" ht="12.75">
+    <row r="356" spans="2:2" ht="13.2">
       <c r="B356" s="24"/>
     </row>
-    <row r="357" spans="2:2" ht="12.75">
+    <row r="357" spans="2:2" ht="13.2">
       <c r="B357" s="24"/>
     </row>
-    <row r="358" spans="2:2" ht="12.75">
+    <row r="358" spans="2:2" ht="13.2">
       <c r="B358" s="24"/>
     </row>
-    <row r="359" spans="2:2" ht="12.75">
+    <row r="359" spans="2:2" ht="13.2">
       <c r="B359" s="24"/>
     </row>
-    <row r="360" spans="2:2" ht="12.75">
+    <row r="360" spans="2:2" ht="13.2">
       <c r="B360" s="24"/>
     </row>
-    <row r="361" spans="2:2" ht="12.75">
+    <row r="361" spans="2:2" ht="13.2">
       <c r="B361" s="24"/>
     </row>
-    <row r="362" spans="2:2" ht="12.75">
+    <row r="362" spans="2:2" ht="13.2">
       <c r="B362" s="24"/>
     </row>
-    <row r="363" spans="2:2" ht="12.75">
+    <row r="363" spans="2:2" ht="13.2">
       <c r="B363" s="24"/>
     </row>
-    <row r="364" spans="2:2" ht="12.75">
+    <row r="364" spans="2:2" ht="13.2">
       <c r="B364" s="24"/>
     </row>
-    <row r="365" spans="2:2" ht="12.75">
+    <row r="365" spans="2:2" ht="13.2">
       <c r="B365" s="24"/>
     </row>
-    <row r="366" spans="2:2" ht="12.75">
+    <row r="366" spans="2:2" ht="13.2">
       <c r="B366" s="24"/>
     </row>
-    <row r="367" spans="2:2" ht="12.75">
+    <row r="367" spans="2:2" ht="13.2">
       <c r="B367" s="24"/>
     </row>
-    <row r="368" spans="2:2" ht="12.75">
+    <row r="368" spans="2:2" ht="13.2">
       <c r="B368" s="24"/>
     </row>
-    <row r="369" spans="2:2" ht="12.75">
+    <row r="369" spans="2:2" ht="13.2">
       <c r="B369" s="24"/>
     </row>
-    <row r="370" spans="2:2" ht="12.75">
+    <row r="370" spans="2:2" ht="13.2">
       <c r="B370" s="24"/>
     </row>
-    <row r="371" spans="2:2" ht="12.75">
+    <row r="371" spans="2:2" ht="13.2">
       <c r="B371" s="24"/>
     </row>
-    <row r="372" spans="2:2" ht="12.75">
+    <row r="372" spans="2:2" ht="13.2">
       <c r="B372" s="24"/>
     </row>
-    <row r="373" spans="2:2" ht="12.75">
+    <row r="373" spans="2:2" ht="13.2">
       <c r="B373" s="24"/>
     </row>
-    <row r="374" spans="2:2" ht="12.75">
+    <row r="374" spans="2:2" ht="13.2">
       <c r="B374" s="24"/>
     </row>
-    <row r="375" spans="2:2" ht="12.75">
+    <row r="375" spans="2:2" ht="13.2">
       <c r="B375" s="24"/>
     </row>
-    <row r="376" spans="2:2" ht="12.75">
+    <row r="376" spans="2:2" ht="13.2">
       <c r="B376" s="24"/>
     </row>
-    <row r="377" spans="2:2" ht="12.75">
+    <row r="377" spans="2:2" ht="13.2">
       <c r="B377" s="24"/>
     </row>
-    <row r="378" spans="2:2" ht="12.75">
+    <row r="378" spans="2:2" ht="13.2">
       <c r="B378" s="24"/>
     </row>
-    <row r="379" spans="2:2" ht="12.75">
+    <row r="379" spans="2:2" ht="13.2">
       <c r="B379" s="24"/>
     </row>
-    <row r="380" spans="2:2" ht="12.75">
+    <row r="380" spans="2:2" ht="13.2">
       <c r="B380" s="24"/>
     </row>
-    <row r="381" spans="2:2" ht="12.75">
+    <row r="381" spans="2:2" ht="13.2">
       <c r="B381" s="24"/>
     </row>
-    <row r="382" spans="2:2" ht="12.75">
+    <row r="382" spans="2:2" ht="13.2">
       <c r="B382" s="24"/>
     </row>
-    <row r="383" spans="2:2" ht="12.75">
+    <row r="383" spans="2:2" ht="13.2">
       <c r="B383" s="24"/>
     </row>
-    <row r="384" spans="2:2" ht="12.75">
+    <row r="384" spans="2:2" ht="13.2">
       <c r="B384" s="24"/>
     </row>
-    <row r="385" spans="2:2" ht="12.75">
+    <row r="385" spans="2:2" ht="13.2">
       <c r="B385" s="24"/>
     </row>
-    <row r="386" spans="2:2" ht="12.75">
+    <row r="386" spans="2:2" ht="13.2">
       <c r="B386" s="24"/>
     </row>
-    <row r="387" spans="2:2" ht="12.75">
+    <row r="387" spans="2:2" ht="13.2">
       <c r="B387" s="24"/>
     </row>
-    <row r="388" spans="2:2" ht="12.75">
+    <row r="388" spans="2:2" ht="13.2">
       <c r="B388" s="24"/>
     </row>
-    <row r="389" spans="2:2" ht="12.75">
+    <row r="389" spans="2:2" ht="13.2">
       <c r="B389" s="24"/>
     </row>
-    <row r="390" spans="2:2" ht="12.75">
+    <row r="390" spans="2:2" ht="13.2">
       <c r="B390" s="24"/>
     </row>
-    <row r="391" spans="2:2" ht="12.75">
+    <row r="391" spans="2:2" ht="13.2">
       <c r="B391" s="24"/>
     </row>
-    <row r="392" spans="2:2" ht="12.75">
+    <row r="392" spans="2:2" ht="13.2">
       <c r="B392" s="24"/>
     </row>
-    <row r="393" spans="2:2" ht="12.75">
+    <row r="393" spans="2:2" ht="13.2">
       <c r="B393" s="24"/>
     </row>
-    <row r="394" spans="2:2" ht="12.75">
+    <row r="394" spans="2:2" ht="13.2">
       <c r="B394" s="24"/>
     </row>
-    <row r="395" spans="2:2" ht="12.75">
+    <row r="395" spans="2:2" ht="13.2">
       <c r="B395" s="24"/>
     </row>
-    <row r="396" spans="2:2" ht="12.75">
+    <row r="396" spans="2:2" ht="13.2">
       <c r="B396" s="24"/>
     </row>
-    <row r="397" spans="2:2" ht="12.75">
+    <row r="397" spans="2:2" ht="13.2">
       <c r="B397" s="24"/>
     </row>
-    <row r="398" spans="2:2" ht="12.75">
+    <row r="398" spans="2:2" ht="13.2">
       <c r="B398" s="24"/>
     </row>
-    <row r="399" spans="2:2" ht="12.75">
+    <row r="399" spans="2:2" ht="13.2">
       <c r="B399" s="24"/>
     </row>
-    <row r="400" spans="2:2" ht="12.75">
+    <row r="400" spans="2:2" ht="13.2">
       <c r="B400" s="24"/>
     </row>
-    <row r="401" spans="2:2" ht="12.75">
+    <row r="401" spans="2:2" ht="13.2">
       <c r="B401" s="24"/>
     </row>
-    <row r="402" spans="2:2" ht="12.75">
+    <row r="402" spans="2:2" ht="13.2">
       <c r="B402" s="24"/>
     </row>
-    <row r="403" spans="2:2" ht="12.75">
+    <row r="403" spans="2:2" ht="13.2">
       <c r="B403" s="24"/>
     </row>
-    <row r="404" spans="2:2" ht="12.75">
+    <row r="404" spans="2:2" ht="13.2">
       <c r="B404" s="24"/>
     </row>
-    <row r="405" spans="2:2" ht="12.75">
+    <row r="405" spans="2:2" ht="13.2">
       <c r="B405" s="24"/>
     </row>
-    <row r="406" spans="2:2" ht="12.75">
+    <row r="406" spans="2:2" ht="13.2">
       <c r="B406" s="24"/>
     </row>
-    <row r="407" spans="2:2" ht="12.75">
+    <row r="407" spans="2:2" ht="13.2">
       <c r="B407" s="24"/>
     </row>
-    <row r="408" spans="2:2" ht="12.75">
+    <row r="408" spans="2:2" ht="13.2">
       <c r="B408" s="24"/>
     </row>
-    <row r="409" spans="2:2" ht="12.75">
+    <row r="409" spans="2:2" ht="13.2">
       <c r="B409" s="24"/>
     </row>
-    <row r="410" spans="2:2" ht="12.75">
+    <row r="410" spans="2:2" ht="13.2">
       <c r="B410" s="24"/>
     </row>
-    <row r="411" spans="2:2" ht="12.75">
+    <row r="411" spans="2:2" ht="13.2">
       <c r="B411" s="24"/>
     </row>
-    <row r="412" spans="2:2" ht="12.75">
+    <row r="412" spans="2:2" ht="13.2">
       <c r="B412" s="24"/>
     </row>
-    <row r="413" spans="2:2" ht="12.75">
+    <row r="413" spans="2:2" ht="13.2">
       <c r="B413" s="24"/>
     </row>
-    <row r="414" spans="2:2" ht="12.75">
+    <row r="414" spans="2:2" ht="13.2">
       <c r="B414" s="24"/>
     </row>
-    <row r="415" spans="2:2" ht="12.75">
+    <row r="415" spans="2:2" ht="13.2">
       <c r="B415" s="24"/>
     </row>
-    <row r="416" spans="2:2" ht="12.75">
+    <row r="416" spans="2:2" ht="13.2">
       <c r="B416" s="24"/>
     </row>
-    <row r="417" spans="2:2" ht="12.75">
+    <row r="417" spans="2:2" ht="13.2">
       <c r="B417" s="24"/>
     </row>
-    <row r="418" spans="2:2" ht="12.75">
+    <row r="418" spans="2:2" ht="13.2">
       <c r="B418" s="24"/>
     </row>
-    <row r="419" spans="2:2" ht="12.75">
+    <row r="419" spans="2:2" ht="13.2">
       <c r="B419" s="24"/>
     </row>
-    <row r="420" spans="2:2" ht="12.75">
+    <row r="420" spans="2:2" ht="13.2">
       <c r="B420" s="24"/>
     </row>
-    <row r="421" spans="2:2" ht="12.75">
+    <row r="421" spans="2:2" ht="13.2">
       <c r="B421" s="24"/>
     </row>
-    <row r="422" spans="2:2" ht="12.75">
+    <row r="422" spans="2:2" ht="13.2">
       <c r="B422" s="24"/>
     </row>
-    <row r="423" spans="2:2" ht="12.75">
+    <row r="423" spans="2:2" ht="13.2">
       <c r="B423" s="24"/>
     </row>
-    <row r="424" spans="2:2" ht="12.75">
+    <row r="424" spans="2:2" ht="13.2">
       <c r="B424" s="24"/>
     </row>
-    <row r="425" spans="2:2" ht="12.75">
+    <row r="425" spans="2:2" ht="13.2">
       <c r="B425" s="24"/>
     </row>
-    <row r="426" spans="2:2" ht="12.75">
+    <row r="426" spans="2:2" ht="13.2">
       <c r="B426" s="24"/>
     </row>
-    <row r="427" spans="2:2" ht="12.75">
+    <row r="427" spans="2:2" ht="13.2">
       <c r="B427" s="24"/>
     </row>
-    <row r="428" spans="2:2" ht="12.75">
+    <row r="428" spans="2:2" ht="13.2">
       <c r="B428" s="24"/>
     </row>
-    <row r="429" spans="2:2" ht="12.75">
+    <row r="429" spans="2:2" ht="13.2">
       <c r="B429" s="24"/>
     </row>
-    <row r="430" spans="2:2" ht="12.75">
+    <row r="430" spans="2:2" ht="13.2">
       <c r="B430" s="24"/>
     </row>
-    <row r="431" spans="2:2" ht="12.75">
+    <row r="431" spans="2:2" ht="13.2">
       <c r="B431" s="24"/>
     </row>
-    <row r="432" spans="2:2" ht="12.75">
+    <row r="432" spans="2:2" ht="13.2">
       <c r="B432" s="24"/>
     </row>
-    <row r="433" spans="2:2" ht="12.75">
+    <row r="433" spans="2:2" ht="13.2">
       <c r="B433" s="24"/>
     </row>
-    <row r="434" spans="2:2" ht="12.75">
+    <row r="434" spans="2:2" ht="13.2">
       <c r="B434" s="24"/>
     </row>
-    <row r="435" spans="2:2" ht="12.75">
+    <row r="435" spans="2:2" ht="13.2">
       <c r="B435" s="24"/>
     </row>
-    <row r="436" spans="2:2" ht="12.75">
+    <row r="436" spans="2:2" ht="13.2">
       <c r="B436" s="24"/>
     </row>
-    <row r="437" spans="2:2" ht="12.75">
+    <row r="437" spans="2:2" ht="13.2">
       <c r="B437" s="24"/>
     </row>
-    <row r="438" spans="2:2" ht="12.75">
+    <row r="438" spans="2:2" ht="13.2">
       <c r="B438" s="24"/>
     </row>
-    <row r="439" spans="2:2" ht="12.75">
+    <row r="439" spans="2:2" ht="13.2">
       <c r="B439" s="24"/>
     </row>
-    <row r="440" spans="2:2" ht="12.75">
+    <row r="440" spans="2:2" ht="13.2">
       <c r="B440" s="24"/>
     </row>
-    <row r="441" spans="2:2" ht="12.75">
+    <row r="441" spans="2:2" ht="13.2">
       <c r="B441" s="24"/>
     </row>
-    <row r="442" spans="2:2" ht="12.75">
+    <row r="442" spans="2:2" ht="13.2">
       <c r="B442" s="24"/>
     </row>
-    <row r="443" spans="2:2" ht="12.75">
+    <row r="443" spans="2:2" ht="13.2">
       <c r="B443" s="24"/>
     </row>
-    <row r="444" spans="2:2" ht="12.75">
+    <row r="444" spans="2:2" ht="13.2">
       <c r="B444" s="24"/>
     </row>
-    <row r="445" spans="2:2" ht="12.75">
+    <row r="445" spans="2:2" ht="13.2">
       <c r="B445" s="24"/>
     </row>
-    <row r="446" spans="2:2" ht="12.75">
+    <row r="446" spans="2:2" ht="13.2">
       <c r="B446" s="24"/>
     </row>
-    <row r="447" spans="2:2" ht="12.75">
+    <row r="447" spans="2:2" ht="13.2">
       <c r="B447" s="24"/>
     </row>
-    <row r="448" spans="2:2" ht="12.75">
+    <row r="448" spans="2:2" ht="13.2">
       <c r="B448" s="24"/>
     </row>
-    <row r="449" spans="2:2" ht="12.75">
+    <row r="449" spans="2:2" ht="13.2">
       <c r="B449" s="24"/>
     </row>
-    <row r="450" spans="2:2" ht="12.75">
+    <row r="450" spans="2:2" ht="13.2">
       <c r="B450" s="24"/>
     </row>
-    <row r="451" spans="2:2" ht="12.75">
+    <row r="451" spans="2:2" ht="13.2">
       <c r="B451" s="24"/>
     </row>
-    <row r="452" spans="2:2" ht="12.75">
+    <row r="452" spans="2:2" ht="13.2">
       <c r="B452" s="24"/>
     </row>
-    <row r="453" spans="2:2" ht="12.75">
+    <row r="453" spans="2:2" ht="13.2">
       <c r="B453" s="24"/>
     </row>
-    <row r="454" spans="2:2" ht="12.75">
+    <row r="454" spans="2:2" ht="13.2">
       <c r="B454" s="24"/>
     </row>
-    <row r="455" spans="2:2" ht="12.75">
+    <row r="455" spans="2:2" ht="13.2">
       <c r="B455" s="24"/>
     </row>
-    <row r="456" spans="2:2" ht="12.75">
+    <row r="456" spans="2:2" ht="13.2">
       <c r="B456" s="24"/>
     </row>
-    <row r="457" spans="2:2" ht="12.75">
+    <row r="457" spans="2:2" ht="13.2">
       <c r="B457" s="24"/>
     </row>
-    <row r="458" spans="2:2" ht="12.75">
+    <row r="458" spans="2:2" ht="13.2">
       <c r="B458" s="24"/>
     </row>
-    <row r="459" spans="2:2" ht="12.75">
+    <row r="459" spans="2:2" ht="13.2">
       <c r="B459" s="24"/>
     </row>
-    <row r="460" spans="2:2" ht="12.75">
+    <row r="460" spans="2:2" ht="13.2">
       <c r="B460" s="24"/>
     </row>
-    <row r="461" spans="2:2" ht="12.75">
+    <row r="461" spans="2:2" ht="13.2">
       <c r="B461" s="24"/>
     </row>
-    <row r="462" spans="2:2" ht="12.75">
+    <row r="462" spans="2:2" ht="13.2">
       <c r="B462" s="24"/>
     </row>
-    <row r="463" spans="2:2" ht="12.75">
+    <row r="463" spans="2:2" ht="13.2">
       <c r="B463" s="24"/>
     </row>
-    <row r="464" spans="2:2" ht="12.75">
+    <row r="464" spans="2:2" ht="13.2">
       <c r="B464" s="24"/>
     </row>
-    <row r="465" spans="2:2" ht="12.75">
+    <row r="465" spans="2:2" ht="13.2">
       <c r="B465" s="24"/>
     </row>
-    <row r="466" spans="2:2" ht="12.75">
+    <row r="466" spans="2:2" ht="13.2">
       <c r="B466" s="24"/>
     </row>
-    <row r="467" spans="2:2" ht="12.75">
+    <row r="467" spans="2:2" ht="13.2">
       <c r="B467" s="24"/>
     </row>
-    <row r="468" spans="2:2" ht="12.75">
+    <row r="468" spans="2:2" ht="13.2">
       <c r="B468" s="24"/>
     </row>
-    <row r="469" spans="2:2" ht="12.75">
+    <row r="469" spans="2:2" ht="13.2">
       <c r="B469" s="24"/>
     </row>
-    <row r="470" spans="2:2" ht="12.75">
+    <row r="470" spans="2:2" ht="13.2">
       <c r="B470" s="24"/>
     </row>
-    <row r="471" spans="2:2" ht="12.75">
+    <row r="471" spans="2:2" ht="13.2">
       <c r="B471" s="24"/>
     </row>
-    <row r="472" spans="2:2" ht="12.75">
+    <row r="472" spans="2:2" ht="13.2">
       <c r="B472" s="24"/>
     </row>
-    <row r="473" spans="2:2" ht="12.75">
+    <row r="473" spans="2:2" ht="13.2">
       <c r="B473" s="24"/>
     </row>
-    <row r="474" spans="2:2" ht="12.75">
+    <row r="474" spans="2:2" ht="13.2">
       <c r="B474" s="24"/>
     </row>
-    <row r="475" spans="2:2" ht="12.75">
+    <row r="475" spans="2:2" ht="13.2">
       <c r="B475" s="24"/>
     </row>
-    <row r="476" spans="2:2" ht="12.75">
+    <row r="476" spans="2:2" ht="13.2">
       <c r="B476" s="24"/>
     </row>
-    <row r="477" spans="2:2" ht="12.75">
+    <row r="477" spans="2:2" ht="13.2">
       <c r="B477" s="24"/>
     </row>
-    <row r="478" spans="2:2" ht="12.75">
+    <row r="478" spans="2:2" ht="13.2">
       <c r="B478" s="24"/>
     </row>
-    <row r="479" spans="2:2" ht="12.75">
+    <row r="479" spans="2:2" ht="13.2">
       <c r="B479" s="24"/>
     </row>
-    <row r="480" spans="2:2" ht="12.75">
+    <row r="480" spans="2:2" ht="13.2">
       <c r="B480" s="24"/>
     </row>
-    <row r="481" spans="2:2" ht="12.75">
+    <row r="481" spans="2:2" ht="13.2">
       <c r="B481" s="24"/>
     </row>
-    <row r="482" spans="2:2" ht="12.75">
+    <row r="482" spans="2:2" ht="13.2">
       <c r="B482" s="24"/>
     </row>
-    <row r="483" spans="2:2" ht="12.75">
+    <row r="483" spans="2:2" ht="13.2">
       <c r="B483" s="24"/>
     </row>
-    <row r="484" spans="2:2" ht="12.75">
+    <row r="484" spans="2:2" ht="13.2">
       <c r="B484" s="24"/>
     </row>
-    <row r="485" spans="2:2" ht="12.75">
+    <row r="485" spans="2:2" ht="13.2">
       <c r="B485" s="24"/>
     </row>
-    <row r="486" spans="2:2" ht="12.75">
+    <row r="486" spans="2:2" ht="13.2">
       <c r="B486" s="24"/>
     </row>
-    <row r="487" spans="2:2" ht="12.75">
+    <row r="487" spans="2:2" ht="13.2">
       <c r="B487" s="24"/>
     </row>
-    <row r="488" spans="2:2" ht="12.75">
+    <row r="488" spans="2:2" ht="13.2">
       <c r="B488" s="24"/>
     </row>
-    <row r="489" spans="2:2" ht="12.75">
+    <row r="489" spans="2:2" ht="13.2">
       <c r="B489" s="24"/>
     </row>
-    <row r="490" spans="2:2" ht="12.75">
+    <row r="490" spans="2:2" ht="13.2">
       <c r="B490" s="24"/>
     </row>
-    <row r="491" spans="2:2" ht="12.75">
+    <row r="491" spans="2:2" ht="13.2">
       <c r="B491" s="24"/>
     </row>
-    <row r="492" spans="2:2" ht="12.75">
+    <row r="492" spans="2:2" ht="13.2">
       <c r="B492" s="24"/>
     </row>
-    <row r="493" spans="2:2" ht="12.75">
+    <row r="493" spans="2:2" ht="13.2">
       <c r="B493" s="24"/>
     </row>
-    <row r="494" spans="2:2" ht="12.75">
+    <row r="494" spans="2:2" ht="13.2">
       <c r="B494" s="24"/>
     </row>
-    <row r="495" spans="2:2" ht="12.75">
+    <row r="495" spans="2:2" ht="13.2">
       <c r="B495" s="24"/>
     </row>
-    <row r="496" spans="2:2" ht="12.75">
+    <row r="496" spans="2:2" ht="13.2">
       <c r="B496" s="24"/>
     </row>
-    <row r="497" spans="2:2" ht="12.75">
+    <row r="497" spans="2:2" ht="13.2">
       <c r="B497" s="24"/>
     </row>
-    <row r="498" spans="2:2" ht="12.75">
+    <row r="498" spans="2:2" ht="13.2">
       <c r="B498" s="24"/>
     </row>
-    <row r="499" spans="2:2" ht="12.75">
+    <row r="499" spans="2:2" ht="13.2">
       <c r="B499" s="24"/>
     </row>
-    <row r="500" spans="2:2" ht="12.75">
+    <row r="500" spans="2:2" ht="13.2">
       <c r="B500" s="24"/>
     </row>
-    <row r="501" spans="2:2" ht="12.75">
+    <row r="501" spans="2:2" ht="13.2">
       <c r="B501" s="24"/>
     </row>
-    <row r="502" spans="2:2" ht="12.75">
+    <row r="502" spans="2:2" ht="13.2">
       <c r="B502" s="24"/>
     </row>
-    <row r="503" spans="2:2" ht="12.75">
+    <row r="503" spans="2:2" ht="13.2">
       <c r="B503" s="24"/>
     </row>
-    <row r="504" spans="2:2" ht="12.75">
+    <row r="504" spans="2:2" ht="13.2">
       <c r="B504" s="24"/>
     </row>
-    <row r="505" spans="2:2" ht="12.75">
+    <row r="505" spans="2:2" ht="13.2">
       <c r="B505" s="24"/>
     </row>
-    <row r="506" spans="2:2" ht="12.75">
+    <row r="506" spans="2:2" ht="13.2">
       <c r="B506" s="24"/>
     </row>
-    <row r="507" spans="2:2" ht="12.75">
+    <row r="507" spans="2:2" ht="13.2">
       <c r="B507" s="24"/>
     </row>
-    <row r="508" spans="2:2" ht="12.75">
+    <row r="508" spans="2:2" ht="13.2">
       <c r="B508" s="24"/>
     </row>
-    <row r="509" spans="2:2" ht="12.75">
+    <row r="509" spans="2:2" ht="13.2">
       <c r="B509" s="24"/>
     </row>
-    <row r="510" spans="2:2" ht="12.75">
+    <row r="510" spans="2:2" ht="13.2">
       <c r="B510" s="24"/>
     </row>
-    <row r="511" spans="2:2" ht="12.75">
+    <row r="511" spans="2:2" ht="13.2">
       <c r="B511" s="24"/>
     </row>
-    <row r="512" spans="2:2" ht="12.75">
+    <row r="512" spans="2:2" ht="13.2">
       <c r="B512" s="24"/>
     </row>
-    <row r="513" spans="2:2" ht="12.75">
+    <row r="513" spans="2:2" ht="13.2">
       <c r="B513" s="24"/>
     </row>
-    <row r="514" spans="2:2" ht="12.75">
+    <row r="514" spans="2:2" ht="13.2">
       <c r="B514" s="24"/>
     </row>
-    <row r="515" spans="2:2" ht="12.75">
+    <row r="515" spans="2:2" ht="13.2">
       <c r="B515" s="24"/>
     </row>
-    <row r="516" spans="2:2" ht="12.75">
+    <row r="516" spans="2:2" ht="13.2">
       <c r="B516" s="24"/>
     </row>
-    <row r="517" spans="2:2" ht="12.75">
+    <row r="517" spans="2:2" ht="13.2">
       <c r="B517" s="24"/>
     </row>
-    <row r="518" spans="2:2" ht="12.75">
+    <row r="518" spans="2:2" ht="13.2">
       <c r="B518" s="24"/>
     </row>
-    <row r="519" spans="2:2" ht="12.75">
+    <row r="519" spans="2:2" ht="13.2">
       <c r="B519" s="24"/>
     </row>
-    <row r="520" spans="2:2" ht="12.75">
+    <row r="520" spans="2:2" ht="13.2">
       <c r="B520" s="24"/>
     </row>
-    <row r="521" spans="2:2" ht="12.75">
+    <row r="521" spans="2:2" ht="13.2">
       <c r="B521" s="24"/>
     </row>
-    <row r="522" spans="2:2" ht="12.75">
+    <row r="522" spans="2:2" ht="13.2">
       <c r="B522" s="24"/>
     </row>
-    <row r="523" spans="2:2" ht="12.75">
+    <row r="523" spans="2:2" ht="13.2">
       <c r="B523" s="24"/>
     </row>
-    <row r="524" spans="2:2" ht="12.75">
+    <row r="524" spans="2:2" ht="13.2">
       <c r="B524" s="24"/>
     </row>
-    <row r="525" spans="2:2" ht="12.75">
+    <row r="525" spans="2:2" ht="13.2">
       <c r="B525" s="24"/>
     </row>
-    <row r="526" spans="2:2" ht="12.75">
+    <row r="526" spans="2:2" ht="13.2">
       <c r="B526" s="24"/>
     </row>
-    <row r="527" spans="2:2" ht="12.75">
+    <row r="527" spans="2:2" ht="13.2">
       <c r="B527" s="24"/>
     </row>
-    <row r="528" spans="2:2" ht="12.75">
+    <row r="528" spans="2:2" ht="13.2">
       <c r="B528" s="24"/>
     </row>
-    <row r="529" spans="2:2" ht="12.75">
+    <row r="529" spans="2:2" ht="13.2">
       <c r="B529" s="24"/>
     </row>
-    <row r="530" spans="2:2" ht="12.75">
+    <row r="530" spans="2:2" ht="13.2">
       <c r="B530" s="24"/>
     </row>
-    <row r="531" spans="2:2" ht="12.75">
+    <row r="531" spans="2:2" ht="13.2">
       <c r="B531" s="24"/>
     </row>
-    <row r="532" spans="2:2" ht="12.75">
+    <row r="532" spans="2:2" ht="13.2">
       <c r="B532" s="24"/>
     </row>
-    <row r="533" spans="2:2" ht="12.75">
+    <row r="533" spans="2:2" ht="13.2">
       <c r="B533" s="24"/>
     </row>
-    <row r="534" spans="2:2" ht="12.75">
+    <row r="534" spans="2:2" ht="13.2">
       <c r="B534" s="24"/>
     </row>
-    <row r="535" spans="2:2" ht="12.75">
+    <row r="535" spans="2:2" ht="13.2">
       <c r="B535" s="24"/>
     </row>
-    <row r="536" spans="2:2" ht="12.75">
+    <row r="536" spans="2:2" ht="13.2">
       <c r="B536" s="24"/>
     </row>
-    <row r="537" spans="2:2" ht="12.75">
+    <row r="537" spans="2:2" ht="13.2">
       <c r="B537" s="24"/>
     </row>
-    <row r="538" spans="2:2" ht="12.75">
+    <row r="538" spans="2:2" ht="13.2">
       <c r="B538" s="24"/>
     </row>
-    <row r="539" spans="2:2" ht="12.75">
+    <row r="539" spans="2:2" ht="13.2">
       <c r="B539" s="24"/>
     </row>
-    <row r="540" spans="2:2" ht="12.75">
+    <row r="540" spans="2:2" ht="13.2">
       <c r="B540" s="24"/>
     </row>
-    <row r="541" spans="2:2" ht="12.75">
+    <row r="541" spans="2:2" ht="13.2">
       <c r="B541" s="24"/>
     </row>
-    <row r="542" spans="2:2" ht="12.75">
+    <row r="542" spans="2:2" ht="13.2">
       <c r="B542" s="24"/>
     </row>
-    <row r="543" spans="2:2" ht="12.75">
+    <row r="543" spans="2:2" ht="13.2">
       <c r="B543" s="24"/>
     </row>
-    <row r="544" spans="2:2" ht="12.75">
+    <row r="544" spans="2:2" ht="13.2">
       <c r="B544" s="24"/>
     </row>
-    <row r="545" spans="2:2" ht="12.75">
+    <row r="545" spans="2:2" ht="13.2">
       <c r="B545" s="24"/>
     </row>
-    <row r="546" spans="2:2" ht="12.75">
+    <row r="546" spans="2:2" ht="13.2">
       <c r="B546" s="24"/>
     </row>
-    <row r="547" spans="2:2" ht="12.75">
+    <row r="547" spans="2:2" ht="13.2">
       <c r="B547" s="24"/>
     </row>
-    <row r="548" spans="2:2" ht="12.75">
+    <row r="548" spans="2:2" ht="13.2">
       <c r="B548" s="24"/>
     </row>
-    <row r="549" spans="2:2" ht="12.75">
+    <row r="549" spans="2:2" ht="13.2">
       <c r="B549" s="24"/>
     </row>
-    <row r="550" spans="2:2" ht="12.75">
+    <row r="550" spans="2:2" ht="13.2">
       <c r="B550" s="24"/>
     </row>
-    <row r="551" spans="2:2" ht="12.75">
+    <row r="551" spans="2:2" ht="13.2">
       <c r="B551" s="24"/>
     </row>
-    <row r="552" spans="2:2" ht="12.75">
+    <row r="552" spans="2:2" ht="13.2">
       <c r="B552" s="24"/>
     </row>
-    <row r="553" spans="2:2" ht="12.75">
+    <row r="553" spans="2:2" ht="13.2">
       <c r="B553" s="24"/>
     </row>
-    <row r="554" spans="2:2" ht="12.75">
+    <row r="554" spans="2:2" ht="13.2">
       <c r="B554" s="24"/>
     </row>
-    <row r="555" spans="2:2" ht="12.75">
+    <row r="555" spans="2:2" ht="13.2">
       <c r="B555" s="24"/>
     </row>
-    <row r="556" spans="2:2" ht="12.75">
+    <row r="556" spans="2:2" ht="13.2">
       <c r="B556" s="24"/>
     </row>
-    <row r="557" spans="2:2" ht="12.75">
+    <row r="557" spans="2:2" ht="13.2">
       <c r="B557" s="24"/>
     </row>
-    <row r="558" spans="2:2" ht="12.75">
+    <row r="558" spans="2:2" ht="13.2">
       <c r="B558" s="24"/>
     </row>
-    <row r="559" spans="2:2" ht="12.75">
+    <row r="559" spans="2:2" ht="13.2">
       <c r="B559" s="24"/>
     </row>
-    <row r="560" spans="2:2" ht="12.75">
+    <row r="560" spans="2:2" ht="13.2">
       <c r="B560" s="24"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75">
+    <row r="561" spans="2:2" ht="13.2">
       <c r="B561" s="24"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75">
+    <row r="562" spans="2:2" ht="13.2">
       <c r="B562" s="24"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75">
+    <row r="563" spans="2:2" ht="13.2">
       <c r="B563" s="24"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75">
+    <row r="564" spans="2:2" ht="13.2">
       <c r="B564" s="24"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75">
+    <row r="565" spans="2:2" ht="13.2">
       <c r="B565" s="24"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75">
+    <row r="566" spans="2:2" ht="13.2">
       <c r="B566" s="24"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75">
+    <row r="567" spans="2:2" ht="13.2">
       <c r="B567" s="24"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75">
+    <row r="568" spans="2:2" ht="13.2">
       <c r="B568" s="24"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75">
+    <row r="569" spans="2:2" ht="13.2">
       <c r="B569" s="24"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75">
+    <row r="570" spans="2:2" ht="13.2">
       <c r="B570" s="24"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75">
+    <row r="571" spans="2:2" ht="13.2">
       <c r="B571" s="24"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75">
+    <row r="572" spans="2:2" ht="13.2">
       <c r="B572" s="24"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75">
+    <row r="573" spans="2:2" ht="13.2">
       <c r="B573" s="24"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75">
+    <row r="574" spans="2:2" ht="13.2">
       <c r="B574" s="24"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75">
+    <row r="575" spans="2:2" ht="13.2">
       <c r="B575" s="24"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75">
+    <row r="576" spans="2:2" ht="13.2">
       <c r="B576" s="24"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75">
+    <row r="577" spans="2:2" ht="13.2">
       <c r="B577" s="24"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75">
+    <row r="578" spans="2:2" ht="13.2">
       <c r="B578" s="24"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75">
+    <row r="579" spans="2:2" ht="13.2">
       <c r="B579" s="24"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75">
+    <row r="580" spans="2:2" ht="13.2">
       <c r="B580" s="24"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75">
+    <row r="581" spans="2:2" ht="13.2">
       <c r="B581" s="24"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75">
+    <row r="582" spans="2:2" ht="13.2">
       <c r="B582" s="24"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75">
+    <row r="583" spans="2:2" ht="13.2">
       <c r="B583" s="24"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75">
+    <row r="584" spans="2:2" ht="13.2">
       <c r="B584" s="24"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75">
+    <row r="585" spans="2:2" ht="13.2">
       <c r="B585" s="24"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75">
+    <row r="586" spans="2:2" ht="13.2">
       <c r="B586" s="24"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75">
+    <row r="587" spans="2:2" ht="13.2">
       <c r="B587" s="24"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75">
+    <row r="588" spans="2:2" ht="13.2">
       <c r="B588" s="24"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75">
+    <row r="589" spans="2:2" ht="13.2">
       <c r="B589" s="24"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75">
+    <row r="590" spans="2:2" ht="13.2">
       <c r="B590" s="24"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75">
+    <row r="591" spans="2:2" ht="13.2">
       <c r="B591" s="24"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75">
+    <row r="592" spans="2:2" ht="13.2">
       <c r="B592" s="24"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75">
+    <row r="593" spans="2:2" ht="13.2">
       <c r="B593" s="24"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75">
+    <row r="594" spans="2:2" ht="13.2">
       <c r="B594" s="24"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75">
+    <row r="595" spans="2:2" ht="13.2">
       <c r="B595" s="24"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75">
+    <row r="596" spans="2:2" ht="13.2">
       <c r="B596" s="24"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75">
+    <row r="597" spans="2:2" ht="13.2">
       <c r="B597" s="24"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75">
+    <row r="598" spans="2:2" ht="13.2">
       <c r="B598" s="24"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75">
+    <row r="599" spans="2:2" ht="13.2">
       <c r="B599" s="24"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75">
+    <row r="600" spans="2:2" ht="13.2">
       <c r="B600" s="24"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75">
+    <row r="601" spans="2:2" ht="13.2">
       <c r="B601" s="24"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75">
+    <row r="602" spans="2:2" ht="13.2">
       <c r="B602" s="24"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75">
+    <row r="603" spans="2:2" ht="13.2">
       <c r="B603" s="24"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75">
+    <row r="604" spans="2:2" ht="13.2">
       <c r="B604" s="24"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75">
+    <row r="605" spans="2:2" ht="13.2">
       <c r="B605" s="24"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75">
+    <row r="606" spans="2:2" ht="13.2">
       <c r="B606" s="24"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75">
+    <row r="607" spans="2:2" ht="13.2">
       <c r="B607" s="24"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75">
+    <row r="608" spans="2:2" ht="13.2">
       <c r="B608" s="24"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75">
+    <row r="609" spans="2:2" ht="13.2">
       <c r="B609" s="24"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75">
+    <row r="610" spans="2:2" ht="13.2">
       <c r="B610" s="24"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75">
+    <row r="611" spans="2:2" ht="13.2">
       <c r="B611" s="24"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75">
+    <row r="612" spans="2:2" ht="13.2">
       <c r="B612" s="24"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75">
+    <row r="613" spans="2:2" ht="13.2">
       <c r="B613" s="24"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75">
+    <row r="614" spans="2:2" ht="13.2">
       <c r="B614" s="24"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75">
+    <row r="615" spans="2:2" ht="13.2">
       <c r="B615" s="24"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75">
+    <row r="616" spans="2:2" ht="13.2">
       <c r="B616" s="24"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75">
+    <row r="617" spans="2:2" ht="13.2">
       <c r="B617" s="24"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75">
+    <row r="618" spans="2:2" ht="13.2">
       <c r="B618" s="24"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75">
+    <row r="619" spans="2:2" ht="13.2">
       <c r="B619" s="24"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75">
+    <row r="620" spans="2:2" ht="13.2">
       <c r="B620" s="24"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75">
+    <row r="621" spans="2:2" ht="13.2">
       <c r="B621" s="24"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75">
+    <row r="622" spans="2:2" ht="13.2">
       <c r="B622" s="24"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75">
+    <row r="623" spans="2:2" ht="13.2">
       <c r="B623" s="24"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75">
+    <row r="624" spans="2:2" ht="13.2">
       <c r="B624" s="24"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75">
+    <row r="625" spans="2:2" ht="13.2">
       <c r="B625" s="24"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75">
+    <row r="626" spans="2:2" ht="13.2">
       <c r="B626" s="24"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75">
+    <row r="627" spans="2:2" ht="13.2">
       <c r="B627" s="24"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75">
+    <row r="628" spans="2:2" ht="13.2">
       <c r="B628" s="24"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75">
+    <row r="629" spans="2:2" ht="13.2">
       <c r="B629" s="24"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75">
+    <row r="630" spans="2:2" ht="13.2">
       <c r="B630" s="24"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75">
+    <row r="631" spans="2:2" ht="13.2">
       <c r="B631" s="24"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75">
+    <row r="632" spans="2:2" ht="13.2">
       <c r="B632" s="24"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75">
+    <row r="633" spans="2:2" ht="13.2">
       <c r="B633" s="24"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75">
+    <row r="634" spans="2:2" ht="13.2">
       <c r="B634" s="24"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75">
+    <row r="635" spans="2:2" ht="13.2">
       <c r="B635" s="24"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75">
+    <row r="636" spans="2:2" ht="13.2">
       <c r="B636" s="24"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75">
+    <row r="637" spans="2:2" ht="13.2">
       <c r="B637" s="24"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75">
+    <row r="638" spans="2:2" ht="13.2">
       <c r="B638" s="24"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75">
+    <row r="639" spans="2:2" ht="13.2">
       <c r="B639" s="24"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75">
+    <row r="640" spans="2:2" ht="13.2">
       <c r="B640" s="24"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75">
+    <row r="641" spans="2:2" ht="13.2">
       <c r="B641" s="24"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75">
+    <row r="642" spans="2:2" ht="13.2">
       <c r="B642" s="24"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75">
+    <row r="643" spans="2:2" ht="13.2">
       <c r="B643" s="24"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75">
+    <row r="644" spans="2:2" ht="13.2">
       <c r="B644" s="24"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75">
+    <row r="645" spans="2:2" ht="13.2">
       <c r="B645" s="24"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75">
+    <row r="646" spans="2:2" ht="13.2">
       <c r="B646" s="24"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75">
+    <row r="647" spans="2:2" ht="13.2">
       <c r="B647" s="24"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75">
+    <row r="648" spans="2:2" ht="13.2">
       <c r="B648" s="24"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75">
+    <row r="649" spans="2:2" ht="13.2">
       <c r="B649" s="24"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75">
+    <row r="650" spans="2:2" ht="13.2">
       <c r="B650" s="24"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75">
+    <row r="651" spans="2:2" ht="13.2">
       <c r="B651" s="24"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75">
+    <row r="652" spans="2:2" ht="13.2">
       <c r="B652" s="24"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75">
+    <row r="653" spans="2:2" ht="13.2">
       <c r="B653" s="24"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75">
+    <row r="654" spans="2:2" ht="13.2">
       <c r="B654" s="24"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75">
+    <row r="655" spans="2:2" ht="13.2">
       <c r="B655" s="24"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75">
+    <row r="656" spans="2:2" ht="13.2">
       <c r="B656" s="24"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75">
+    <row r="657" spans="2:2" ht="13.2">
       <c r="B657" s="24"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75">
+    <row r="658" spans="2:2" ht="13.2">
       <c r="B658" s="24"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75">
+    <row r="659" spans="2:2" ht="13.2">
       <c r="B659" s="24"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75">
+    <row r="660" spans="2:2" ht="13.2">
       <c r="B660" s="24"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75">
+    <row r="661" spans="2:2" ht="13.2">
       <c r="B661" s="24"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75">
+    <row r="662" spans="2:2" ht="13.2">
       <c r="B662" s="24"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75">
+    <row r="663" spans="2:2" ht="13.2">
       <c r="B663" s="24"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75">
+    <row r="664" spans="2:2" ht="13.2">
       <c r="B664" s="24"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75">
+    <row r="665" spans="2:2" ht="13.2">
       <c r="B665" s="24"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75">
+    <row r="666" spans="2:2" ht="13.2">
       <c r="B666" s="24"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75">
+    <row r="667" spans="2:2" ht="13.2">
       <c r="B667" s="24"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75">
+    <row r="668" spans="2:2" ht="13.2">
       <c r="B668" s="24"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75">
+    <row r="669" spans="2:2" ht="13.2">
       <c r="B669" s="24"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75">
+    <row r="670" spans="2:2" ht="13.2">
       <c r="B670" s="24"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75">
+    <row r="671" spans="2:2" ht="13.2">
       <c r="B671" s="24"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75">
+    <row r="672" spans="2:2" ht="13.2">
       <c r="B672" s="24"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75">
+    <row r="673" spans="2:2" ht="13.2">
       <c r="B673" s="24"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75">
+    <row r="674" spans="2:2" ht="13.2">
       <c r="B674" s="24"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75">
+    <row r="675" spans="2:2" ht="13.2">
       <c r="B675" s="24"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75">
+    <row r="676" spans="2:2" ht="13.2">
       <c r="B676" s="24"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75">
+    <row r="677" spans="2:2" ht="13.2">
       <c r="B677" s="24"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75">
+    <row r="678" spans="2:2" ht="13.2">
       <c r="B678" s="24"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75">
+    <row r="679" spans="2:2" ht="13.2">
       <c r="B679" s="24"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75">
+    <row r="680" spans="2:2" ht="13.2">
       <c r="B680" s="24"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75">
+    <row r="681" spans="2:2" ht="13.2">
       <c r="B681" s="24"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75">
+    <row r="682" spans="2:2" ht="13.2">
       <c r="B682" s="24"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75">
+    <row r="683" spans="2:2" ht="13.2">
       <c r="B683" s="24"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75">
+    <row r="684" spans="2:2" ht="13.2">
       <c r="B684" s="24"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75">
+    <row r="685" spans="2:2" ht="13.2">
       <c r="B685" s="24"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75">
+    <row r="686" spans="2:2" ht="13.2">
       <c r="B686" s="24"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75">
+    <row r="687" spans="2:2" ht="13.2">
       <c r="B687" s="24"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75">
+    <row r="688" spans="2:2" ht="13.2">
       <c r="B688" s="24"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75">
+    <row r="689" spans="2:2" ht="13.2">
       <c r="B689" s="24"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75">
+    <row r="690" spans="2:2" ht="13.2">
       <c r="B690" s="24"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75">
+    <row r="691" spans="2:2" ht="13.2">
       <c r="B691" s="24"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75">
+    <row r="692" spans="2:2" ht="13.2">
       <c r="B692" s="24"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75">
+    <row r="693" spans="2:2" ht="13.2">
       <c r="B693" s="24"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75">
+    <row r="694" spans="2:2" ht="13.2">
       <c r="B694" s="24"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75">
+    <row r="695" spans="2:2" ht="13.2">
       <c r="B695" s="24"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75">
+    <row r="696" spans="2:2" ht="13.2">
       <c r="B696" s="24"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75">
+    <row r="697" spans="2:2" ht="13.2">
       <c r="B697" s="24"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75">
+    <row r="698" spans="2:2" ht="13.2">
       <c r="B698" s="24"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75">
+    <row r="699" spans="2:2" ht="13.2">
       <c r="B699" s="24"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75">
+    <row r="700" spans="2:2" ht="13.2">
       <c r="B700" s="24"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75">
+    <row r="701" spans="2:2" ht="13.2">
       <c r="B701" s="24"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75">
+    <row r="702" spans="2:2" ht="13.2">
       <c r="B702" s="24"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75">
+    <row r="703" spans="2:2" ht="13.2">
       <c r="B703" s="24"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75">
+    <row r="704" spans="2:2" ht="13.2">
       <c r="B704" s="24"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75">
+    <row r="705" spans="2:2" ht="13.2">
       <c r="B705" s="24"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75">
+    <row r="706" spans="2:2" ht="13.2">
       <c r="B706" s="24"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75">
+    <row r="707" spans="2:2" ht="13.2">
       <c r="B707" s="24"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75">
+    <row r="708" spans="2:2" ht="13.2">
       <c r="B708" s="24"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75">
+    <row r="709" spans="2:2" ht="13.2">
       <c r="B709" s="24"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75">
+    <row r="710" spans="2:2" ht="13.2">
       <c r="B710" s="24"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75">
+    <row r="711" spans="2:2" ht="13.2">
       <c r="B711" s="24"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75">
+    <row r="712" spans="2:2" ht="13.2">
       <c r="B712" s="24"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75">
+    <row r="713" spans="2:2" ht="13.2">
       <c r="B713" s="24"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75">
+    <row r="714" spans="2:2" ht="13.2">
       <c r="B714" s="24"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75">
+    <row r="715" spans="2:2" ht="13.2">
       <c r="B715" s="24"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75">
+    <row r="716" spans="2:2" ht="13.2">
       <c r="B716" s="24"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75">
+    <row r="717" spans="2:2" ht="13.2">
       <c r="B717" s="24"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75">
+    <row r="718" spans="2:2" ht="13.2">
       <c r="B718" s="24"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75">
+    <row r="719" spans="2:2" ht="13.2">
       <c r="B719" s="24"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75">
+    <row r="720" spans="2:2" ht="13.2">
       <c r="B720" s="24"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75">
+    <row r="721" spans="2:2" ht="13.2">
       <c r="B721" s="24"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75">
+    <row r="722" spans="2:2" ht="13.2">
       <c r="B722" s="24"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75">
+    <row r="723" spans="2:2" ht="13.2">
       <c r="B723" s="24"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75">
+    <row r="724" spans="2:2" ht="13.2">
       <c r="B724" s="24"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75">
+    <row r="725" spans="2:2" ht="13.2">
       <c r="B725" s="24"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75">
+    <row r="726" spans="2:2" ht="13.2">
       <c r="B726" s="24"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75">
+    <row r="727" spans="2:2" ht="13.2">
       <c r="B727" s="24"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75">
+    <row r="728" spans="2:2" ht="13.2">
       <c r="B728" s="24"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75">
+    <row r="729" spans="2:2" ht="13.2">
       <c r="B729" s="24"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75">
+    <row r="730" spans="2:2" ht="13.2">
       <c r="B730" s="24"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75">
+    <row r="731" spans="2:2" ht="13.2">
       <c r="B731" s="24"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75">
+    <row r="732" spans="2:2" ht="13.2">
       <c r="B732" s="24"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75">
+    <row r="733" spans="2:2" ht="13.2">
       <c r="B733" s="24"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75">
+    <row r="734" spans="2:2" ht="13.2">
       <c r="B734" s="24"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75">
+    <row r="735" spans="2:2" ht="13.2">
       <c r="B735" s="24"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75">
+    <row r="736" spans="2:2" ht="13.2">
       <c r="B736" s="24"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75">
+    <row r="737" spans="2:2" ht="13.2">
       <c r="B737" s="24"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75">
+    <row r="738" spans="2:2" ht="13.2">
       <c r="B738" s="24"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75">
+    <row r="739" spans="2:2" ht="13.2">
       <c r="B739" s="24"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75">
+    <row r="740" spans="2:2" ht="13.2">
       <c r="B740" s="24"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75">
+    <row r="741" spans="2:2" ht="13.2">
       <c r="B741" s="24"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75">
+    <row r="742" spans="2:2" ht="13.2">
       <c r="B742" s="24"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75">
+    <row r="743" spans="2:2" ht="13.2">
       <c r="B743" s="24"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75">
+    <row r="744" spans="2:2" ht="13.2">
       <c r="B744" s="24"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75">
+    <row r="745" spans="2:2" ht="13.2">
       <c r="B745" s="24"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75">
+    <row r="746" spans="2:2" ht="13.2">
       <c r="B746" s="24"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75">
+    <row r="747" spans="2:2" ht="13.2">
       <c r="B747" s="24"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75">
+    <row r="748" spans="2:2" ht="13.2">
       <c r="B748" s="24"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75">
+    <row r="749" spans="2:2" ht="13.2">
       <c r="B749" s="24"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75">
+    <row r="750" spans="2:2" ht="13.2">
       <c r="B750" s="24"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75">
+    <row r="751" spans="2:2" ht="13.2">
       <c r="B751" s="24"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75">
+    <row r="752" spans="2:2" ht="13.2">
       <c r="B752" s="24"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75">
+    <row r="753" spans="2:2" ht="13.2">
       <c r="B753" s="24"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75">
+    <row r="754" spans="2:2" ht="13.2">
       <c r="B754" s="24"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75">
+    <row r="755" spans="2:2" ht="13.2">
       <c r="B755" s="24"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75">
+    <row r="756" spans="2:2" ht="13.2">
       <c r="B756" s="24"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75">
+    <row r="757" spans="2:2" ht="13.2">
       <c r="B757" s="24"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75">
+    <row r="758" spans="2:2" ht="13.2">
       <c r="B758" s="24"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75">
+    <row r="759" spans="2:2" ht="13.2">
       <c r="B759" s="24"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75">
+    <row r="760" spans="2:2" ht="13.2">
       <c r="B760" s="24"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75">
+    <row r="761" spans="2:2" ht="13.2">
       <c r="B761" s="24"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75">
+    <row r="762" spans="2:2" ht="13.2">
       <c r="B762" s="24"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75">
+    <row r="763" spans="2:2" ht="13.2">
       <c r="B763" s="24"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75">
+    <row r="764" spans="2:2" ht="13.2">
       <c r="B764" s="24"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75">
+    <row r="765" spans="2:2" ht="13.2">
       <c r="B765" s="24"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75">
+    <row r="766" spans="2:2" ht="13.2">
       <c r="B766" s="24"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75">
+    <row r="767" spans="2:2" ht="13.2">
       <c r="B767" s="24"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75">
+    <row r="768" spans="2:2" ht="13.2">
       <c r="B768" s="24"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75">
+    <row r="769" spans="2:2" ht="13.2">
       <c r="B769" s="24"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75">
+    <row r="770" spans="2:2" ht="13.2">
       <c r="B770" s="24"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75">
+    <row r="771" spans="2:2" ht="13.2">
       <c r="B771" s="24"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75">
+    <row r="772" spans="2:2" ht="13.2">
       <c r="B772" s="24"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75">
+    <row r="773" spans="2:2" ht="13.2">
       <c r="B773" s="24"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75">
+    <row r="774" spans="2:2" ht="13.2">
       <c r="B774" s="24"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75">
+    <row r="775" spans="2:2" ht="13.2">
       <c r="B775" s="24"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75">
+    <row r="776" spans="2:2" ht="13.2">
       <c r="B776" s="24"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75">
+    <row r="777" spans="2:2" ht="13.2">
       <c r="B777" s="24"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75">
+    <row r="778" spans="2:2" ht="13.2">
       <c r="B778" s="24"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75">
+    <row r="779" spans="2:2" ht="13.2">
       <c r="B779" s="24"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75">
+    <row r="780" spans="2:2" ht="13.2">
       <c r="B780" s="24"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75">
+    <row r="781" spans="2:2" ht="13.2">
       <c r="B781" s="24"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75">
+    <row r="782" spans="2:2" ht="13.2">
       <c r="B782" s="24"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75">
+    <row r="783" spans="2:2" ht="13.2">
       <c r="B783" s="24"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75">
+    <row r="784" spans="2:2" ht="13.2">
       <c r="B784" s="24"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75">
+    <row r="785" spans="2:2" ht="13.2">
       <c r="B785" s="24"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75">
+    <row r="786" spans="2:2" ht="13.2">
       <c r="B786" s="24"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75">
+    <row r="787" spans="2:2" ht="13.2">
       <c r="B787" s="24"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75">
+    <row r="788" spans="2:2" ht="13.2">
       <c r="B788" s="24"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75">
+    <row r="789" spans="2:2" ht="13.2">
       <c r="B789" s="24"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75">
+    <row r="790" spans="2:2" ht="13.2">
       <c r="B790" s="24"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75">
+    <row r="791" spans="2:2" ht="13.2">
       <c r="B791" s="24"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75">
+    <row r="792" spans="2:2" ht="13.2">
       <c r="B792" s="24"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75">
+    <row r="793" spans="2:2" ht="13.2">
       <c r="B793" s="24"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75">
+    <row r="794" spans="2:2" ht="13.2">
       <c r="B794" s="24"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75">
+    <row r="795" spans="2:2" ht="13.2">
       <c r="B795" s="24"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75">
+    <row r="796" spans="2:2" ht="13.2">
       <c r="B796" s="24"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75">
+    <row r="797" spans="2:2" ht="13.2">
       <c r="B797" s="24"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75">
+    <row r="798" spans="2:2" ht="13.2">
       <c r="B798" s="24"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75">
+    <row r="799" spans="2:2" ht="13.2">
       <c r="B799" s="24"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75">
+    <row r="800" spans="2:2" ht="13.2">
       <c r="B800" s="24"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75">
+    <row r="801" spans="2:2" ht="13.2">
       <c r="B801" s="24"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75">
+    <row r="802" spans="2:2" ht="13.2">
       <c r="B802" s="24"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75">
+    <row r="803" spans="2:2" ht="13.2">
       <c r="B803" s="24"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75">
+    <row r="804" spans="2:2" ht="13.2">
       <c r="B804" s="24"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75">
+    <row r="805" spans="2:2" ht="13.2">
       <c r="B805" s="24"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75">
+    <row r="806" spans="2:2" ht="13.2">
       <c r="B806" s="24"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75">
+    <row r="807" spans="2:2" ht="13.2">
       <c r="B807" s="24"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75">
+    <row r="808" spans="2:2" ht="13.2">
       <c r="B808" s="24"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75">
+    <row r="809" spans="2:2" ht="13.2">
       <c r="B809" s="24"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75">
+    <row r="810" spans="2:2" ht="13.2">
       <c r="B810" s="24"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75">
+    <row r="811" spans="2:2" ht="13.2">
       <c r="B811" s="24"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75">
+    <row r="812" spans="2:2" ht="13.2">
       <c r="B812" s="24"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75">
+    <row r="813" spans="2:2" ht="13.2">
       <c r="B813" s="24"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75">
+    <row r="814" spans="2:2" ht="13.2">
       <c r="B814" s="24"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75">
+    <row r="815" spans="2:2" ht="13.2">
       <c r="B815" s="24"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75">
+    <row r="816" spans="2:2" ht="13.2">
       <c r="B816" s="24"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75">
+    <row r="817" spans="2:2" ht="13.2">
       <c r="B817" s="24"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75">
+    <row r="818" spans="2:2" ht="13.2">
       <c r="B818" s="24"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75">
+    <row r="819" spans="2:2" ht="13.2">
       <c r="B819" s="24"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75">
+    <row r="820" spans="2:2" ht="13.2">
       <c r="B820" s="24"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75">
+    <row r="821" spans="2:2" ht="13.2">
       <c r="B821" s="24"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75">
+    <row r="822" spans="2:2" ht="13.2">
       <c r="B822" s="24"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75">
+    <row r="823" spans="2:2" ht="13.2">
       <c r="B823" s="24"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75">
+    <row r="824" spans="2:2" ht="13.2">
       <c r="B824" s="24"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75">
+    <row r="825" spans="2:2" ht="13.2">
       <c r="B825" s="24"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75">
+    <row r="826" spans="2:2" ht="13.2">
       <c r="B826" s="24"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75">
+    <row r="827" spans="2:2" ht="13.2">
       <c r="B827" s="24"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75">
+    <row r="828" spans="2:2" ht="13.2">
       <c r="B828" s="24"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75">
+    <row r="829" spans="2:2" ht="13.2">
       <c r="B829" s="24"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75">
+    <row r="830" spans="2:2" ht="13.2">
       <c r="B830" s="24"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75">
+    <row r="831" spans="2:2" ht="13.2">
       <c r="B831" s="24"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75">
+    <row r="832" spans="2:2" ht="13.2">
       <c r="B832" s="24"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75">
+    <row r="833" spans="2:2" ht="13.2">
       <c r="B833" s="24"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75">
+    <row r="834" spans="2:2" ht="13.2">
       <c r="B834" s="24"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75">
+    <row r="835" spans="2:2" ht="13.2">
       <c r="B835" s="24"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75">
+    <row r="836" spans="2:2" ht="13.2">
       <c r="B836" s="24"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75">
+    <row r="837" spans="2:2" ht="13.2">
       <c r="B837" s="24"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75">
+    <row r="838" spans="2:2" ht="13.2">
       <c r="B838" s="24"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75">
+    <row r="839" spans="2:2" ht="13.2">
       <c r="B839" s="24"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75">
+    <row r="840" spans="2:2" ht="13.2">
       <c r="B840" s="24"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75">
+    <row r="841" spans="2:2" ht="13.2">
       <c r="B841" s="24"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75">
+    <row r="842" spans="2:2" ht="13.2">
       <c r="B842" s="24"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75">
+    <row r="843" spans="2:2" ht="13.2">
       <c r="B843" s="24"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75">
+    <row r="844" spans="2:2" ht="13.2">
       <c r="B844" s="24"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75">
+    <row r="845" spans="2:2" ht="13.2">
       <c r="B845" s="24"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75">
+    <row r="846" spans="2:2" ht="13.2">
       <c r="B846" s="24"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75">
+    <row r="847" spans="2:2" ht="13.2">
       <c r="B847" s="24"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75">
+    <row r="848" spans="2:2" ht="13.2">
       <c r="B848" s="24"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75">
+    <row r="849" spans="2:2" ht="13.2">
       <c r="B849" s="24"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75">
+    <row r="850" spans="2:2" ht="13.2">
       <c r="B850" s="24"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75">
+    <row r="851" spans="2:2" ht="13.2">
       <c r="B851" s="24"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75">
+    <row r="852" spans="2:2" ht="13.2">
       <c r="B852" s="24"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75">
+    <row r="853" spans="2:2" ht="13.2">
       <c r="B853" s="24"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75">
+    <row r="854" spans="2:2" ht="13.2">
       <c r="B854" s="24"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75">
+    <row r="855" spans="2:2" ht="13.2">
       <c r="B855" s="24"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75">
+    <row r="856" spans="2:2" ht="13.2">
       <c r="B856" s="24"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75">
+    <row r="857" spans="2:2" ht="13.2">
       <c r="B857" s="24"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75">
+    <row r="858" spans="2:2" ht="13.2">
       <c r="B858" s="24"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75">
+    <row r="859" spans="2:2" ht="13.2">
       <c r="B859" s="24"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75">
+    <row r="860" spans="2:2" ht="13.2">
       <c r="B860" s="24"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75">
+    <row r="861" spans="2:2" ht="13.2">
       <c r="B861" s="24"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75">
+    <row r="862" spans="2:2" ht="13.2">
       <c r="B862" s="24"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75">
+    <row r="863" spans="2:2" ht="13.2">
       <c r="B863" s="24"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75">
+    <row r="864" spans="2:2" ht="13.2">
       <c r="B864" s="24"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75">
+    <row r="865" spans="2:2" ht="13.2">
       <c r="B865" s="24"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75">
+    <row r="866" spans="2:2" ht="13.2">
       <c r="B866" s="24"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75">
+    <row r="867" spans="2:2" ht="13.2">
       <c r="B867" s="24"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75">
+    <row r="868" spans="2:2" ht="13.2">
       <c r="B868" s="24"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75">
+    <row r="869" spans="2:2" ht="13.2">
       <c r="B869" s="24"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75">
+    <row r="870" spans="2:2" ht="13.2">
       <c r="B870" s="24"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75">
+    <row r="871" spans="2:2" ht="13.2">
       <c r="B871" s="24"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75">
+    <row r="872" spans="2:2" ht="13.2">
       <c r="B872" s="24"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75">
+    <row r="873" spans="2:2" ht="13.2">
       <c r="B873" s="24"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75">
+    <row r="874" spans="2:2" ht="13.2">
       <c r="B874" s="24"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75">
+    <row r="875" spans="2:2" ht="13.2">
       <c r="B875" s="24"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75">
+    <row r="876" spans="2:2" ht="13.2">
       <c r="B876" s="24"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75">
+    <row r="877" spans="2:2" ht="13.2">
       <c r="B877" s="24"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75">
+    <row r="878" spans="2:2" ht="13.2">
       <c r="B878" s="24"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75">
+    <row r="879" spans="2:2" ht="13.2">
       <c r="B879" s="24"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75">
+    <row r="880" spans="2:2" ht="13.2">
       <c r="B880" s="24"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75">
+    <row r="881" spans="2:2" ht="13.2">
       <c r="B881" s="24"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75">
+    <row r="882" spans="2:2" ht="13.2">
       <c r="B882" s="24"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75">
+    <row r="883" spans="2:2" ht="13.2">
       <c r="B883" s="24"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75">
+    <row r="884" spans="2:2" ht="13.2">
       <c r="B884" s="24"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75">
+    <row r="885" spans="2:2" ht="13.2">
       <c r="B885" s="24"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75">
+    <row r="886" spans="2:2" ht="13.2">
       <c r="B886" s="24"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75">
+    <row r="887" spans="2:2" ht="13.2">
       <c r="B887" s="24"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75">
+    <row r="888" spans="2:2" ht="13.2">
       <c r="B888" s="24"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75">
+    <row r="889" spans="2:2" ht="13.2">
       <c r="B889" s="24"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75">
+    <row r="890" spans="2:2" ht="13.2">
       <c r="B890" s="24"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75">
+    <row r="891" spans="2:2" ht="13.2">
       <c r="B891" s="24"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75">
+    <row r="892" spans="2:2" ht="13.2">
       <c r="B892" s="24"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75">
+    <row r="893" spans="2:2" ht="13.2">
       <c r="B893" s="24"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75">
+    <row r="894" spans="2:2" ht="13.2">
       <c r="B894" s="24"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75">
+    <row r="895" spans="2:2" ht="13.2">
       <c r="B895" s="24"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75">
+    <row r="896" spans="2:2" ht="13.2">
       <c r="B896" s="24"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75">
+    <row r="897" spans="2:2" ht="13.2">
       <c r="B897" s="24"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75">
+    <row r="898" spans="2:2" ht="13.2">
       <c r="B898" s="24"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75">
+    <row r="899" spans="2:2" ht="13.2">
       <c r="B899" s="24"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75">
+    <row r="900" spans="2:2" ht="13.2">
       <c r="B900" s="24"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75">
+    <row r="901" spans="2:2" ht="13.2">
       <c r="B901" s="24"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75">
+    <row r="902" spans="2:2" ht="13.2">
       <c r="B902" s="24"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75">
+    <row r="903" spans="2:2" ht="13.2">
       <c r="B903" s="24"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75">
+    <row r="904" spans="2:2" ht="13.2">
       <c r="B904" s="24"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75">
+    <row r="905" spans="2:2" ht="13.2">
       <c r="B905" s="24"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75">
+    <row r="906" spans="2:2" ht="13.2">
       <c r="B906" s="24"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75">
+    <row r="907" spans="2:2" ht="13.2">
       <c r="B907" s="24"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75">
+    <row r="908" spans="2:2" ht="13.2">
       <c r="B908" s="24"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75">
+    <row r="909" spans="2:2" ht="13.2">
       <c r="B909" s="24"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75">
+    <row r="910" spans="2:2" ht="13.2">
       <c r="B910" s="24"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75">
+    <row r="911" spans="2:2" ht="13.2">
       <c r="B911" s="24"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75">
+    <row r="912" spans="2:2" ht="13.2">
       <c r="B912" s="24"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75">
+    <row r="913" spans="2:2" ht="13.2">
       <c r="B913" s="24"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75">
+    <row r="914" spans="2:2" ht="13.2">
       <c r="B914" s="24"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75">
+    <row r="915" spans="2:2" ht="13.2">
       <c r="B915" s="24"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75">
+    <row r="916" spans="2:2" ht="13.2">
       <c r="B916" s="24"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75">
+    <row r="917" spans="2:2" ht="13.2">
       <c r="B917" s="24"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75">
+    <row r="918" spans="2:2" ht="13.2">
       <c r="B918" s="24"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75">
+    <row r="919" spans="2:2" ht="13.2">
       <c r="B919" s="24"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75">
+    <row r="920" spans="2:2" ht="13.2">
       <c r="B920" s="24"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75">
+    <row r="921" spans="2:2" ht="13.2">
       <c r="B921" s="24"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75">
+    <row r="922" spans="2:2" ht="13.2">
       <c r="B922" s="24"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75">
+    <row r="923" spans="2:2" ht="13.2">
       <c r="B923" s="24"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75">
+    <row r="924" spans="2:2" ht="13.2">
       <c r="B924" s="24"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75">
+    <row r="925" spans="2:2" ht="13.2">
       <c r="B925" s="24"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75">
+    <row r="926" spans="2:2" ht="13.2">
       <c r="B926" s="24"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75">
+    <row r="927" spans="2:2" ht="13.2">
       <c r="B927" s="24"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75">
+    <row r="928" spans="2:2" ht="13.2">
       <c r="B928" s="24"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75">
+    <row r="929" spans="2:2" ht="13.2">
       <c r="B929" s="24"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75">
+    <row r="930" spans="2:2" ht="13.2">
       <c r="B930" s="24"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75">
+    <row r="931" spans="2:2" ht="13.2">
       <c r="B931" s="24"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75">
+    <row r="932" spans="2:2" ht="13.2">
       <c r="B932" s="24"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75">
+    <row r="933" spans="2:2" ht="13.2">
       <c r="B933" s="24"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75">
+    <row r="934" spans="2:2" ht="13.2">
       <c r="B934" s="24"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75">
+    <row r="935" spans="2:2" ht="13.2">
       <c r="B935" s="24"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75">
+    <row r="936" spans="2:2" ht="13.2">
       <c r="B936" s="24"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75">
+    <row r="937" spans="2:2" ht="13.2">
       <c r="B937" s="24"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75">
+    <row r="938" spans="2:2" ht="13.2">
       <c r="B938" s="24"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75">
+    <row r="939" spans="2:2" ht="13.2">
       <c r="B939" s="24"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75">
+    <row r="940" spans="2:2" ht="13.2">
       <c r="B940" s="24"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75">
+    <row r="941" spans="2:2" ht="13.2">
       <c r="B941" s="24"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75">
+    <row r="942" spans="2:2" ht="13.2">
       <c r="B942" s="24"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75">
+    <row r="943" spans="2:2" ht="13.2">
       <c r="B943" s="24"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75">
+    <row r="944" spans="2:2" ht="13.2">
       <c r="B944" s="24"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75">
+    <row r="945" spans="2:2" ht="13.2">
       <c r="B945" s="24"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75">
+    <row r="946" spans="2:2" ht="13.2">
       <c r="B946" s="24"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75">
+    <row r="947" spans="2:2" ht="13.2">
       <c r="B947" s="24"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75">
+    <row r="948" spans="2:2" ht="13.2">
       <c r="B948" s="24"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75">
+    <row r="949" spans="2:2" ht="13.2">
       <c r="B949" s="24"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75">
+    <row r="950" spans="2:2" ht="13.2">
       <c r="B950" s="24"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75">
+    <row r="951" spans="2:2" ht="13.2">
       <c r="B951" s="24"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75">
+    <row r="952" spans="2:2" ht="13.2">
       <c r="B952" s="24"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75">
+    <row r="953" spans="2:2" ht="13.2">
       <c r="B953" s="24"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75">
+    <row r="954" spans="2:2" ht="13.2">
       <c r="B954" s="24"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75">
+    <row r="955" spans="2:2" ht="13.2">
       <c r="B955" s="24"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75">
+    <row r="956" spans="2:2" ht="13.2">
       <c r="B956" s="24"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75">
+    <row r="957" spans="2:2" ht="13.2">
       <c r="B957" s="24"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75">
+    <row r="958" spans="2:2" ht="13.2">
       <c r="B958" s="24"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75">
+    <row r="959" spans="2:2" ht="13.2">
       <c r="B959" s="24"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75">
+    <row r="960" spans="2:2" ht="13.2">
       <c r="B960" s="24"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75">
+    <row r="961" spans="2:2" ht="13.2">
       <c r="B961" s="24"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75">
+    <row r="962" spans="2:2" ht="13.2">
       <c r="B962" s="24"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75">
+    <row r="963" spans="2:2" ht="13.2">
       <c r="B963" s="24"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75">
+    <row r="964" spans="2:2" ht="13.2">
       <c r="B964" s="24"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75">
+    <row r="965" spans="2:2" ht="13.2">
       <c r="B965" s="24"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75">
-      <c r="B966" s="24"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5707,14 +5829,14 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="85.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="153.28515625" customWidth="1"/>
+    <col min="4" max="4" width="85.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="153.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5880,10 +6002,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OPiS7 Inventory.xlsx
+++ b/OPiS7 Inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="391">
   <si>
     <t>Summer 2018</t>
   </si>
@@ -392,9 +392,6 @@
     <t># IH</t>
   </si>
   <si>
-    <t>BOOKS</t>
-  </si>
-  <si>
     <t># Needed</t>
   </si>
   <si>
@@ -452,16 +449,7 @@
     <t>7 ord Amz, 35 ord Crlna</t>
   </si>
   <si>
-    <t xml:space="preserve">3 ord Amz, </t>
-  </si>
-  <si>
     <t>Ordered. Amz.</t>
-  </si>
-  <si>
-    <t>only 25 ord</t>
-  </si>
-  <si>
-    <t>only 5 ordered</t>
   </si>
   <si>
     <t>only 10 ordered</t>
@@ -1282,6 +1270,15 @@
   <si>
     <t>ordererd</t>
   </si>
+  <si>
+    <t xml:space="preserve">6 ord Amz, </t>
+  </si>
+  <si>
+    <t>21 ordered</t>
+  </si>
+  <si>
+    <t>Colorbook 8.5" Smith Cardstock Pad, Tuxedo</t>
+  </si>
 </sst>
 </file>
 
@@ -1290,7 +1287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1371,12 +1368,6 @@
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1557,14 +1548,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1656,7 +1647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,37 +1688,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,42 +1732,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,187 +1774,180 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1977,22 +1956,41 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2025,7 +2023,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2297,29 +2295,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U965"/>
+  <dimension ref="A1:U963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A94:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.6640625" style="20" customWidth="1"/>
     <col min="3" max="3" width="10" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
     <col min="7" max="16384" width="14.44140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>124</v>
+      <c r="A1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="22.2" customHeight="1">
@@ -2327,13 +2325,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>125</v>
+      <c r="E2" s="52" t="s">
+        <v>124</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -2352,137 +2350,137 @@
       <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="14.4">
-      <c r="A3" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="34">
-        <v>35</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="C3" s="31">
+        <v>35</v>
+      </c>
+      <c r="D3" s="36">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.4">
-      <c r="A4" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34">
-        <v>35</v>
-      </c>
-      <c r="D4" s="43">
+      <c r="C4" s="31">
+        <v>35</v>
+      </c>
+      <c r="D4" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.4">
-      <c r="A5" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="34">
-        <v>35</v>
-      </c>
-      <c r="D5" s="43">
+      <c r="C5" s="31">
+        <v>35</v>
+      </c>
+      <c r="D5" s="39">
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="41">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.4">
-      <c r="A6" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="34">
-        <v>35</v>
-      </c>
-      <c r="D6" s="43">
+      <c r="C6" s="31">
+        <v>35</v>
+      </c>
+      <c r="D6" s="39">
         <v>5</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.4">
-      <c r="A7" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>6</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="39">
         <v>0</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A8" s="72" t="s">
-        <v>390</v>
-      </c>
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A8" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="50">
         <v>105</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="51">
         <v>29</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="55">
         <v>76</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-    </row>
-    <row r="9" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A9" s="72" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+    </row>
+    <row r="9" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A9" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="60">
         <v>140</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="51">
         <v>6</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="55">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:21" customFormat="1" ht="13.2">
-      <c r="A10" s="45" t="s">
-        <v>147</v>
+      <c r="A10" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>33</v>
@@ -2498,119 +2496,119 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="29.4" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="34">
-        <v>35</v>
-      </c>
-      <c r="D11" s="43">
+      <c r="C11" s="31">
+        <v>35</v>
+      </c>
+      <c r="D11" s="39">
         <v>8</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="41">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.4">
-      <c r="A12" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="65">
-        <v>35</v>
-      </c>
-      <c r="D12" s="66">
+      <c r="A12" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="60">
+        <v>35</v>
+      </c>
+      <c r="D12" s="61">
         <v>4</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="67">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.4">
-      <c r="A13" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="31">
         <v>7</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="39">
         <v>1</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.4">
-      <c r="A14" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="60">
         <v>7</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="72">
+      <c r="D14" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="67">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A15" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="31" t="s">
+    <row r="15" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A15" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="60">
         <v>7</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="61">
         <v>1</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="67">
         <v>6</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
     </row>
     <row r="16" spans="1:21" ht="14.4">
-      <c r="A16" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="70">
-        <v>35</v>
-      </c>
-      <c r="D16" s="81">
+      <c r="C16" s="65">
+        <v>35</v>
+      </c>
+      <c r="D16" s="74">
         <v>0</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="41">
         <v>35</v>
       </c>
       <c r="G16" s="21"/>
@@ -2630,88 +2628,88 @@
       <c r="U16" s="21"/>
     </row>
     <row r="17" spans="1:21" ht="14.4">
-      <c r="A17" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="31">
         <v>1</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="39">
         <v>0</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.4">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="29">
+        <v>35</v>
+      </c>
+      <c r="D18" s="37">
+        <v>4</v>
+      </c>
+      <c r="E18" s="53">
+        <v>31</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" ht="14.4">
+      <c r="A19" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="32">
-        <v>35</v>
-      </c>
-      <c r="D18" s="41">
-        <v>4</v>
-      </c>
-      <c r="E18" s="58">
-        <v>31</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:21" ht="14.4">
-      <c r="A19" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="82">
         <v>2</v>
       </c>
-      <c r="D19" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="47">
+      <c r="D19" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14.4">
-      <c r="A20" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="34">
-        <v>35</v>
-      </c>
-      <c r="D20" s="43">
+      <c r="C20" s="31">
+        <v>35</v>
+      </c>
+      <c r="D20" s="39">
         <v>0</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="41">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="14.4">
-      <c r="A21" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="70">
-        <v>35</v>
-      </c>
-      <c r="D21" s="81">
+      <c r="C21" s="65">
+        <v>35</v>
+      </c>
+      <c r="D21" s="74">
         <v>0</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="41">
         <v>35</v>
       </c>
       <c r="G21" s="21"/>
@@ -2731,1477 +2729,1483 @@
       <c r="U21" s="21"/>
     </row>
     <row r="22" spans="1:21" ht="14.4">
-      <c r="A22" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="27">
         <v>7</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="38">
         <v>0</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="53">
         <v>35</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:21" ht="14.4">
-      <c r="A23" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="84" t="s">
+      <c r="A23" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="78">
         <v>18</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="79">
         <v>2</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="41">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.4">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="60">
+        <v>840</v>
+      </c>
+      <c r="D24" s="61">
+        <v>60</v>
+      </c>
+      <c r="E24" s="67">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A25" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="60">
+        <v>3</v>
+      </c>
+      <c r="D25" s="61">
+        <v>1</v>
+      </c>
+      <c r="E25" s="67">
+        <v>2</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+    </row>
+    <row r="26" spans="1:21" ht="14.4">
+      <c r="A26" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="31">
+        <v>35</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14.4">
+      <c r="A27" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="31">
+        <v>35</v>
+      </c>
+      <c r="D27" s="39">
+        <v>7</v>
+      </c>
+      <c r="E27" s="41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14.4">
+      <c r="A28" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="31">
+        <v>35</v>
+      </c>
+      <c r="D28" s="39">
+        <v>7</v>
+      </c>
+      <c r="E28" s="41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14.4">
+      <c r="A29" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="31">
+        <v>105</v>
+      </c>
+      <c r="D29" s="39">
+        <v>35</v>
+      </c>
+      <c r="E29" s="41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14.4">
+      <c r="A30" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="31">
+        <v>35</v>
+      </c>
+      <c r="D30" s="39">
+        <v>5</v>
+      </c>
+      <c r="E30" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14.4">
+      <c r="A31" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="145">
+        <v>4</v>
+      </c>
+      <c r="D31" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14.4">
+      <c r="A32" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="31">
+        <v>3</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="27">
+      <c r="A33" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="134" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="31">
+        <v>3</v>
+      </c>
+      <c r="D33" s="39">
+        <v>0</v>
+      </c>
+      <c r="E33" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="14.4">
+      <c r="A34" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="31">
+        <v>2</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="14.4">
+      <c r="A35" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="39">
+        <v>0</v>
+      </c>
+      <c r="E35" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="14.4">
+      <c r="A36" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="65">
-        <v>840</v>
-      </c>
-      <c r="D24" s="66">
-        <v>60</v>
-      </c>
-      <c r="E24" s="72">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A25" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="65">
-        <v>3</v>
-      </c>
-      <c r="D25" s="66">
-        <v>1</v>
-      </c>
-      <c r="E25" s="72">
-        <v>2</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-    </row>
-    <row r="26" spans="1:21" ht="14.4">
-      <c r="A26" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="34">
-        <v>35</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="45">
+      <c r="B36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="31">
+        <v>280</v>
+      </c>
+      <c r="D36" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.4">
-      <c r="A27" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="34">
-        <v>35</v>
-      </c>
-      <c r="D27" s="43">
-        <v>7</v>
-      </c>
-      <c r="E27" s="45">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="14.4">
-      <c r="A28" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="34">
-        <v>35</v>
-      </c>
-      <c r="D28" s="43">
-        <v>7</v>
-      </c>
-      <c r="E28" s="45">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14.4">
-      <c r="A29" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="34">
+      <c r="E36" s="41">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14.4">
+      <c r="A37" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="70">
         <v>105</v>
       </c>
-      <c r="D29" s="43">
-        <v>35</v>
-      </c>
-      <c r="E29" s="45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="14.4">
-      <c r="A30" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="34">
-        <v>35</v>
-      </c>
-      <c r="D30" s="43">
-        <v>5</v>
-      </c>
-      <c r="E30" s="45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="14.4">
-      <c r="A31" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="B31" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="153">
-        <v>4</v>
-      </c>
-      <c r="D31" s="154" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="155">
+      <c r="D37" s="71">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="14.4">
-      <c r="A32" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="C32" s="34">
-        <v>3</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="27">
-      <c r="A33" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="142" t="s">
-        <v>387</v>
-      </c>
-      <c r="C33" s="34">
-        <v>3</v>
-      </c>
-      <c r="D33" s="43">
-        <v>0</v>
-      </c>
-      <c r="E33" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="14.4">
-      <c r="A34" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="43">
-        <v>0</v>
-      </c>
-      <c r="E34" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="14.4">
-      <c r="A35" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="34">
-        <v>1</v>
-      </c>
-      <c r="D35" s="43">
-        <v>0</v>
-      </c>
-      <c r="E35" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="14.4">
-      <c r="A36" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="34">
-        <v>280</v>
-      </c>
-      <c r="D36" s="43">
-        <v>0</v>
-      </c>
-      <c r="E36" s="45">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="14.4">
-      <c r="A37" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="77">
+      <c r="E37" s="72">
         <v>105</v>
       </c>
-      <c r="D37" s="78">
-        <v>0</v>
-      </c>
-      <c r="E37" s="79">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A38" s="56"/>
+    </row>
+    <row r="38" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A38" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="B38" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="54">
-        <v>35</v>
-      </c>
-      <c r="D38" s="55">
+      <c r="C38" s="60">
+        <v>35</v>
+      </c>
+      <c r="D38" s="61">
         <v>0</v>
       </c>
-      <c r="E38" s="60">
-        <v>35</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-    </row>
-    <row r="39" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A39" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="69" t="s">
+      <c r="E38" s="67">
+        <v>35</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+    </row>
+    <row r="39" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A39" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="70">
-        <v>35</v>
-      </c>
-      <c r="D39" s="81">
+      <c r="C39" s="65">
+        <v>35</v>
+      </c>
+      <c r="D39" s="74">
         <v>6</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="67">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="14.4">
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="31">
         <v>4</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="39">
         <v>0</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A41" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="80" t="s">
+    <row r="41" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A41" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="77">
+      <c r="C41" s="70">
         <v>210</v>
       </c>
-      <c r="D41" s="78">
+      <c r="D41" s="71">
         <v>38</v>
       </c>
-      <c r="E41" s="79">
+      <c r="E41" s="72">
         <v>172</v>
       </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-    </row>
-    <row r="42" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A42" s="60" t="s">
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+    </row>
+    <row r="42" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A42" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="60">
+        <v>35</v>
+      </c>
+      <c r="D42" s="61">
+        <v>2</v>
+      </c>
+      <c r="E42" s="67">
+        <v>33</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+    </row>
+    <row r="43" spans="1:21" ht="14.4">
+      <c r="A43" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="31">
+        <v>35</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0</v>
+      </c>
+      <c r="E43" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="14.4">
+      <c r="A44" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="31">
+        <v>35</v>
+      </c>
+      <c r="D44" s="39">
+        <v>0</v>
+      </c>
+      <c r="E44" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="14.4">
+      <c r="A45" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="31">
+        <v>70</v>
+      </c>
+      <c r="D45" s="39">
+        <v>20</v>
+      </c>
+      <c r="E45" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.4">
+      <c r="A46" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="31">
+        <v>70</v>
+      </c>
+      <c r="D46" s="39">
+        <v>29</v>
+      </c>
+      <c r="E46" s="41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="14.4">
+      <c r="A47" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="65">
-        <v>35</v>
-      </c>
-      <c r="D42" s="66">
+      <c r="B47" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="31">
+        <v>17</v>
+      </c>
+      <c r="D47" s="39">
+        <v>0</v>
+      </c>
+      <c r="E47" s="41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="14.4">
+      <c r="A48" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="31">
+        <v>35</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A49" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="31">
+        <v>70</v>
+      </c>
+      <c r="D49" s="39">
+        <v>28</v>
+      </c>
+      <c r="E49" s="41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A50" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="60">
+        <v>35</v>
+      </c>
+      <c r="D50" s="61">
+        <v>20</v>
+      </c>
+      <c r="E50" s="67">
+        <v>15</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A51" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="60">
+        <v>525</v>
+      </c>
+      <c r="D51" s="61">
+        <v>60</v>
+      </c>
+      <c r="E51" s="67">
+        <v>465</v>
+      </c>
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A52" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="60">
+        <v>525</v>
+      </c>
+      <c r="D52" s="61">
+        <v>30</v>
+      </c>
+      <c r="E52" s="67">
+        <v>500</v>
+      </c>
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="1:21" ht="14.4">
+      <c r="A53" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="31">
+        <v>35</v>
+      </c>
+      <c r="D53" s="39">
         <v>2</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E53" s="41">
         <v>33</v>
       </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-    </row>
-    <row r="43" spans="1:21" ht="14.4">
-      <c r="A43" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="34">
-        <v>35</v>
-      </c>
-      <c r="D43" s="43">
+    </row>
+    <row r="54" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A54" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="60">
+        <v>35</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="55"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+    </row>
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.4">
+      <c r="A55" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="31">
+        <v>35</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A56" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="60">
+        <v>35</v>
+      </c>
+      <c r="D56" s="61">
         <v>0</v>
       </c>
-      <c r="E43" s="45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="14.4">
-      <c r="A44" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="34">
-        <v>35</v>
-      </c>
-      <c r="D44" s="43">
-        <v>0</v>
-      </c>
-      <c r="E44" s="45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="14.4">
-      <c r="A45" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="34">
-        <v>70</v>
-      </c>
-      <c r="D45" s="43">
-        <v>20</v>
-      </c>
-      <c r="E45" s="45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="14.4">
-      <c r="A46" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="34">
-        <v>70</v>
-      </c>
-      <c r="D46" s="43">
-        <v>29</v>
-      </c>
-      <c r="E46" s="45">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="14.4">
-      <c r="A47" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="34">
-        <v>17</v>
-      </c>
-      <c r="D47" s="43">
-        <v>0</v>
-      </c>
-      <c r="E47" s="45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="14.4">
-      <c r="A48" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="34">
-        <v>35</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" s="18" customFormat="1" ht="14.4">
-      <c r="A49" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="34">
-        <v>70</v>
-      </c>
-      <c r="D49" s="43">
-        <v>28</v>
-      </c>
-      <c r="E49" s="45">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A50" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="65">
-        <v>35</v>
-      </c>
-      <c r="D50" s="66">
-        <v>20</v>
-      </c>
-      <c r="E50" s="72">
-        <v>15</v>
-      </c>
-      <c r="F50" s="67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A51" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="65">
-        <v>525</v>
-      </c>
-      <c r="D51" s="66">
-        <v>60</v>
-      </c>
-      <c r="E51" s="72">
-        <v>465</v>
-      </c>
-      <c r="F51" s="61"/>
-    </row>
-    <row r="52" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A52" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="65">
-        <v>525</v>
-      </c>
-      <c r="D52" s="66">
-        <v>30</v>
-      </c>
-      <c r="E52" s="72">
-        <v>500</v>
-      </c>
-      <c r="F52" s="61"/>
-    </row>
-    <row r="53" spans="1:21" ht="14.4">
-      <c r="A53" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="34">
-        <v>35</v>
-      </c>
-      <c r="D53" s="43">
-        <v>2</v>
-      </c>
-      <c r="E53" s="45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A54" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="65">
-        <v>35</v>
-      </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="60"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-    </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.4">
-      <c r="A55" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="34">
-        <v>35</v>
-      </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="57"/>
-    </row>
-    <row r="56" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A56" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="65">
-        <v>35</v>
-      </c>
-      <c r="D56" s="66">
-        <v>0</v>
-      </c>
-      <c r="E56" s="72">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A57" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="64" t="s">
+      <c r="E56" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A57" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="65">
-        <v>35</v>
-      </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="60"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
+      <c r="C57" s="60">
+        <v>35</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="55"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
     </row>
     <row r="58" spans="1:21" s="18" customFormat="1" ht="14.4">
-      <c r="A58" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="33" t="s">
+      <c r="A58" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="34">
-        <v>35</v>
-      </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="57"/>
-    </row>
-    <row r="59" spans="1:21" s="35" customFormat="1" ht="14.4">
-      <c r="A59" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="B59" s="64" t="s">
+      <c r="C58" s="31">
+        <v>35</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="52"/>
+    </row>
+    <row r="59" spans="1:21" s="32" customFormat="1" ht="14.4">
+      <c r="A59" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B59" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="60">
         <v>210</v>
       </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="57"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="52"/>
     </row>
     <row r="60" spans="1:21" s="18" customFormat="1" ht="14.4">
-      <c r="A60" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="33" t="s">
+      <c r="A60" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="34">
-        <v>35</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="57"/>
-    </row>
-    <row r="61" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A61" s="56"/>
+      <c r="C60" s="31">
+        <v>35</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="52"/>
+    </row>
+    <row r="61" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A61" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="B61" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61" s="60">
         <v>7</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="60"/>
-    </row>
-    <row r="62" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A62" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="64" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="67"/>
+    </row>
+    <row r="62" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A62" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="60">
         <v>105</v>
       </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="60"/>
-    </row>
-    <row r="63" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A63" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="69" t="s">
+      <c r="D62" s="61"/>
+      <c r="E62" s="67"/>
+    </row>
+    <row r="63" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A63" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="70">
-        <v>35</v>
-      </c>
-      <c r="D63" s="66"/>
-      <c r="E63" s="60"/>
-    </row>
-    <row r="64" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A64" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="69" t="s">
+      <c r="C63" s="65">
+        <v>35</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="67"/>
+    </row>
+    <row r="64" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A64" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="70">
-        <v>35</v>
-      </c>
-      <c r="D64" s="66"/>
-      <c r="E64" s="60"/>
-    </row>
-    <row r="65" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A65" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="69" t="s">
+      <c r="C64" s="65">
+        <v>35</v>
+      </c>
+      <c r="D64" s="61"/>
+      <c r="E64" s="67"/>
+    </row>
+    <row r="65" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A65" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="70">
-        <v>35</v>
-      </c>
-      <c r="D65" s="66"/>
-      <c r="E65" s="60"/>
-    </row>
-    <row r="66" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A66" s="56"/>
+      <c r="C65" s="65">
+        <v>35</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="67"/>
+    </row>
+    <row r="66" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A66" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="B66" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="54">
-        <v>35</v>
-      </c>
-      <c r="D66" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="60"/>
-    </row>
-    <row r="67" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A67" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="64" t="s">
+      <c r="C66" s="60">
+        <v>35</v>
+      </c>
+      <c r="D66" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="67"/>
+    </row>
+    <row r="67" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A67" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="65">
-        <v>35</v>
-      </c>
-      <c r="D67" s="66"/>
-      <c r="E67" s="60"/>
-    </row>
-    <row r="68" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A68" s="56"/>
+      <c r="C67" s="60">
+        <v>35</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="67"/>
+    </row>
+    <row r="68" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A68" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="B68" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="54">
-        <v>35</v>
-      </c>
-      <c r="D68" s="55">
+      <c r="C68" s="60">
+        <v>35</v>
+      </c>
+      <c r="D68" s="61">
         <v>0</v>
       </c>
-      <c r="E68" s="60">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A69" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="69" t="s">
+      <c r="E68" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A69" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="70">
+      <c r="C69" s="65">
         <v>70</v>
       </c>
-      <c r="D69" s="66"/>
-      <c r="E69" s="60"/>
-    </row>
-    <row r="70" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A70" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="71" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="55"/>
+    </row>
+    <row r="70" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A70" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="70">
-        <v>35</v>
-      </c>
-      <c r="D70" s="66"/>
-      <c r="E70" s="60"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="68"/>
-    </row>
-    <row r="71" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A71" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="64" t="s">
+      <c r="C70" s="65">
+        <v>35</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="E70" s="55"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
+      <c r="U70" s="63"/>
+    </row>
+    <row r="71" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A71" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="65">
+      <c r="C71" s="60">
         <v>15</v>
       </c>
-      <c r="D71" s="66"/>
-      <c r="E71" s="60"/>
-    </row>
-    <row r="72" spans="1:21" s="67" customFormat="1" ht="14.4">
-      <c r="A72" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="69" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="55"/>
+    </row>
+    <row r="72" spans="1:21" s="62" customFormat="1" ht="14.4">
+      <c r="A72" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="70">
-        <v>35</v>
-      </c>
-      <c r="D72" s="66"/>
-      <c r="E72" s="60"/>
-    </row>
-    <row r="73" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A73" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="64" t="s">
+      <c r="C72" s="65">
+        <v>35</v>
+      </c>
+      <c r="D72" s="61"/>
+      <c r="E72" s="55"/>
+    </row>
+    <row r="73" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A73" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="65">
+      <c r="C73" s="60">
         <v>17</v>
       </c>
-      <c r="D73" s="55">
+      <c r="D73" s="51">
         <v>3600</v>
       </c>
-      <c r="E73" s="60">
+      <c r="E73" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="18" customFormat="1" ht="14.4">
-      <c r="A74" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="48" t="s">
+      <c r="A74" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="45">
         <v>12</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="57"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="52"/>
     </row>
     <row r="75" spans="1:21" s="18" customFormat="1" ht="14.4">
-      <c r="A75" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="51" t="s">
+      <c r="A75" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="52">
-        <v>35</v>
-      </c>
-      <c r="D75" s="53">
+      <c r="C75" s="48">
+        <v>35</v>
+      </c>
+      <c r="D75" s="49">
         <v>0</v>
       </c>
-      <c r="E75" s="57">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" s="30" customFormat="1" ht="14.4">
-      <c r="A76" s="44"/>
-      <c r="B76" s="31" t="s">
+      <c r="E75" s="52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A76" s="158"/>
+      <c r="B76" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="148">
         <v>210</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="149">
         <v>17</v>
       </c>
-      <c r="E76" s="57">
+      <c r="E76" s="150">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A77" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="64" t="s">
+    <row r="77" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A77" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="65">
-        <v>35</v>
-      </c>
-      <c r="D77" s="66">
+      <c r="C77" s="60">
+        <v>35</v>
+      </c>
+      <c r="D77" s="61">
         <v>8</v>
       </c>
-      <c r="E77" s="72">
+      <c r="E77" s="67">
         <v>27</v>
       </c>
-      <c r="F77" s="61"/>
-    </row>
-    <row r="78" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A78" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="64" t="s">
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A78" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="65">
-        <v>35</v>
-      </c>
-      <c r="D78" s="66">
+      <c r="C78" s="60">
+        <v>35</v>
+      </c>
+      <c r="D78" s="61">
         <v>0</v>
       </c>
-      <c r="E78" s="72">
-        <v>35</v>
-      </c>
-      <c r="F78" s="61"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="62"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="62"/>
-    </row>
-    <row r="79" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A79" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="64" t="s">
+      <c r="E78" s="67">
+        <v>35</v>
+      </c>
+      <c r="F78" s="56"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+    </row>
+    <row r="79" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A79" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="65">
-        <v>35</v>
-      </c>
-      <c r="D79" s="66">
+      <c r="C79" s="60">
+        <v>35</v>
+      </c>
+      <c r="D79" s="61">
         <v>21</v>
       </c>
-      <c r="E79" s="72">
+      <c r="E79" s="67">
         <v>15</v>
       </c>
-      <c r="F79" s="61"/>
-    </row>
-    <row r="80" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A80" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="73" t="s">
+      <c r="F79" s="56"/>
+    </row>
+    <row r="80" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A80" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="65">
-        <v>35</v>
-      </c>
-      <c r="D80" s="55">
+      <c r="C80" s="60">
+        <v>35</v>
+      </c>
+      <c r="D80" s="51">
         <v>8</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="55">
         <v>27</v>
       </c>
-      <c r="F80" s="61"/>
-    </row>
-    <row r="81" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A81" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="64" t="s">
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A81" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="65">
+      <c r="C81" s="60">
         <v>70</v>
       </c>
-      <c r="D81" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="72">
+      <c r="D81" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="67">
         <v>0</v>
       </c>
-      <c r="F81" s="61"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:21" ht="14.4">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="31">
+        <v>280</v>
+      </c>
+      <c r="D82" s="39">
+        <v>65</v>
+      </c>
+      <c r="E82" s="41">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="14.4">
+      <c r="A83" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="65">
+        <v>210</v>
+      </c>
+      <c r="D83" s="74">
+        <v>22</v>
+      </c>
+      <c r="E83" s="87">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A84" s="153"/>
+      <c r="B84" s="154" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" s="155">
+        <v>35</v>
+      </c>
+      <c r="D84" s="156">
+        <v>2</v>
+      </c>
+      <c r="E84" s="157">
+        <v>33</v>
+      </c>
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A85" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="34">
-        <v>280</v>
-      </c>
-      <c r="D82" s="43">
-        <v>65</v>
-      </c>
-      <c r="E82" s="45">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="14.4">
-      <c r="A83" s="45" t="s">
+      <c r="B85" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="29">
+        <v>35</v>
+      </c>
+      <c r="D85" s="37">
+        <v>0</v>
+      </c>
+      <c r="E85" s="53">
+        <v>35</v>
+      </c>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="57"/>
+      <c r="S85" s="57"/>
+      <c r="T85" s="57"/>
+      <c r="U85" s="57"/>
+    </row>
+    <row r="86" spans="1:21" ht="14.4">
+      <c r="A86" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="27">
+        <v>35</v>
+      </c>
+      <c r="D86" s="38">
+        <v>0</v>
+      </c>
+      <c r="E86" s="53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="14.4">
+      <c r="A87" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="70">
-        <v>210</v>
-      </c>
-      <c r="D83" s="81">
+      <c r="B87" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="25">
+        <v>35</v>
+      </c>
+      <c r="D87" s="36">
+        <v>4</v>
+      </c>
+      <c r="E87" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="14.4">
+      <c r="A88" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="25">
+        <v>35</v>
+      </c>
+      <c r="D88" s="36">
+        <v>3</v>
+      </c>
+      <c r="E88" s="52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="14.4">
+      <c r="A89" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="25">
+        <v>35</v>
+      </c>
+      <c r="D89" s="36">
+        <v>0</v>
+      </c>
+      <c r="E89" s="52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="14.4">
+      <c r="A90" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="25">
+        <v>35</v>
+      </c>
+      <c r="D90" s="36">
+        <v>5</v>
+      </c>
+      <c r="E90" s="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="14.4">
+      <c r="A91" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="25">
+        <v>35</v>
+      </c>
+      <c r="D91" s="36">
+        <v>6</v>
+      </c>
+      <c r="E91" s="52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="58" customFormat="1" ht="14.4">
+      <c r="A92" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="50">
+        <v>35</v>
+      </c>
+      <c r="D92" s="51">
+        <v>1</v>
+      </c>
+      <c r="E92" s="55">
+        <v>34</v>
+      </c>
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="1:21" ht="14.4">
+      <c r="A93" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="60">
+        <v>1</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="27">
+      <c r="A94" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="136">
+        <v>1</v>
+      </c>
+      <c r="D94" s="137">
+        <v>0</v>
+      </c>
+      <c r="E94" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="13.2">
+      <c r="A95" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="139">
+        <v>1</v>
+      </c>
+      <c r="D95" s="137">
+        <v>0</v>
+      </c>
+      <c r="E95" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="13.2">
+      <c r="A96" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="94">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A84" s="56"/>
-      <c r="B84" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="74">
-        <v>35</v>
-      </c>
-      <c r="D84" s="75">
-        <v>2</v>
-      </c>
-      <c r="E84" s="60">
-        <v>33</v>
-      </c>
-      <c r="F84" s="61"/>
-    </row>
-    <row r="85" spans="1:21" s="63" customFormat="1" ht="14.4">
-      <c r="A85" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="32">
-        <v>35</v>
-      </c>
-      <c r="D85" s="41">
+      <c r="C96" s="140">
+        <v>1</v>
+      </c>
+      <c r="D96" s="137">
         <v>0</v>
       </c>
-      <c r="E85" s="58">
-        <v>35</v>
-      </c>
-      <c r="F85" s="61"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
-      <c r="O85" s="62"/>
-      <c r="P85" s="62"/>
-      <c r="Q85" s="62"/>
-      <c r="R85" s="62"/>
-      <c r="S85" s="62"/>
-      <c r="T85" s="62"/>
-      <c r="U85" s="62"/>
-    </row>
-    <row r="86" spans="1:21" ht="14.4">
-      <c r="A86" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="29">
-        <v>35</v>
-      </c>
-      <c r="D86" s="42">
+      <c r="E96" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="26.4">
+      <c r="A97" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="141">
+        <v>1</v>
+      </c>
+      <c r="D97" s="137">
         <v>0</v>
       </c>
-      <c r="E86" s="58">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="14.4">
-      <c r="A87" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="26">
-        <v>35</v>
-      </c>
-      <c r="D87" s="40">
-        <v>4</v>
-      </c>
-      <c r="E87" s="57">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="14.4">
-      <c r="A88" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="26">
-        <v>35</v>
-      </c>
-      <c r="D88" s="40">
-        <v>3</v>
-      </c>
-      <c r="E88" s="57">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="14.4">
-      <c r="A89" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="26">
-        <v>35</v>
-      </c>
-      <c r="D89" s="40">
+      <c r="E97" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.4">
+      <c r="A98" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="113">
+        <v>35</v>
+      </c>
+      <c r="D98" s="142">
         <v>0</v>
       </c>
-      <c r="E89" s="57">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="14.4">
-      <c r="A90" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="26">
-        <v>35</v>
-      </c>
-      <c r="D90" s="40">
+      <c r="E98" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.4">
+      <c r="A99" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="113">
+        <v>35</v>
+      </c>
+      <c r="D99" s="142">
+        <v>0</v>
+      </c>
+      <c r="E99" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.4">
+      <c r="A100" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="113">
+        <v>35</v>
+      </c>
+      <c r="D100" s="142">
+        <v>0</v>
+      </c>
+      <c r="E100" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.4">
+      <c r="A101" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="113">
+        <v>35</v>
+      </c>
+      <c r="D101" s="142">
         <v>5</v>
       </c>
-      <c r="E90" s="57">
+      <c r="E101" s="41">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="14.4">
-      <c r="A91" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="26">
-        <v>35</v>
-      </c>
-      <c r="D91" s="40">
-        <v>6</v>
-      </c>
-      <c r="E91" s="57">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="14.4">
-      <c r="A92" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="32">
-        <v>35</v>
-      </c>
-      <c r="D92" s="41">
-        <v>1</v>
-      </c>
-      <c r="E92" s="58">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="14.4">
-      <c r="A93" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="65">
-        <v>1</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" s="72">
+    <row r="102" spans="1:5" ht="14.4">
+      <c r="A102" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="113">
+        <v>35</v>
+      </c>
+      <c r="D102" s="142">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="13.2">
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="36"/>
-    </row>
-    <row r="95" spans="1:21" ht="14.4">
-      <c r="B95" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="36"/>
-    </row>
-    <row r="96" spans="1:21" ht="27">
-      <c r="A96" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="144">
-        <v>1</v>
-      </c>
-      <c r="D96" s="145">
+      <c r="E102" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14.4">
+      <c r="A103" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="76">
+        <v>35</v>
+      </c>
+      <c r="D103" s="142">
         <v>0</v>
       </c>
-      <c r="E96" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.2">
-      <c r="A97" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="147">
-        <v>1</v>
-      </c>
-      <c r="D97" s="145">
-        <v>0</v>
-      </c>
-      <c r="E97" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.2">
-      <c r="A98" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="146" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="148">
-        <v>1</v>
-      </c>
-      <c r="D98" s="145">
-        <v>0</v>
-      </c>
-      <c r="E98" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="26.4">
-      <c r="A99" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B99" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="149">
-        <v>1</v>
-      </c>
-      <c r="D99" s="145">
-        <v>0</v>
-      </c>
-      <c r="E99" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="14.4">
-      <c r="A100" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B100" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="121">
-        <v>35</v>
-      </c>
-      <c r="D100" s="150">
-        <v>0</v>
-      </c>
-      <c r="E100" s="45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="14.4">
-      <c r="A101" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B101" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="121">
-        <v>35</v>
-      </c>
-      <c r="D101" s="150">
-        <v>0</v>
-      </c>
-      <c r="E101" s="45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="14.4">
-      <c r="A102" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" s="121">
-        <v>35</v>
-      </c>
-      <c r="D102" s="150">
-        <v>0</v>
-      </c>
-      <c r="E102" s="45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="14.4">
-      <c r="A103" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B103" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" s="121">
-        <v>35</v>
-      </c>
-      <c r="D103" s="150">
-        <v>5</v>
-      </c>
-      <c r="E103" s="45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="14.4">
-      <c r="A104" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B104" s="119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" s="121">
-        <v>35</v>
-      </c>
-      <c r="D104" s="150">
-        <v>0</v>
-      </c>
-      <c r="E104" s="45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="14.4">
-      <c r="A105" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="151" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" s="83">
-        <v>35</v>
-      </c>
-      <c r="D105" s="150">
-        <v>0</v>
-      </c>
-      <c r="E105" s="45">
-        <v>35</v>
-      </c>
+      <c r="E103" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="13.2">
+      <c r="B104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" ht="13.2">
+      <c r="B105" s="22"/>
     </row>
     <row r="106" spans="1:5" ht="13.2">
       <c r="B106" s="22"/>
@@ -6776,12 +6780,6 @@
     </row>
     <row r="963" spans="2:2" ht="13.2">
       <c r="B963" s="22"/>
-    </row>
-    <row r="964" spans="2:2" ht="13.2">
-      <c r="B964" s="22"/>
-    </row>
-    <row r="965" spans="2:2" ht="13.2">
-      <c r="B965" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6805,3323 +6803,3323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="90" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="101">
+      <c r="D2" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="93">
         <v>9.99</v>
       </c>
-      <c r="F2" s="34">
-        <v>35</v>
-      </c>
-      <c r="G2" s="101">
-        <f>E2*F2</f>
+      <c r="F2" s="31">
+        <v>35</v>
+      </c>
+      <c r="G2" s="93">
+        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
         <v>349.65000000000003</v>
       </c>
-      <c r="H2" s="102">
+      <c r="H2" s="94">
         <f>G2/'[1]Teacher Supplies'!$I$102</f>
         <v>10.926562500000001</v>
       </c>
-      <c r="I2" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="103" t="s">
-        <v>384</v>
+      <c r="I2" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="101">
+      <c r="D3" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="93">
         <v>8.99</v>
       </c>
-      <c r="F3" s="34">
-        <v>35</v>
-      </c>
-      <c r="G3" s="101">
-        <f>E3*F3</f>
+      <c r="F3" s="31">
+        <v>35</v>
+      </c>
+      <c r="G3" s="93">
+        <f t="shared" si="0"/>
         <v>314.65000000000003</v>
       </c>
-      <c r="H3" s="102">
+      <c r="H3" s="94">
         <f>G3/'[1]Teacher Supplies'!$I$102</f>
         <v>9.8328125000000011</v>
       </c>
-      <c r="I3" s="99" t="s">
-        <v>383</v>
-      </c>
-      <c r="J3" s="103" t="s">
-        <v>382</v>
+      <c r="I3" s="91" t="s">
+        <v>379</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="101">
+      <c r="D4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="93">
         <v>10.26</v>
       </c>
-      <c r="F4" s="34">
-        <v>35</v>
-      </c>
-      <c r="G4" s="101">
-        <f>E4*F4</f>
+      <c r="F4" s="31">
+        <v>35</v>
+      </c>
+      <c r="G4" s="93">
+        <f t="shared" si="0"/>
         <v>359.09999999999997</v>
       </c>
-      <c r="H4" s="102">
+      <c r="H4" s="94">
         <f>G4/'[1]Teacher Supplies'!$I$102</f>
         <v>11.221874999999999</v>
       </c>
-      <c r="I4" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="103" t="s">
-        <v>381</v>
+      <c r="I4" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="101">
+      <c r="D5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="93">
         <v>11.15</v>
       </c>
-      <c r="F5" s="34">
-        <v>35</v>
-      </c>
-      <c r="G5" s="101">
-        <f>E5*F5</f>
+      <c r="F5" s="31">
+        <v>35</v>
+      </c>
+      <c r="G5" s="93">
+        <f t="shared" si="0"/>
         <v>390.25</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="94">
         <f>G5/'[1]Teacher Supplies'!$I$102</f>
         <v>12.1953125</v>
       </c>
-      <c r="I5" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="J5" s="103" t="s">
-        <v>379</v>
+      <c r="I5" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="101">
+      <c r="D6" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="93">
         <v>23.99</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>6</v>
       </c>
-      <c r="G6" s="101">
-        <f>E6*F6</f>
+      <c r="G6" s="93">
+        <f t="shared" si="0"/>
         <v>143.94</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="94">
         <f>G6/'[1]Teacher Supplies'!$I$102</f>
         <v>4.4981249999999999</v>
       </c>
-      <c r="I6" s="99" t="s">
-        <v>378</v>
-      </c>
-      <c r="J6" s="103" t="s">
-        <v>377</v>
+      <c r="I6" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="101">
+      <c r="D7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="93">
         <v>11.99</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>105</v>
       </c>
-      <c r="G7" s="101">
-        <f>E7*F7</f>
+      <c r="G7" s="93">
+        <f t="shared" si="0"/>
         <v>1258.95</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="94">
         <f>G7/'[1]Teacher Supplies'!$I$102</f>
         <v>39.342187500000001</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="91">
         <v>3</v>
       </c>
-      <c r="J7" s="103" t="s">
-        <v>376</v>
+      <c r="J7" s="95" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="101">
+      <c r="D8" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="93">
         <v>12.99</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>140</v>
       </c>
-      <c r="G8" s="101">
-        <f>E8*F8</f>
+      <c r="G8" s="93">
+        <f t="shared" si="0"/>
         <v>1818.6000000000001</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="94">
         <f>G8/'[1]Teacher Supplies'!$I$102</f>
         <v>56.831250000000004</v>
       </c>
-      <c r="I8" s="99">
+      <c r="I8" s="91">
         <v>4</v>
       </c>
-      <c r="J8" s="103" t="s">
-        <v>375</v>
+      <c r="J8" s="95" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="101">
+      <c r="D9" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="93">
         <v>12.95</v>
       </c>
-      <c r="F9" s="34">
-        <v>35</v>
-      </c>
-      <c r="G9" s="101">
-        <f>E9*F9</f>
+      <c r="F9" s="31">
+        <v>35</v>
+      </c>
+      <c r="G9" s="93">
+        <f t="shared" si="0"/>
         <v>453.25</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="94">
         <f>G9/'[1]Teacher Supplies'!$I$102</f>
         <v>14.1640625</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="91">
         <v>1</v>
       </c>
-      <c r="J9" s="103" t="s">
-        <v>374</v>
+      <c r="J9" s="95" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="101">
+      <c r="D10" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="93">
         <v>4.79</v>
       </c>
-      <c r="F10" s="34">
-        <v>35</v>
-      </c>
-      <c r="G10" s="101">
-        <f>E10*F10</f>
+      <c r="F10" s="31">
+        <v>35</v>
+      </c>
+      <c r="G10" s="93">
+        <f t="shared" si="0"/>
         <v>167.65</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="94">
         <f>G10/'[1]Teacher Supplies'!$I$102</f>
         <v>5.2390625000000002</v>
       </c>
-      <c r="I10" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>373</v>
+      <c r="I10" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="95" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="105">
+      <c r="B11" s="96"/>
+      <c r="C11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="97">
         <v>12.74</v>
       </c>
-      <c r="F11" s="34">
-        <v>35</v>
-      </c>
-      <c r="G11" s="101">
-        <f>E11*F11</f>
+      <c r="F11" s="31">
+        <v>35</v>
+      </c>
+      <c r="G11" s="93">
+        <f t="shared" si="0"/>
         <v>445.90000000000003</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="94">
         <f>G11/'[1]Teacher Supplies'!$I$102</f>
         <v>13.934375000000001</v>
       </c>
-      <c r="I11" s="99" t="s">
-        <v>372</v>
-      </c>
-      <c r="J11" s="103" t="s">
-        <v>371</v>
+      <c r="I11" s="91" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="101">
+      <c r="D12" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="93">
         <v>23.26</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>7</v>
       </c>
-      <c r="G12" s="101">
-        <f>E12*F12</f>
+      <c r="G12" s="93">
+        <f t="shared" si="0"/>
         <v>162.82000000000002</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="94">
         <f>G12/'[1]Teacher Supplies'!$I$102</f>
         <v>5.0881250000000007</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="91">
         <v>10</v>
       </c>
-      <c r="J12" s="103" t="s">
-        <v>370</v>
+      <c r="J12" s="95" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" s="105">
+      <c r="D13" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="97">
         <v>6.99</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>7</v>
       </c>
-      <c r="G13" s="101">
-        <f>E13*F13</f>
+      <c r="G13" s="93">
+        <f t="shared" si="0"/>
         <v>48.93</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="94">
         <f>G13/'[1]Teacher Supplies'!$I$102</f>
         <v>1.5290625</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="91">
         <v>10</v>
       </c>
-      <c r="J13" s="103" t="s">
-        <v>368</v>
+      <c r="J13" s="95" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="105">
+      <c r="D14" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="97">
         <v>28.95</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>7</v>
       </c>
-      <c r="G14" s="101">
-        <f>E14*F14</f>
+      <c r="G14" s="93">
+        <f t="shared" si="0"/>
         <v>202.65</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="94">
         <f>G14/'[1]Teacher Supplies'!$I$102</f>
         <v>6.3328125000000002</v>
       </c>
-      <c r="I14" s="99">
+      <c r="I14" s="91">
         <v>20</v>
       </c>
-      <c r="J14" s="103" t="s">
-        <v>367</v>
+      <c r="J14" s="95" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.4">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="107">
+      <c r="D15" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="99">
         <v>9.57</v>
       </c>
-      <c r="F15" s="83">
-        <v>35</v>
-      </c>
-      <c r="G15" s="107">
-        <f>E15*F15</f>
+      <c r="F15" s="76">
+        <v>35</v>
+      </c>
+      <c r="G15" s="99">
+        <f t="shared" si="0"/>
         <v>334.95</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="100">
         <f>G15/'[1]Teacher Supplies'!$I$102</f>
         <v>10.4671875</v>
       </c>
-      <c r="I15" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="J15" s="103" t="s">
-        <v>366</v>
+      <c r="I15" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="95" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="101">
+      <c r="D16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="93">
         <v>49.88</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>1</v>
       </c>
-      <c r="G16" s="101">
-        <f>E16*F16</f>
+      <c r="G16" s="93">
+        <f t="shared" si="0"/>
         <v>49.88</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="94">
         <f>G16/'[1]Teacher Supplies'!$I$102</f>
         <v>1.5587500000000001</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="91">
         <v>30</v>
       </c>
-      <c r="J16" s="103" t="s">
-        <v>365</v>
+      <c r="J16" s="95" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="101">
+      <c r="D17" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="93">
         <v>5.99</v>
       </c>
-      <c r="F17" s="34">
-        <v>35</v>
-      </c>
-      <c r="G17" s="101">
-        <f>E17*F17</f>
+      <c r="F17" s="31">
+        <v>35</v>
+      </c>
+      <c r="G17" s="93">
+        <f t="shared" si="0"/>
         <v>209.65</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="94">
         <f>G17/'[1]Teacher Supplies'!$I$102</f>
         <v>6.5515625000000002</v>
       </c>
-      <c r="I17" s="99">
+      <c r="I17" s="91">
         <v>1</v>
       </c>
-      <c r="J17" s="103" t="s">
-        <v>364</v>
+      <c r="J17" s="95" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.4">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="101">
+      <c r="D18" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="93">
         <v>3.75</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>2</v>
       </c>
-      <c r="G18" s="101">
-        <f>E18*F18</f>
+      <c r="G18" s="93">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="H18" s="102">
+      <c r="H18" s="94">
         <f>G18/'[1]Teacher Supplies'!$I$102</f>
         <v>0.234375</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="91">
         <v>20</v>
       </c>
-      <c r="J18" s="103" t="s">
-        <v>363</v>
+      <c r="J18" s="95" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="101">
+      <c r="D19" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="93">
         <v>11.25</v>
       </c>
-      <c r="F19" s="34">
-        <v>35</v>
-      </c>
-      <c r="G19" s="101">
-        <f>E19*F19</f>
+      <c r="F19" s="31">
+        <v>35</v>
+      </c>
+      <c r="G19" s="93">
+        <f t="shared" si="0"/>
         <v>393.75</v>
       </c>
-      <c r="H19" s="102">
+      <c r="H19" s="94">
         <f>G19/'[1]Teacher Supplies'!$I$102</f>
         <v>12.3046875</v>
       </c>
-      <c r="I19" s="99">
+      <c r="I19" s="91">
         <v>1</v>
       </c>
-      <c r="J19" s="103" t="s">
-        <v>362</v>
+      <c r="J19" s="95" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.4">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="102"/>
+      <c r="C20" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" s="107">
+      <c r="D20" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="99">
         <v>7.95</v>
       </c>
-      <c r="F20" s="83">
-        <v>35</v>
-      </c>
-      <c r="G20" s="111">
-        <f>E20*F20</f>
+      <c r="F20" s="76">
+        <v>35</v>
+      </c>
+      <c r="G20" s="103">
+        <f t="shared" si="0"/>
         <v>278.25</v>
       </c>
-      <c r="H20" s="108">
+      <c r="H20" s="100">
         <f>G20/'[1]Teacher Supplies'!$I$102</f>
         <v>8.6953125</v>
       </c>
-      <c r="I20" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="J20" s="103" t="s">
-        <v>360</v>
+      <c r="I20" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="J20" s="95" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="84" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="E21" s="113">
+      <c r="D21" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" s="105">
         <v>8.1</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="78">
         <v>7</v>
       </c>
-      <c r="G21" s="101">
-        <f>E21*F21</f>
+      <c r="G21" s="93">
+        <f t="shared" si="0"/>
         <v>56.699999999999996</v>
       </c>
-      <c r="H21" s="102">
+      <c r="H21" s="94">
         <f>G21/'[1]Teacher Supplies'!$I$102</f>
         <v>1.7718749999999999</v>
       </c>
-      <c r="I21" s="112" t="s">
-        <v>359</v>
-      </c>
-      <c r="J21" s="103" t="s">
-        <v>358</v>
+      <c r="I21" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.4">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="113">
+      <c r="D22" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="105">
         <v>13.59</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="78">
         <v>18</v>
       </c>
-      <c r="G22" s="101">
-        <f>E22*F22</f>
+      <c r="G22" s="93">
+        <f t="shared" si="0"/>
         <v>244.62</v>
       </c>
-      <c r="H22" s="102">
+      <c r="H22" s="94">
         <f>G22/'[1]Teacher Supplies'!$I$102</f>
         <v>7.6443750000000001</v>
       </c>
-      <c r="I22" s="112" t="s">
-        <v>357</v>
-      </c>
-      <c r="J22" s="103" t="s">
-        <v>356</v>
+      <c r="I22" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="J22" s="95" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.4">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="B23" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="101">
+      <c r="D23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="93">
         <v>2.99</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <v>840</v>
       </c>
-      <c r="G23" s="101">
-        <f>E23*F23</f>
+      <c r="G23" s="93">
+        <f t="shared" si="0"/>
         <v>2511.6000000000004</v>
       </c>
-      <c r="H23" s="102">
+      <c r="H23" s="94">
         <f>G23/'[1]Teacher Supplies'!$I$102</f>
         <v>78.487500000000011</v>
       </c>
-      <c r="I23" s="99">
+      <c r="I23" s="91">
         <v>24</v>
       </c>
-      <c r="J23" s="103" t="s">
-        <v>354</v>
+      <c r="J23" s="95" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.4">
-      <c r="A24" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="B24" s="115">
+      <c r="A24" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="107">
         <v>1478080</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="E24" s="101">
+      <c r="D24" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="93">
         <v>23.97</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>3</v>
       </c>
-      <c r="G24" s="101">
-        <f>E24*F24</f>
+      <c r="G24" s="93">
+        <f t="shared" si="0"/>
         <v>71.91</v>
       </c>
-      <c r="H24" s="102">
+      <c r="H24" s="94">
         <f>G24/'[1]Teacher Supplies'!$I$102</f>
         <v>2.2471874999999999</v>
       </c>
-      <c r="I24" s="99">
+      <c r="I24" s="91">
         <v>1</v>
       </c>
-      <c r="J24" s="103" t="s">
-        <v>352</v>
+      <c r="J24" s="95" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.4">
-      <c r="A25" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="B25" s="100">
+      <c r="A25" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="92">
         <v>1436242</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="101">
+      <c r="D25" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="93">
         <v>0.6</v>
       </c>
-      <c r="F25" s="34">
-        <v>35</v>
-      </c>
-      <c r="G25" s="101">
-        <f>E25*F25</f>
+      <c r="F25" s="31">
+        <v>35</v>
+      </c>
+      <c r="G25" s="93">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H25" s="102">
+      <c r="H25" s="94">
         <f>G25/'[1]Teacher Supplies'!$I$102</f>
         <v>0.65625</v>
       </c>
-      <c r="I25" s="99">
+      <c r="I25" s="91">
         <v>1</v>
       </c>
-      <c r="J25" s="103" t="s">
-        <v>350</v>
+      <c r="J25" s="95" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.4">
-      <c r="A26" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="33" t="s">
+      <c r="A26" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="101">
+      <c r="D26" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="93">
         <v>6.86</v>
       </c>
-      <c r="F26" s="34">
-        <v>35</v>
-      </c>
-      <c r="G26" s="101">
-        <f>E26*F26</f>
+      <c r="F26" s="31">
+        <v>35</v>
+      </c>
+      <c r="G26" s="93">
+        <f t="shared" si="0"/>
         <v>240.10000000000002</v>
       </c>
-      <c r="H26" s="102">
+      <c r="H26" s="94">
         <f>G26/'[1]Teacher Supplies'!$I$102</f>
         <v>7.5031250000000007</v>
       </c>
-      <c r="I26" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" s="103" t="s">
-        <v>347</v>
+      <c r="I26" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="95" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.4">
-      <c r="A27" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" s="100">
+      <c r="A27" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="92">
         <v>1009001</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="101">
+      <c r="D27" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="93">
         <v>1</v>
       </c>
-      <c r="F27" s="34">
-        <v>35</v>
-      </c>
-      <c r="G27" s="101">
-        <f>E27*F27</f>
-        <v>35</v>
-      </c>
-      <c r="H27" s="102">
+      <c r="F27" s="31">
+        <v>35</v>
+      </c>
+      <c r="G27" s="93">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H27" s="94">
         <f>G27/'[1]Teacher Supplies'!$I$102</f>
         <v>1.09375</v>
       </c>
-      <c r="I27" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J27" s="103" t="s">
-        <v>345</v>
+      <c r="I27" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="95" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4">
-      <c r="A28" s="137" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="138">
+      <c r="A28" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="130">
         <v>722876</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="139">
+      <c r="D28" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="131">
         <v>1</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="60">
         <v>105</v>
       </c>
-      <c r="G28" s="139">
-        <f>E28*F28</f>
+      <c r="G28" s="131">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H28" s="140">
+      <c r="H28" s="132">
         <f>G28/'[1]Teacher Supplies'!$I$102</f>
         <v>3.28125</v>
       </c>
-      <c r="I28" s="141" t="s">
-        <v>344</v>
-      </c>
-      <c r="J28" s="116" t="s">
-        <v>343</v>
+      <c r="I28" s="133" t="s">
+        <v>340</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.4">
-      <c r="A29" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="B29" s="138">
+      <c r="A29" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="130">
         <v>187301</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="139">
+      <c r="D29" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="131">
         <v>1</v>
       </c>
-      <c r="F29" s="65">
-        <v>35</v>
-      </c>
-      <c r="G29" s="139">
-        <f>E29*F29</f>
-        <v>35</v>
-      </c>
-      <c r="H29" s="140">
+      <c r="F29" s="60">
+        <v>35</v>
+      </c>
+      <c r="G29" s="131">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H29" s="132">
         <f>G29/'[1]Teacher Supplies'!$I$102</f>
         <v>1.09375</v>
       </c>
-      <c r="I29" s="141" t="s">
-        <v>342</v>
-      </c>
-      <c r="J29" s="103" t="s">
-        <v>341</v>
+      <c r="I29" s="133" t="s">
+        <v>338</v>
+      </c>
+      <c r="J29" s="95" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4">
-      <c r="A30" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="138">
+      <c r="A30" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="130">
         <v>232414</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="E30" s="139">
+      <c r="D30" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" s="131">
         <v>36</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="60">
         <v>4</v>
       </c>
-      <c r="G30" s="139">
-        <f>E30*F30</f>
+      <c r="G30" s="131">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="H30" s="140">
+      <c r="H30" s="132">
         <f>G30/'[1]Teacher Supplies'!$I$102</f>
         <v>4.5</v>
       </c>
-      <c r="I30" s="141" t="s">
-        <v>339</v>
-      </c>
-      <c r="J30" s="103" t="s">
-        <v>338</v>
+      <c r="I30" s="133" t="s">
+        <v>335</v>
+      </c>
+      <c r="J30" s="95" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.4">
-      <c r="A31" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="138">
+      <c r="A31" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="130">
         <v>261900</v>
       </c>
-      <c r="C31" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="E31" s="139">
+      <c r="C31" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="131">
         <v>12</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="60">
         <v>3</v>
       </c>
-      <c r="G31" s="139">
-        <f>E31*F31</f>
+      <c r="G31" s="131">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H31" s="140">
+      <c r="H31" s="132">
         <f>G31/'[1]Teacher Supplies'!$I$102</f>
         <v>1.125</v>
       </c>
-      <c r="I31" s="141">
+      <c r="I31" s="133">
         <v>1</v>
       </c>
-      <c r="J31" s="103" t="s">
-        <v>335</v>
+      <c r="J31" s="95" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.4">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="130">
+        <v>255300</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="B32" s="138">
-        <v>255300</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="E32" s="139">
+      <c r="E32" s="131">
         <v>12</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="60">
         <v>3</v>
       </c>
-      <c r="G32" s="139">
-        <f>E32*F32</f>
+      <c r="G32" s="131">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H32" s="140">
+      <c r="H32" s="132">
         <f>G32/'[1]Teacher Supplies'!$I$102</f>
         <v>1.125</v>
       </c>
-      <c r="I32" s="141">
+      <c r="I32" s="133">
         <v>1</v>
       </c>
-      <c r="J32" s="103" t="s">
-        <v>332</v>
+      <c r="J32" s="95" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.4">
-      <c r="A33" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="138">
+      <c r="A33" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="130">
         <v>170683</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="E33" s="139">
+      <c r="D33" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="131">
         <v>24</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="60">
         <v>2</v>
       </c>
-      <c r="G33" s="139">
-        <f>E33*F33</f>
+      <c r="G33" s="131">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H33" s="140">
+      <c r="H33" s="132">
         <f>G33/'[1]Teacher Supplies'!$I$102</f>
         <v>1.5</v>
       </c>
-      <c r="I33" s="141">
+      <c r="I33" s="133">
         <v>1</v>
       </c>
-      <c r="J33" s="103" t="s">
-        <v>330</v>
+      <c r="J33" s="95" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.4">
-      <c r="A34" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="138">
+      <c r="A34" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="130">
         <v>154953</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" s="139">
-        <v>35</v>
-      </c>
-      <c r="F34" s="65">
+      <c r="D34" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="131">
+        <v>35</v>
+      </c>
+      <c r="F34" s="60">
         <v>1</v>
       </c>
-      <c r="G34" s="139">
-        <f>E34*F34</f>
-        <v>35</v>
-      </c>
-      <c r="H34" s="140">
+      <c r="G34" s="131">
+        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
+        <v>35</v>
+      </c>
+      <c r="H34" s="132">
         <f>G34/'[1]Teacher Supplies'!$I$102</f>
         <v>1.09375</v>
       </c>
-      <c r="I34" s="141" t="s">
-        <v>327</v>
-      </c>
-      <c r="J34" s="103" t="s">
-        <v>326</v>
+      <c r="I34" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" s="95" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.4">
-      <c r="A35" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" s="138" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="73" t="s">
+      <c r="A35" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="130" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="139">
+      <c r="D35" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="131">
         <v>3.25</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="60">
         <v>280</v>
       </c>
-      <c r="G35" s="139">
-        <f>E35*F35</f>
+      <c r="G35" s="131">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
-      <c r="H35" s="140">
+      <c r="H35" s="132">
         <f>G35/'[1]Teacher Supplies'!$I$102</f>
         <v>28.4375</v>
       </c>
-      <c r="I35" s="141">
+      <c r="I35" s="133">
         <v>8</v>
       </c>
-      <c r="J35" s="103" t="s">
-        <v>324</v>
+      <c r="J35" s="95" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.4">
-      <c r="A36" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" s="100" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="46" t="s">
+      <c r="A36" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="E36" s="101">
+      <c r="D36" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="93">
         <v>6.95</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="31">
         <v>105</v>
       </c>
-      <c r="G36" s="101">
-        <f>E36*F36</f>
+      <c r="G36" s="93">
+        <f t="shared" si="1"/>
         <v>729.75</v>
       </c>
-      <c r="H36" s="102">
+      <c r="H36" s="94">
         <f>G36/'[1]Teacher Supplies'!$I$102</f>
         <v>22.8046875</v>
       </c>
-      <c r="I36" s="99" t="s">
-        <v>320</v>
-      </c>
-      <c r="J36" s="103" t="s">
-        <v>319</v>
+      <c r="I36" s="91" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" s="95" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.4">
-      <c r="A37" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="B37" s="100" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="33" t="s">
+      <c r="A37" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37" s="101">
+      <c r="D37" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="93">
         <v>4</v>
       </c>
-      <c r="F37" s="34">
-        <v>35</v>
-      </c>
-      <c r="G37" s="101">
-        <f>E37*F37</f>
+      <c r="F37" s="31">
+        <v>35</v>
+      </c>
+      <c r="G37" s="93">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H37" s="102">
+      <c r="H37" s="94">
         <f>G37/'[1]Teacher Supplies'!$I$102</f>
         <v>4.375</v>
       </c>
-      <c r="I37" s="99">
+      <c r="I37" s="91">
         <v>1</v>
       </c>
-      <c r="J37" s="103" t="s">
-        <v>316</v>
+      <c r="J37" s="95" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.4">
-      <c r="A38" s="84" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" s="117" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="84" t="s">
+      <c r="A38" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="E38" s="113">
+      <c r="D38" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" s="105">
         <v>41.27</v>
       </c>
-      <c r="F38" s="85">
-        <v>35</v>
-      </c>
-      <c r="G38" s="101">
-        <f>E38*F38</f>
+      <c r="F38" s="78">
+        <v>35</v>
+      </c>
+      <c r="G38" s="93">
+        <f t="shared" si="1"/>
         <v>1444.45</v>
       </c>
-      <c r="H38" s="102">
+      <c r="H38" s="94">
         <f>G38/'[1]Teacher Supplies'!$I$102</f>
         <v>45.139062500000001</v>
       </c>
-      <c r="I38" s="112" t="s">
-        <v>312</v>
-      </c>
-      <c r="J38" s="103" t="s">
-        <v>311</v>
+      <c r="I38" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" s="95" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.4">
-      <c r="A39" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="B39" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="C39" s="33" t="s">
+      <c r="A39" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="101">
+      <c r="D39" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="93">
         <v>10.29</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="31">
         <v>4</v>
       </c>
-      <c r="G39" s="101">
-        <f>E39*F39</f>
+      <c r="G39" s="93">
+        <f t="shared" si="1"/>
         <v>41.16</v>
       </c>
-      <c r="H39" s="102">
+      <c r="H39" s="94">
         <f>G39/'[1]Teacher Supplies'!$I$102</f>
         <v>1.2862499999999999</v>
       </c>
-      <c r="I39" s="99">
+      <c r="I39" s="91">
         <v>10</v>
       </c>
-      <c r="J39" s="103" t="s">
-        <v>308</v>
+      <c r="J39" s="95" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.4">
-      <c r="A40" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B40" s="100" t="s">
-        <v>307</v>
-      </c>
-      <c r="C40" s="33" t="s">
+      <c r="A40" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="101">
+      <c r="D40" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="93">
         <v>12.65</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="31">
         <v>210</v>
       </c>
-      <c r="G40" s="101">
-        <f>E40*F40</f>
+      <c r="G40" s="93">
+        <f t="shared" si="1"/>
         <v>2656.5</v>
       </c>
-      <c r="H40" s="102">
+      <c r="H40" s="94">
         <f>G40/'[1]Teacher Supplies'!$I$102</f>
         <v>83.015625</v>
       </c>
-      <c r="I40" s="99">
+      <c r="I40" s="91">
         <v>6</v>
       </c>
-      <c r="J40" s="103" t="s">
-        <v>306</v>
+      <c r="J40" s="95" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.4">
-      <c r="A41" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B41" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="101">
+      <c r="D41" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="93">
         <v>19.600000000000001</v>
       </c>
-      <c r="F41" s="34">
-        <v>35</v>
-      </c>
-      <c r="G41" s="101">
-        <f>E41*F41</f>
+      <c r="F41" s="31">
+        <v>35</v>
+      </c>
+      <c r="G41" s="93">
+        <f t="shared" si="1"/>
         <v>686</v>
       </c>
-      <c r="H41" s="102">
+      <c r="H41" s="94">
         <f>G41/'[1]Teacher Supplies'!$I$102</f>
         <v>21.4375</v>
       </c>
-      <c r="I41" s="99" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" s="103" t="s">
-        <v>303</v>
+      <c r="I41" s="91" t="s">
+        <v>300</v>
+      </c>
+      <c r="J41" s="95" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.4">
-      <c r="A42" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B42" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" s="101">
+      <c r="D42" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="93">
         <v>7.4</v>
       </c>
-      <c r="F42" s="34">
-        <v>35</v>
-      </c>
-      <c r="G42" s="101">
-        <f>E42*F42</f>
+      <c r="F42" s="31">
+        <v>35</v>
+      </c>
+      <c r="G42" s="93">
+        <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="H42" s="102">
+      <c r="H42" s="94">
         <f>G42/'[1]Teacher Supplies'!$I$102</f>
         <v>8.09375</v>
       </c>
-      <c r="I42" s="99">
+      <c r="I42" s="91">
         <v>1</v>
       </c>
-      <c r="J42" s="103" t="s">
-        <v>301</v>
+      <c r="J42" s="95" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.4">
-      <c r="A43" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="C43" s="33" t="s">
+      <c r="A43" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="101">
+      <c r="D43" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="93">
         <v>10.35</v>
       </c>
-      <c r="F43" s="34">
-        <v>35</v>
-      </c>
-      <c r="G43" s="101">
-        <f>E43*F43</f>
+      <c r="F43" s="31">
+        <v>35</v>
+      </c>
+      <c r="G43" s="93">
+        <f t="shared" si="1"/>
         <v>362.25</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="94">
         <f>G43/'[1]Teacher Supplies'!$I$102</f>
         <v>11.3203125</v>
       </c>
-      <c r="I43" s="99">
+      <c r="I43" s="91">
         <v>1</v>
       </c>
-      <c r="J43" s="103" t="s">
-        <v>298</v>
+      <c r="J43" s="95" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.4">
-      <c r="A44" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="100" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="33" t="s">
+      <c r="A44" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="101">
+      <c r="D44" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="93">
         <v>2.95</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="31">
         <v>70</v>
       </c>
-      <c r="G44" s="101">
-        <f>E44*F44</f>
+      <c r="G44" s="93">
+        <f t="shared" si="1"/>
         <v>206.5</v>
       </c>
-      <c r="H44" s="102">
+      <c r="H44" s="94">
         <f>G44/'[1]Teacher Supplies'!$I$102</f>
         <v>6.453125</v>
       </c>
-      <c r="I44" s="99">
+      <c r="I44" s="91">
         <v>2</v>
       </c>
-      <c r="J44" s="103" t="s">
-        <v>296</v>
+      <c r="J44" s="95" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.4">
-      <c r="A45" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B45" s="100" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="33" t="s">
+      <c r="A45" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" s="101">
+      <c r="D45" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="93">
         <v>2.95</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="31">
         <v>70</v>
       </c>
-      <c r="G45" s="101">
-        <f>E45*F45</f>
+      <c r="G45" s="93">
+        <f t="shared" si="1"/>
         <v>206.5</v>
       </c>
-      <c r="H45" s="102">
+      <c r="H45" s="94">
         <f>G45/'[1]Teacher Supplies'!$I$102</f>
         <v>6.453125</v>
       </c>
-      <c r="I45" s="99">
+      <c r="I45" s="91">
         <v>2</v>
       </c>
-      <c r="J45" s="103" t="s">
-        <v>294</v>
+      <c r="J45" s="95" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.4">
-      <c r="A46" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" s="100" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="33" t="s">
+      <c r="A46" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="101">
+      <c r="D46" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="93">
         <v>76.25</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="31">
         <v>17</v>
       </c>
-      <c r="G46" s="101">
-        <f>E46*F46</f>
+      <c r="G46" s="93">
+        <f t="shared" si="1"/>
         <v>1296.25</v>
       </c>
-      <c r="H46" s="102">
+      <c r="H46" s="94">
         <f>G46/'[1]Teacher Supplies'!$I$102</f>
         <v>40.5078125</v>
       </c>
-      <c r="I46" s="99">
+      <c r="I46" s="91">
         <v>6</v>
       </c>
-      <c r="J46" s="103" t="s">
-        <v>291</v>
+      <c r="J46" s="95" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.4">
-      <c r="A47" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="33" t="s">
+      <c r="A47" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E47" s="105">
+      <c r="D47" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="97">
         <v>12.55</v>
       </c>
-      <c r="F47" s="34">
-        <v>35</v>
-      </c>
-      <c r="G47" s="101">
-        <f>E47*F47</f>
+      <c r="F47" s="31">
+        <v>35</v>
+      </c>
+      <c r="G47" s="93">
+        <f t="shared" si="1"/>
         <v>439.25</v>
       </c>
-      <c r="H47" s="102">
+      <c r="H47" s="94">
         <f>G47/'[1]Teacher Supplies'!$I$102</f>
         <v>13.7265625</v>
       </c>
-      <c r="I47" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="J47" s="103" t="s">
-        <v>288</v>
+      <c r="I47" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47" s="95" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.4">
-      <c r="A48" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B48" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" s="33" t="s">
+      <c r="A48" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E48" s="105">
+      <c r="D48" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="97">
         <v>6.4</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="31">
         <v>70</v>
       </c>
-      <c r="G48" s="101">
-        <f>E48*F48</f>
+      <c r="G48" s="93">
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
-      <c r="H48" s="102">
+      <c r="H48" s="94">
         <f>G48/'[1]Teacher Supplies'!$I$102</f>
         <v>14</v>
       </c>
-      <c r="I48" s="99">
+      <c r="I48" s="91">
         <v>2</v>
       </c>
-      <c r="J48" s="103" t="s">
-        <v>285</v>
+      <c r="J48" s="95" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.4">
-      <c r="A49" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="100" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" s="46" t="s">
+      <c r="A49" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E49" s="101">
+      <c r="D49" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="93">
         <v>11.5</v>
       </c>
-      <c r="F49" s="34">
-        <v>35</v>
-      </c>
-      <c r="G49" s="101">
-        <f>E49*F49</f>
+      <c r="F49" s="31">
+        <v>35</v>
+      </c>
+      <c r="G49" s="93">
+        <f t="shared" si="1"/>
         <v>402.5</v>
       </c>
-      <c r="H49" s="102">
+      <c r="H49" s="94">
         <f>G49/'[1]Teacher Supplies'!$I$102</f>
         <v>12.578125</v>
       </c>
-      <c r="I49" s="99">
+      <c r="I49" s="91">
         <v>1</v>
       </c>
-      <c r="J49" s="103" t="s">
-        <v>281</v>
+      <c r="J49" s="95" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.4">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="92">
+        <v>500480</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="100">
-        <v>500480</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" s="101">
+      <c r="E50" s="93">
         <v>1.88</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="31">
         <v>525</v>
       </c>
-      <c r="G50" s="101">
-        <f>E50*F50</f>
+      <c r="G50" s="93">
+        <f t="shared" si="1"/>
         <v>987</v>
       </c>
-      <c r="H50" s="102">
+      <c r="H50" s="94">
         <f>G50/'[1]Teacher Supplies'!$I$102</f>
         <v>30.84375</v>
       </c>
-      <c r="I50" s="99">
+      <c r="I50" s="91">
         <v>15</v>
       </c>
-      <c r="J50" s="103" t="s">
-        <v>279</v>
+      <c r="J50" s="95" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.4">
-      <c r="A51" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" s="100">
+      <c r="A51" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="92">
         <v>500479</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="101">
+      <c r="D51" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="93">
         <v>0.83</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="31">
         <v>525</v>
       </c>
-      <c r="G51" s="101">
-        <f>E51*F51</f>
+      <c r="G51" s="93">
+        <f t="shared" si="1"/>
         <v>435.75</v>
       </c>
-      <c r="H51" s="102">
+      <c r="H51" s="94">
         <f>G51/'[1]Teacher Supplies'!$I$102</f>
         <v>13.6171875</v>
       </c>
-      <c r="I51" s="99">
+      <c r="I51" s="91">
         <v>15</v>
       </c>
-      <c r="J51" s="103" t="s">
-        <v>277</v>
+      <c r="J51" s="95" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.4">
-      <c r="A52" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B52" s="100">
+      <c r="A52" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" s="92">
         <v>7100130</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="101">
+      <c r="D52" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="93">
         <v>3.4</v>
       </c>
-      <c r="F52" s="34">
-        <v>35</v>
-      </c>
-      <c r="G52" s="101">
-        <f>E52*F52</f>
+      <c r="F52" s="31">
+        <v>35</v>
+      </c>
+      <c r="G52" s="93">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="H52" s="102">
+      <c r="H52" s="94">
         <f>G52/'[1]Teacher Supplies'!$I$102</f>
         <v>3.71875</v>
       </c>
-      <c r="I52" s="99">
+      <c r="I52" s="91">
         <v>1</v>
       </c>
-      <c r="J52" s="103" t="s">
-        <v>275</v>
+      <c r="J52" s="95" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.4">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="120" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="119" t="s">
+      <c r="B53" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="111">
+      <c r="D53" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="103">
         <v>30.36</v>
       </c>
-      <c r="F53" s="121">
-        <v>35</v>
-      </c>
-      <c r="G53" s="111">
-        <f>E53*F53</f>
+      <c r="F53" s="113">
+        <v>35</v>
+      </c>
+      <c r="G53" s="103">
+        <f t="shared" si="1"/>
         <v>1062.5999999999999</v>
       </c>
-      <c r="H53" s="108">
+      <c r="H53" s="100">
         <f>G53/'[1]Teacher Supplies'!$I$102</f>
         <v>33.206249999999997</v>
       </c>
-      <c r="I53" s="118" t="s">
-        <v>262</v>
-      </c>
-      <c r="J53" s="103" t="s">
-        <v>273</v>
+      <c r="I53" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="J53" s="95" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4">
-      <c r="A54" s="119" t="s">
+      <c r="A54" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="122" t="s">
-        <v>272</v>
-      </c>
-      <c r="C54" s="119" t="s">
+      <c r="B54" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="E54" s="111">
+      <c r="D54" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="E54" s="103">
         <v>30.36</v>
       </c>
-      <c r="F54" s="121">
-        <v>35</v>
-      </c>
-      <c r="G54" s="111">
-        <f>E54*F54</f>
+      <c r="F54" s="113">
+        <v>35</v>
+      </c>
+      <c r="G54" s="103">
+        <f t="shared" si="1"/>
         <v>1062.5999999999999</v>
       </c>
-      <c r="H54" s="108">
+      <c r="H54" s="100">
         <f>G54/'[1]Teacher Supplies'!$I$102</f>
         <v>33.206249999999997</v>
       </c>
-      <c r="I54" s="118" t="s">
-        <v>262</v>
-      </c>
-      <c r="J54" s="103" t="s">
-        <v>270</v>
+      <c r="I54" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="J54" s="95" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.4">
-      <c r="A55" s="119" t="s">
+      <c r="A55" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="120" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="119" t="s">
+      <c r="B55" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="E55" s="123">
+      <c r="D55" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="115">
         <v>25.57</v>
       </c>
-      <c r="F55" s="121">
-        <v>35</v>
-      </c>
-      <c r="G55" s="111">
-        <f>E55*F55</f>
+      <c r="F55" s="113">
+        <v>35</v>
+      </c>
+      <c r="G55" s="103">
+        <f t="shared" si="1"/>
         <v>894.95</v>
       </c>
-      <c r="H55" s="108">
+      <c r="H55" s="100">
         <f>G55/'[1]Teacher Supplies'!$I$102</f>
         <v>27.967187500000001</v>
       </c>
-      <c r="I55" s="118" t="s">
-        <v>262</v>
-      </c>
-      <c r="J55" s="103" t="s">
-        <v>268</v>
+      <c r="I55" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="J55" s="95" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.4">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="122" t="s">
-        <v>267</v>
-      </c>
-      <c r="C56" s="119" t="s">
+      <c r="B56" s="114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="124">
+      <c r="D56" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="116">
         <v>25.57</v>
       </c>
-      <c r="F56" s="121">
-        <v>35</v>
-      </c>
-      <c r="G56" s="111">
-        <f>E56*F56</f>
+      <c r="F56" s="113">
+        <v>35</v>
+      </c>
+      <c r="G56" s="103">
+        <f t="shared" si="1"/>
         <v>894.95</v>
       </c>
-      <c r="H56" s="108">
+      <c r="H56" s="100">
         <f>G56/'[1]Teacher Supplies'!$I$102</f>
         <v>27.967187500000001</v>
       </c>
-      <c r="I56" s="118" t="s">
+      <c r="I56" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="J56" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="J56" s="103" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="57" spans="1:10" ht="14.4">
-      <c r="A57" s="119" t="s">
+      <c r="A57" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="122" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="119" t="s">
+      <c r="B57" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="124">
+      <c r="D57" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="116">
         <v>4.96</v>
       </c>
-      <c r="F57" s="121">
-        <v>35</v>
-      </c>
-      <c r="G57" s="111">
-        <f>E57*F57</f>
+      <c r="F57" s="113">
+        <v>35</v>
+      </c>
+      <c r="G57" s="103">
+        <f t="shared" si="1"/>
         <v>173.6</v>
       </c>
-      <c r="H57" s="108">
+      <c r="H57" s="100">
         <f>G57/'[1]Teacher Supplies'!$I$102</f>
         <v>5.4249999999999998</v>
       </c>
-      <c r="I57" s="118" t="s">
-        <v>262</v>
-      </c>
-      <c r="J57" s="103" t="s">
-        <v>264</v>
+      <c r="I57" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="J57" s="95" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="110" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="82" t="s">
+      <c r="B58" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="107">
+      <c r="D58" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="99">
         <v>20.97</v>
       </c>
-      <c r="F58" s="83">
-        <v>35</v>
-      </c>
-      <c r="G58" s="111">
-        <f>E58*F58</f>
+      <c r="F58" s="76">
+        <v>35</v>
+      </c>
+      <c r="G58" s="103">
+        <f t="shared" si="1"/>
         <v>733.94999999999993</v>
       </c>
-      <c r="H58" s="108">
+      <c r="H58" s="100">
         <f>G58/'[1]Teacher Supplies'!$I$102</f>
         <v>22.935937499999998</v>
       </c>
-      <c r="I58" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="J58" s="103"/>
+      <c r="I58" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="J58" s="95"/>
     </row>
     <row r="59" spans="1:10" ht="14.4">
-      <c r="A59" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="C59" s="33" t="s">
+      <c r="A59" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="101">
+      <c r="D59" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="93">
         <v>2.79</v>
       </c>
-      <c r="F59" s="34">
-        <v>35</v>
-      </c>
-      <c r="G59" s="101">
-        <f>E59*F59</f>
+      <c r="F59" s="31">
+        <v>35</v>
+      </c>
+      <c r="G59" s="93">
+        <f t="shared" si="1"/>
         <v>97.65</v>
       </c>
-      <c r="H59" s="102">
+      <c r="H59" s="94">
         <f>G59/'[1]Teacher Supplies'!$I$102</f>
         <v>3.0515625000000002</v>
       </c>
-      <c r="I59" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="J59" s="103" t="s">
-        <v>260</v>
+      <c r="I59" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="J59" s="95" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4">
-      <c r="A60" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="C60" s="33" t="s">
+      <c r="A60" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="101">
+      <c r="D60" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="93">
         <v>2.9</v>
       </c>
-      <c r="F60" s="34">
-        <v>35</v>
-      </c>
-      <c r="G60" s="101">
-        <f>E60*F60</f>
+      <c r="F60" s="31">
+        <v>35</v>
+      </c>
+      <c r="G60" s="93">
+        <f t="shared" si="1"/>
         <v>101.5</v>
       </c>
-      <c r="H60" s="102">
+      <c r="H60" s="94">
         <f>G60/'[1]Teacher Supplies'!$I$102</f>
         <v>3.171875</v>
       </c>
-      <c r="I60" s="99">
+      <c r="I60" s="91">
         <v>1</v>
       </c>
-      <c r="J60" s="103" t="s">
-        <v>257</v>
+      <c r="J60" s="95" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4">
-      <c r="A61" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="33" t="s">
+      <c r="A61" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E61" s="101">
+      <c r="D61" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="93">
         <v>6.52</v>
       </c>
-      <c r="F61" s="34">
-        <v>35</v>
-      </c>
-      <c r="G61" s="101">
-        <f>E61*F61</f>
+      <c r="F61" s="31">
+        <v>35</v>
+      </c>
+      <c r="G61" s="93">
+        <f t="shared" si="1"/>
         <v>228.2</v>
       </c>
-      <c r="H61" s="102">
+      <c r="H61" s="94">
         <f>G61/'[1]Teacher Supplies'!$I$102</f>
         <v>7.1312499999999996</v>
       </c>
-      <c r="I61" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="J61" s="103" t="s">
-        <v>254</v>
+      <c r="I61" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="J61" s="95" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.4">
-      <c r="A62" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="33" t="s">
+      <c r="A62" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="101">
+      <c r="D62" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="93">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F62" s="34">
-        <v>35</v>
-      </c>
-      <c r="G62" s="101">
-        <f>E62*F62</f>
+      <c r="F62" s="31">
+        <v>35</v>
+      </c>
+      <c r="G62" s="93">
+        <f t="shared" si="1"/>
         <v>20.299999999999997</v>
       </c>
-      <c r="H62" s="102">
+      <c r="H62" s="94">
         <f>G62/'[1]Teacher Supplies'!$I$102</f>
         <v>0.63437499999999991</v>
       </c>
-      <c r="I62" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J62" s="103" t="s">
-        <v>252</v>
+      <c r="I62" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" s="95" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4">
-      <c r="A63" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B63" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="C63" s="33" t="s">
+      <c r="A63" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="101">
+      <c r="D63" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="93">
         <v>4.2</v>
       </c>
-      <c r="F63" s="34">
-        <v>35</v>
-      </c>
-      <c r="G63" s="101">
-        <f>E63*F63</f>
+      <c r="F63" s="31">
+        <v>35</v>
+      </c>
+      <c r="G63" s="93">
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="H63" s="102">
+      <c r="H63" s="94">
         <f>G63/'[1]Teacher Supplies'!$I$102</f>
         <v>4.59375</v>
       </c>
-      <c r="I63" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="J63" s="103" t="s">
-        <v>248</v>
+      <c r="I63" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" s="95" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.4">
-      <c r="A64" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B64" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="33" t="s">
+      <c r="A64" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="101">
+      <c r="D64" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="93">
         <v>0.59</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="31">
         <v>210</v>
       </c>
-      <c r="G64" s="101">
-        <f>E64*F64</f>
+      <c r="G64" s="93">
+        <f t="shared" si="1"/>
         <v>123.89999999999999</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="94">
         <f>G64/'[1]Teacher Supplies'!$I$102</f>
         <v>3.8718749999999997</v>
       </c>
-      <c r="I64" s="99">
+      <c r="I64" s="91">
         <v>6</v>
       </c>
-      <c r="J64" s="103" t="s">
-        <v>245</v>
+      <c r="J64" s="95" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4">
-      <c r="A65" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="33" t="s">
+      <c r="A65" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E65" s="101">
+      <c r="D65" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="93">
         <v>24.79</v>
       </c>
-      <c r="F65" s="34">
-        <v>35</v>
-      </c>
-      <c r="G65" s="101">
-        <f>E65*F65</f>
+      <c r="F65" s="31">
+        <v>35</v>
+      </c>
+      <c r="G65" s="93">
+        <f t="shared" si="1"/>
         <v>867.65</v>
       </c>
-      <c r="H65" s="102">
+      <c r="H65" s="94">
         <f>G65/'[1]Teacher Supplies'!$I$102</f>
         <v>27.114062499999999</v>
       </c>
-      <c r="I65" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="J65" s="103" t="s">
-        <v>241</v>
+      <c r="I65" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="J65" s="95" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.4">
-      <c r="A66" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" s="100" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" s="33" t="s">
+      <c r="A66" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E66" s="101">
+      <c r="D66" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="93">
         <v>6.59</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="31">
         <v>7</v>
       </c>
-      <c r="G66" s="101">
-        <f>E66*F66</f>
+      <c r="G66" s="93">
+        <f t="shared" ref="G66:G97" si="2">E66*F66</f>
         <v>46.129999999999995</v>
       </c>
-      <c r="H66" s="102">
+      <c r="H66" s="94">
         <f>G66/'[1]Teacher Supplies'!$I$102</f>
         <v>1.4415624999999999</v>
       </c>
-      <c r="I66" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" s="103" t="s">
-        <v>239</v>
+      <c r="I66" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J66" s="95" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.4">
-      <c r="A67" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="33" t="s">
+      <c r="A67" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E67" s="101">
+      <c r="D67" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="93">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="31">
         <v>105</v>
       </c>
-      <c r="G67" s="101">
-        <f>E67*F67</f>
+      <c r="G67" s="93">
+        <f t="shared" si="2"/>
         <v>261.45000000000005</v>
       </c>
-      <c r="H67" s="102">
+      <c r="H67" s="94">
         <f>G67/'[1]Teacher Supplies'!$I$102</f>
         <v>8.1703125000000014</v>
       </c>
-      <c r="I67" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="J67" s="103" t="s">
-        <v>235</v>
+      <c r="I67" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="J67" s="95" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.4">
-      <c r="A68" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" s="117" t="s">
-        <v>234</v>
-      </c>
-      <c r="C68" s="84" t="s">
+      <c r="A68" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="109" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" s="113">
+      <c r="D68" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="105">
         <v>4.57</v>
       </c>
-      <c r="F68" s="85">
-        <v>35</v>
-      </c>
-      <c r="G68" s="113">
-        <f>E68*F68</f>
+      <c r="F68" s="78">
+        <v>35</v>
+      </c>
+      <c r="G68" s="105">
+        <f t="shared" si="2"/>
         <v>159.95000000000002</v>
       </c>
-      <c r="H68" s="102">
+      <c r="H68" s="94">
         <f>G68/'[1]Teacher Supplies'!$I$102</f>
         <v>4.9984375000000005</v>
       </c>
-      <c r="I68" s="112">
+      <c r="I68" s="104">
         <v>1</v>
       </c>
-      <c r="J68" s="103" t="s">
-        <v>232</v>
+      <c r="J68" s="95" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4">
-      <c r="A69" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="117" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="84" t="s">
+      <c r="A69" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="E69" s="113">
+      <c r="D69" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="105">
         <v>3.83</v>
       </c>
-      <c r="F69" s="85">
-        <v>35</v>
-      </c>
-      <c r="G69" s="113">
-        <f>E69*F69</f>
+      <c r="F69" s="78">
+        <v>35</v>
+      </c>
+      <c r="G69" s="105">
+        <f t="shared" si="2"/>
         <v>134.05000000000001</v>
       </c>
-      <c r="H69" s="102">
+      <c r="H69" s="94">
         <f>G69/'[1]Teacher Supplies'!$I$102</f>
         <v>4.1890625000000004</v>
       </c>
-      <c r="I69" s="112" t="s">
-        <v>227</v>
-      </c>
-      <c r="J69" s="103" t="s">
-        <v>229</v>
+      <c r="I69" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" s="95" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.4">
-      <c r="A70" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="84" t="s">
+      <c r="A70" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="E70" s="113">
+      <c r="D70" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="105">
         <v>0.99</v>
       </c>
-      <c r="F70" s="85">
-        <v>35</v>
-      </c>
-      <c r="G70" s="113">
-        <f>E70*F70</f>
+      <c r="F70" s="78">
+        <v>35</v>
+      </c>
+      <c r="G70" s="105">
+        <f t="shared" si="2"/>
         <v>34.65</v>
       </c>
-      <c r="H70" s="102">
+      <c r="H70" s="94">
         <f>G70/'[1]Teacher Supplies'!$I$102</f>
         <v>1.0828125</v>
       </c>
-      <c r="I70" s="112" t="s">
-        <v>227</v>
-      </c>
-      <c r="J70" s="103" t="s">
-        <v>226</v>
+      <c r="I70" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="J70" s="95" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.4">
-      <c r="A71" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="33" t="s">
+      <c r="A71" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E71" s="101">
+      <c r="D71" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" s="93">
         <v>8</v>
       </c>
-      <c r="F71" s="34">
-        <v>35</v>
-      </c>
-      <c r="G71" s="101">
-        <f>E71*F71</f>
+      <c r="F71" s="31">
+        <v>35</v>
+      </c>
+      <c r="G71" s="93">
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="H71" s="102">
+      <c r="H71" s="94">
         <f>G71/'[1]Teacher Supplies'!$I$102</f>
         <v>8.75</v>
       </c>
-      <c r="I71" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J71" s="103" t="s">
-        <v>223</v>
+      <c r="I71" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" s="95" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.4">
-      <c r="A72" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="33" t="s">
+      <c r="A72" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="101">
+      <c r="D72" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="93">
         <v>6.99</v>
       </c>
-      <c r="F72" s="34">
-        <v>35</v>
-      </c>
-      <c r="G72" s="101">
-        <f>E72*F72</f>
+      <c r="F72" s="31">
+        <v>35</v>
+      </c>
+      <c r="G72" s="93">
+        <f t="shared" si="2"/>
         <v>244.65</v>
       </c>
-      <c r="H72" s="102">
+      <c r="H72" s="94">
         <f>G72/'[1]Teacher Supplies'!$I$102</f>
         <v>7.6453125000000002</v>
       </c>
-      <c r="I72" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J72" s="103" t="s">
-        <v>220</v>
+      <c r="I72" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J72" s="95" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.4">
-      <c r="A73" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="126" t="s">
+      <c r="A73" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="128">
+      <c r="D73" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="120">
         <v>2.89</v>
       </c>
-      <c r="F73" s="129">
-        <v>35</v>
-      </c>
-      <c r="G73" s="128">
-        <f>E73*F73</f>
+      <c r="F73" s="121">
+        <v>35</v>
+      </c>
+      <c r="G73" s="120">
+        <f t="shared" si="2"/>
         <v>101.15</v>
       </c>
-      <c r="H73" s="130">
+      <c r="H73" s="122">
         <f>G73/'[1]Teacher Supplies'!$I$102</f>
         <v>3.1609375000000002</v>
       </c>
-      <c r="I73" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="J73" s="103" t="s">
-        <v>218</v>
+      <c r="I73" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73" s="95" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.4">
-      <c r="A74" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C74" s="84" t="s">
+      <c r="A74" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="113">
+      <c r="D74" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="105">
         <v>0.49</v>
       </c>
-      <c r="F74" s="85">
+      <c r="F74" s="78">
         <v>70</v>
       </c>
-      <c r="G74" s="113">
-        <f>E74*F74</f>
+      <c r="G74" s="105">
+        <f t="shared" si="2"/>
         <v>34.299999999999997</v>
       </c>
-      <c r="H74" s="102">
+      <c r="H74" s="94">
         <f>G74/'[1]Teacher Supplies'!$I$102</f>
         <v>1.0718749999999999</v>
       </c>
-      <c r="I74" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="J74" s="103" t="s">
-        <v>215</v>
+      <c r="I74" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="J74" s="95" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="28.8">
-      <c r="A75" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="132" t="s">
+      <c r="A75" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="113">
+      <c r="D75" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="105">
         <v>3.49</v>
       </c>
-      <c r="F75" s="85">
-        <v>35</v>
-      </c>
-      <c r="G75" s="113">
-        <f>E75*F75</f>
+      <c r="F75" s="78">
+        <v>35</v>
+      </c>
+      <c r="G75" s="105">
+        <f t="shared" si="2"/>
         <v>122.15</v>
       </c>
-      <c r="H75" s="102">
+      <c r="H75" s="94">
         <f>G75/'[1]Teacher Supplies'!$I$102</f>
         <v>3.8171875000000002</v>
       </c>
-      <c r="I75" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="J75" s="116" t="s">
-        <v>213</v>
+      <c r="I75" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="J75" s="108" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.4">
-      <c r="A76" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" s="33" t="s">
+      <c r="A76" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E76" s="101">
+      <c r="D76" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="93">
         <v>8.19</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="31">
         <v>15</v>
       </c>
-      <c r="G76" s="101">
-        <f>E76*F76</f>
+      <c r="G76" s="93">
+        <f t="shared" si="2"/>
         <v>122.85</v>
       </c>
-      <c r="H76" s="102">
+      <c r="H76" s="94">
         <f>G76/'[1]Teacher Supplies'!$I$102</f>
         <v>3.8390624999999998</v>
       </c>
-      <c r="I76" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="J76" s="103" t="s">
-        <v>209</v>
+      <c r="I76" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" s="95" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.4">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77" s="113">
+      <c r="E77" s="105">
         <v>0.39</v>
       </c>
-      <c r="F77" s="85">
-        <v>35</v>
-      </c>
-      <c r="G77" s="113">
-        <f>E77*F77</f>
+      <c r="F77" s="78">
+        <v>35</v>
+      </c>
+      <c r="G77" s="105">
+        <f t="shared" si="2"/>
         <v>13.65</v>
       </c>
-      <c r="H77" s="102">
+      <c r="H77" s="94">
         <f>G77/'[1]Teacher Supplies'!$I$102</f>
         <v>0.42656250000000001</v>
       </c>
-      <c r="I77" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="J77" s="103" t="s">
-        <v>206</v>
+      <c r="I77" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" s="95" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.4">
-      <c r="A78" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B78" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="33" t="s">
+      <c r="A78" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="101">
+      <c r="D78" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="93">
         <v>7.91</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="31">
         <v>17</v>
       </c>
-      <c r="G78" s="101">
-        <f>E78*F78</f>
+      <c r="G78" s="93">
+        <f t="shared" si="2"/>
         <v>134.47</v>
       </c>
-      <c r="H78" s="102">
+      <c r="H78" s="94">
         <f>G78/'[1]Teacher Supplies'!$I$102</f>
         <v>4.2021875</v>
       </c>
-      <c r="I78" s="99">
+      <c r="I78" s="91">
         <v>50</v>
       </c>
-      <c r="J78" s="103" t="s">
-        <v>204</v>
+      <c r="J78" s="95" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4">
-      <c r="A79" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="33" t="s">
+      <c r="A79" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E79" s="101">
+      <c r="D79" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="93">
         <v>4.29</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="31">
         <v>12</v>
       </c>
-      <c r="G79" s="101">
-        <f>E79*F79</f>
+      <c r="G79" s="93">
+        <f t="shared" si="2"/>
         <v>51.480000000000004</v>
       </c>
-      <c r="H79" s="102">
+      <c r="H79" s="94">
         <f>G79/'[1]Teacher Supplies'!$I$102</f>
         <v>1.6087500000000001</v>
       </c>
-      <c r="I79" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="J79" s="103" t="s">
-        <v>199</v>
+      <c r="I79" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="95" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.4">
-      <c r="A80" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="B80" s="127" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="134" t="s">
+      <c r="A80" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="128">
+      <c r="D80" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="120">
         <v>2.66</v>
       </c>
-      <c r="F80" s="129">
-        <v>35</v>
-      </c>
-      <c r="G80" s="128">
-        <f>E80*F80</f>
+      <c r="F80" s="121">
+        <v>35</v>
+      </c>
+      <c r="G80" s="120">
+        <f t="shared" si="2"/>
         <v>93.100000000000009</v>
       </c>
-      <c r="H80" s="130">
+      <c r="H80" s="122">
         <f>G80/'[1]Teacher Supplies'!$I$102</f>
         <v>2.9093750000000003</v>
       </c>
-      <c r="I80" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="J80" s="116" t="s">
-        <v>194</v>
+      <c r="I80" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="J80" s="108" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.4">
-      <c r="A81" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B81" s="135">
+      <c r="A81" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="127">
         <v>401935</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="101">
+      <c r="D81" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="93">
         <v>2.29</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="31">
         <v>210</v>
       </c>
-      <c r="G81" s="101">
-        <f>E81*F81</f>
+      <c r="G81" s="93">
+        <f t="shared" si="2"/>
         <v>480.90000000000003</v>
       </c>
-      <c r="H81" s="102">
+      <c r="H81" s="94">
         <f>G81/'[1]Teacher Supplies'!$I$102</f>
         <v>15.028125000000001</v>
       </c>
-      <c r="I81" s="99">
+      <c r="I81" s="91">
         <v>6</v>
       </c>
-      <c r="J81" s="103" t="s">
-        <v>191</v>
+      <c r="J81" s="95" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="14.4">
-      <c r="A82" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="100">
+      <c r="A82" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="92">
         <v>248642</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" s="101">
+      <c r="D82" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="93">
         <v>1.75</v>
       </c>
-      <c r="F82" s="34">
-        <v>35</v>
-      </c>
-      <c r="G82" s="101">
-        <f>E82*F82</f>
+      <c r="F82" s="31">
+        <v>35</v>
+      </c>
+      <c r="G82" s="93">
+        <f t="shared" si="2"/>
         <v>61.25</v>
       </c>
-      <c r="H82" s="102">
+      <c r="H82" s="94">
         <f>G82/'[1]Teacher Supplies'!$I$102</f>
         <v>1.9140625</v>
       </c>
-      <c r="I82" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J82" s="103" t="s">
-        <v>190</v>
+      <c r="I82" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" s="95" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14.4">
-      <c r="A83" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="100">
+      <c r="A83" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="92">
         <v>85924</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E83" s="101">
+      <c r="D83" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="93">
         <v>3.12</v>
       </c>
-      <c r="F83" s="34">
-        <v>35</v>
-      </c>
-      <c r="G83" s="101">
-        <f>E83*F83</f>
+      <c r="F83" s="31">
+        <v>35</v>
+      </c>
+      <c r="G83" s="93">
+        <f t="shared" si="2"/>
         <v>109.2</v>
       </c>
-      <c r="H83" s="102">
+      <c r="H83" s="94">
         <f>G83/'[1]Teacher Supplies'!$I$102</f>
         <v>3.4125000000000001</v>
       </c>
-      <c r="I83" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J83" s="103" t="s">
-        <v>188</v>
+      <c r="I83" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J83" s="95" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4">
-      <c r="A84" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" s="100">
+      <c r="A84" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="92">
         <v>1006284</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="101">
+      <c r="D84" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="93">
         <v>1.95</v>
       </c>
-      <c r="F84" s="34">
-        <v>35</v>
-      </c>
-      <c r="G84" s="101">
-        <f>E84*F84</f>
+      <c r="F84" s="31">
+        <v>35</v>
+      </c>
+      <c r="G84" s="93">
+        <f t="shared" si="2"/>
         <v>68.25</v>
       </c>
-      <c r="H84" s="102">
+      <c r="H84" s="94">
         <f>G84/'[1]Teacher Supplies'!$I$102</f>
         <v>2.1328125</v>
       </c>
-      <c r="I84" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="J84" s="103" t="s">
-        <v>185</v>
+      <c r="I84" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="J84" s="95" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.4">
-      <c r="A85" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" s="100">
+      <c r="A85" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="92">
         <v>250578</v>
       </c>
-      <c r="C85" s="46" t="s">
+      <c r="C85" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="101">
+      <c r="D85" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="93">
         <v>4.57</v>
       </c>
-      <c r="F85" s="34">
-        <v>35</v>
-      </c>
-      <c r="G85" s="101">
-        <f>E85*F85</f>
+      <c r="F85" s="31">
+        <v>35</v>
+      </c>
+      <c r="G85" s="93">
+        <f t="shared" si="2"/>
         <v>159.95000000000002</v>
       </c>
-      <c r="H85" s="102">
+      <c r="H85" s="94">
         <f>G85/'[1]Teacher Supplies'!$I$102</f>
         <v>4.9984375000000005</v>
       </c>
-      <c r="I85" s="99">
+      <c r="I85" s="91">
         <v>1</v>
       </c>
-      <c r="J85" s="103" t="s">
-        <v>183</v>
+      <c r="J85" s="95" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4">
-      <c r="A86" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="100">
+      <c r="A86" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="92">
         <v>39423</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D86" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E86" s="101">
+      <c r="D86" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="93">
         <v>0.73</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="31">
         <v>70</v>
       </c>
-      <c r="G86" s="101">
-        <f>E86*F86</f>
+      <c r="G86" s="93">
+        <f t="shared" si="2"/>
         <v>51.1</v>
       </c>
-      <c r="H86" s="102">
+      <c r="H86" s="94">
         <f>G86/'[1]Teacher Supplies'!$I$102</f>
         <v>1.596875</v>
       </c>
-      <c r="I86" s="99">
+      <c r="I86" s="91">
         <v>2</v>
       </c>
-      <c r="J86" s="103" t="s">
-        <v>181</v>
+      <c r="J86" s="95" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.4">
-      <c r="A87" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="46" t="s">
+      <c r="A87" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D87" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" s="101">
+      <c r="D87" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="93">
         <v>0.91</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="31">
         <v>280</v>
       </c>
-      <c r="G87" s="101">
-        <f>E87*F87</f>
+      <c r="G87" s="93">
+        <f t="shared" si="2"/>
         <v>254.8</v>
       </c>
-      <c r="H87" s="102">
+      <c r="H87" s="94">
         <f>G87/'[1]Teacher Supplies'!$I$102</f>
         <v>7.9625000000000004</v>
       </c>
-      <c r="I87" s="99">
+      <c r="I87" s="91">
         <v>8</v>
       </c>
-      <c r="J87" s="103" t="s">
-        <v>178</v>
+      <c r="J87" s="95" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.4">
-      <c r="A88" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="46" t="s">
+      <c r="A88" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E88" s="101">
+      <c r="D88" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="93">
         <v>9.9600000000000009</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="31">
         <v>210</v>
       </c>
-      <c r="G88" s="101">
-        <f>E88*F88</f>
+      <c r="G88" s="93">
+        <f t="shared" si="2"/>
         <v>2091.6000000000004</v>
       </c>
-      <c r="H88" s="102">
+      <c r="H88" s="94">
         <f>G88/'[1]Teacher Supplies'!$I$102</f>
         <v>65.362500000000011</v>
       </c>
-      <c r="I88" s="99">
+      <c r="I88" s="91">
         <v>6</v>
       </c>
-      <c r="J88" s="103" t="s">
-        <v>174</v>
+      <c r="J88" s="95" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.4">
-      <c r="A89" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" s="117">
+      <c r="A89" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="109">
         <v>551168946</v>
       </c>
-      <c r="C89" s="84" t="s">
+      <c r="C89" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D89" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E89" s="113">
+      <c r="D89" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="105">
         <v>5</v>
       </c>
-      <c r="F89" s="85">
-        <v>35</v>
-      </c>
-      <c r="G89" s="101">
-        <f>E89*F89</f>
+      <c r="F89" s="78">
+        <v>35</v>
+      </c>
+      <c r="G89" s="93">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="H89" s="102">
+      <c r="H89" s="94">
         <f>G89/'[1]Teacher Supplies'!$I$102</f>
         <v>5.46875</v>
       </c>
-      <c r="I89" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="J89" s="103" t="s">
-        <v>173</v>
+      <c r="I89" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="J89" s="95" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.4">
-      <c r="A90" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="100">
+      <c r="A90" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" s="92">
         <v>555027842</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" s="101">
+      <c r="D90" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E90" s="93">
         <v>3.53</v>
       </c>
-      <c r="F90" s="34">
-        <v>35</v>
-      </c>
-      <c r="G90" s="101">
-        <f>E90*F90</f>
+      <c r="F90" s="31">
+        <v>35</v>
+      </c>
+      <c r="G90" s="93">
+        <f t="shared" si="2"/>
         <v>123.55</v>
       </c>
-      <c r="H90" s="102">
+      <c r="H90" s="94">
         <f>G90/'[1]Teacher Supplies'!$I$102</f>
         <v>3.8609374999999999</v>
       </c>
-      <c r="I90" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J90" s="103" t="s">
-        <v>171</v>
+      <c r="I90" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J90" s="95" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.4">
-      <c r="A91" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="117">
+      <c r="A91" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="109">
         <v>552591690</v>
       </c>
-      <c r="C91" s="84" t="s">
+      <c r="C91" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D91" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" s="113">
+      <c r="D91" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="105">
         <v>6.58</v>
       </c>
-      <c r="F91" s="85">
-        <v>35</v>
-      </c>
-      <c r="G91" s="101">
-        <f>E91*F91</f>
+      <c r="F91" s="78">
+        <v>35</v>
+      </c>
+      <c r="G91" s="93">
+        <f t="shared" si="2"/>
         <v>230.3</v>
       </c>
-      <c r="H91" s="102">
+      <c r="H91" s="94">
         <f>G91/'[1]Teacher Supplies'!$I$102</f>
         <v>7.1968750000000004</v>
       </c>
-      <c r="I91" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="J91" s="103" t="s">
-        <v>169</v>
+      <c r="I91" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="J91" s="95" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.4">
-      <c r="A92" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="100">
+      <c r="A92" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="92">
         <v>550027737</v>
       </c>
-      <c r="C92" s="46" t="s">
+      <c r="C92" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="101">
+      <c r="D92" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" s="93">
         <v>7.86</v>
       </c>
-      <c r="F92" s="34">
-        <v>35</v>
-      </c>
-      <c r="G92" s="101">
-        <f>E92*F92</f>
+      <c r="F92" s="31">
+        <v>35</v>
+      </c>
+      <c r="G92" s="93">
+        <f t="shared" si="2"/>
         <v>275.10000000000002</v>
       </c>
-      <c r="H92" s="102">
+      <c r="H92" s="94">
         <f>G92/'[1]Teacher Supplies'!$I$102</f>
         <v>8.5968750000000007</v>
       </c>
-      <c r="I92" s="99">
+      <c r="I92" s="91">
         <v>1</v>
       </c>
-      <c r="J92" s="103" t="s">
-        <v>167</v>
+      <c r="J92" s="95" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.4">
-      <c r="A93" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="100">
+      <c r="A93" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="92">
         <v>552941429</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="101">
+      <c r="D93" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="93">
         <v>9.82</v>
       </c>
-      <c r="F93" s="34">
-        <v>35</v>
-      </c>
-      <c r="G93" s="101">
-        <f>E93*F93</f>
+      <c r="F93" s="31">
+        <v>35</v>
+      </c>
+      <c r="G93" s="93">
+        <f t="shared" si="2"/>
         <v>343.7</v>
       </c>
-      <c r="H93" s="102">
+      <c r="H93" s="94">
         <f>G93/'[1]Teacher Supplies'!$I$102</f>
         <v>10.740625</v>
       </c>
-      <c r="I93" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J93" s="103" t="s">
-        <v>165</v>
+      <c r="I93" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J93" s="95" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.4">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="92">
+        <v>551977798</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="100">
-        <v>551977798</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" s="101">
+      <c r="E94" s="93">
         <v>7.47</v>
       </c>
-      <c r="F94" s="34">
-        <v>35</v>
-      </c>
-      <c r="G94" s="101">
-        <f>E94*F94</f>
+      <c r="F94" s="31">
+        <v>35</v>
+      </c>
+      <c r="G94" s="93">
+        <f t="shared" si="2"/>
         <v>261.45</v>
       </c>
-      <c r="H94" s="102">
+      <c r="H94" s="94">
         <f>G94/'[1]Teacher Supplies'!$I$102</f>
         <v>8.1703124999999996</v>
       </c>
-      <c r="I94" s="99">
+      <c r="I94" s="91">
         <v>1</v>
       </c>
-      <c r="J94" s="103" t="s">
-        <v>163</v>
+      <c r="J94" s="95" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.4">
-      <c r="A95" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="100">
+      <c r="A95" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="92">
         <v>441921</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E95" s="101">
+      <c r="D95" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="93">
         <v>3.62</v>
       </c>
-      <c r="F95" s="34">
-        <v>35</v>
-      </c>
-      <c r="G95" s="101">
-        <f>E95*F95</f>
+      <c r="F95" s="31">
+        <v>35</v>
+      </c>
+      <c r="G95" s="93">
+        <f t="shared" si="2"/>
         <v>126.7</v>
       </c>
-      <c r="H95" s="102">
+      <c r="H95" s="94">
         <f>G95/'[1]Teacher Supplies'!$I$102</f>
         <v>3.9593750000000001</v>
       </c>
-      <c r="I95" s="99" t="s">
+      <c r="I95" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J95" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="J95" s="103" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="96" spans="1:10" ht="14.4">
-      <c r="A96" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B96" s="100">
+      <c r="A96" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="92">
         <v>443468</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E96" s="101">
+      <c r="D96" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" s="93">
         <v>2.97</v>
       </c>
-      <c r="F96" s="34">
-        <v>35</v>
-      </c>
-      <c r="G96" s="101">
-        <f>E96*F96</f>
+      <c r="F96" s="31">
+        <v>35</v>
+      </c>
+      <c r="G96" s="93">
+        <f t="shared" si="2"/>
         <v>103.95</v>
       </c>
-      <c r="H96" s="102">
+      <c r="H96" s="94">
         <f>G96/'[1]Teacher Supplies'!$I$102</f>
         <v>3.2484375000000001</v>
       </c>
-      <c r="I96" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J96" s="103" t="s">
-        <v>161</v>
+      <c r="I96" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J96" s="95" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="14.4">
-      <c r="A97" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="100">
+      <c r="A97" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="92">
         <v>560725119</v>
       </c>
-      <c r="C97" s="136" t="s">
+      <c r="C97" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E97" s="101">
+      <c r="D97" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="93">
         <v>2.5</v>
       </c>
-      <c r="F97" s="34">
-        <v>35</v>
-      </c>
-      <c r="G97" s="101">
-        <f>E97*F97</f>
+      <c r="F97" s="31">
+        <v>35</v>
+      </c>
+      <c r="G97" s="93">
+        <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="H97" s="102">
+      <c r="H97" s="94">
         <f>G97/'[1]Teacher Supplies'!$I$102</f>
         <v>2.734375</v>
       </c>
-      <c r="I97" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="J97" s="103" t="s">
-        <v>157</v>
+      <c r="I97" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J97" s="95" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.4">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B98" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" s="101">
+      <c r="D98" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" s="93">
         <v>2.68</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="31">
         <v>7</v>
       </c>
-      <c r="G98" s="101">
-        <f>E98*F98</f>
+      <c r="G98" s="93">
+        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
         <v>18.760000000000002</v>
       </c>
-      <c r="H98" s="102">
+      <c r="H98" s="94">
         <f>G98/'[1]Teacher Supplies'!$I$102</f>
         <v>0.58625000000000005</v>
       </c>
-      <c r="I98" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="J98" s="103" t="s">
-        <v>152</v>
+      <c r="I98" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J98" s="95" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14.4">
-      <c r="A99" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B99" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="33" t="s">
+      <c r="A99" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E99" s="101">
+      <c r="D99" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="93">
         <v>64.22</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F99" s="31">
         <v>1</v>
       </c>
-      <c r="G99" s="101">
-        <f>E99*F99</f>
+      <c r="G99" s="93">
+        <f t="shared" si="3"/>
         <v>64.22</v>
       </c>
-      <c r="H99" s="102">
+      <c r="H99" s="94">
         <f>G99/'[1]Teacher Supplies'!$I$102</f>
         <v>2.006875</v>
       </c>
-      <c r="I99" s="99">
+      <c r="I99" s="91">
         <v>2</v>
       </c>
-      <c r="J99" s="103" t="s">
-        <v>148</v>
+      <c r="J99" s="95" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/OPiS7 Inventory.xlsx
+++ b/OPiS7 Inventory.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\msi-od002\users$\msolo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74301E-9CE6-469E-BFE4-8AF17C1EE14C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inv" sheetId="1" r:id="rId1"/>
-    <sheet name="osheet" sheetId="3" r:id="rId2"/>
-    <sheet name="Prizes" sheetId="2" r:id="rId3"/>
+    <sheet name="BIN PACKING" sheetId="4" r:id="rId2"/>
+    <sheet name="osheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Prizes" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="498">
   <si>
     <t>Summer 2018</t>
   </si>
@@ -1279,11 +1281,332 @@
   <si>
     <t>Colorbook 8.5" Smith Cardstock Pad, Tuxedo</t>
   </si>
+  <si>
+    <t>BIN PACKING LIST</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t># per bin</t>
+  </si>
+  <si>
+    <t>Curbside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item </t>
+  </si>
+  <si>
+    <t># per teacher</t>
+  </si>
+  <si>
+    <t>Hula Hoop</t>
+  </si>
+  <si>
+    <t>Box bag</t>
+  </si>
+  <si>
+    <t>eSuite</t>
+  </si>
+  <si>
+    <t>Blue bag</t>
+  </si>
+  <si>
+    <t>Purple bag</t>
+  </si>
+  <si>
+    <t>Meter stick 12-pk</t>
+  </si>
+  <si>
+    <t>Ring stand base</t>
+  </si>
+  <si>
+    <t>cellophane sheet pack</t>
+  </si>
+  <si>
+    <t>Ream of white paper</t>
+  </si>
+  <si>
+    <t>C battery pack</t>
+  </si>
+  <si>
+    <t>Small cars (24 pack)</t>
+  </si>
+  <si>
+    <t>12" balloons</t>
+  </si>
+  <si>
+    <t>kite string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital scale </t>
+  </si>
+  <si>
+    <t>Cotton rope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zip ties </t>
+  </si>
+  <si>
+    <t>pack (of 250)</t>
+  </si>
+  <si>
+    <t>3" bar magnet  (2-pk)</t>
+  </si>
+  <si>
+    <t>1 pack (of 2 magnets)</t>
+  </si>
+  <si>
+    <t>golf balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 bag </t>
+  </si>
+  <si>
+    <t>Ping pong balls</t>
+  </si>
+  <si>
+    <t>2 packs</t>
+  </si>
+  <si>
+    <t>small magnets</t>
+  </si>
+  <si>
+    <t>skewers</t>
+  </si>
+  <si>
+    <t>extension cord</t>
+  </si>
+  <si>
+    <t>1 cord</t>
+  </si>
+  <si>
+    <t>dot stickers</t>
+  </si>
+  <si>
+    <t>1 piece</t>
+  </si>
+  <si>
+    <t>dimmer</t>
+  </si>
+  <si>
+    <t>mini Slinky</t>
+  </si>
+  <si>
+    <t>Balloon inflator</t>
+  </si>
+  <si>
+    <t>2 boxes (of 12)</t>
+  </si>
+  <si>
+    <t>Yellow spring scales 50N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn </t>
+  </si>
+  <si>
+    <t>1 skein</t>
+  </si>
+  <si>
+    <t>sandwich bags</t>
+  </si>
+  <si>
+    <t>9" balloons</t>
+  </si>
+  <si>
+    <t>3 bags</t>
+  </si>
+  <si>
+    <t>Cars, die-cast, 3-pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marbles </t>
+  </si>
+  <si>
+    <t>wax paper</t>
+  </si>
+  <si>
+    <t>aluminium foil</t>
+  </si>
+  <si>
+    <t>jeweler's loupe</t>
+  </si>
+  <si>
+    <t>prism glasses</t>
+  </si>
+  <si>
+    <t>3 packs (of 10)</t>
+  </si>
+  <si>
+    <t>aluminum rod</t>
+  </si>
+  <si>
+    <t>steel washers</t>
+  </si>
+  <si>
+    <t>clamp holder</t>
+  </si>
+  <si>
+    <t>1 clamp holder</t>
+  </si>
+  <si>
+    <t>Spring Scale 10N</t>
+  </si>
+  <si>
+    <t>Spring Scale 20N</t>
+  </si>
+  <si>
+    <t>2 scales</t>
+  </si>
+  <si>
+    <t>stopwatches</t>
+  </si>
+  <si>
+    <t>1 bag/case (of 6)</t>
+  </si>
+  <si>
+    <t>black plastic compasses</t>
+  </si>
+  <si>
+    <t>1 pack (of 20)</t>
+  </si>
+  <si>
+    <t>large compass</t>
+  </si>
+  <si>
+    <t>2 compasses</t>
+  </si>
+  <si>
+    <t>globe (inflatable)</t>
+  </si>
+  <si>
+    <t>1 globe</t>
+  </si>
+  <si>
+    <t>Markers (Crayola 8pk)</t>
+  </si>
+  <si>
+    <t>twine</t>
+  </si>
+  <si>
+    <t>magic tape (4pk)</t>
+  </si>
+  <si>
+    <t>1 pack (of 4)</t>
+  </si>
+  <si>
+    <t>masking tape</t>
+  </si>
+  <si>
+    <t>6 rolls</t>
+  </si>
+  <si>
+    <t>paper clips</t>
+  </si>
+  <si>
+    <t>protractor</t>
+  </si>
+  <si>
+    <t>3 packs (of 12)</t>
+  </si>
+  <si>
+    <t>duct tape (white)</t>
+  </si>
+  <si>
+    <t>rubber bands (size 33)</t>
+  </si>
+  <si>
+    <t>rubber bands (size 16)</t>
+  </si>
+  <si>
+    <t>ruler (36pk)</t>
+  </si>
+  <si>
+    <t>36 rulers</t>
+  </si>
+  <si>
+    <t>binder clips</t>
+  </si>
+  <si>
+    <t>mini Post-it pads</t>
+  </si>
+  <si>
+    <t>thumb tacks</t>
+  </si>
+  <si>
+    <t>paper bags (white)</t>
+  </si>
+  <si>
+    <t>1 stack (of 50)</t>
+  </si>
+  <si>
+    <t>feathers</t>
+  </si>
+  <si>
+    <t>construction paper (black)</t>
+  </si>
+  <si>
+    <t>1 ream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pom pons </t>
+  </si>
+  <si>
+    <t>toothpicks</t>
+  </si>
+  <si>
+    <t>hole punch</t>
+  </si>
+  <si>
+    <t>2 hole punches</t>
+  </si>
+  <si>
+    <t>tuxedo cardstock</t>
+  </si>
+  <si>
+    <t>lamp base</t>
+  </si>
+  <si>
+    <t>1 base</t>
+  </si>
+  <si>
+    <t>LED flashlight pack</t>
+  </si>
+  <si>
+    <t>1 pack (of 10)</t>
+  </si>
+  <si>
+    <t>nylon rope</t>
+  </si>
+  <si>
+    <t>3 or 4 oz ppr cups?</t>
+  </si>
+  <si>
+    <t>plastic 3oz cups</t>
+  </si>
+  <si>
+    <t>1 bag (of 100)</t>
+  </si>
+  <si>
+    <t>plastic straws (striped)</t>
+  </si>
+  <si>
+    <t>1 pack (of 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculator tape </t>
+  </si>
+  <si>
+    <t>3 scales</t>
+  </si>
+  <si>
+    <t>1 dimmer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -2291,25 +2614,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A95" sqref="A94:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6328125" style="20" customWidth="1"/>
     <col min="3" max="3" width="10" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
-    <col min="7" max="16384" width="14.44140625" style="20"/>
+    <col min="4" max="4" width="9.36328125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="14.453125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" customHeight="1">
@@ -2320,7 +2643,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="22.2" customHeight="1">
+    <row r="2" spans="1:21" ht="22.25" customHeight="1">
       <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +2672,7 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" ht="14.4">
+    <row r="3" spans="1:21" ht="14.5">
       <c r="A3" s="41" t="s">
         <v>143</v>
       </c>
@@ -2363,7 +2686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.4">
+    <row r="4" spans="1:21" ht="14.5">
       <c r="A4" s="41" t="s">
         <v>143</v>
       </c>
@@ -2377,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.4">
+    <row r="5" spans="1:21" ht="14.5">
       <c r="A5" s="41" t="s">
         <v>143</v>
       </c>
@@ -2394,7 +2717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.4">
+    <row r="6" spans="1:21" ht="14.5">
       <c r="A6" s="41" t="s">
         <v>143</v>
       </c>
@@ -2411,7 +2734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.4">
+    <row r="7" spans="1:21" ht="14.5">
       <c r="A7" s="41" t="s">
         <v>143</v>
       </c>
@@ -2428,7 +2751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="8" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A8" s="67" t="s">
         <v>386</v>
       </c>
@@ -2461,7 +2784,7 @@
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
     </row>
-    <row r="9" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="9" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A9" s="67" t="s">
         <v>387</v>
       </c>
@@ -2478,7 +2801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" customFormat="1" ht="13.2">
+    <row r="10" spans="1:21" customFormat="1" ht="12.5">
       <c r="A10" s="41" t="s">
         <v>143</v>
       </c>
@@ -2512,7 +2835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.4">
+    <row r="12" spans="1:21" ht="14.5">
       <c r="A12" s="67" t="s">
         <v>140</v>
       </c>
@@ -2529,7 +2852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.4">
+    <row r="13" spans="1:21" ht="14.5">
       <c r="A13" s="41" t="s">
         <v>130</v>
       </c>
@@ -2546,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.4">
+    <row r="14" spans="1:21" ht="14.5">
       <c r="A14" s="67" t="s">
         <v>125</v>
       </c>
@@ -2563,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="15" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A15" s="67" t="s">
         <v>389</v>
       </c>
@@ -2595,7 +2918,7 @@
       <c r="T15" s="63"/>
       <c r="U15" s="63"/>
     </row>
-    <row r="16" spans="1:21" ht="14.4">
+    <row r="16" spans="1:21" ht="14.5">
       <c r="A16" s="41" t="s">
         <v>143</v>
       </c>
@@ -2627,7 +2950,7 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
     </row>
-    <row r="17" spans="1:21" ht="14.4">
+    <row r="17" spans="1:21" ht="14.5">
       <c r="A17" s="41" t="s">
         <v>143</v>
       </c>
@@ -2644,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.4">
+    <row r="18" spans="1:21" ht="14.5">
       <c r="A18" s="53" t="s">
         <v>138</v>
       </c>
@@ -2662,7 +2985,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:21" ht="14.4">
+    <row r="19" spans="1:21" ht="14.5">
       <c r="A19" s="43" t="s">
         <v>139</v>
       </c>
@@ -2679,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.4">
+    <row r="20" spans="1:21" ht="14.5">
       <c r="A20" s="41" t="s">
         <v>143</v>
       </c>
@@ -2696,7 +3019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.4">
+    <row r="21" spans="1:21" ht="14.5">
       <c r="A21" s="41" t="s">
         <v>143</v>
       </c>
@@ -2728,7 +3051,7 @@
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="14.4">
+    <row r="22" spans="1:21" ht="14.5">
       <c r="A22" s="53" t="s">
         <v>388</v>
       </c>
@@ -2746,7 +3069,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:21" ht="14.4">
+    <row r="23" spans="1:21" ht="14.5">
       <c r="A23" s="41" t="s">
         <v>143</v>
       </c>
@@ -2763,7 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.4">
+    <row r="24" spans="1:21" ht="14.5">
       <c r="A24" s="41" t="s">
         <v>130</v>
       </c>
@@ -2780,7 +3103,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="25" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A25" s="41" t="s">
         <v>143</v>
       </c>
@@ -2813,7 +3136,7 @@
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
     </row>
-    <row r="26" spans="1:21" ht="14.4">
+    <row r="26" spans="1:21" ht="14.5">
       <c r="A26" s="41" t="s">
         <v>125</v>
       </c>
@@ -2830,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.4">
+    <row r="27" spans="1:21" ht="14.5">
       <c r="A27" s="41" t="s">
         <v>143</v>
       </c>
@@ -2847,7 +3170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.4">
+    <row r="28" spans="1:21" ht="14.5">
       <c r="A28" s="41" t="s">
         <v>143</v>
       </c>
@@ -2864,7 +3187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.4">
+    <row r="29" spans="1:21" ht="14.5">
       <c r="A29" s="41" t="s">
         <v>143</v>
       </c>
@@ -2881,7 +3204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.4">
+    <row r="30" spans="1:21" ht="14.5">
       <c r="A30" s="41" t="s">
         <v>143</v>
       </c>
@@ -2898,7 +3221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.4">
+    <row r="31" spans="1:21" ht="14.5">
       <c r="A31" s="43" t="s">
         <v>381</v>
       </c>
@@ -2915,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.4">
+    <row r="32" spans="1:21" ht="14.5">
       <c r="A32" s="41" t="s">
         <v>384</v>
       </c>
@@ -2932,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="27">
+    <row r="33" spans="1:21" ht="26">
       <c r="A33" s="41" t="s">
         <v>143</v>
       </c>
@@ -2949,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.4">
+    <row r="34" spans="1:21" ht="14.5">
       <c r="A34" s="41" t="s">
         <v>143</v>
       </c>
@@ -2966,7 +3289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.4">
+    <row r="35" spans="1:21" ht="14.5">
       <c r="A35" s="41" t="s">
         <v>143</v>
       </c>
@@ -2983,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.4">
+    <row r="36" spans="1:21" ht="14.5">
       <c r="A36" s="52" t="s">
         <v>131</v>
       </c>
@@ -3000,7 +3323,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.4">
+    <row r="37" spans="1:21" ht="14.5">
       <c r="A37" s="41" t="s">
         <v>130</v>
       </c>
@@ -3017,7 +3340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="38" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A38" s="67" t="s">
         <v>130</v>
       </c>
@@ -3050,7 +3373,7 @@
       <c r="T38" s="57"/>
       <c r="U38" s="57"/>
     </row>
-    <row r="39" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="39" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A39" s="67" t="s">
         <v>135</v>
       </c>
@@ -3067,7 +3390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.4">
+    <row r="40" spans="1:21" ht="14.5">
       <c r="A40" s="67" t="s">
         <v>130</v>
       </c>
@@ -3084,7 +3407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="41" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A41" s="67" t="s">
         <v>130</v>
       </c>
@@ -3117,7 +3440,7 @@
       <c r="T41" s="57"/>
       <c r="U41" s="57"/>
     </row>
-    <row r="42" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="42" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A42" s="55" t="s">
         <v>132</v>
       </c>
@@ -3150,7 +3473,7 @@
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
     </row>
-    <row r="43" spans="1:21" ht="14.4">
+    <row r="43" spans="1:21" ht="14.5">
       <c r="A43" s="41" t="s">
         <v>130</v>
       </c>
@@ -3167,7 +3490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.4">
+    <row r="44" spans="1:21" ht="14.5">
       <c r="A44" s="41" t="s">
         <v>130</v>
       </c>
@@ -3184,7 +3507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="14.4">
+    <row r="45" spans="1:21" ht="14.5">
       <c r="A45" s="41" t="s">
         <v>130</v>
       </c>
@@ -3201,7 +3524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.4">
+    <row r="46" spans="1:21" ht="14.5">
       <c r="A46" s="41" t="s">
         <v>130</v>
       </c>
@@ -3218,7 +3541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.4">
+    <row r="47" spans="1:21" ht="14.5">
       <c r="A47" s="52" t="s">
         <v>133</v>
       </c>
@@ -3235,7 +3558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="14.4">
+    <row r="48" spans="1:21" ht="14.5">
       <c r="A48" s="41" t="s">
         <v>125</v>
       </c>
@@ -3252,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="49" spans="1:21" s="18" customFormat="1" ht="14.5">
       <c r="A49" s="41" t="s">
         <v>132</v>
       </c>
@@ -3269,7 +3592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="50" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A50" s="67" t="s">
         <v>130</v>
       </c>
@@ -3289,7 +3612,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="51" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A51" s="55" t="s">
         <v>132</v>
       </c>
@@ -3307,7 +3630,7 @@
       </c>
       <c r="F51" s="56"/>
     </row>
-    <row r="52" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="52" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A52" s="67" t="s">
         <v>130</v>
       </c>
@@ -3325,7 +3648,7 @@
       </c>
       <c r="F52" s="56"/>
     </row>
-    <row r="53" spans="1:21" ht="14.4">
+    <row r="53" spans="1:21" ht="14.5">
       <c r="A53" s="41" t="s">
         <v>130</v>
       </c>
@@ -3342,7 +3665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="54" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A54" s="67" t="s">
         <v>130</v>
       </c>
@@ -3370,7 +3693,7 @@
       <c r="T54" s="63"/>
       <c r="U54" s="63"/>
     </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.5">
       <c r="A55" s="67" t="s">
         <v>130</v>
       </c>
@@ -3383,7 +3706,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="52"/>
     </row>
-    <row r="56" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="56" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A56" s="67" t="s">
         <v>130</v>
       </c>
@@ -3400,7 +3723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="57" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A57" s="67" t="s">
         <v>130</v>
       </c>
@@ -3428,7 +3751,7 @@
       <c r="T57" s="63"/>
       <c r="U57" s="63"/>
     </row>
-    <row r="58" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="58" spans="1:21" s="18" customFormat="1" ht="14.5">
       <c r="A58" s="67" t="s">
         <v>130</v>
       </c>
@@ -3441,7 +3764,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="52"/>
     </row>
-    <row r="59" spans="1:21" s="32" customFormat="1" ht="14.4">
+    <row r="59" spans="1:21" s="32" customFormat="1" ht="14.5">
       <c r="A59" s="41" t="s">
         <v>385</v>
       </c>
@@ -3454,7 +3777,7 @@
       <c r="D59" s="61"/>
       <c r="E59" s="52"/>
     </row>
-    <row r="60" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="60" spans="1:21" s="18" customFormat="1" ht="14.5">
       <c r="A60" s="67" t="s">
         <v>130</v>
       </c>
@@ -3467,7 +3790,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="52"/>
     </row>
-    <row r="61" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="61" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A61" s="67" t="s">
         <v>130</v>
       </c>
@@ -3480,7 +3803,7 @@
       <c r="D61" s="61"/>
       <c r="E61" s="67"/>
     </row>
-    <row r="62" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="62" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A62" s="67" t="s">
         <v>130</v>
       </c>
@@ -3493,7 +3816,7 @@
       <c r="D62" s="61"/>
       <c r="E62" s="67"/>
     </row>
-    <row r="63" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="63" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A63" s="67" t="s">
         <v>130</v>
       </c>
@@ -3506,7 +3829,7 @@
       <c r="D63" s="61"/>
       <c r="E63" s="67"/>
     </row>
-    <row r="64" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="64" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A64" s="67" t="s">
         <v>130</v>
       </c>
@@ -3519,7 +3842,7 @@
       <c r="D64" s="61"/>
       <c r="E64" s="67"/>
     </row>
-    <row r="65" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="65" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A65" s="67" t="s">
         <v>130</v>
       </c>
@@ -3532,7 +3855,7 @@
       <c r="D65" s="61"/>
       <c r="E65" s="67"/>
     </row>
-    <row r="66" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="66" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A66" s="67" t="s">
         <v>130</v>
       </c>
@@ -3547,7 +3870,7 @@
       </c>
       <c r="E66" s="67"/>
     </row>
-    <row r="67" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="67" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A67" s="67" t="s">
         <v>130</v>
       </c>
@@ -3560,7 +3883,7 @@
       <c r="D67" s="61"/>
       <c r="E67" s="67"/>
     </row>
-    <row r="68" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="68" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A68" s="67" t="s">
         <v>130</v>
       </c>
@@ -3577,7 +3900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="69" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A69" s="67" t="s">
         <v>130</v>
       </c>
@@ -3590,7 +3913,7 @@
       <c r="D69" s="61"/>
       <c r="E69" s="55"/>
     </row>
-    <row r="70" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="70" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A70" s="67" t="s">
         <v>130</v>
       </c>
@@ -3618,7 +3941,7 @@
       <c r="T70" s="63"/>
       <c r="U70" s="63"/>
     </row>
-    <row r="71" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="71" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A71" s="67" t="s">
         <v>130</v>
       </c>
@@ -3631,7 +3954,7 @@
       <c r="D71" s="61"/>
       <c r="E71" s="55"/>
     </row>
-    <row r="72" spans="1:21" s="62" customFormat="1" ht="14.4">
+    <row r="72" spans="1:21" s="62" customFormat="1" ht="14.5">
       <c r="A72" s="67" t="s">
         <v>130</v>
       </c>
@@ -3644,7 +3967,7 @@
       <c r="D72" s="61"/>
       <c r="E72" s="55"/>
     </row>
-    <row r="73" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="73" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A73" s="67" t="s">
         <v>125</v>
       </c>
@@ -3661,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="74" spans="1:21" s="18" customFormat="1" ht="14.5">
       <c r="A74" s="67" t="s">
         <v>130</v>
       </c>
@@ -3674,7 +3997,7 @@
       <c r="D74" s="46"/>
       <c r="E74" s="52"/>
     </row>
-    <row r="75" spans="1:21" s="18" customFormat="1" ht="14.4">
+    <row r="75" spans="1:21" s="18" customFormat="1" ht="14.5">
       <c r="A75" s="67" t="s">
         <v>130</v>
       </c>
@@ -3691,7 +4014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="76" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A76" s="158"/>
       <c r="B76" s="152" t="s">
         <v>102</v>
@@ -3706,7 +4029,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="77" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A77" s="67" t="s">
         <v>130</v>
       </c>
@@ -3724,7 +4047,7 @@
       </c>
       <c r="F77" s="56"/>
     </row>
-    <row r="78" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="78" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A78" s="67" t="s">
         <v>130</v>
       </c>
@@ -3757,7 +4080,7 @@
       <c r="T78" s="57"/>
       <c r="U78" s="57"/>
     </row>
-    <row r="79" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="79" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A79" s="67" t="s">
         <v>130</v>
       </c>
@@ -3775,7 +4098,7 @@
       </c>
       <c r="F79" s="56"/>
     </row>
-    <row r="80" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="80" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A80" s="67" t="s">
         <v>130</v>
       </c>
@@ -3793,7 +4116,7 @@
       </c>
       <c r="F80" s="56"/>
     </row>
-    <row r="81" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="81" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A81" s="67" t="s">
         <v>125</v>
       </c>
@@ -3811,7 +4134,7 @@
       </c>
       <c r="F81" s="56"/>
     </row>
-    <row r="82" spans="1:21" ht="14.4">
+    <row r="82" spans="1:21" ht="14.5">
       <c r="A82" s="41" t="s">
         <v>136</v>
       </c>
@@ -3828,7 +4151,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="14.4">
+    <row r="83" spans="1:21" ht="14.5">
       <c r="A83" s="41" t="s">
         <v>141</v>
       </c>
@@ -3845,7 +4168,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="84" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A84" s="153"/>
       <c r="B84" s="154" t="s">
         <v>390</v>
@@ -3861,7 +4184,7 @@
       </c>
       <c r="F84" s="56"/>
     </row>
-    <row r="85" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="85" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A85" s="53" t="s">
         <v>137</v>
       </c>
@@ -3894,7 +4217,7 @@
       <c r="T85" s="57"/>
       <c r="U85" s="57"/>
     </row>
-    <row r="86" spans="1:21" ht="14.4">
+    <row r="86" spans="1:21" ht="14.5">
       <c r="A86" s="53" t="s">
         <v>142</v>
       </c>
@@ -3911,7 +4234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="14.4">
+    <row r="87" spans="1:21" ht="14.5">
       <c r="A87" s="41" t="s">
         <v>143</v>
       </c>
@@ -3928,7 +4251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.4">
+    <row r="88" spans="1:21" ht="14.5">
       <c r="A88" s="41" t="s">
         <v>143</v>
       </c>
@@ -3945,7 +4268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="14.4">
+    <row r="89" spans="1:21" ht="14.5">
       <c r="A89" s="41" t="s">
         <v>143</v>
       </c>
@@ -3962,7 +4285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="14.4">
+    <row r="90" spans="1:21" ht="14.5">
       <c r="A90" s="41" t="s">
         <v>143</v>
       </c>
@@ -3979,7 +4302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="14.4">
+    <row r="91" spans="1:21" ht="14.5">
       <c r="A91" s="41" t="s">
         <v>143</v>
       </c>
@@ -3996,7 +4319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="58" customFormat="1" ht="14.4">
+    <row r="92" spans="1:21" s="58" customFormat="1" ht="14.5">
       <c r="A92" s="67" t="s">
         <v>143</v>
       </c>
@@ -4014,7 +4337,7 @@
       </c>
       <c r="F92" s="56"/>
     </row>
-    <row r="93" spans="1:21" ht="14.4">
+    <row r="93" spans="1:21" ht="14.5">
       <c r="A93" s="41" t="s">
         <v>125</v>
       </c>
@@ -4031,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="27">
+    <row r="94" spans="1:21" ht="25.5">
       <c r="A94" s="41" t="s">
         <v>143</v>
       </c>
@@ -4048,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="13.2">
+    <row r="95" spans="1:21" ht="13">
       <c r="A95" s="41" t="s">
         <v>143</v>
       </c>
@@ -4065,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="13.2">
+    <row r="96" spans="1:21" ht="13">
       <c r="A96" s="41" t="s">
         <v>143</v>
       </c>
@@ -4082,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="26.4">
+    <row r="97" spans="1:5" ht="25.5">
       <c r="A97" s="41" t="s">
         <v>143</v>
       </c>
@@ -4099,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.4">
+    <row r="98" spans="1:5" ht="14.5">
       <c r="A98" s="41" t="s">
         <v>143</v>
       </c>
@@ -4116,7 +4439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.4">
+    <row r="99" spans="1:5" ht="14.5">
       <c r="A99" s="41" t="s">
         <v>143</v>
       </c>
@@ -4133,7 +4456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.4">
+    <row r="100" spans="1:5" ht="14.5">
       <c r="A100" s="41" t="s">
         <v>143</v>
       </c>
@@ -4150,7 +4473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.4">
+    <row r="101" spans="1:5" ht="14.5">
       <c r="A101" s="41" t="s">
         <v>143</v>
       </c>
@@ -4167,7 +4490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.4">
+    <row r="102" spans="1:5" ht="14.5">
       <c r="A102" s="41" t="s">
         <v>143</v>
       </c>
@@ -4184,7 +4507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.4">
+    <row r="103" spans="1:5" ht="14.5">
       <c r="A103" s="41" t="s">
         <v>143</v>
       </c>
@@ -4201,2584 +4524,2584 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="13.2">
+    <row r="104" spans="1:5" ht="13">
       <c r="B104" s="22"/>
     </row>
-    <row r="105" spans="1:5" ht="13.2">
+    <row r="105" spans="1:5" ht="13">
       <c r="B105" s="22"/>
     </row>
-    <row r="106" spans="1:5" ht="13.2">
+    <row r="106" spans="1:5" ht="13">
       <c r="B106" s="22"/>
     </row>
-    <row r="107" spans="1:5" ht="13.2">
+    <row r="107" spans="1:5" ht="13">
       <c r="B107" s="22"/>
     </row>
-    <row r="108" spans="1:5" ht="13.2">
+    <row r="108" spans="1:5" ht="13">
       <c r="B108" s="22"/>
     </row>
-    <row r="109" spans="1:5" ht="13.2">
+    <row r="109" spans="1:5" ht="13">
       <c r="B109" s="22"/>
     </row>
-    <row r="110" spans="1:5" ht="13.2">
+    <row r="110" spans="1:5" ht="13">
       <c r="B110" s="22"/>
     </row>
-    <row r="111" spans="1:5" ht="13.2">
+    <row r="111" spans="1:5" ht="13">
       <c r="B111" s="22"/>
     </row>
-    <row r="112" spans="1:5" ht="13.2">
+    <row r="112" spans="1:5" ht="13">
       <c r="B112" s="22"/>
     </row>
-    <row r="113" spans="2:2" ht="13.2">
+    <row r="113" spans="2:2" ht="13">
       <c r="B113" s="22"/>
     </row>
-    <row r="114" spans="2:2" ht="13.2">
+    <row r="114" spans="2:2" ht="13">
       <c r="B114" s="22"/>
     </row>
-    <row r="115" spans="2:2" ht="13.2">
+    <row r="115" spans="2:2" ht="13">
       <c r="B115" s="22"/>
     </row>
-    <row r="116" spans="2:2" ht="13.2">
+    <row r="116" spans="2:2" ht="13">
       <c r="B116" s="22"/>
     </row>
-    <row r="117" spans="2:2" ht="13.2">
+    <row r="117" spans="2:2" ht="13">
       <c r="B117" s="22"/>
     </row>
-    <row r="118" spans="2:2" ht="13.2">
+    <row r="118" spans="2:2" ht="13">
       <c r="B118" s="22"/>
     </row>
-    <row r="119" spans="2:2" ht="13.2">
+    <row r="119" spans="2:2" ht="13">
       <c r="B119" s="22"/>
     </row>
-    <row r="120" spans="2:2" ht="13.2">
+    <row r="120" spans="2:2" ht="13">
       <c r="B120" s="22"/>
     </row>
-    <row r="121" spans="2:2" ht="13.2">
+    <row r="121" spans="2:2" ht="13">
       <c r="B121" s="22"/>
     </row>
-    <row r="122" spans="2:2" ht="13.2">
+    <row r="122" spans="2:2" ht="13">
       <c r="B122" s="22"/>
     </row>
-    <row r="123" spans="2:2" ht="13.2">
+    <row r="123" spans="2:2" ht="13">
       <c r="B123" s="22"/>
     </row>
-    <row r="124" spans="2:2" ht="13.2">
+    <row r="124" spans="2:2" ht="13">
       <c r="B124" s="22"/>
     </row>
-    <row r="125" spans="2:2" ht="13.2">
+    <row r="125" spans="2:2" ht="13">
       <c r="B125" s="22"/>
     </row>
-    <row r="126" spans="2:2" ht="13.2">
+    <row r="126" spans="2:2" ht="13">
       <c r="B126" s="22"/>
     </row>
-    <row r="127" spans="2:2" ht="13.2">
+    <row r="127" spans="2:2" ht="13">
       <c r="B127" s="22"/>
     </row>
-    <row r="128" spans="2:2" ht="13.2">
+    <row r="128" spans="2:2" ht="13">
       <c r="B128" s="22"/>
     </row>
-    <row r="129" spans="2:2" ht="13.2">
+    <row r="129" spans="2:2" ht="13">
       <c r="B129" s="22"/>
     </row>
-    <row r="130" spans="2:2" ht="13.2">
+    <row r="130" spans="2:2" ht="13">
       <c r="B130" s="22"/>
     </row>
-    <row r="131" spans="2:2" ht="13.2">
+    <row r="131" spans="2:2" ht="13">
       <c r="B131" s="22"/>
     </row>
-    <row r="132" spans="2:2" ht="13.2">
+    <row r="132" spans="2:2" ht="13">
       <c r="B132" s="22"/>
     </row>
-    <row r="133" spans="2:2" ht="13.2">
+    <row r="133" spans="2:2" ht="13">
       <c r="B133" s="22"/>
     </row>
-    <row r="134" spans="2:2" ht="13.2">
+    <row r="134" spans="2:2" ht="13">
       <c r="B134" s="22"/>
     </row>
-    <row r="135" spans="2:2" ht="13.2">
+    <row r="135" spans="2:2" ht="13">
       <c r="B135" s="22"/>
     </row>
-    <row r="136" spans="2:2" ht="13.2">
+    <row r="136" spans="2:2" ht="13">
       <c r="B136" s="22"/>
     </row>
-    <row r="137" spans="2:2" ht="13.2">
+    <row r="137" spans="2:2" ht="13">
       <c r="B137" s="22"/>
     </row>
-    <row r="138" spans="2:2" ht="13.2">
+    <row r="138" spans="2:2" ht="13">
       <c r="B138" s="22"/>
     </row>
-    <row r="139" spans="2:2" ht="13.2">
+    <row r="139" spans="2:2" ht="13">
       <c r="B139" s="22"/>
     </row>
-    <row r="140" spans="2:2" ht="13.2">
+    <row r="140" spans="2:2" ht="13">
       <c r="B140" s="22"/>
     </row>
-    <row r="141" spans="2:2" ht="13.2">
+    <row r="141" spans="2:2" ht="13">
       <c r="B141" s="22"/>
     </row>
-    <row r="142" spans="2:2" ht="13.2">
+    <row r="142" spans="2:2" ht="13">
       <c r="B142" s="22"/>
     </row>
-    <row r="143" spans="2:2" ht="13.2">
+    <row r="143" spans="2:2" ht="13">
       <c r="B143" s="22"/>
     </row>
-    <row r="144" spans="2:2" ht="13.2">
+    <row r="144" spans="2:2" ht="13">
       <c r="B144" s="22"/>
     </row>
-    <row r="145" spans="2:2" ht="13.2">
+    <row r="145" spans="2:2" ht="13">
       <c r="B145" s="22"/>
     </row>
-    <row r="146" spans="2:2" ht="13.2">
+    <row r="146" spans="2:2" ht="13">
       <c r="B146" s="22"/>
     </row>
-    <row r="147" spans="2:2" ht="13.2">
+    <row r="147" spans="2:2" ht="13">
       <c r="B147" s="22"/>
     </row>
-    <row r="148" spans="2:2" ht="13.2">
+    <row r="148" spans="2:2" ht="13">
       <c r="B148" s="22"/>
     </row>
-    <row r="149" spans="2:2" ht="13.2">
+    <row r="149" spans="2:2" ht="13">
       <c r="B149" s="22"/>
     </row>
-    <row r="150" spans="2:2" ht="13.2">
+    <row r="150" spans="2:2" ht="13">
       <c r="B150" s="22"/>
     </row>
-    <row r="151" spans="2:2" ht="13.2">
+    <row r="151" spans="2:2" ht="13">
       <c r="B151" s="22"/>
     </row>
-    <row r="152" spans="2:2" ht="13.2">
+    <row r="152" spans="2:2" ht="13">
       <c r="B152" s="22"/>
     </row>
-    <row r="153" spans="2:2" ht="13.2">
+    <row r="153" spans="2:2" ht="13">
       <c r="B153" s="22"/>
     </row>
-    <row r="154" spans="2:2" ht="13.2">
+    <row r="154" spans="2:2" ht="13">
       <c r="B154" s="22"/>
     </row>
-    <row r="155" spans="2:2" ht="13.2">
+    <row r="155" spans="2:2" ht="13">
       <c r="B155" s="22"/>
     </row>
-    <row r="156" spans="2:2" ht="13.2">
+    <row r="156" spans="2:2" ht="13">
       <c r="B156" s="22"/>
     </row>
-    <row r="157" spans="2:2" ht="13.2">
+    <row r="157" spans="2:2" ht="13">
       <c r="B157" s="22"/>
     </row>
-    <row r="158" spans="2:2" ht="13.2">
+    <row r="158" spans="2:2" ht="13">
       <c r="B158" s="22"/>
     </row>
-    <row r="159" spans="2:2" ht="13.2">
+    <row r="159" spans="2:2" ht="13">
       <c r="B159" s="22"/>
     </row>
-    <row r="160" spans="2:2" ht="13.2">
+    <row r="160" spans="2:2" ht="13">
       <c r="B160" s="22"/>
     </row>
-    <row r="161" spans="2:2" ht="13.2">
+    <row r="161" spans="2:2" ht="13">
       <c r="B161" s="22"/>
     </row>
-    <row r="162" spans="2:2" ht="13.2">
+    <row r="162" spans="2:2" ht="13">
       <c r="B162" s="22"/>
     </row>
-    <row r="163" spans="2:2" ht="13.2">
+    <row r="163" spans="2:2" ht="13">
       <c r="B163" s="22"/>
     </row>
-    <row r="164" spans="2:2" ht="13.2">
+    <row r="164" spans="2:2" ht="13">
       <c r="B164" s="22"/>
     </row>
-    <row r="165" spans="2:2" ht="13.2">
+    <row r="165" spans="2:2" ht="13">
       <c r="B165" s="22"/>
     </row>
-    <row r="166" spans="2:2" ht="13.2">
+    <row r="166" spans="2:2" ht="13">
       <c r="B166" s="22"/>
     </row>
-    <row r="167" spans="2:2" ht="13.2">
+    <row r="167" spans="2:2" ht="13">
       <c r="B167" s="22"/>
     </row>
-    <row r="168" spans="2:2" ht="13.2">
+    <row r="168" spans="2:2" ht="13">
       <c r="B168" s="22"/>
     </row>
-    <row r="169" spans="2:2" ht="13.2">
+    <row r="169" spans="2:2" ht="13">
       <c r="B169" s="22"/>
     </row>
-    <row r="170" spans="2:2" ht="13.2">
+    <row r="170" spans="2:2" ht="13">
       <c r="B170" s="22"/>
     </row>
-    <row r="171" spans="2:2" ht="13.2">
+    <row r="171" spans="2:2" ht="13">
       <c r="B171" s="22"/>
     </row>
-    <row r="172" spans="2:2" ht="13.2">
+    <row r="172" spans="2:2" ht="13">
       <c r="B172" s="22"/>
     </row>
-    <row r="173" spans="2:2" ht="13.2">
+    <row r="173" spans="2:2" ht="13">
       <c r="B173" s="22"/>
     </row>
-    <row r="174" spans="2:2" ht="13.2">
+    <row r="174" spans="2:2" ht="13">
       <c r="B174" s="22"/>
     </row>
-    <row r="175" spans="2:2" ht="13.2">
+    <row r="175" spans="2:2" ht="13">
       <c r="B175" s="22"/>
     </row>
-    <row r="176" spans="2:2" ht="13.2">
+    <row r="176" spans="2:2" ht="13">
       <c r="B176" s="22"/>
     </row>
-    <row r="177" spans="2:2" ht="13.2">
+    <row r="177" spans="2:2" ht="13">
       <c r="B177" s="22"/>
     </row>
-    <row r="178" spans="2:2" ht="13.2">
+    <row r="178" spans="2:2" ht="13">
       <c r="B178" s="22"/>
     </row>
-    <row r="179" spans="2:2" ht="13.2">
+    <row r="179" spans="2:2" ht="13">
       <c r="B179" s="22"/>
     </row>
-    <row r="180" spans="2:2" ht="13.2">
+    <row r="180" spans="2:2" ht="13">
       <c r="B180" s="22"/>
     </row>
-    <row r="181" spans="2:2" ht="13.2">
+    <row r="181" spans="2:2" ht="13">
       <c r="B181" s="22"/>
     </row>
-    <row r="182" spans="2:2" ht="13.2">
+    <row r="182" spans="2:2" ht="13">
       <c r="B182" s="22"/>
     </row>
-    <row r="183" spans="2:2" ht="13.2">
+    <row r="183" spans="2:2" ht="13">
       <c r="B183" s="22"/>
     </row>
-    <row r="184" spans="2:2" ht="13.2">
+    <row r="184" spans="2:2" ht="13">
       <c r="B184" s="22"/>
     </row>
-    <row r="185" spans="2:2" ht="13.2">
+    <row r="185" spans="2:2" ht="13">
       <c r="B185" s="22"/>
     </row>
-    <row r="186" spans="2:2" ht="13.2">
+    <row r="186" spans="2:2" ht="13">
       <c r="B186" s="22"/>
     </row>
-    <row r="187" spans="2:2" ht="13.2">
+    <row r="187" spans="2:2" ht="13">
       <c r="B187" s="22"/>
     </row>
-    <row r="188" spans="2:2" ht="13.2">
+    <row r="188" spans="2:2" ht="13">
       <c r="B188" s="22"/>
     </row>
-    <row r="189" spans="2:2" ht="13.2">
+    <row r="189" spans="2:2" ht="13">
       <c r="B189" s="22"/>
     </row>
-    <row r="190" spans="2:2" ht="13.2">
+    <row r="190" spans="2:2" ht="13">
       <c r="B190" s="22"/>
     </row>
-    <row r="191" spans="2:2" ht="13.2">
+    <row r="191" spans="2:2" ht="13">
       <c r="B191" s="22"/>
     </row>
-    <row r="192" spans="2:2" ht="13.2">
+    <row r="192" spans="2:2" ht="13">
       <c r="B192" s="22"/>
     </row>
-    <row r="193" spans="2:2" ht="13.2">
+    <row r="193" spans="2:2" ht="13">
       <c r="B193" s="22"/>
     </row>
-    <row r="194" spans="2:2" ht="13.2">
+    <row r="194" spans="2:2" ht="13">
       <c r="B194" s="22"/>
     </row>
-    <row r="195" spans="2:2" ht="13.2">
+    <row r="195" spans="2:2" ht="13">
       <c r="B195" s="22"/>
     </row>
-    <row r="196" spans="2:2" ht="13.2">
+    <row r="196" spans="2:2" ht="13">
       <c r="B196" s="22"/>
     </row>
-    <row r="197" spans="2:2" ht="13.2">
+    <row r="197" spans="2:2" ht="13">
       <c r="B197" s="22"/>
     </row>
-    <row r="198" spans="2:2" ht="13.2">
+    <row r="198" spans="2:2" ht="13">
       <c r="B198" s="22"/>
     </row>
-    <row r="199" spans="2:2" ht="13.2">
+    <row r="199" spans="2:2" ht="13">
       <c r="B199" s="22"/>
     </row>
-    <row r="200" spans="2:2" ht="13.2">
+    <row r="200" spans="2:2" ht="13">
       <c r="B200" s="22"/>
     </row>
-    <row r="201" spans="2:2" ht="13.2">
+    <row r="201" spans="2:2" ht="13">
       <c r="B201" s="22"/>
     </row>
-    <row r="202" spans="2:2" ht="13.2">
+    <row r="202" spans="2:2" ht="13">
       <c r="B202" s="22"/>
     </row>
-    <row r="203" spans="2:2" ht="13.2">
+    <row r="203" spans="2:2" ht="13">
       <c r="B203" s="22"/>
     </row>
-    <row r="204" spans="2:2" ht="13.2">
+    <row r="204" spans="2:2" ht="13">
       <c r="B204" s="22"/>
     </row>
-    <row r="205" spans="2:2" ht="13.2">
+    <row r="205" spans="2:2" ht="13">
       <c r="B205" s="22"/>
     </row>
-    <row r="206" spans="2:2" ht="13.2">
+    <row r="206" spans="2:2" ht="13">
       <c r="B206" s="22"/>
     </row>
-    <row r="207" spans="2:2" ht="13.2">
+    <row r="207" spans="2:2" ht="13">
       <c r="B207" s="22"/>
     </row>
-    <row r="208" spans="2:2" ht="13.2">
+    <row r="208" spans="2:2" ht="13">
       <c r="B208" s="22"/>
     </row>
-    <row r="209" spans="2:2" ht="13.2">
+    <row r="209" spans="2:2" ht="13">
       <c r="B209" s="22"/>
     </row>
-    <row r="210" spans="2:2" ht="13.2">
+    <row r="210" spans="2:2" ht="13">
       <c r="B210" s="22"/>
     </row>
-    <row r="211" spans="2:2" ht="13.2">
+    <row r="211" spans="2:2" ht="13">
       <c r="B211" s="22"/>
     </row>
-    <row r="212" spans="2:2" ht="13.2">
+    <row r="212" spans="2:2" ht="13">
       <c r="B212" s="22"/>
     </row>
-    <row r="213" spans="2:2" ht="13.2">
+    <row r="213" spans="2:2" ht="13">
       <c r="B213" s="22"/>
     </row>
-    <row r="214" spans="2:2" ht="13.2">
+    <row r="214" spans="2:2" ht="13">
       <c r="B214" s="22"/>
     </row>
-    <row r="215" spans="2:2" ht="13.2">
+    <row r="215" spans="2:2" ht="13">
       <c r="B215" s="22"/>
     </row>
-    <row r="216" spans="2:2" ht="13.2">
+    <row r="216" spans="2:2" ht="13">
       <c r="B216" s="22"/>
     </row>
-    <row r="217" spans="2:2" ht="13.2">
+    <row r="217" spans="2:2" ht="13">
       <c r="B217" s="22"/>
     </row>
-    <row r="218" spans="2:2" ht="13.2">
+    <row r="218" spans="2:2" ht="13">
       <c r="B218" s="22"/>
     </row>
-    <row r="219" spans="2:2" ht="13.2">
+    <row r="219" spans="2:2" ht="13">
       <c r="B219" s="22"/>
     </row>
-    <row r="220" spans="2:2" ht="13.2">
+    <row r="220" spans="2:2" ht="13">
       <c r="B220" s="22"/>
     </row>
-    <row r="221" spans="2:2" ht="13.2">
+    <row r="221" spans="2:2" ht="13">
       <c r="B221" s="22"/>
     </row>
-    <row r="222" spans="2:2" ht="13.2">
+    <row r="222" spans="2:2" ht="13">
       <c r="B222" s="22"/>
     </row>
-    <row r="223" spans="2:2" ht="13.2">
+    <row r="223" spans="2:2" ht="13">
       <c r="B223" s="22"/>
     </row>
-    <row r="224" spans="2:2" ht="13.2">
+    <row r="224" spans="2:2" ht="13">
       <c r="B224" s="22"/>
     </row>
-    <row r="225" spans="2:2" ht="13.2">
+    <row r="225" spans="2:2" ht="13">
       <c r="B225" s="22"/>
     </row>
-    <row r="226" spans="2:2" ht="13.2">
+    <row r="226" spans="2:2" ht="13">
       <c r="B226" s="22"/>
     </row>
-    <row r="227" spans="2:2" ht="13.2">
+    <row r="227" spans="2:2" ht="13">
       <c r="B227" s="22"/>
     </row>
-    <row r="228" spans="2:2" ht="13.2">
+    <row r="228" spans="2:2" ht="13">
       <c r="B228" s="22"/>
     </row>
-    <row r="229" spans="2:2" ht="13.2">
+    <row r="229" spans="2:2" ht="13">
       <c r="B229" s="22"/>
     </row>
-    <row r="230" spans="2:2" ht="13.2">
+    <row r="230" spans="2:2" ht="13">
       <c r="B230" s="22"/>
     </row>
-    <row r="231" spans="2:2" ht="13.2">
+    <row r="231" spans="2:2" ht="13">
       <c r="B231" s="22"/>
     </row>
-    <row r="232" spans="2:2" ht="13.2">
+    <row r="232" spans="2:2" ht="13">
       <c r="B232" s="22"/>
     </row>
-    <row r="233" spans="2:2" ht="13.2">
+    <row r="233" spans="2:2" ht="13">
       <c r="B233" s="22"/>
     </row>
-    <row r="234" spans="2:2" ht="13.2">
+    <row r="234" spans="2:2" ht="13">
       <c r="B234" s="22"/>
     </row>
-    <row r="235" spans="2:2" ht="13.2">
+    <row r="235" spans="2:2" ht="13">
       <c r="B235" s="22"/>
     </row>
-    <row r="236" spans="2:2" ht="13.2">
+    <row r="236" spans="2:2" ht="13">
       <c r="B236" s="22"/>
     </row>
-    <row r="237" spans="2:2" ht="13.2">
+    <row r="237" spans="2:2" ht="13">
       <c r="B237" s="22"/>
     </row>
-    <row r="238" spans="2:2" ht="13.2">
+    <row r="238" spans="2:2" ht="13">
       <c r="B238" s="22"/>
     </row>
-    <row r="239" spans="2:2" ht="13.2">
+    <row r="239" spans="2:2" ht="13">
       <c r="B239" s="22"/>
     </row>
-    <row r="240" spans="2:2" ht="13.2">
+    <row r="240" spans="2:2" ht="13">
       <c r="B240" s="22"/>
     </row>
-    <row r="241" spans="2:2" ht="13.2">
+    <row r="241" spans="2:2" ht="13">
       <c r="B241" s="22"/>
     </row>
-    <row r="242" spans="2:2" ht="13.2">
+    <row r="242" spans="2:2" ht="13">
       <c r="B242" s="22"/>
     </row>
-    <row r="243" spans="2:2" ht="13.2">
+    <row r="243" spans="2:2" ht="13">
       <c r="B243" s="22"/>
     </row>
-    <row r="244" spans="2:2" ht="13.2">
+    <row r="244" spans="2:2" ht="13">
       <c r="B244" s="22"/>
     </row>
-    <row r="245" spans="2:2" ht="13.2">
+    <row r="245" spans="2:2" ht="13">
       <c r="B245" s="22"/>
     </row>
-    <row r="246" spans="2:2" ht="13.2">
+    <row r="246" spans="2:2" ht="13">
       <c r="B246" s="22"/>
     </row>
-    <row r="247" spans="2:2" ht="13.2">
+    <row r="247" spans="2:2" ht="13">
       <c r="B247" s="22"/>
     </row>
-    <row r="248" spans="2:2" ht="13.2">
+    <row r="248" spans="2:2" ht="13">
       <c r="B248" s="22"/>
     </row>
-    <row r="249" spans="2:2" ht="13.2">
+    <row r="249" spans="2:2" ht="13">
       <c r="B249" s="22"/>
     </row>
-    <row r="250" spans="2:2" ht="13.2">
+    <row r="250" spans="2:2" ht="13">
       <c r="B250" s="22"/>
     </row>
-    <row r="251" spans="2:2" ht="13.2">
+    <row r="251" spans="2:2" ht="13">
       <c r="B251" s="22"/>
     </row>
-    <row r="252" spans="2:2" ht="13.2">
+    <row r="252" spans="2:2" ht="13">
       <c r="B252" s="22"/>
     </row>
-    <row r="253" spans="2:2" ht="13.2">
+    <row r="253" spans="2:2" ht="13">
       <c r="B253" s="22"/>
     </row>
-    <row r="254" spans="2:2" ht="13.2">
+    <row r="254" spans="2:2" ht="13">
       <c r="B254" s="22"/>
     </row>
-    <row r="255" spans="2:2" ht="13.2">
+    <row r="255" spans="2:2" ht="13">
       <c r="B255" s="22"/>
     </row>
-    <row r="256" spans="2:2" ht="13.2">
+    <row r="256" spans="2:2" ht="13">
       <c r="B256" s="22"/>
     </row>
-    <row r="257" spans="2:2" ht="13.2">
+    <row r="257" spans="2:2" ht="13">
       <c r="B257" s="22"/>
     </row>
-    <row r="258" spans="2:2" ht="13.2">
+    <row r="258" spans="2:2" ht="13">
       <c r="B258" s="22"/>
     </row>
-    <row r="259" spans="2:2" ht="13.2">
+    <row r="259" spans="2:2" ht="13">
       <c r="B259" s="22"/>
     </row>
-    <row r="260" spans="2:2" ht="13.2">
+    <row r="260" spans="2:2" ht="13">
       <c r="B260" s="22"/>
     </row>
-    <row r="261" spans="2:2" ht="13.2">
+    <row r="261" spans="2:2" ht="13">
       <c r="B261" s="22"/>
     </row>
-    <row r="262" spans="2:2" ht="13.2">
+    <row r="262" spans="2:2" ht="13">
       <c r="B262" s="22"/>
     </row>
-    <row r="263" spans="2:2" ht="13.2">
+    <row r="263" spans="2:2" ht="13">
       <c r="B263" s="22"/>
     </row>
-    <row r="264" spans="2:2" ht="13.2">
+    <row r="264" spans="2:2" ht="13">
       <c r="B264" s="22"/>
     </row>
-    <row r="265" spans="2:2" ht="13.2">
+    <row r="265" spans="2:2" ht="13">
       <c r="B265" s="22"/>
     </row>
-    <row r="266" spans="2:2" ht="13.2">
+    <row r="266" spans="2:2" ht="13">
       <c r="B266" s="22"/>
     </row>
-    <row r="267" spans="2:2" ht="13.2">
+    <row r="267" spans="2:2" ht="13">
       <c r="B267" s="22"/>
     </row>
-    <row r="268" spans="2:2" ht="13.2">
+    <row r="268" spans="2:2" ht="13">
       <c r="B268" s="22"/>
     </row>
-    <row r="269" spans="2:2" ht="13.2">
+    <row r="269" spans="2:2" ht="13">
       <c r="B269" s="22"/>
     </row>
-    <row r="270" spans="2:2" ht="13.2">
+    <row r="270" spans="2:2" ht="13">
       <c r="B270" s="22"/>
     </row>
-    <row r="271" spans="2:2" ht="13.2">
+    <row r="271" spans="2:2" ht="13">
       <c r="B271" s="22"/>
     </row>
-    <row r="272" spans="2:2" ht="13.2">
+    <row r="272" spans="2:2" ht="13">
       <c r="B272" s="22"/>
     </row>
-    <row r="273" spans="2:2" ht="13.2">
+    <row r="273" spans="2:2" ht="13">
       <c r="B273" s="22"/>
     </row>
-    <row r="274" spans="2:2" ht="13.2">
+    <row r="274" spans="2:2" ht="13">
       <c r="B274" s="22"/>
     </row>
-    <row r="275" spans="2:2" ht="13.2">
+    <row r="275" spans="2:2" ht="13">
       <c r="B275" s="22"/>
     </row>
-    <row r="276" spans="2:2" ht="13.2">
+    <row r="276" spans="2:2" ht="13">
       <c r="B276" s="22"/>
     </row>
-    <row r="277" spans="2:2" ht="13.2">
+    <row r="277" spans="2:2" ht="13">
       <c r="B277" s="22"/>
     </row>
-    <row r="278" spans="2:2" ht="13.2">
+    <row r="278" spans="2:2" ht="13">
       <c r="B278" s="22"/>
     </row>
-    <row r="279" spans="2:2" ht="13.2">
+    <row r="279" spans="2:2" ht="13">
       <c r="B279" s="22"/>
     </row>
-    <row r="280" spans="2:2" ht="13.2">
+    <row r="280" spans="2:2" ht="13">
       <c r="B280" s="22"/>
     </row>
-    <row r="281" spans="2:2" ht="13.2">
+    <row r="281" spans="2:2" ht="13">
       <c r="B281" s="22"/>
     </row>
-    <row r="282" spans="2:2" ht="13.2">
+    <row r="282" spans="2:2" ht="13">
       <c r="B282" s="22"/>
     </row>
-    <row r="283" spans="2:2" ht="13.2">
+    <row r="283" spans="2:2" ht="13">
       <c r="B283" s="22"/>
     </row>
-    <row r="284" spans="2:2" ht="13.2">
+    <row r="284" spans="2:2" ht="13">
       <c r="B284" s="22"/>
     </row>
-    <row r="285" spans="2:2" ht="13.2">
+    <row r="285" spans="2:2" ht="13">
       <c r="B285" s="22"/>
     </row>
-    <row r="286" spans="2:2" ht="13.2">
+    <row r="286" spans="2:2" ht="13">
       <c r="B286" s="22"/>
     </row>
-    <row r="287" spans="2:2" ht="13.2">
+    <row r="287" spans="2:2" ht="13">
       <c r="B287" s="22"/>
     </row>
-    <row r="288" spans="2:2" ht="13.2">
+    <row r="288" spans="2:2" ht="13">
       <c r="B288" s="22"/>
     </row>
-    <row r="289" spans="2:2" ht="13.2">
+    <row r="289" spans="2:2" ht="13">
       <c r="B289" s="22"/>
     </row>
-    <row r="290" spans="2:2" ht="13.2">
+    <row r="290" spans="2:2" ht="13">
       <c r="B290" s="22"/>
     </row>
-    <row r="291" spans="2:2" ht="13.2">
+    <row r="291" spans="2:2" ht="13">
       <c r="B291" s="22"/>
     </row>
-    <row r="292" spans="2:2" ht="13.2">
+    <row r="292" spans="2:2" ht="13">
       <c r="B292" s="22"/>
     </row>
-    <row r="293" spans="2:2" ht="13.2">
+    <row r="293" spans="2:2" ht="13">
       <c r="B293" s="22"/>
     </row>
-    <row r="294" spans="2:2" ht="13.2">
+    <row r="294" spans="2:2" ht="13">
       <c r="B294" s="22"/>
     </row>
-    <row r="295" spans="2:2" ht="13.2">
+    <row r="295" spans="2:2" ht="13">
       <c r="B295" s="22"/>
     </row>
-    <row r="296" spans="2:2" ht="13.2">
+    <row r="296" spans="2:2" ht="13">
       <c r="B296" s="22"/>
     </row>
-    <row r="297" spans="2:2" ht="13.2">
+    <row r="297" spans="2:2" ht="13">
       <c r="B297" s="22"/>
     </row>
-    <row r="298" spans="2:2" ht="13.2">
+    <row r="298" spans="2:2" ht="13">
       <c r="B298" s="22"/>
     </row>
-    <row r="299" spans="2:2" ht="13.2">
+    <row r="299" spans="2:2" ht="13">
       <c r="B299" s="22"/>
     </row>
-    <row r="300" spans="2:2" ht="13.2">
+    <row r="300" spans="2:2" ht="13">
       <c r="B300" s="22"/>
     </row>
-    <row r="301" spans="2:2" ht="13.2">
+    <row r="301" spans="2:2" ht="13">
       <c r="B301" s="22"/>
     </row>
-    <row r="302" spans="2:2" ht="13.2">
+    <row r="302" spans="2:2" ht="13">
       <c r="B302" s="22"/>
     </row>
-    <row r="303" spans="2:2" ht="13.2">
+    <row r="303" spans="2:2" ht="13">
       <c r="B303" s="22"/>
     </row>
-    <row r="304" spans="2:2" ht="13.2">
+    <row r="304" spans="2:2" ht="13">
       <c r="B304" s="22"/>
     </row>
-    <row r="305" spans="2:2" ht="13.2">
+    <row r="305" spans="2:2" ht="13">
       <c r="B305" s="22"/>
     </row>
-    <row r="306" spans="2:2" ht="13.2">
+    <row r="306" spans="2:2" ht="13">
       <c r="B306" s="22"/>
     </row>
-    <row r="307" spans="2:2" ht="13.2">
+    <row r="307" spans="2:2" ht="13">
       <c r="B307" s="22"/>
     </row>
-    <row r="308" spans="2:2" ht="13.2">
+    <row r="308" spans="2:2" ht="13">
       <c r="B308" s="22"/>
     </row>
-    <row r="309" spans="2:2" ht="13.2">
+    <row r="309" spans="2:2" ht="13">
       <c r="B309" s="22"/>
     </row>
-    <row r="310" spans="2:2" ht="13.2">
+    <row r="310" spans="2:2" ht="13">
       <c r="B310" s="22"/>
     </row>
-    <row r="311" spans="2:2" ht="13.2">
+    <row r="311" spans="2:2" ht="13">
       <c r="B311" s="22"/>
     </row>
-    <row r="312" spans="2:2" ht="13.2">
+    <row r="312" spans="2:2" ht="13">
       <c r="B312" s="22"/>
     </row>
-    <row r="313" spans="2:2" ht="13.2">
+    <row r="313" spans="2:2" ht="13">
       <c r="B313" s="22"/>
     </row>
-    <row r="314" spans="2:2" ht="13.2">
+    <row r="314" spans="2:2" ht="13">
       <c r="B314" s="22"/>
     </row>
-    <row r="315" spans="2:2" ht="13.2">
+    <row r="315" spans="2:2" ht="13">
       <c r="B315" s="22"/>
     </row>
-    <row r="316" spans="2:2" ht="13.2">
+    <row r="316" spans="2:2" ht="13">
       <c r="B316" s="22"/>
     </row>
-    <row r="317" spans="2:2" ht="13.2">
+    <row r="317" spans="2:2" ht="13">
       <c r="B317" s="22"/>
     </row>
-    <row r="318" spans="2:2" ht="13.2">
+    <row r="318" spans="2:2" ht="13">
       <c r="B318" s="22"/>
     </row>
-    <row r="319" spans="2:2" ht="13.2">
+    <row r="319" spans="2:2" ht="13">
       <c r="B319" s="22"/>
     </row>
-    <row r="320" spans="2:2" ht="13.2">
+    <row r="320" spans="2:2" ht="13">
       <c r="B320" s="22"/>
     </row>
-    <row r="321" spans="2:2" ht="13.2">
+    <row r="321" spans="2:2" ht="13">
       <c r="B321" s="22"/>
     </row>
-    <row r="322" spans="2:2" ht="13.2">
+    <row r="322" spans="2:2" ht="13">
       <c r="B322" s="22"/>
     </row>
-    <row r="323" spans="2:2" ht="13.2">
+    <row r="323" spans="2:2" ht="13">
       <c r="B323" s="22"/>
     </row>
-    <row r="324" spans="2:2" ht="13.2">
+    <row r="324" spans="2:2" ht="13">
       <c r="B324" s="22"/>
     </row>
-    <row r="325" spans="2:2" ht="13.2">
+    <row r="325" spans="2:2" ht="13">
       <c r="B325" s="22"/>
     </row>
-    <row r="326" spans="2:2" ht="13.2">
+    <row r="326" spans="2:2" ht="13">
       <c r="B326" s="22"/>
     </row>
-    <row r="327" spans="2:2" ht="13.2">
+    <row r="327" spans="2:2" ht="13">
       <c r="B327" s="22"/>
     </row>
-    <row r="328" spans="2:2" ht="13.2">
+    <row r="328" spans="2:2" ht="13">
       <c r="B328" s="22"/>
     </row>
-    <row r="329" spans="2:2" ht="13.2">
+    <row r="329" spans="2:2" ht="13">
       <c r="B329" s="22"/>
     </row>
-    <row r="330" spans="2:2" ht="13.2">
+    <row r="330" spans="2:2" ht="13">
       <c r="B330" s="22"/>
     </row>
-    <row r="331" spans="2:2" ht="13.2">
+    <row r="331" spans="2:2" ht="13">
       <c r="B331" s="22"/>
     </row>
-    <row r="332" spans="2:2" ht="13.2">
+    <row r="332" spans="2:2" ht="13">
       <c r="B332" s="22"/>
     </row>
-    <row r="333" spans="2:2" ht="13.2">
+    <row r="333" spans="2:2" ht="13">
       <c r="B333" s="22"/>
     </row>
-    <row r="334" spans="2:2" ht="13.2">
+    <row r="334" spans="2:2" ht="13">
       <c r="B334" s="22"/>
     </row>
-    <row r="335" spans="2:2" ht="13.2">
+    <row r="335" spans="2:2" ht="13">
       <c r="B335" s="22"/>
     </row>
-    <row r="336" spans="2:2" ht="13.2">
+    <row r="336" spans="2:2" ht="13">
       <c r="B336" s="22"/>
     </row>
-    <row r="337" spans="2:2" ht="13.2">
+    <row r="337" spans="2:2" ht="13">
       <c r="B337" s="22"/>
     </row>
-    <row r="338" spans="2:2" ht="13.2">
+    <row r="338" spans="2:2" ht="13">
       <c r="B338" s="22"/>
     </row>
-    <row r="339" spans="2:2" ht="13.2">
+    <row r="339" spans="2:2" ht="13">
       <c r="B339" s="22"/>
     </row>
-    <row r="340" spans="2:2" ht="13.2">
+    <row r="340" spans="2:2" ht="13">
       <c r="B340" s="22"/>
     </row>
-    <row r="341" spans="2:2" ht="13.2">
+    <row r="341" spans="2:2" ht="13">
       <c r="B341" s="22"/>
     </row>
-    <row r="342" spans="2:2" ht="13.2">
+    <row r="342" spans="2:2" ht="13">
       <c r="B342" s="22"/>
     </row>
-    <row r="343" spans="2:2" ht="13.2">
+    <row r="343" spans="2:2" ht="13">
       <c r="B343" s="22"/>
     </row>
-    <row r="344" spans="2:2" ht="13.2">
+    <row r="344" spans="2:2" ht="13">
       <c r="B344" s="22"/>
     </row>
-    <row r="345" spans="2:2" ht="13.2">
+    <row r="345" spans="2:2" ht="13">
       <c r="B345" s="22"/>
     </row>
-    <row r="346" spans="2:2" ht="13.2">
+    <row r="346" spans="2:2" ht="13">
       <c r="B346" s="22"/>
     </row>
-    <row r="347" spans="2:2" ht="13.2">
+    <row r="347" spans="2:2" ht="13">
       <c r="B347" s="22"/>
     </row>
-    <row r="348" spans="2:2" ht="13.2">
+    <row r="348" spans="2:2" ht="13">
       <c r="B348" s="22"/>
     </row>
-    <row r="349" spans="2:2" ht="13.2">
+    <row r="349" spans="2:2" ht="13">
       <c r="B349" s="22"/>
     </row>
-    <row r="350" spans="2:2" ht="13.2">
+    <row r="350" spans="2:2" ht="13">
       <c r="B350" s="22"/>
     </row>
-    <row r="351" spans="2:2" ht="13.2">
+    <row r="351" spans="2:2" ht="13">
       <c r="B351" s="22"/>
     </row>
-    <row r="352" spans="2:2" ht="13.2">
+    <row r="352" spans="2:2" ht="13">
       <c r="B352" s="22"/>
     </row>
-    <row r="353" spans="2:2" ht="13.2">
+    <row r="353" spans="2:2" ht="13">
       <c r="B353" s="22"/>
     </row>
-    <row r="354" spans="2:2" ht="13.2">
+    <row r="354" spans="2:2" ht="13">
       <c r="B354" s="22"/>
     </row>
-    <row r="355" spans="2:2" ht="13.2">
+    <row r="355" spans="2:2" ht="13">
       <c r="B355" s="22"/>
     </row>
-    <row r="356" spans="2:2" ht="13.2">
+    <row r="356" spans="2:2" ht="13">
       <c r="B356" s="22"/>
     </row>
-    <row r="357" spans="2:2" ht="13.2">
+    <row r="357" spans="2:2" ht="13">
       <c r="B357" s="22"/>
     </row>
-    <row r="358" spans="2:2" ht="13.2">
+    <row r="358" spans="2:2" ht="13">
       <c r="B358" s="22"/>
     </row>
-    <row r="359" spans="2:2" ht="13.2">
+    <row r="359" spans="2:2" ht="13">
       <c r="B359" s="22"/>
     </row>
-    <row r="360" spans="2:2" ht="13.2">
+    <row r="360" spans="2:2" ht="13">
       <c r="B360" s="22"/>
     </row>
-    <row r="361" spans="2:2" ht="13.2">
+    <row r="361" spans="2:2" ht="13">
       <c r="B361" s="22"/>
     </row>
-    <row r="362" spans="2:2" ht="13.2">
+    <row r="362" spans="2:2" ht="13">
       <c r="B362" s="22"/>
     </row>
-    <row r="363" spans="2:2" ht="13.2">
+    <row r="363" spans="2:2" ht="13">
       <c r="B363" s="22"/>
     </row>
-    <row r="364" spans="2:2" ht="13.2">
+    <row r="364" spans="2:2" ht="13">
       <c r="B364" s="22"/>
     </row>
-    <row r="365" spans="2:2" ht="13.2">
+    <row r="365" spans="2:2" ht="13">
       <c r="B365" s="22"/>
     </row>
-    <row r="366" spans="2:2" ht="13.2">
+    <row r="366" spans="2:2" ht="13">
       <c r="B366" s="22"/>
     </row>
-    <row r="367" spans="2:2" ht="13.2">
+    <row r="367" spans="2:2" ht="13">
       <c r="B367" s="22"/>
     </row>
-    <row r="368" spans="2:2" ht="13.2">
+    <row r="368" spans="2:2" ht="13">
       <c r="B368" s="22"/>
     </row>
-    <row r="369" spans="2:2" ht="13.2">
+    <row r="369" spans="2:2" ht="13">
       <c r="B369" s="22"/>
     </row>
-    <row r="370" spans="2:2" ht="13.2">
+    <row r="370" spans="2:2" ht="13">
       <c r="B370" s="22"/>
     </row>
-    <row r="371" spans="2:2" ht="13.2">
+    <row r="371" spans="2:2" ht="13">
       <c r="B371" s="22"/>
     </row>
-    <row r="372" spans="2:2" ht="13.2">
+    <row r="372" spans="2:2" ht="13">
       <c r="B372" s="22"/>
     </row>
-    <row r="373" spans="2:2" ht="13.2">
+    <row r="373" spans="2:2" ht="13">
       <c r="B373" s="22"/>
     </row>
-    <row r="374" spans="2:2" ht="13.2">
+    <row r="374" spans="2:2" ht="13">
       <c r="B374" s="22"/>
     </row>
-    <row r="375" spans="2:2" ht="13.2">
+    <row r="375" spans="2:2" ht="13">
       <c r="B375" s="22"/>
     </row>
-    <row r="376" spans="2:2" ht="13.2">
+    <row r="376" spans="2:2" ht="13">
       <c r="B376" s="22"/>
     </row>
-    <row r="377" spans="2:2" ht="13.2">
+    <row r="377" spans="2:2" ht="13">
       <c r="B377" s="22"/>
     </row>
-    <row r="378" spans="2:2" ht="13.2">
+    <row r="378" spans="2:2" ht="13">
       <c r="B378" s="22"/>
     </row>
-    <row r="379" spans="2:2" ht="13.2">
+    <row r="379" spans="2:2" ht="13">
       <c r="B379" s="22"/>
     </row>
-    <row r="380" spans="2:2" ht="13.2">
+    <row r="380" spans="2:2" ht="13">
       <c r="B380" s="22"/>
     </row>
-    <row r="381" spans="2:2" ht="13.2">
+    <row r="381" spans="2:2" ht="13">
       <c r="B381" s="22"/>
     </row>
-    <row r="382" spans="2:2" ht="13.2">
+    <row r="382" spans="2:2" ht="13">
       <c r="B382" s="22"/>
     </row>
-    <row r="383" spans="2:2" ht="13.2">
+    <row r="383" spans="2:2" ht="13">
       <c r="B383" s="22"/>
     </row>
-    <row r="384" spans="2:2" ht="13.2">
+    <row r="384" spans="2:2" ht="13">
       <c r="B384" s="22"/>
     </row>
-    <row r="385" spans="2:2" ht="13.2">
+    <row r="385" spans="2:2" ht="13">
       <c r="B385" s="22"/>
     </row>
-    <row r="386" spans="2:2" ht="13.2">
+    <row r="386" spans="2:2" ht="13">
       <c r="B386" s="22"/>
     </row>
-    <row r="387" spans="2:2" ht="13.2">
+    <row r="387" spans="2:2" ht="13">
       <c r="B387" s="22"/>
     </row>
-    <row r="388" spans="2:2" ht="13.2">
+    <row r="388" spans="2:2" ht="13">
       <c r="B388" s="22"/>
     </row>
-    <row r="389" spans="2:2" ht="13.2">
+    <row r="389" spans="2:2" ht="13">
       <c r="B389" s="22"/>
     </row>
-    <row r="390" spans="2:2" ht="13.2">
+    <row r="390" spans="2:2" ht="13">
       <c r="B390" s="22"/>
     </row>
-    <row r="391" spans="2:2" ht="13.2">
+    <row r="391" spans="2:2" ht="13">
       <c r="B391" s="22"/>
     </row>
-    <row r="392" spans="2:2" ht="13.2">
+    <row r="392" spans="2:2" ht="13">
       <c r="B392" s="22"/>
     </row>
-    <row r="393" spans="2:2" ht="13.2">
+    <row r="393" spans="2:2" ht="13">
       <c r="B393" s="22"/>
     </row>
-    <row r="394" spans="2:2" ht="13.2">
+    <row r="394" spans="2:2" ht="13">
       <c r="B394" s="22"/>
     </row>
-    <row r="395" spans="2:2" ht="13.2">
+    <row r="395" spans="2:2" ht="13">
       <c r="B395" s="22"/>
     </row>
-    <row r="396" spans="2:2" ht="13.2">
+    <row r="396" spans="2:2" ht="13">
       <c r="B396" s="22"/>
     </row>
-    <row r="397" spans="2:2" ht="13.2">
+    <row r="397" spans="2:2" ht="13">
       <c r="B397" s="22"/>
     </row>
-    <row r="398" spans="2:2" ht="13.2">
+    <row r="398" spans="2:2" ht="13">
       <c r="B398" s="22"/>
     </row>
-    <row r="399" spans="2:2" ht="13.2">
+    <row r="399" spans="2:2" ht="13">
       <c r="B399" s="22"/>
     </row>
-    <row r="400" spans="2:2" ht="13.2">
+    <row r="400" spans="2:2" ht="13">
       <c r="B400" s="22"/>
     </row>
-    <row r="401" spans="2:2" ht="13.2">
+    <row r="401" spans="2:2" ht="13">
       <c r="B401" s="22"/>
     </row>
-    <row r="402" spans="2:2" ht="13.2">
+    <row r="402" spans="2:2" ht="13">
       <c r="B402" s="22"/>
     </row>
-    <row r="403" spans="2:2" ht="13.2">
+    <row r="403" spans="2:2" ht="13">
       <c r="B403" s="22"/>
     </row>
-    <row r="404" spans="2:2" ht="13.2">
+    <row r="404" spans="2:2" ht="13">
       <c r="B404" s="22"/>
     </row>
-    <row r="405" spans="2:2" ht="13.2">
+    <row r="405" spans="2:2" ht="13">
       <c r="B405" s="22"/>
     </row>
-    <row r="406" spans="2:2" ht="13.2">
+    <row r="406" spans="2:2" ht="13">
       <c r="B406" s="22"/>
     </row>
-    <row r="407" spans="2:2" ht="13.2">
+    <row r="407" spans="2:2" ht="13">
       <c r="B407" s="22"/>
     </row>
-    <row r="408" spans="2:2" ht="13.2">
+    <row r="408" spans="2:2" ht="13">
       <c r="B408" s="22"/>
     </row>
-    <row r="409" spans="2:2" ht="13.2">
+    <row r="409" spans="2:2" ht="13">
       <c r="B409" s="22"/>
     </row>
-    <row r="410" spans="2:2" ht="13.2">
+    <row r="410" spans="2:2" ht="13">
       <c r="B410" s="22"/>
     </row>
-    <row r="411" spans="2:2" ht="13.2">
+    <row r="411" spans="2:2" ht="13">
       <c r="B411" s="22"/>
     </row>
-    <row r="412" spans="2:2" ht="13.2">
+    <row r="412" spans="2:2" ht="13">
       <c r="B412" s="22"/>
     </row>
-    <row r="413" spans="2:2" ht="13.2">
+    <row r="413" spans="2:2" ht="13">
       <c r="B413" s="22"/>
     </row>
-    <row r="414" spans="2:2" ht="13.2">
+    <row r="414" spans="2:2" ht="13">
       <c r="B414" s="22"/>
     </row>
-    <row r="415" spans="2:2" ht="13.2">
+    <row r="415" spans="2:2" ht="13">
       <c r="B415" s="22"/>
     </row>
-    <row r="416" spans="2:2" ht="13.2">
+    <row r="416" spans="2:2" ht="13">
       <c r="B416" s="22"/>
     </row>
-    <row r="417" spans="2:2" ht="13.2">
+    <row r="417" spans="2:2" ht="13">
       <c r="B417" s="22"/>
     </row>
-    <row r="418" spans="2:2" ht="13.2">
+    <row r="418" spans="2:2" ht="13">
       <c r="B418" s="22"/>
     </row>
-    <row r="419" spans="2:2" ht="13.2">
+    <row r="419" spans="2:2" ht="13">
       <c r="B419" s="22"/>
     </row>
-    <row r="420" spans="2:2" ht="13.2">
+    <row r="420" spans="2:2" ht="13">
       <c r="B420" s="22"/>
     </row>
-    <row r="421" spans="2:2" ht="13.2">
+    <row r="421" spans="2:2" ht="13">
       <c r="B421" s="22"/>
     </row>
-    <row r="422" spans="2:2" ht="13.2">
+    <row r="422" spans="2:2" ht="13">
       <c r="B422" s="22"/>
     </row>
-    <row r="423" spans="2:2" ht="13.2">
+    <row r="423" spans="2:2" ht="13">
       <c r="B423" s="22"/>
     </row>
-    <row r="424" spans="2:2" ht="13.2">
+    <row r="424" spans="2:2" ht="13">
       <c r="B424" s="22"/>
     </row>
-    <row r="425" spans="2:2" ht="13.2">
+    <row r="425" spans="2:2" ht="13">
       <c r="B425" s="22"/>
     </row>
-    <row r="426" spans="2:2" ht="13.2">
+    <row r="426" spans="2:2" ht="13">
       <c r="B426" s="22"/>
     </row>
-    <row r="427" spans="2:2" ht="13.2">
+    <row r="427" spans="2:2" ht="13">
       <c r="B427" s="22"/>
     </row>
-    <row r="428" spans="2:2" ht="13.2">
+    <row r="428" spans="2:2" ht="13">
       <c r="B428" s="22"/>
     </row>
-    <row r="429" spans="2:2" ht="13.2">
+    <row r="429" spans="2:2" ht="13">
       <c r="B429" s="22"/>
     </row>
-    <row r="430" spans="2:2" ht="13.2">
+    <row r="430" spans="2:2" ht="13">
       <c r="B430" s="22"/>
     </row>
-    <row r="431" spans="2:2" ht="13.2">
+    <row r="431" spans="2:2" ht="13">
       <c r="B431" s="22"/>
     </row>
-    <row r="432" spans="2:2" ht="13.2">
+    <row r="432" spans="2:2" ht="13">
       <c r="B432" s="22"/>
     </row>
-    <row r="433" spans="2:2" ht="13.2">
+    <row r="433" spans="2:2" ht="13">
       <c r="B433" s="22"/>
     </row>
-    <row r="434" spans="2:2" ht="13.2">
+    <row r="434" spans="2:2" ht="13">
       <c r="B434" s="22"/>
     </row>
-    <row r="435" spans="2:2" ht="13.2">
+    <row r="435" spans="2:2" ht="13">
       <c r="B435" s="22"/>
     </row>
-    <row r="436" spans="2:2" ht="13.2">
+    <row r="436" spans="2:2" ht="13">
       <c r="B436" s="22"/>
     </row>
-    <row r="437" spans="2:2" ht="13.2">
+    <row r="437" spans="2:2" ht="13">
       <c r="B437" s="22"/>
     </row>
-    <row r="438" spans="2:2" ht="13.2">
+    <row r="438" spans="2:2" ht="13">
       <c r="B438" s="22"/>
     </row>
-    <row r="439" spans="2:2" ht="13.2">
+    <row r="439" spans="2:2" ht="13">
       <c r="B439" s="22"/>
     </row>
-    <row r="440" spans="2:2" ht="13.2">
+    <row r="440" spans="2:2" ht="13">
       <c r="B440" s="22"/>
     </row>
-    <row r="441" spans="2:2" ht="13.2">
+    <row r="441" spans="2:2" ht="13">
       <c r="B441" s="22"/>
     </row>
-    <row r="442" spans="2:2" ht="13.2">
+    <row r="442" spans="2:2" ht="13">
       <c r="B442" s="22"/>
     </row>
-    <row r="443" spans="2:2" ht="13.2">
+    <row r="443" spans="2:2" ht="13">
       <c r="B443" s="22"/>
     </row>
-    <row r="444" spans="2:2" ht="13.2">
+    <row r="444" spans="2:2" ht="13">
       <c r="B444" s="22"/>
     </row>
-    <row r="445" spans="2:2" ht="13.2">
+    <row r="445" spans="2:2" ht="13">
       <c r="B445" s="22"/>
     </row>
-    <row r="446" spans="2:2" ht="13.2">
+    <row r="446" spans="2:2" ht="13">
       <c r="B446" s="22"/>
     </row>
-    <row r="447" spans="2:2" ht="13.2">
+    <row r="447" spans="2:2" ht="13">
       <c r="B447" s="22"/>
     </row>
-    <row r="448" spans="2:2" ht="13.2">
+    <row r="448" spans="2:2" ht="13">
       <c r="B448" s="22"/>
     </row>
-    <row r="449" spans="2:2" ht="13.2">
+    <row r="449" spans="2:2" ht="13">
       <c r="B449" s="22"/>
     </row>
-    <row r="450" spans="2:2" ht="13.2">
+    <row r="450" spans="2:2" ht="13">
       <c r="B450" s="22"/>
     </row>
-    <row r="451" spans="2:2" ht="13.2">
+    <row r="451" spans="2:2" ht="13">
       <c r="B451" s="22"/>
     </row>
-    <row r="452" spans="2:2" ht="13.2">
+    <row r="452" spans="2:2" ht="13">
       <c r="B452" s="22"/>
     </row>
-    <row r="453" spans="2:2" ht="13.2">
+    <row r="453" spans="2:2" ht="13">
       <c r="B453" s="22"/>
     </row>
-    <row r="454" spans="2:2" ht="13.2">
+    <row r="454" spans="2:2" ht="13">
       <c r="B454" s="22"/>
     </row>
-    <row r="455" spans="2:2" ht="13.2">
+    <row r="455" spans="2:2" ht="13">
       <c r="B455" s="22"/>
     </row>
-    <row r="456" spans="2:2" ht="13.2">
+    <row r="456" spans="2:2" ht="13">
       <c r="B456" s="22"/>
     </row>
-    <row r="457" spans="2:2" ht="13.2">
+    <row r="457" spans="2:2" ht="13">
       <c r="B457" s="22"/>
     </row>
-    <row r="458" spans="2:2" ht="13.2">
+    <row r="458" spans="2:2" ht="13">
       <c r="B458" s="22"/>
     </row>
-    <row r="459" spans="2:2" ht="13.2">
+    <row r="459" spans="2:2" ht="13">
       <c r="B459" s="22"/>
     </row>
-    <row r="460" spans="2:2" ht="13.2">
+    <row r="460" spans="2:2" ht="13">
       <c r="B460" s="22"/>
     </row>
-    <row r="461" spans="2:2" ht="13.2">
+    <row r="461" spans="2:2" ht="13">
       <c r="B461" s="22"/>
     </row>
-    <row r="462" spans="2:2" ht="13.2">
+    <row r="462" spans="2:2" ht="13">
       <c r="B462" s="22"/>
     </row>
-    <row r="463" spans="2:2" ht="13.2">
+    <row r="463" spans="2:2" ht="13">
       <c r="B463" s="22"/>
     </row>
-    <row r="464" spans="2:2" ht="13.2">
+    <row r="464" spans="2:2" ht="13">
       <c r="B464" s="22"/>
     </row>
-    <row r="465" spans="2:2" ht="13.2">
+    <row r="465" spans="2:2" ht="13">
       <c r="B465" s="22"/>
     </row>
-    <row r="466" spans="2:2" ht="13.2">
+    <row r="466" spans="2:2" ht="13">
       <c r="B466" s="22"/>
     </row>
-    <row r="467" spans="2:2" ht="13.2">
+    <row r="467" spans="2:2" ht="13">
       <c r="B467" s="22"/>
     </row>
-    <row r="468" spans="2:2" ht="13.2">
+    <row r="468" spans="2:2" ht="13">
       <c r="B468" s="22"/>
     </row>
-    <row r="469" spans="2:2" ht="13.2">
+    <row r="469" spans="2:2" ht="13">
       <c r="B469" s="22"/>
     </row>
-    <row r="470" spans="2:2" ht="13.2">
+    <row r="470" spans="2:2" ht="13">
       <c r="B470" s="22"/>
     </row>
-    <row r="471" spans="2:2" ht="13.2">
+    <row r="471" spans="2:2" ht="13">
       <c r="B471" s="22"/>
     </row>
-    <row r="472" spans="2:2" ht="13.2">
+    <row r="472" spans="2:2" ht="13">
       <c r="B472" s="22"/>
     </row>
-    <row r="473" spans="2:2" ht="13.2">
+    <row r="473" spans="2:2" ht="13">
       <c r="B473" s="22"/>
     </row>
-    <row r="474" spans="2:2" ht="13.2">
+    <row r="474" spans="2:2" ht="13">
       <c r="B474" s="22"/>
     </row>
-    <row r="475" spans="2:2" ht="13.2">
+    <row r="475" spans="2:2" ht="13">
       <c r="B475" s="22"/>
     </row>
-    <row r="476" spans="2:2" ht="13.2">
+    <row r="476" spans="2:2" ht="13">
       <c r="B476" s="22"/>
     </row>
-    <row r="477" spans="2:2" ht="13.2">
+    <row r="477" spans="2:2" ht="13">
       <c r="B477" s="22"/>
     </row>
-    <row r="478" spans="2:2" ht="13.2">
+    <row r="478" spans="2:2" ht="13">
       <c r="B478" s="22"/>
     </row>
-    <row r="479" spans="2:2" ht="13.2">
+    <row r="479" spans="2:2" ht="13">
       <c r="B479" s="22"/>
     </row>
-    <row r="480" spans="2:2" ht="13.2">
+    <row r="480" spans="2:2" ht="13">
       <c r="B480" s="22"/>
     </row>
-    <row r="481" spans="2:2" ht="13.2">
+    <row r="481" spans="2:2" ht="13">
       <c r="B481" s="22"/>
     </row>
-    <row r="482" spans="2:2" ht="13.2">
+    <row r="482" spans="2:2" ht="13">
       <c r="B482" s="22"/>
     </row>
-    <row r="483" spans="2:2" ht="13.2">
+    <row r="483" spans="2:2" ht="13">
       <c r="B483" s="22"/>
     </row>
-    <row r="484" spans="2:2" ht="13.2">
+    <row r="484" spans="2:2" ht="13">
       <c r="B484" s="22"/>
     </row>
-    <row r="485" spans="2:2" ht="13.2">
+    <row r="485" spans="2:2" ht="13">
       <c r="B485" s="22"/>
     </row>
-    <row r="486" spans="2:2" ht="13.2">
+    <row r="486" spans="2:2" ht="13">
       <c r="B486" s="22"/>
     </row>
-    <row r="487" spans="2:2" ht="13.2">
+    <row r="487" spans="2:2" ht="13">
       <c r="B487" s="22"/>
     </row>
-    <row r="488" spans="2:2" ht="13.2">
+    <row r="488" spans="2:2" ht="13">
       <c r="B488" s="22"/>
     </row>
-    <row r="489" spans="2:2" ht="13.2">
+    <row r="489" spans="2:2" ht="13">
       <c r="B489" s="22"/>
     </row>
-    <row r="490" spans="2:2" ht="13.2">
+    <row r="490" spans="2:2" ht="13">
       <c r="B490" s="22"/>
     </row>
-    <row r="491" spans="2:2" ht="13.2">
+    <row r="491" spans="2:2" ht="13">
       <c r="B491" s="22"/>
     </row>
-    <row r="492" spans="2:2" ht="13.2">
+    <row r="492" spans="2:2" ht="13">
       <c r="B492" s="22"/>
     </row>
-    <row r="493" spans="2:2" ht="13.2">
+    <row r="493" spans="2:2" ht="13">
       <c r="B493" s="22"/>
     </row>
-    <row r="494" spans="2:2" ht="13.2">
+    <row r="494" spans="2:2" ht="13">
       <c r="B494" s="22"/>
     </row>
-    <row r="495" spans="2:2" ht="13.2">
+    <row r="495" spans="2:2" ht="13">
       <c r="B495" s="22"/>
     </row>
-    <row r="496" spans="2:2" ht="13.2">
+    <row r="496" spans="2:2" ht="13">
       <c r="B496" s="22"/>
     </row>
-    <row r="497" spans="2:2" ht="13.2">
+    <row r="497" spans="2:2" ht="13">
       <c r="B497" s="22"/>
     </row>
-    <row r="498" spans="2:2" ht="13.2">
+    <row r="498" spans="2:2" ht="13">
       <c r="B498" s="22"/>
     </row>
-    <row r="499" spans="2:2" ht="13.2">
+    <row r="499" spans="2:2" ht="13">
       <c r="B499" s="22"/>
     </row>
-    <row r="500" spans="2:2" ht="13.2">
+    <row r="500" spans="2:2" ht="13">
       <c r="B500" s="22"/>
     </row>
-    <row r="501" spans="2:2" ht="13.2">
+    <row r="501" spans="2:2" ht="13">
       <c r="B501" s="22"/>
     </row>
-    <row r="502" spans="2:2" ht="13.2">
+    <row r="502" spans="2:2" ht="13">
       <c r="B502" s="22"/>
     </row>
-    <row r="503" spans="2:2" ht="13.2">
+    <row r="503" spans="2:2" ht="13">
       <c r="B503" s="22"/>
     </row>
-    <row r="504" spans="2:2" ht="13.2">
+    <row r="504" spans="2:2" ht="13">
       <c r="B504" s="22"/>
     </row>
-    <row r="505" spans="2:2" ht="13.2">
+    <row r="505" spans="2:2" ht="13">
       <c r="B505" s="22"/>
     </row>
-    <row r="506" spans="2:2" ht="13.2">
+    <row r="506" spans="2:2" ht="13">
       <c r="B506" s="22"/>
     </row>
-    <row r="507" spans="2:2" ht="13.2">
+    <row r="507" spans="2:2" ht="13">
       <c r="B507" s="22"/>
     </row>
-    <row r="508" spans="2:2" ht="13.2">
+    <row r="508" spans="2:2" ht="13">
       <c r="B508" s="22"/>
     </row>
-    <row r="509" spans="2:2" ht="13.2">
+    <row r="509" spans="2:2" ht="13">
       <c r="B509" s="22"/>
     </row>
-    <row r="510" spans="2:2" ht="13.2">
+    <row r="510" spans="2:2" ht="13">
       <c r="B510" s="22"/>
     </row>
-    <row r="511" spans="2:2" ht="13.2">
+    <row r="511" spans="2:2" ht="13">
       <c r="B511" s="22"/>
     </row>
-    <row r="512" spans="2:2" ht="13.2">
+    <row r="512" spans="2:2" ht="13">
       <c r="B512" s="22"/>
     </row>
-    <row r="513" spans="2:2" ht="13.2">
+    <row r="513" spans="2:2" ht="13">
       <c r="B513" s="22"/>
     </row>
-    <row r="514" spans="2:2" ht="13.2">
+    <row r="514" spans="2:2" ht="13">
       <c r="B514" s="22"/>
     </row>
-    <row r="515" spans="2:2" ht="13.2">
+    <row r="515" spans="2:2" ht="13">
       <c r="B515" s="22"/>
     </row>
-    <row r="516" spans="2:2" ht="13.2">
+    <row r="516" spans="2:2" ht="13">
       <c r="B516" s="22"/>
     </row>
-    <row r="517" spans="2:2" ht="13.2">
+    <row r="517" spans="2:2" ht="13">
       <c r="B517" s="22"/>
     </row>
-    <row r="518" spans="2:2" ht="13.2">
+    <row r="518" spans="2:2" ht="13">
       <c r="B518" s="22"/>
     </row>
-    <row r="519" spans="2:2" ht="13.2">
+    <row r="519" spans="2:2" ht="13">
       <c r="B519" s="22"/>
     </row>
-    <row r="520" spans="2:2" ht="13.2">
+    <row r="520" spans="2:2" ht="13">
       <c r="B520" s="22"/>
     </row>
-    <row r="521" spans="2:2" ht="13.2">
+    <row r="521" spans="2:2" ht="13">
       <c r="B521" s="22"/>
     </row>
-    <row r="522" spans="2:2" ht="13.2">
+    <row r="522" spans="2:2" ht="13">
       <c r="B522" s="22"/>
     </row>
-    <row r="523" spans="2:2" ht="13.2">
+    <row r="523" spans="2:2" ht="13">
       <c r="B523" s="22"/>
     </row>
-    <row r="524" spans="2:2" ht="13.2">
+    <row r="524" spans="2:2" ht="13">
       <c r="B524" s="22"/>
     </row>
-    <row r="525" spans="2:2" ht="13.2">
+    <row r="525" spans="2:2" ht="13">
       <c r="B525" s="22"/>
     </row>
-    <row r="526" spans="2:2" ht="13.2">
+    <row r="526" spans="2:2" ht="13">
       <c r="B526" s="22"/>
     </row>
-    <row r="527" spans="2:2" ht="13.2">
+    <row r="527" spans="2:2" ht="13">
       <c r="B527" s="22"/>
     </row>
-    <row r="528" spans="2:2" ht="13.2">
+    <row r="528" spans="2:2" ht="13">
       <c r="B528" s="22"/>
     </row>
-    <row r="529" spans="2:2" ht="13.2">
+    <row r="529" spans="2:2" ht="13">
       <c r="B529" s="22"/>
     </row>
-    <row r="530" spans="2:2" ht="13.2">
+    <row r="530" spans="2:2" ht="13">
       <c r="B530" s="22"/>
     </row>
-    <row r="531" spans="2:2" ht="13.2">
+    <row r="531" spans="2:2" ht="13">
       <c r="B531" s="22"/>
     </row>
-    <row r="532" spans="2:2" ht="13.2">
+    <row r="532" spans="2:2" ht="13">
       <c r="B532" s="22"/>
     </row>
-    <row r="533" spans="2:2" ht="13.2">
+    <row r="533" spans="2:2" ht="13">
       <c r="B533" s="22"/>
     </row>
-    <row r="534" spans="2:2" ht="13.2">
+    <row r="534" spans="2:2" ht="13">
       <c r="B534" s="22"/>
     </row>
-    <row r="535" spans="2:2" ht="13.2">
+    <row r="535" spans="2:2" ht="13">
       <c r="B535" s="22"/>
     </row>
-    <row r="536" spans="2:2" ht="13.2">
+    <row r="536" spans="2:2" ht="13">
       <c r="B536" s="22"/>
     </row>
-    <row r="537" spans="2:2" ht="13.2">
+    <row r="537" spans="2:2" ht="13">
       <c r="B537" s="22"/>
     </row>
-    <row r="538" spans="2:2" ht="13.2">
+    <row r="538" spans="2:2" ht="13">
       <c r="B538" s="22"/>
     </row>
-    <row r="539" spans="2:2" ht="13.2">
+    <row r="539" spans="2:2" ht="13">
       <c r="B539" s="22"/>
     </row>
-    <row r="540" spans="2:2" ht="13.2">
+    <row r="540" spans="2:2" ht="13">
       <c r="B540" s="22"/>
     </row>
-    <row r="541" spans="2:2" ht="13.2">
+    <row r="541" spans="2:2" ht="13">
       <c r="B541" s="22"/>
     </row>
-    <row r="542" spans="2:2" ht="13.2">
+    <row r="542" spans="2:2" ht="13">
       <c r="B542" s="22"/>
     </row>
-    <row r="543" spans="2:2" ht="13.2">
+    <row r="543" spans="2:2" ht="13">
       <c r="B543" s="22"/>
     </row>
-    <row r="544" spans="2:2" ht="13.2">
+    <row r="544" spans="2:2" ht="13">
       <c r="B544" s="22"/>
     </row>
-    <row r="545" spans="2:2" ht="13.2">
+    <row r="545" spans="2:2" ht="13">
       <c r="B545" s="22"/>
     </row>
-    <row r="546" spans="2:2" ht="13.2">
+    <row r="546" spans="2:2" ht="13">
       <c r="B546" s="22"/>
     </row>
-    <row r="547" spans="2:2" ht="13.2">
+    <row r="547" spans="2:2" ht="13">
       <c r="B547" s="22"/>
     </row>
-    <row r="548" spans="2:2" ht="13.2">
+    <row r="548" spans="2:2" ht="13">
       <c r="B548" s="22"/>
     </row>
-    <row r="549" spans="2:2" ht="13.2">
+    <row r="549" spans="2:2" ht="13">
       <c r="B549" s="22"/>
     </row>
-    <row r="550" spans="2:2" ht="13.2">
+    <row r="550" spans="2:2" ht="13">
       <c r="B550" s="22"/>
     </row>
-    <row r="551" spans="2:2" ht="13.2">
+    <row r="551" spans="2:2" ht="13">
       <c r="B551" s="22"/>
     </row>
-    <row r="552" spans="2:2" ht="13.2">
+    <row r="552" spans="2:2" ht="13">
       <c r="B552" s="22"/>
     </row>
-    <row r="553" spans="2:2" ht="13.2">
+    <row r="553" spans="2:2" ht="13">
       <c r="B553" s="22"/>
     </row>
-    <row r="554" spans="2:2" ht="13.2">
+    <row r="554" spans="2:2" ht="13">
       <c r="B554" s="22"/>
     </row>
-    <row r="555" spans="2:2" ht="13.2">
+    <row r="555" spans="2:2" ht="13">
       <c r="B555" s="22"/>
     </row>
-    <row r="556" spans="2:2" ht="13.2">
+    <row r="556" spans="2:2" ht="13">
       <c r="B556" s="22"/>
     </row>
-    <row r="557" spans="2:2" ht="13.2">
+    <row r="557" spans="2:2" ht="13">
       <c r="B557" s="22"/>
     </row>
-    <row r="558" spans="2:2" ht="13.2">
+    <row r="558" spans="2:2" ht="13">
       <c r="B558" s="22"/>
     </row>
-    <row r="559" spans="2:2" ht="13.2">
+    <row r="559" spans="2:2" ht="13">
       <c r="B559" s="22"/>
     </row>
-    <row r="560" spans="2:2" ht="13.2">
+    <row r="560" spans="2:2" ht="13">
       <c r="B560" s="22"/>
     </row>
-    <row r="561" spans="2:2" ht="13.2">
+    <row r="561" spans="2:2" ht="13">
       <c r="B561" s="22"/>
     </row>
-    <row r="562" spans="2:2" ht="13.2">
+    <row r="562" spans="2:2" ht="13">
       <c r="B562" s="22"/>
     </row>
-    <row r="563" spans="2:2" ht="13.2">
+    <row r="563" spans="2:2" ht="13">
       <c r="B563" s="22"/>
     </row>
-    <row r="564" spans="2:2" ht="13.2">
+    <row r="564" spans="2:2" ht="13">
       <c r="B564" s="22"/>
     </row>
-    <row r="565" spans="2:2" ht="13.2">
+    <row r="565" spans="2:2" ht="13">
       <c r="B565" s="22"/>
     </row>
-    <row r="566" spans="2:2" ht="13.2">
+    <row r="566" spans="2:2" ht="13">
       <c r="B566" s="22"/>
     </row>
-    <row r="567" spans="2:2" ht="13.2">
+    <row r="567" spans="2:2" ht="13">
       <c r="B567" s="22"/>
     </row>
-    <row r="568" spans="2:2" ht="13.2">
+    <row r="568" spans="2:2" ht="13">
       <c r="B568" s="22"/>
     </row>
-    <row r="569" spans="2:2" ht="13.2">
+    <row r="569" spans="2:2" ht="13">
       <c r="B569" s="22"/>
     </row>
-    <row r="570" spans="2:2" ht="13.2">
+    <row r="570" spans="2:2" ht="13">
       <c r="B570" s="22"/>
     </row>
-    <row r="571" spans="2:2" ht="13.2">
+    <row r="571" spans="2:2" ht="13">
       <c r="B571" s="22"/>
     </row>
-    <row r="572" spans="2:2" ht="13.2">
+    <row r="572" spans="2:2" ht="13">
       <c r="B572" s="22"/>
     </row>
-    <row r="573" spans="2:2" ht="13.2">
+    <row r="573" spans="2:2" ht="13">
       <c r="B573" s="22"/>
     </row>
-    <row r="574" spans="2:2" ht="13.2">
+    <row r="574" spans="2:2" ht="13">
       <c r="B574" s="22"/>
     </row>
-    <row r="575" spans="2:2" ht="13.2">
+    <row r="575" spans="2:2" ht="13">
       <c r="B575" s="22"/>
     </row>
-    <row r="576" spans="2:2" ht="13.2">
+    <row r="576" spans="2:2" ht="13">
       <c r="B576" s="22"/>
     </row>
-    <row r="577" spans="2:2" ht="13.2">
+    <row r="577" spans="2:2" ht="13">
       <c r="B577" s="22"/>
     </row>
-    <row r="578" spans="2:2" ht="13.2">
+    <row r="578" spans="2:2" ht="13">
       <c r="B578" s="22"/>
     </row>
-    <row r="579" spans="2:2" ht="13.2">
+    <row r="579" spans="2:2" ht="13">
       <c r="B579" s="22"/>
     </row>
-    <row r="580" spans="2:2" ht="13.2">
+    <row r="580" spans="2:2" ht="13">
       <c r="B580" s="22"/>
     </row>
-    <row r="581" spans="2:2" ht="13.2">
+    <row r="581" spans="2:2" ht="13">
       <c r="B581" s="22"/>
     </row>
-    <row r="582" spans="2:2" ht="13.2">
+    <row r="582" spans="2:2" ht="13">
       <c r="B582" s="22"/>
     </row>
-    <row r="583" spans="2:2" ht="13.2">
+    <row r="583" spans="2:2" ht="13">
       <c r="B583" s="22"/>
     </row>
-    <row r="584" spans="2:2" ht="13.2">
+    <row r="584" spans="2:2" ht="13">
       <c r="B584" s="22"/>
     </row>
-    <row r="585" spans="2:2" ht="13.2">
+    <row r="585" spans="2:2" ht="13">
       <c r="B585" s="22"/>
     </row>
-    <row r="586" spans="2:2" ht="13.2">
+    <row r="586" spans="2:2" ht="13">
       <c r="B586" s="22"/>
     </row>
-    <row r="587" spans="2:2" ht="13.2">
+    <row r="587" spans="2:2" ht="13">
       <c r="B587" s="22"/>
     </row>
-    <row r="588" spans="2:2" ht="13.2">
+    <row r="588" spans="2:2" ht="13">
       <c r="B588" s="22"/>
     </row>
-    <row r="589" spans="2:2" ht="13.2">
+    <row r="589" spans="2:2" ht="13">
       <c r="B589" s="22"/>
     </row>
-    <row r="590" spans="2:2" ht="13.2">
+    <row r="590" spans="2:2" ht="13">
       <c r="B590" s="22"/>
     </row>
-    <row r="591" spans="2:2" ht="13.2">
+    <row r="591" spans="2:2" ht="13">
       <c r="B591" s="22"/>
     </row>
-    <row r="592" spans="2:2" ht="13.2">
+    <row r="592" spans="2:2" ht="13">
       <c r="B592" s="22"/>
     </row>
-    <row r="593" spans="2:2" ht="13.2">
+    <row r="593" spans="2:2" ht="13">
       <c r="B593" s="22"/>
     </row>
-    <row r="594" spans="2:2" ht="13.2">
+    <row r="594" spans="2:2" ht="13">
       <c r="B594" s="22"/>
     </row>
-    <row r="595" spans="2:2" ht="13.2">
+    <row r="595" spans="2:2" ht="13">
       <c r="B595" s="22"/>
     </row>
-    <row r="596" spans="2:2" ht="13.2">
+    <row r="596" spans="2:2" ht="13">
       <c r="B596" s="22"/>
     </row>
-    <row r="597" spans="2:2" ht="13.2">
+    <row r="597" spans="2:2" ht="13">
       <c r="B597" s="22"/>
     </row>
-    <row r="598" spans="2:2" ht="13.2">
+    <row r="598" spans="2:2" ht="13">
       <c r="B598" s="22"/>
     </row>
-    <row r="599" spans="2:2" ht="13.2">
+    <row r="599" spans="2:2" ht="13">
       <c r="B599" s="22"/>
     </row>
-    <row r="600" spans="2:2" ht="13.2">
+    <row r="600" spans="2:2" ht="13">
       <c r="B600" s="22"/>
     </row>
-    <row r="601" spans="2:2" ht="13.2">
+    <row r="601" spans="2:2" ht="13">
       <c r="B601" s="22"/>
     </row>
-    <row r="602" spans="2:2" ht="13.2">
+    <row r="602" spans="2:2" ht="13">
       <c r="B602" s="22"/>
     </row>
-    <row r="603" spans="2:2" ht="13.2">
+    <row r="603" spans="2:2" ht="13">
       <c r="B603" s="22"/>
     </row>
-    <row r="604" spans="2:2" ht="13.2">
+    <row r="604" spans="2:2" ht="13">
       <c r="B604" s="22"/>
     </row>
-    <row r="605" spans="2:2" ht="13.2">
+    <row r="605" spans="2:2" ht="13">
       <c r="B605" s="22"/>
     </row>
-    <row r="606" spans="2:2" ht="13.2">
+    <row r="606" spans="2:2" ht="13">
       <c r="B606" s="22"/>
     </row>
-    <row r="607" spans="2:2" ht="13.2">
+    <row r="607" spans="2:2" ht="13">
       <c r="B607" s="22"/>
     </row>
-    <row r="608" spans="2:2" ht="13.2">
+    <row r="608" spans="2:2" ht="13">
       <c r="B608" s="22"/>
     </row>
-    <row r="609" spans="2:2" ht="13.2">
+    <row r="609" spans="2:2" ht="13">
       <c r="B609" s="22"/>
     </row>
-    <row r="610" spans="2:2" ht="13.2">
+    <row r="610" spans="2:2" ht="13">
       <c r="B610" s="22"/>
     </row>
-    <row r="611" spans="2:2" ht="13.2">
+    <row r="611" spans="2:2" ht="13">
       <c r="B611" s="22"/>
     </row>
-    <row r="612" spans="2:2" ht="13.2">
+    <row r="612" spans="2:2" ht="13">
       <c r="B612" s="22"/>
     </row>
-    <row r="613" spans="2:2" ht="13.2">
+    <row r="613" spans="2:2" ht="13">
       <c r="B613" s="22"/>
     </row>
-    <row r="614" spans="2:2" ht="13.2">
+    <row r="614" spans="2:2" ht="13">
       <c r="B614" s="22"/>
     </row>
-    <row r="615" spans="2:2" ht="13.2">
+    <row r="615" spans="2:2" ht="13">
       <c r="B615" s="22"/>
     </row>
-    <row r="616" spans="2:2" ht="13.2">
+    <row r="616" spans="2:2" ht="13">
       <c r="B616" s="22"/>
     </row>
-    <row r="617" spans="2:2" ht="13.2">
+    <row r="617" spans="2:2" ht="13">
       <c r="B617" s="22"/>
     </row>
-    <row r="618" spans="2:2" ht="13.2">
+    <row r="618" spans="2:2" ht="13">
       <c r="B618" s="22"/>
     </row>
-    <row r="619" spans="2:2" ht="13.2">
+    <row r="619" spans="2:2" ht="13">
       <c r="B619" s="22"/>
     </row>
-    <row r="620" spans="2:2" ht="13.2">
+    <row r="620" spans="2:2" ht="13">
       <c r="B620" s="22"/>
     </row>
-    <row r="621" spans="2:2" ht="13.2">
+    <row r="621" spans="2:2" ht="13">
       <c r="B621" s="22"/>
     </row>
-    <row r="622" spans="2:2" ht="13.2">
+    <row r="622" spans="2:2" ht="13">
       <c r="B622" s="22"/>
     </row>
-    <row r="623" spans="2:2" ht="13.2">
+    <row r="623" spans="2:2" ht="13">
       <c r="B623" s="22"/>
     </row>
-    <row r="624" spans="2:2" ht="13.2">
+    <row r="624" spans="2:2" ht="13">
       <c r="B624" s="22"/>
     </row>
-    <row r="625" spans="2:2" ht="13.2">
+    <row r="625" spans="2:2" ht="13">
       <c r="B625" s="22"/>
     </row>
-    <row r="626" spans="2:2" ht="13.2">
+    <row r="626" spans="2:2" ht="13">
       <c r="B626" s="22"/>
     </row>
-    <row r="627" spans="2:2" ht="13.2">
+    <row r="627" spans="2:2" ht="13">
       <c r="B627" s="22"/>
     </row>
-    <row r="628" spans="2:2" ht="13.2">
+    <row r="628" spans="2:2" ht="13">
       <c r="B628" s="22"/>
     </row>
-    <row r="629" spans="2:2" ht="13.2">
+    <row r="629" spans="2:2" ht="13">
       <c r="B629" s="22"/>
     </row>
-    <row r="630" spans="2:2" ht="13.2">
+    <row r="630" spans="2:2" ht="13">
       <c r="B630" s="22"/>
     </row>
-    <row r="631" spans="2:2" ht="13.2">
+    <row r="631" spans="2:2" ht="13">
       <c r="B631" s="22"/>
     </row>
-    <row r="632" spans="2:2" ht="13.2">
+    <row r="632" spans="2:2" ht="13">
       <c r="B632" s="22"/>
     </row>
-    <row r="633" spans="2:2" ht="13.2">
+    <row r="633" spans="2:2" ht="13">
       <c r="B633" s="22"/>
     </row>
-    <row r="634" spans="2:2" ht="13.2">
+    <row r="634" spans="2:2" ht="13">
       <c r="B634" s="22"/>
     </row>
-    <row r="635" spans="2:2" ht="13.2">
+    <row r="635" spans="2:2" ht="13">
       <c r="B635" s="22"/>
     </row>
-    <row r="636" spans="2:2" ht="13.2">
+    <row r="636" spans="2:2" ht="13">
       <c r="B636" s="22"/>
     </row>
-    <row r="637" spans="2:2" ht="13.2">
+    <row r="637" spans="2:2" ht="13">
       <c r="B637" s="22"/>
     </row>
-    <row r="638" spans="2:2" ht="13.2">
+    <row r="638" spans="2:2" ht="13">
       <c r="B638" s="22"/>
     </row>
-    <row r="639" spans="2:2" ht="13.2">
+    <row r="639" spans="2:2" ht="13">
       <c r="B639" s="22"/>
     </row>
-    <row r="640" spans="2:2" ht="13.2">
+    <row r="640" spans="2:2" ht="13">
       <c r="B640" s="22"/>
     </row>
-    <row r="641" spans="2:2" ht="13.2">
+    <row r="641" spans="2:2" ht="13">
       <c r="B641" s="22"/>
     </row>
-    <row r="642" spans="2:2" ht="13.2">
+    <row r="642" spans="2:2" ht="13">
       <c r="B642" s="22"/>
     </row>
-    <row r="643" spans="2:2" ht="13.2">
+    <row r="643" spans="2:2" ht="13">
       <c r="B643" s="22"/>
     </row>
-    <row r="644" spans="2:2" ht="13.2">
+    <row r="644" spans="2:2" ht="13">
       <c r="B644" s="22"/>
     </row>
-    <row r="645" spans="2:2" ht="13.2">
+    <row r="645" spans="2:2" ht="13">
       <c r="B645" s="22"/>
     </row>
-    <row r="646" spans="2:2" ht="13.2">
+    <row r="646" spans="2:2" ht="13">
       <c r="B646" s="22"/>
     </row>
-    <row r="647" spans="2:2" ht="13.2">
+    <row r="647" spans="2:2" ht="13">
       <c r="B647" s="22"/>
     </row>
-    <row r="648" spans="2:2" ht="13.2">
+    <row r="648" spans="2:2" ht="13">
       <c r="B648" s="22"/>
     </row>
-    <row r="649" spans="2:2" ht="13.2">
+    <row r="649" spans="2:2" ht="13">
       <c r="B649" s="22"/>
     </row>
-    <row r="650" spans="2:2" ht="13.2">
+    <row r="650" spans="2:2" ht="13">
       <c r="B650" s="22"/>
     </row>
-    <row r="651" spans="2:2" ht="13.2">
+    <row r="651" spans="2:2" ht="13">
       <c r="B651" s="22"/>
     </row>
-    <row r="652" spans="2:2" ht="13.2">
+    <row r="652" spans="2:2" ht="13">
       <c r="B652" s="22"/>
     </row>
-    <row r="653" spans="2:2" ht="13.2">
+    <row r="653" spans="2:2" ht="13">
       <c r="B653" s="22"/>
     </row>
-    <row r="654" spans="2:2" ht="13.2">
+    <row r="654" spans="2:2" ht="13">
       <c r="B654" s="22"/>
     </row>
-    <row r="655" spans="2:2" ht="13.2">
+    <row r="655" spans="2:2" ht="13">
       <c r="B655" s="22"/>
     </row>
-    <row r="656" spans="2:2" ht="13.2">
+    <row r="656" spans="2:2" ht="13">
       <c r="B656" s="22"/>
     </row>
-    <row r="657" spans="2:2" ht="13.2">
+    <row r="657" spans="2:2" ht="13">
       <c r="B657" s="22"/>
     </row>
-    <row r="658" spans="2:2" ht="13.2">
+    <row r="658" spans="2:2" ht="13">
       <c r="B658" s="22"/>
     </row>
-    <row r="659" spans="2:2" ht="13.2">
+    <row r="659" spans="2:2" ht="13">
       <c r="B659" s="22"/>
     </row>
-    <row r="660" spans="2:2" ht="13.2">
+    <row r="660" spans="2:2" ht="13">
       <c r="B660" s="22"/>
     </row>
-    <row r="661" spans="2:2" ht="13.2">
+    <row r="661" spans="2:2" ht="13">
       <c r="B661" s="22"/>
     </row>
-    <row r="662" spans="2:2" ht="13.2">
+    <row r="662" spans="2:2" ht="13">
       <c r="B662" s="22"/>
     </row>
-    <row r="663" spans="2:2" ht="13.2">
+    <row r="663" spans="2:2" ht="13">
       <c r="B663" s="22"/>
     </row>
-    <row r="664" spans="2:2" ht="13.2">
+    <row r="664" spans="2:2" ht="13">
       <c r="B664" s="22"/>
     </row>
-    <row r="665" spans="2:2" ht="13.2">
+    <row r="665" spans="2:2" ht="13">
       <c r="B665" s="22"/>
     </row>
-    <row r="666" spans="2:2" ht="13.2">
+    <row r="666" spans="2:2" ht="13">
       <c r="B666" s="22"/>
     </row>
-    <row r="667" spans="2:2" ht="13.2">
+    <row r="667" spans="2:2" ht="13">
       <c r="B667" s="22"/>
     </row>
-    <row r="668" spans="2:2" ht="13.2">
+    <row r="668" spans="2:2" ht="13">
       <c r="B668" s="22"/>
     </row>
-    <row r="669" spans="2:2" ht="13.2">
+    <row r="669" spans="2:2" ht="13">
       <c r="B669" s="22"/>
     </row>
-    <row r="670" spans="2:2" ht="13.2">
+    <row r="670" spans="2:2" ht="13">
       <c r="B670" s="22"/>
     </row>
-    <row r="671" spans="2:2" ht="13.2">
+    <row r="671" spans="2:2" ht="13">
       <c r="B671" s="22"/>
     </row>
-    <row r="672" spans="2:2" ht="13.2">
+    <row r="672" spans="2:2" ht="13">
       <c r="B672" s="22"/>
     </row>
-    <row r="673" spans="2:2" ht="13.2">
+    <row r="673" spans="2:2" ht="13">
       <c r="B673" s="22"/>
     </row>
-    <row r="674" spans="2:2" ht="13.2">
+    <row r="674" spans="2:2" ht="13">
       <c r="B674" s="22"/>
     </row>
-    <row r="675" spans="2:2" ht="13.2">
+    <row r="675" spans="2:2" ht="13">
       <c r="B675" s="22"/>
     </row>
-    <row r="676" spans="2:2" ht="13.2">
+    <row r="676" spans="2:2" ht="13">
       <c r="B676" s="22"/>
     </row>
-    <row r="677" spans="2:2" ht="13.2">
+    <row r="677" spans="2:2" ht="13">
       <c r="B677" s="22"/>
     </row>
-    <row r="678" spans="2:2" ht="13.2">
+    <row r="678" spans="2:2" ht="13">
       <c r="B678" s="22"/>
     </row>
-    <row r="679" spans="2:2" ht="13.2">
+    <row r="679" spans="2:2" ht="13">
       <c r="B679" s="22"/>
     </row>
-    <row r="680" spans="2:2" ht="13.2">
+    <row r="680" spans="2:2" ht="13">
       <c r="B680" s="22"/>
     </row>
-    <row r="681" spans="2:2" ht="13.2">
+    <row r="681" spans="2:2" ht="13">
       <c r="B681" s="22"/>
     </row>
-    <row r="682" spans="2:2" ht="13.2">
+    <row r="682" spans="2:2" ht="13">
       <c r="B682" s="22"/>
     </row>
-    <row r="683" spans="2:2" ht="13.2">
+    <row r="683" spans="2:2" ht="13">
       <c r="B683" s="22"/>
     </row>
-    <row r="684" spans="2:2" ht="13.2">
+    <row r="684" spans="2:2" ht="13">
       <c r="B684" s="22"/>
     </row>
-    <row r="685" spans="2:2" ht="13.2">
+    <row r="685" spans="2:2" ht="13">
       <c r="B685" s="22"/>
     </row>
-    <row r="686" spans="2:2" ht="13.2">
+    <row r="686" spans="2:2" ht="13">
       <c r="B686" s="22"/>
     </row>
-    <row r="687" spans="2:2" ht="13.2">
+    <row r="687" spans="2:2" ht="13">
       <c r="B687" s="22"/>
     </row>
-    <row r="688" spans="2:2" ht="13.2">
+    <row r="688" spans="2:2" ht="13">
       <c r="B688" s="22"/>
     </row>
-    <row r="689" spans="2:2" ht="13.2">
+    <row r="689" spans="2:2" ht="13">
       <c r="B689" s="22"/>
     </row>
-    <row r="690" spans="2:2" ht="13.2">
+    <row r="690" spans="2:2" ht="13">
       <c r="B690" s="22"/>
     </row>
-    <row r="691" spans="2:2" ht="13.2">
+    <row r="691" spans="2:2" ht="13">
       <c r="B691" s="22"/>
     </row>
-    <row r="692" spans="2:2" ht="13.2">
+    <row r="692" spans="2:2" ht="13">
       <c r="B692" s="22"/>
     </row>
-    <row r="693" spans="2:2" ht="13.2">
+    <row r="693" spans="2:2" ht="13">
       <c r="B693" s="22"/>
     </row>
-    <row r="694" spans="2:2" ht="13.2">
+    <row r="694" spans="2:2" ht="13">
       <c r="B694" s="22"/>
     </row>
-    <row r="695" spans="2:2" ht="13.2">
+    <row r="695" spans="2:2" ht="13">
       <c r="B695" s="22"/>
     </row>
-    <row r="696" spans="2:2" ht="13.2">
+    <row r="696" spans="2:2" ht="13">
       <c r="B696" s="22"/>
     </row>
-    <row r="697" spans="2:2" ht="13.2">
+    <row r="697" spans="2:2" ht="13">
       <c r="B697" s="22"/>
     </row>
-    <row r="698" spans="2:2" ht="13.2">
+    <row r="698" spans="2:2" ht="13">
       <c r="B698" s="22"/>
     </row>
-    <row r="699" spans="2:2" ht="13.2">
+    <row r="699" spans="2:2" ht="13">
       <c r="B699" s="22"/>
     </row>
-    <row r="700" spans="2:2" ht="13.2">
+    <row r="700" spans="2:2" ht="13">
       <c r="B700" s="22"/>
     </row>
-    <row r="701" spans="2:2" ht="13.2">
+    <row r="701" spans="2:2" ht="13">
       <c r="B701" s="22"/>
     </row>
-    <row r="702" spans="2:2" ht="13.2">
+    <row r="702" spans="2:2" ht="13">
       <c r="B702" s="22"/>
     </row>
-    <row r="703" spans="2:2" ht="13.2">
+    <row r="703" spans="2:2" ht="13">
       <c r="B703" s="22"/>
     </row>
-    <row r="704" spans="2:2" ht="13.2">
+    <row r="704" spans="2:2" ht="13">
       <c r="B704" s="22"/>
     </row>
-    <row r="705" spans="2:2" ht="13.2">
+    <row r="705" spans="2:2" ht="13">
       <c r="B705" s="22"/>
     </row>
-    <row r="706" spans="2:2" ht="13.2">
+    <row r="706" spans="2:2" ht="13">
       <c r="B706" s="22"/>
     </row>
-    <row r="707" spans="2:2" ht="13.2">
+    <row r="707" spans="2:2" ht="13">
       <c r="B707" s="22"/>
     </row>
-    <row r="708" spans="2:2" ht="13.2">
+    <row r="708" spans="2:2" ht="13">
       <c r="B708" s="22"/>
     </row>
-    <row r="709" spans="2:2" ht="13.2">
+    <row r="709" spans="2:2" ht="13">
       <c r="B709" s="22"/>
     </row>
-    <row r="710" spans="2:2" ht="13.2">
+    <row r="710" spans="2:2" ht="13">
       <c r="B710" s="22"/>
     </row>
-    <row r="711" spans="2:2" ht="13.2">
+    <row r="711" spans="2:2" ht="13">
       <c r="B711" s="22"/>
     </row>
-    <row r="712" spans="2:2" ht="13.2">
+    <row r="712" spans="2:2" ht="13">
       <c r="B712" s="22"/>
     </row>
-    <row r="713" spans="2:2" ht="13.2">
+    <row r="713" spans="2:2" ht="13">
       <c r="B713" s="22"/>
     </row>
-    <row r="714" spans="2:2" ht="13.2">
+    <row r="714" spans="2:2" ht="13">
       <c r="B714" s="22"/>
     </row>
-    <row r="715" spans="2:2" ht="13.2">
+    <row r="715" spans="2:2" ht="13">
       <c r="B715" s="22"/>
     </row>
-    <row r="716" spans="2:2" ht="13.2">
+    <row r="716" spans="2:2" ht="13">
       <c r="B716" s="22"/>
     </row>
-    <row r="717" spans="2:2" ht="13.2">
+    <row r="717" spans="2:2" ht="13">
       <c r="B717" s="22"/>
     </row>
-    <row r="718" spans="2:2" ht="13.2">
+    <row r="718" spans="2:2" ht="13">
       <c r="B718" s="22"/>
     </row>
-    <row r="719" spans="2:2" ht="13.2">
+    <row r="719" spans="2:2" ht="13">
       <c r="B719" s="22"/>
     </row>
-    <row r="720" spans="2:2" ht="13.2">
+    <row r="720" spans="2:2" ht="13">
       <c r="B720" s="22"/>
     </row>
-    <row r="721" spans="2:2" ht="13.2">
+    <row r="721" spans="2:2" ht="13">
       <c r="B721" s="22"/>
     </row>
-    <row r="722" spans="2:2" ht="13.2">
+    <row r="722" spans="2:2" ht="13">
       <c r="B722" s="22"/>
     </row>
-    <row r="723" spans="2:2" ht="13.2">
+    <row r="723" spans="2:2" ht="13">
       <c r="B723" s="22"/>
     </row>
-    <row r="724" spans="2:2" ht="13.2">
+    <row r="724" spans="2:2" ht="13">
       <c r="B724" s="22"/>
     </row>
-    <row r="725" spans="2:2" ht="13.2">
+    <row r="725" spans="2:2" ht="13">
       <c r="B725" s="22"/>
     </row>
-    <row r="726" spans="2:2" ht="13.2">
+    <row r="726" spans="2:2" ht="13">
       <c r="B726" s="22"/>
     </row>
-    <row r="727" spans="2:2" ht="13.2">
+    <row r="727" spans="2:2" ht="13">
       <c r="B727" s="22"/>
     </row>
-    <row r="728" spans="2:2" ht="13.2">
+    <row r="728" spans="2:2" ht="13">
       <c r="B728" s="22"/>
     </row>
-    <row r="729" spans="2:2" ht="13.2">
+    <row r="729" spans="2:2" ht="13">
       <c r="B729" s="22"/>
     </row>
-    <row r="730" spans="2:2" ht="13.2">
+    <row r="730" spans="2:2" ht="13">
       <c r="B730" s="22"/>
     </row>
-    <row r="731" spans="2:2" ht="13.2">
+    <row r="731" spans="2:2" ht="13">
       <c r="B731" s="22"/>
     </row>
-    <row r="732" spans="2:2" ht="13.2">
+    <row r="732" spans="2:2" ht="13">
       <c r="B732" s="22"/>
     </row>
-    <row r="733" spans="2:2" ht="13.2">
+    <row r="733" spans="2:2" ht="13">
       <c r="B733" s="22"/>
     </row>
-    <row r="734" spans="2:2" ht="13.2">
+    <row r="734" spans="2:2" ht="13">
       <c r="B734" s="22"/>
     </row>
-    <row r="735" spans="2:2" ht="13.2">
+    <row r="735" spans="2:2" ht="13">
       <c r="B735" s="22"/>
     </row>
-    <row r="736" spans="2:2" ht="13.2">
+    <row r="736" spans="2:2" ht="13">
       <c r="B736" s="22"/>
     </row>
-    <row r="737" spans="2:2" ht="13.2">
+    <row r="737" spans="2:2" ht="13">
       <c r="B737" s="22"/>
     </row>
-    <row r="738" spans="2:2" ht="13.2">
+    <row r="738" spans="2:2" ht="13">
       <c r="B738" s="22"/>
     </row>
-    <row r="739" spans="2:2" ht="13.2">
+    <row r="739" spans="2:2" ht="13">
       <c r="B739" s="22"/>
     </row>
-    <row r="740" spans="2:2" ht="13.2">
+    <row r="740" spans="2:2" ht="13">
       <c r="B740" s="22"/>
     </row>
-    <row r="741" spans="2:2" ht="13.2">
+    <row r="741" spans="2:2" ht="13">
       <c r="B741" s="22"/>
     </row>
-    <row r="742" spans="2:2" ht="13.2">
+    <row r="742" spans="2:2" ht="13">
       <c r="B742" s="22"/>
     </row>
-    <row r="743" spans="2:2" ht="13.2">
+    <row r="743" spans="2:2" ht="13">
       <c r="B743" s="22"/>
     </row>
-    <row r="744" spans="2:2" ht="13.2">
+    <row r="744" spans="2:2" ht="13">
       <c r="B744" s="22"/>
     </row>
-    <row r="745" spans="2:2" ht="13.2">
+    <row r="745" spans="2:2" ht="13">
       <c r="B745" s="22"/>
     </row>
-    <row r="746" spans="2:2" ht="13.2">
+    <row r="746" spans="2:2" ht="13">
       <c r="B746" s="22"/>
     </row>
-    <row r="747" spans="2:2" ht="13.2">
+    <row r="747" spans="2:2" ht="13">
       <c r="B747" s="22"/>
     </row>
-    <row r="748" spans="2:2" ht="13.2">
+    <row r="748" spans="2:2" ht="13">
       <c r="B748" s="22"/>
     </row>
-    <row r="749" spans="2:2" ht="13.2">
+    <row r="749" spans="2:2" ht="13">
       <c r="B749" s="22"/>
     </row>
-    <row r="750" spans="2:2" ht="13.2">
+    <row r="750" spans="2:2" ht="13">
       <c r="B750" s="22"/>
     </row>
-    <row r="751" spans="2:2" ht="13.2">
+    <row r="751" spans="2:2" ht="13">
       <c r="B751" s="22"/>
     </row>
-    <row r="752" spans="2:2" ht="13.2">
+    <row r="752" spans="2:2" ht="13">
       <c r="B752" s="22"/>
     </row>
-    <row r="753" spans="2:2" ht="13.2">
+    <row r="753" spans="2:2" ht="13">
       <c r="B753" s="22"/>
     </row>
-    <row r="754" spans="2:2" ht="13.2">
+    <row r="754" spans="2:2" ht="13">
       <c r="B754" s="22"/>
     </row>
-    <row r="755" spans="2:2" ht="13.2">
+    <row r="755" spans="2:2" ht="13">
       <c r="B755" s="22"/>
     </row>
-    <row r="756" spans="2:2" ht="13.2">
+    <row r="756" spans="2:2" ht="13">
       <c r="B756" s="22"/>
     </row>
-    <row r="757" spans="2:2" ht="13.2">
+    <row r="757" spans="2:2" ht="13">
       <c r="B757" s="22"/>
     </row>
-    <row r="758" spans="2:2" ht="13.2">
+    <row r="758" spans="2:2" ht="13">
       <c r="B758" s="22"/>
     </row>
-    <row r="759" spans="2:2" ht="13.2">
+    <row r="759" spans="2:2" ht="13">
       <c r="B759" s="22"/>
     </row>
-    <row r="760" spans="2:2" ht="13.2">
+    <row r="760" spans="2:2" ht="13">
       <c r="B760" s="22"/>
     </row>
-    <row r="761" spans="2:2" ht="13.2">
+    <row r="761" spans="2:2" ht="13">
       <c r="B761" s="22"/>
     </row>
-    <row r="762" spans="2:2" ht="13.2">
+    <row r="762" spans="2:2" ht="13">
       <c r="B762" s="22"/>
     </row>
-    <row r="763" spans="2:2" ht="13.2">
+    <row r="763" spans="2:2" ht="13">
       <c r="B763" s="22"/>
     </row>
-    <row r="764" spans="2:2" ht="13.2">
+    <row r="764" spans="2:2" ht="13">
       <c r="B764" s="22"/>
     </row>
-    <row r="765" spans="2:2" ht="13.2">
+    <row r="765" spans="2:2" ht="13">
       <c r="B765" s="22"/>
     </row>
-    <row r="766" spans="2:2" ht="13.2">
+    <row r="766" spans="2:2" ht="13">
       <c r="B766" s="22"/>
     </row>
-    <row r="767" spans="2:2" ht="13.2">
+    <row r="767" spans="2:2" ht="13">
       <c r="B767" s="22"/>
     </row>
-    <row r="768" spans="2:2" ht="13.2">
+    <row r="768" spans="2:2" ht="13">
       <c r="B768" s="22"/>
     </row>
-    <row r="769" spans="2:2" ht="13.2">
+    <row r="769" spans="2:2" ht="13">
       <c r="B769" s="22"/>
     </row>
-    <row r="770" spans="2:2" ht="13.2">
+    <row r="770" spans="2:2" ht="13">
       <c r="B770" s="22"/>
     </row>
-    <row r="771" spans="2:2" ht="13.2">
+    <row r="771" spans="2:2" ht="13">
       <c r="B771" s="22"/>
     </row>
-    <row r="772" spans="2:2" ht="13.2">
+    <row r="772" spans="2:2" ht="13">
       <c r="B772" s="22"/>
     </row>
-    <row r="773" spans="2:2" ht="13.2">
+    <row r="773" spans="2:2" ht="13">
       <c r="B773" s="22"/>
     </row>
-    <row r="774" spans="2:2" ht="13.2">
+    <row r="774" spans="2:2" ht="13">
       <c r="B774" s="22"/>
     </row>
-    <row r="775" spans="2:2" ht="13.2">
+    <row r="775" spans="2:2" ht="13">
       <c r="B775" s="22"/>
     </row>
-    <row r="776" spans="2:2" ht="13.2">
+    <row r="776" spans="2:2" ht="13">
       <c r="B776" s="22"/>
     </row>
-    <row r="777" spans="2:2" ht="13.2">
+    <row r="777" spans="2:2" ht="13">
       <c r="B777" s="22"/>
     </row>
-    <row r="778" spans="2:2" ht="13.2">
+    <row r="778" spans="2:2" ht="13">
       <c r="B778" s="22"/>
     </row>
-    <row r="779" spans="2:2" ht="13.2">
+    <row r="779" spans="2:2" ht="13">
       <c r="B779" s="22"/>
     </row>
-    <row r="780" spans="2:2" ht="13.2">
+    <row r="780" spans="2:2" ht="13">
       <c r="B780" s="22"/>
     </row>
-    <row r="781" spans="2:2" ht="13.2">
+    <row r="781" spans="2:2" ht="13">
       <c r="B781" s="22"/>
     </row>
-    <row r="782" spans="2:2" ht="13.2">
+    <row r="782" spans="2:2" ht="13">
       <c r="B782" s="22"/>
     </row>
-    <row r="783" spans="2:2" ht="13.2">
+    <row r="783" spans="2:2" ht="13">
       <c r="B783" s="22"/>
     </row>
-    <row r="784" spans="2:2" ht="13.2">
+    <row r="784" spans="2:2" ht="13">
       <c r="B784" s="22"/>
     </row>
-    <row r="785" spans="2:2" ht="13.2">
+    <row r="785" spans="2:2" ht="13">
       <c r="B785" s="22"/>
     </row>
-    <row r="786" spans="2:2" ht="13.2">
+    <row r="786" spans="2:2" ht="13">
       <c r="B786" s="22"/>
     </row>
-    <row r="787" spans="2:2" ht="13.2">
+    <row r="787" spans="2:2" ht="13">
       <c r="B787" s="22"/>
     </row>
-    <row r="788" spans="2:2" ht="13.2">
+    <row r="788" spans="2:2" ht="13">
       <c r="B788" s="22"/>
     </row>
-    <row r="789" spans="2:2" ht="13.2">
+    <row r="789" spans="2:2" ht="13">
       <c r="B789" s="22"/>
     </row>
-    <row r="790" spans="2:2" ht="13.2">
+    <row r="790" spans="2:2" ht="13">
       <c r="B790" s="22"/>
     </row>
-    <row r="791" spans="2:2" ht="13.2">
+    <row r="791" spans="2:2" ht="13">
       <c r="B791" s="22"/>
     </row>
-    <row r="792" spans="2:2" ht="13.2">
+    <row r="792" spans="2:2" ht="13">
       <c r="B792" s="22"/>
     </row>
-    <row r="793" spans="2:2" ht="13.2">
+    <row r="793" spans="2:2" ht="13">
       <c r="B793" s="22"/>
     </row>
-    <row r="794" spans="2:2" ht="13.2">
+    <row r="794" spans="2:2" ht="13">
       <c r="B794" s="22"/>
     </row>
-    <row r="795" spans="2:2" ht="13.2">
+    <row r="795" spans="2:2" ht="13">
       <c r="B795" s="22"/>
     </row>
-    <row r="796" spans="2:2" ht="13.2">
+    <row r="796" spans="2:2" ht="13">
       <c r="B796" s="22"/>
     </row>
-    <row r="797" spans="2:2" ht="13.2">
+    <row r="797" spans="2:2" ht="13">
       <c r="B797" s="22"/>
     </row>
-    <row r="798" spans="2:2" ht="13.2">
+    <row r="798" spans="2:2" ht="13">
       <c r="B798" s="22"/>
     </row>
-    <row r="799" spans="2:2" ht="13.2">
+    <row r="799" spans="2:2" ht="13">
       <c r="B799" s="22"/>
     </row>
-    <row r="800" spans="2:2" ht="13.2">
+    <row r="800" spans="2:2" ht="13">
       <c r="B800" s="22"/>
     </row>
-    <row r="801" spans="2:2" ht="13.2">
+    <row r="801" spans="2:2" ht="13">
       <c r="B801" s="22"/>
     </row>
-    <row r="802" spans="2:2" ht="13.2">
+    <row r="802" spans="2:2" ht="13">
       <c r="B802" s="22"/>
     </row>
-    <row r="803" spans="2:2" ht="13.2">
+    <row r="803" spans="2:2" ht="13">
       <c r="B803" s="22"/>
     </row>
-    <row r="804" spans="2:2" ht="13.2">
+    <row r="804" spans="2:2" ht="13">
       <c r="B804" s="22"/>
     </row>
-    <row r="805" spans="2:2" ht="13.2">
+    <row r="805" spans="2:2" ht="13">
       <c r="B805" s="22"/>
     </row>
-    <row r="806" spans="2:2" ht="13.2">
+    <row r="806" spans="2:2" ht="13">
       <c r="B806" s="22"/>
     </row>
-    <row r="807" spans="2:2" ht="13.2">
+    <row r="807" spans="2:2" ht="13">
       <c r="B807" s="22"/>
     </row>
-    <row r="808" spans="2:2" ht="13.2">
+    <row r="808" spans="2:2" ht="13">
       <c r="B808" s="22"/>
     </row>
-    <row r="809" spans="2:2" ht="13.2">
+    <row r="809" spans="2:2" ht="13">
       <c r="B809" s="22"/>
     </row>
-    <row r="810" spans="2:2" ht="13.2">
+    <row r="810" spans="2:2" ht="13">
       <c r="B810" s="22"/>
     </row>
-    <row r="811" spans="2:2" ht="13.2">
+    <row r="811" spans="2:2" ht="13">
       <c r="B811" s="22"/>
     </row>
-    <row r="812" spans="2:2" ht="13.2">
+    <row r="812" spans="2:2" ht="13">
       <c r="B812" s="22"/>
     </row>
-    <row r="813" spans="2:2" ht="13.2">
+    <row r="813" spans="2:2" ht="13">
       <c r="B813" s="22"/>
     </row>
-    <row r="814" spans="2:2" ht="13.2">
+    <row r="814" spans="2:2" ht="13">
       <c r="B814" s="22"/>
     </row>
-    <row r="815" spans="2:2" ht="13.2">
+    <row r="815" spans="2:2" ht="13">
       <c r="B815" s="22"/>
     </row>
-    <row r="816" spans="2:2" ht="13.2">
+    <row r="816" spans="2:2" ht="13">
       <c r="B816" s="22"/>
     </row>
-    <row r="817" spans="2:2" ht="13.2">
+    <row r="817" spans="2:2" ht="13">
       <c r="B817" s="22"/>
     </row>
-    <row r="818" spans="2:2" ht="13.2">
+    <row r="818" spans="2:2" ht="13">
       <c r="B818" s="22"/>
     </row>
-    <row r="819" spans="2:2" ht="13.2">
+    <row r="819" spans="2:2" ht="13">
       <c r="B819" s="22"/>
     </row>
-    <row r="820" spans="2:2" ht="13.2">
+    <row r="820" spans="2:2" ht="13">
       <c r="B820" s="22"/>
     </row>
-    <row r="821" spans="2:2" ht="13.2">
+    <row r="821" spans="2:2" ht="13">
       <c r="B821" s="22"/>
     </row>
-    <row r="822" spans="2:2" ht="13.2">
+    <row r="822" spans="2:2" ht="13">
       <c r="B822" s="22"/>
     </row>
-    <row r="823" spans="2:2" ht="13.2">
+    <row r="823" spans="2:2" ht="13">
       <c r="B823" s="22"/>
     </row>
-    <row r="824" spans="2:2" ht="13.2">
+    <row r="824" spans="2:2" ht="13">
       <c r="B824" s="22"/>
     </row>
-    <row r="825" spans="2:2" ht="13.2">
+    <row r="825" spans="2:2" ht="13">
       <c r="B825" s="22"/>
     </row>
-    <row r="826" spans="2:2" ht="13.2">
+    <row r="826" spans="2:2" ht="13">
       <c r="B826" s="22"/>
     </row>
-    <row r="827" spans="2:2" ht="13.2">
+    <row r="827" spans="2:2" ht="13">
       <c r="B827" s="22"/>
     </row>
-    <row r="828" spans="2:2" ht="13.2">
+    <row r="828" spans="2:2" ht="13">
       <c r="B828" s="22"/>
     </row>
-    <row r="829" spans="2:2" ht="13.2">
+    <row r="829" spans="2:2" ht="13">
       <c r="B829" s="22"/>
     </row>
-    <row r="830" spans="2:2" ht="13.2">
+    <row r="830" spans="2:2" ht="13">
       <c r="B830" s="22"/>
     </row>
-    <row r="831" spans="2:2" ht="13.2">
+    <row r="831" spans="2:2" ht="13">
       <c r="B831" s="22"/>
     </row>
-    <row r="832" spans="2:2" ht="13.2">
+    <row r="832" spans="2:2" ht="13">
       <c r="B832" s="22"/>
     </row>
-    <row r="833" spans="2:2" ht="13.2">
+    <row r="833" spans="2:2" ht="13">
       <c r="B833" s="22"/>
     </row>
-    <row r="834" spans="2:2" ht="13.2">
+    <row r="834" spans="2:2" ht="13">
       <c r="B834" s="22"/>
     </row>
-    <row r="835" spans="2:2" ht="13.2">
+    <row r="835" spans="2:2" ht="13">
       <c r="B835" s="22"/>
     </row>
-    <row r="836" spans="2:2" ht="13.2">
+    <row r="836" spans="2:2" ht="13">
       <c r="B836" s="22"/>
     </row>
-    <row r="837" spans="2:2" ht="13.2">
+    <row r="837" spans="2:2" ht="13">
       <c r="B837" s="22"/>
     </row>
-    <row r="838" spans="2:2" ht="13.2">
+    <row r="838" spans="2:2" ht="13">
       <c r="B838" s="22"/>
     </row>
-    <row r="839" spans="2:2" ht="13.2">
+    <row r="839" spans="2:2" ht="13">
       <c r="B839" s="22"/>
     </row>
-    <row r="840" spans="2:2" ht="13.2">
+    <row r="840" spans="2:2" ht="13">
       <c r="B840" s="22"/>
     </row>
-    <row r="841" spans="2:2" ht="13.2">
+    <row r="841" spans="2:2" ht="13">
       <c r="B841" s="22"/>
     </row>
-    <row r="842" spans="2:2" ht="13.2">
+    <row r="842" spans="2:2" ht="13">
       <c r="B842" s="22"/>
     </row>
-    <row r="843" spans="2:2" ht="13.2">
+    <row r="843" spans="2:2" ht="13">
       <c r="B843" s="22"/>
     </row>
-    <row r="844" spans="2:2" ht="13.2">
+    <row r="844" spans="2:2" ht="13">
       <c r="B844" s="22"/>
     </row>
-    <row r="845" spans="2:2" ht="13.2">
+    <row r="845" spans="2:2" ht="13">
       <c r="B845" s="22"/>
     </row>
-    <row r="846" spans="2:2" ht="13.2">
+    <row r="846" spans="2:2" ht="13">
       <c r="B846" s="22"/>
     </row>
-    <row r="847" spans="2:2" ht="13.2">
+    <row r="847" spans="2:2" ht="13">
       <c r="B847" s="22"/>
     </row>
-    <row r="848" spans="2:2" ht="13.2">
+    <row r="848" spans="2:2" ht="13">
       <c r="B848" s="22"/>
     </row>
-    <row r="849" spans="2:2" ht="13.2">
+    <row r="849" spans="2:2" ht="13">
       <c r="B849" s="22"/>
     </row>
-    <row r="850" spans="2:2" ht="13.2">
+    <row r="850" spans="2:2" ht="13">
       <c r="B850" s="22"/>
     </row>
-    <row r="851" spans="2:2" ht="13.2">
+    <row r="851" spans="2:2" ht="13">
       <c r="B851" s="22"/>
     </row>
-    <row r="852" spans="2:2" ht="13.2">
+    <row r="852" spans="2:2" ht="13">
       <c r="B852" s="22"/>
     </row>
-    <row r="853" spans="2:2" ht="13.2">
+    <row r="853" spans="2:2" ht="13">
       <c r="B853" s="22"/>
     </row>
-    <row r="854" spans="2:2" ht="13.2">
+    <row r="854" spans="2:2" ht="13">
       <c r="B854" s="22"/>
     </row>
-    <row r="855" spans="2:2" ht="13.2">
+    <row r="855" spans="2:2" ht="13">
       <c r="B855" s="22"/>
     </row>
-    <row r="856" spans="2:2" ht="13.2">
+    <row r="856" spans="2:2" ht="13">
       <c r="B856" s="22"/>
     </row>
-    <row r="857" spans="2:2" ht="13.2">
+    <row r="857" spans="2:2" ht="13">
       <c r="B857" s="22"/>
     </row>
-    <row r="858" spans="2:2" ht="13.2">
+    <row r="858" spans="2:2" ht="13">
       <c r="B858" s="22"/>
     </row>
-    <row r="859" spans="2:2" ht="13.2">
+    <row r="859" spans="2:2" ht="13">
       <c r="B859" s="22"/>
     </row>
-    <row r="860" spans="2:2" ht="13.2">
+    <row r="860" spans="2:2" ht="13">
       <c r="B860" s="22"/>
     </row>
-    <row r="861" spans="2:2" ht="13.2">
+    <row r="861" spans="2:2" ht="13">
       <c r="B861" s="22"/>
     </row>
-    <row r="862" spans="2:2" ht="13.2">
+    <row r="862" spans="2:2" ht="13">
       <c r="B862" s="22"/>
     </row>
-    <row r="863" spans="2:2" ht="13.2">
+    <row r="863" spans="2:2" ht="13">
       <c r="B863" s="22"/>
     </row>
-    <row r="864" spans="2:2" ht="13.2">
+    <row r="864" spans="2:2" ht="13">
       <c r="B864" s="22"/>
     </row>
-    <row r="865" spans="2:2" ht="13.2">
+    <row r="865" spans="2:2" ht="13">
       <c r="B865" s="22"/>
     </row>
-    <row r="866" spans="2:2" ht="13.2">
+    <row r="866" spans="2:2" ht="13">
       <c r="B866" s="22"/>
     </row>
-    <row r="867" spans="2:2" ht="13.2">
+    <row r="867" spans="2:2" ht="13">
       <c r="B867" s="22"/>
     </row>
-    <row r="868" spans="2:2" ht="13.2">
+    <row r="868" spans="2:2" ht="13">
       <c r="B868" s="22"/>
     </row>
-    <row r="869" spans="2:2" ht="13.2">
+    <row r="869" spans="2:2" ht="13">
       <c r="B869" s="22"/>
     </row>
-    <row r="870" spans="2:2" ht="13.2">
+    <row r="870" spans="2:2" ht="13">
       <c r="B870" s="22"/>
     </row>
-    <row r="871" spans="2:2" ht="13.2">
+    <row r="871" spans="2:2" ht="13">
       <c r="B871" s="22"/>
     </row>
-    <row r="872" spans="2:2" ht="13.2">
+    <row r="872" spans="2:2" ht="13">
       <c r="B872" s="22"/>
     </row>
-    <row r="873" spans="2:2" ht="13.2">
+    <row r="873" spans="2:2" ht="13">
       <c r="B873" s="22"/>
     </row>
-    <row r="874" spans="2:2" ht="13.2">
+    <row r="874" spans="2:2" ht="13">
       <c r="B874" s="22"/>
     </row>
-    <row r="875" spans="2:2" ht="13.2">
+    <row r="875" spans="2:2" ht="13">
       <c r="B875" s="22"/>
     </row>
-    <row r="876" spans="2:2" ht="13.2">
+    <row r="876" spans="2:2" ht="13">
       <c r="B876" s="22"/>
     </row>
-    <row r="877" spans="2:2" ht="13.2">
+    <row r="877" spans="2:2" ht="13">
       <c r="B877" s="22"/>
     </row>
-    <row r="878" spans="2:2" ht="13.2">
+    <row r="878" spans="2:2" ht="13">
       <c r="B878" s="22"/>
     </row>
-    <row r="879" spans="2:2" ht="13.2">
+    <row r="879" spans="2:2" ht="13">
       <c r="B879" s="22"/>
     </row>
-    <row r="880" spans="2:2" ht="13.2">
+    <row r="880" spans="2:2" ht="13">
       <c r="B880" s="22"/>
     </row>
-    <row r="881" spans="2:2" ht="13.2">
+    <row r="881" spans="2:2" ht="13">
       <c r="B881" s="22"/>
     </row>
-    <row r="882" spans="2:2" ht="13.2">
+    <row r="882" spans="2:2" ht="13">
       <c r="B882" s="22"/>
     </row>
-    <row r="883" spans="2:2" ht="13.2">
+    <row r="883" spans="2:2" ht="13">
       <c r="B883" s="22"/>
     </row>
-    <row r="884" spans="2:2" ht="13.2">
+    <row r="884" spans="2:2" ht="13">
       <c r="B884" s="22"/>
     </row>
-    <row r="885" spans="2:2" ht="13.2">
+    <row r="885" spans="2:2" ht="13">
       <c r="B885" s="22"/>
     </row>
-    <row r="886" spans="2:2" ht="13.2">
+    <row r="886" spans="2:2" ht="13">
       <c r="B886" s="22"/>
     </row>
-    <row r="887" spans="2:2" ht="13.2">
+    <row r="887" spans="2:2" ht="13">
       <c r="B887" s="22"/>
     </row>
-    <row r="888" spans="2:2" ht="13.2">
+    <row r="888" spans="2:2" ht="13">
       <c r="B888" s="22"/>
     </row>
-    <row r="889" spans="2:2" ht="13.2">
+    <row r="889" spans="2:2" ht="13">
       <c r="B889" s="22"/>
     </row>
-    <row r="890" spans="2:2" ht="13.2">
+    <row r="890" spans="2:2" ht="13">
       <c r="B890" s="22"/>
     </row>
-    <row r="891" spans="2:2" ht="13.2">
+    <row r="891" spans="2:2" ht="13">
       <c r="B891" s="22"/>
     </row>
-    <row r="892" spans="2:2" ht="13.2">
+    <row r="892" spans="2:2" ht="13">
       <c r="B892" s="22"/>
     </row>
-    <row r="893" spans="2:2" ht="13.2">
+    <row r="893" spans="2:2" ht="13">
       <c r="B893" s="22"/>
     </row>
-    <row r="894" spans="2:2" ht="13.2">
+    <row r="894" spans="2:2" ht="13">
       <c r="B894" s="22"/>
     </row>
-    <row r="895" spans="2:2" ht="13.2">
+    <row r="895" spans="2:2" ht="13">
       <c r="B895" s="22"/>
     </row>
-    <row r="896" spans="2:2" ht="13.2">
+    <row r="896" spans="2:2" ht="13">
       <c r="B896" s="22"/>
     </row>
-    <row r="897" spans="2:2" ht="13.2">
+    <row r="897" spans="2:2" ht="13">
       <c r="B897" s="22"/>
     </row>
-    <row r="898" spans="2:2" ht="13.2">
+    <row r="898" spans="2:2" ht="13">
       <c r="B898" s="22"/>
     </row>
-    <row r="899" spans="2:2" ht="13.2">
+    <row r="899" spans="2:2" ht="13">
       <c r="B899" s="22"/>
     </row>
-    <row r="900" spans="2:2" ht="13.2">
+    <row r="900" spans="2:2" ht="13">
       <c r="B900" s="22"/>
     </row>
-    <row r="901" spans="2:2" ht="13.2">
+    <row r="901" spans="2:2" ht="13">
       <c r="B901" s="22"/>
     </row>
-    <row r="902" spans="2:2" ht="13.2">
+    <row r="902" spans="2:2" ht="13">
       <c r="B902" s="22"/>
     </row>
-    <row r="903" spans="2:2" ht="13.2">
+    <row r="903" spans="2:2" ht="13">
       <c r="B903" s="22"/>
     </row>
-    <row r="904" spans="2:2" ht="13.2">
+    <row r="904" spans="2:2" ht="13">
       <c r="B904" s="22"/>
     </row>
-    <row r="905" spans="2:2" ht="13.2">
+    <row r="905" spans="2:2" ht="13">
       <c r="B905" s="22"/>
     </row>
-    <row r="906" spans="2:2" ht="13.2">
+    <row r="906" spans="2:2" ht="13">
       <c r="B906" s="22"/>
     </row>
-    <row r="907" spans="2:2" ht="13.2">
+    <row r="907" spans="2:2" ht="13">
       <c r="B907" s="22"/>
     </row>
-    <row r="908" spans="2:2" ht="13.2">
+    <row r="908" spans="2:2" ht="13">
       <c r="B908" s="22"/>
     </row>
-    <row r="909" spans="2:2" ht="13.2">
+    <row r="909" spans="2:2" ht="13">
       <c r="B909" s="22"/>
     </row>
-    <row r="910" spans="2:2" ht="13.2">
+    <row r="910" spans="2:2" ht="13">
       <c r="B910" s="22"/>
     </row>
-    <row r="911" spans="2:2" ht="13.2">
+    <row r="911" spans="2:2" ht="13">
       <c r="B911" s="22"/>
     </row>
-    <row r="912" spans="2:2" ht="13.2">
+    <row r="912" spans="2:2" ht="13">
       <c r="B912" s="22"/>
     </row>
-    <row r="913" spans="2:2" ht="13.2">
+    <row r="913" spans="2:2" ht="13">
       <c r="B913" s="22"/>
     </row>
-    <row r="914" spans="2:2" ht="13.2">
+    <row r="914" spans="2:2" ht="13">
       <c r="B914" s="22"/>
     </row>
-    <row r="915" spans="2:2" ht="13.2">
+    <row r="915" spans="2:2" ht="13">
       <c r="B915" s="22"/>
     </row>
-    <row r="916" spans="2:2" ht="13.2">
+    <row r="916" spans="2:2" ht="13">
       <c r="B916" s="22"/>
     </row>
-    <row r="917" spans="2:2" ht="13.2">
+    <row r="917" spans="2:2" ht="13">
       <c r="B917" s="22"/>
     </row>
-    <row r="918" spans="2:2" ht="13.2">
+    <row r="918" spans="2:2" ht="13">
       <c r="B918" s="22"/>
     </row>
-    <row r="919" spans="2:2" ht="13.2">
+    <row r="919" spans="2:2" ht="13">
       <c r="B919" s="22"/>
     </row>
-    <row r="920" spans="2:2" ht="13.2">
+    <row r="920" spans="2:2" ht="13">
       <c r="B920" s="22"/>
     </row>
-    <row r="921" spans="2:2" ht="13.2">
+    <row r="921" spans="2:2" ht="13">
       <c r="B921" s="22"/>
     </row>
-    <row r="922" spans="2:2" ht="13.2">
+    <row r="922" spans="2:2" ht="13">
       <c r="B922" s="22"/>
     </row>
-    <row r="923" spans="2:2" ht="13.2">
+    <row r="923" spans="2:2" ht="13">
       <c r="B923" s="22"/>
     </row>
-    <row r="924" spans="2:2" ht="13.2">
+    <row r="924" spans="2:2" ht="13">
       <c r="B924" s="22"/>
     </row>
-    <row r="925" spans="2:2" ht="13.2">
+    <row r="925" spans="2:2" ht="13">
       <c r="B925" s="22"/>
     </row>
-    <row r="926" spans="2:2" ht="13.2">
+    <row r="926" spans="2:2" ht="13">
       <c r="B926" s="22"/>
     </row>
-    <row r="927" spans="2:2" ht="13.2">
+    <row r="927" spans="2:2" ht="13">
       <c r="B927" s="22"/>
     </row>
-    <row r="928" spans="2:2" ht="13.2">
+    <row r="928" spans="2:2" ht="13">
       <c r="B928" s="22"/>
     </row>
-    <row r="929" spans="2:2" ht="13.2">
+    <row r="929" spans="2:2" ht="13">
       <c r="B929" s="22"/>
     </row>
-    <row r="930" spans="2:2" ht="13.2">
+    <row r="930" spans="2:2" ht="13">
       <c r="B930" s="22"/>
     </row>
-    <row r="931" spans="2:2" ht="13.2">
+    <row r="931" spans="2:2" ht="13">
       <c r="B931" s="22"/>
     </row>
-    <row r="932" spans="2:2" ht="13.2">
+    <row r="932" spans="2:2" ht="13">
       <c r="B932" s="22"/>
     </row>
-    <row r="933" spans="2:2" ht="13.2">
+    <row r="933" spans="2:2" ht="13">
       <c r="B933" s="22"/>
     </row>
-    <row r="934" spans="2:2" ht="13.2">
+    <row r="934" spans="2:2" ht="13">
       <c r="B934" s="22"/>
     </row>
-    <row r="935" spans="2:2" ht="13.2">
+    <row r="935" spans="2:2" ht="13">
       <c r="B935" s="22"/>
     </row>
-    <row r="936" spans="2:2" ht="13.2">
+    <row r="936" spans="2:2" ht="13">
       <c r="B936" s="22"/>
     </row>
-    <row r="937" spans="2:2" ht="13.2">
+    <row r="937" spans="2:2" ht="13">
       <c r="B937" s="22"/>
     </row>
-    <row r="938" spans="2:2" ht="13.2">
+    <row r="938" spans="2:2" ht="13">
       <c r="B938" s="22"/>
     </row>
-    <row r="939" spans="2:2" ht="13.2">
+    <row r="939" spans="2:2" ht="13">
       <c r="B939" s="22"/>
     </row>
-    <row r="940" spans="2:2" ht="13.2">
+    <row r="940" spans="2:2" ht="13">
       <c r="B940" s="22"/>
     </row>
-    <row r="941" spans="2:2" ht="13.2">
+    <row r="941" spans="2:2" ht="13">
       <c r="B941" s="22"/>
     </row>
-    <row r="942" spans="2:2" ht="13.2">
+    <row r="942" spans="2:2" ht="13">
       <c r="B942" s="22"/>
     </row>
-    <row r="943" spans="2:2" ht="13.2">
+    <row r="943" spans="2:2" ht="13">
       <c r="B943" s="22"/>
     </row>
-    <row r="944" spans="2:2" ht="13.2">
+    <row r="944" spans="2:2" ht="13">
       <c r="B944" s="22"/>
     </row>
-    <row r="945" spans="2:2" ht="13.2">
+    <row r="945" spans="2:2" ht="13">
       <c r="B945" s="22"/>
     </row>
-    <row r="946" spans="2:2" ht="13.2">
+    <row r="946" spans="2:2" ht="13">
       <c r="B946" s="22"/>
     </row>
-    <row r="947" spans="2:2" ht="13.2">
+    <row r="947" spans="2:2" ht="13">
       <c r="B947" s="22"/>
     </row>
-    <row r="948" spans="2:2" ht="13.2">
+    <row r="948" spans="2:2" ht="13">
       <c r="B948" s="22"/>
     </row>
-    <row r="949" spans="2:2" ht="13.2">
+    <row r="949" spans="2:2" ht="13">
       <c r="B949" s="22"/>
     </row>
-    <row r="950" spans="2:2" ht="13.2">
+    <row r="950" spans="2:2" ht="13">
       <c r="B950" s="22"/>
     </row>
-    <row r="951" spans="2:2" ht="13.2">
+    <row r="951" spans="2:2" ht="13">
       <c r="B951" s="22"/>
     </row>
-    <row r="952" spans="2:2" ht="13.2">
+    <row r="952" spans="2:2" ht="13">
       <c r="B952" s="22"/>
     </row>
-    <row r="953" spans="2:2" ht="13.2">
+    <row r="953" spans="2:2" ht="13">
       <c r="B953" s="22"/>
     </row>
-    <row r="954" spans="2:2" ht="13.2">
+    <row r="954" spans="2:2" ht="13">
       <c r="B954" s="22"/>
     </row>
-    <row r="955" spans="2:2" ht="13.2">
+    <row r="955" spans="2:2" ht="13">
       <c r="B955" s="22"/>
     </row>
-    <row r="956" spans="2:2" ht="13.2">
+    <row r="956" spans="2:2" ht="13">
       <c r="B956" s="22"/>
     </row>
-    <row r="957" spans="2:2" ht="13.2">
+    <row r="957" spans="2:2" ht="13">
       <c r="B957" s="22"/>
     </row>
-    <row r="958" spans="2:2" ht="13.2">
+    <row r="958" spans="2:2" ht="13">
       <c r="B958" s="22"/>
     </row>
-    <row r="959" spans="2:2" ht="13.2">
+    <row r="959" spans="2:2" ht="13">
       <c r="B959" s="22"/>
     </row>
-    <row r="960" spans="2:2" ht="13.2">
+    <row r="960" spans="2:2" ht="13">
       <c r="B960" s="22"/>
     </row>
-    <row r="961" spans="2:2" ht="13.2">
+    <row r="961" spans="2:2" ht="13">
       <c r="B961" s="22"/>
     </row>
-    <row r="962" spans="2:2" ht="13.2">
+    <row r="962" spans="2:2" ht="13">
       <c r="B962" s="22"/>
     </row>
-    <row r="963" spans="2:2" ht="13.2">
+    <row r="963" spans="2:2" ht="13">
       <c r="B963" s="22"/>
     </row>
   </sheetData>
@@ -6788,21 +7111,810 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4456D90-0C8B-47EF-83ED-21E9482DACE6}">
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13">
+      <c r="A1" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C44" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>452</v>
+      </c>
+      <c r="C48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>454</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>440</v>
+      </c>
+      <c r="C51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>418</v>
+      </c>
+      <c r="C54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>441</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>424</v>
+      </c>
+      <c r="C60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A35" sqref="A28:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="29">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -6834,7 +7946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.5">
       <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
@@ -6866,7 +7978,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.5">
       <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
@@ -6898,7 +8010,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.5">
       <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
@@ -6930,7 +8042,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.5">
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
@@ -6962,7 +8074,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.5">
       <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
@@ -6994,7 +8106,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10" ht="14.5">
       <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
@@ -7026,7 +8138,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4">
+    <row r="8" spans="1:10" ht="14.5">
       <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
@@ -7058,7 +8170,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
+    <row r="9" spans="1:10" ht="14.5">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
@@ -7090,7 +8202,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
+    <row r="10" spans="1:10" ht="14.5">
       <c r="A10" s="30" t="s">
         <v>14</v>
       </c>
@@ -7122,7 +8234,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4">
+    <row r="11" spans="1:10" ht="14.5">
       <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
@@ -7154,7 +8266,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4">
+    <row r="12" spans="1:10" ht="14.5">
       <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
@@ -7186,7 +8298,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10" ht="14.5">
       <c r="A13" s="30" t="s">
         <v>14</v>
       </c>
@@ -7218,7 +8330,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
+    <row r="14" spans="1:10" ht="14.5">
       <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
@@ -7250,7 +8362,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
+    <row r="15" spans="1:10" ht="14.5">
       <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
@@ -7282,7 +8394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
+    <row r="16" spans="1:10" ht="14.5">
       <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
@@ -7314,7 +8426,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4">
+    <row r="17" spans="1:10" ht="14.5">
       <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
@@ -7346,7 +8458,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4">
+    <row r="18" spans="1:10" ht="14.5">
       <c r="A18" s="30" t="s">
         <v>14</v>
       </c>
@@ -7378,7 +8490,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4">
+    <row r="19" spans="1:10" ht="14.5">
       <c r="A19" s="30" t="s">
         <v>14</v>
       </c>
@@ -7410,7 +8522,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4">
+    <row r="20" spans="1:10" ht="14.5">
       <c r="A20" s="75" t="s">
         <v>14</v>
       </c>
@@ -7442,7 +8554,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4">
+    <row r="21" spans="1:10" ht="14.5">
       <c r="A21" s="77" t="s">
         <v>14</v>
       </c>
@@ -7474,7 +8586,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
+    <row r="22" spans="1:10" ht="14.5">
       <c r="A22" s="30" t="s">
         <v>14</v>
       </c>
@@ -7506,7 +8618,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4">
+    <row r="23" spans="1:10" ht="14.5">
       <c r="A23" s="30" t="s">
         <v>347</v>
       </c>
@@ -7540,7 +8652,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4">
+    <row r="24" spans="1:10" ht="14.5">
       <c r="A24" s="30" t="s">
         <v>347</v>
       </c>
@@ -7574,7 +8686,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4">
+    <row r="25" spans="1:10" ht="14.5">
       <c r="A25" s="30" t="s">
         <v>347</v>
       </c>
@@ -7608,7 +8720,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4">
+    <row r="26" spans="1:10" ht="14.5">
       <c r="A26" s="30" t="s">
         <v>345</v>
       </c>
@@ -7642,7 +8754,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
+    <row r="27" spans="1:10" ht="14.5">
       <c r="A27" s="30" t="s">
         <v>342</v>
       </c>
@@ -7676,7 +8788,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
+    <row r="28" spans="1:10" ht="14.5">
       <c r="A28" s="129" t="s">
         <v>325</v>
       </c>
@@ -7710,7 +8822,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4">
+    <row r="29" spans="1:10" ht="14.5">
       <c r="A29" s="59" t="s">
         <v>325</v>
       </c>
@@ -7744,7 +8856,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
+    <row r="30" spans="1:10" ht="14.5">
       <c r="A30" s="59" t="s">
         <v>325</v>
       </c>
@@ -7778,7 +8890,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4">
+    <row r="31" spans="1:10" ht="14.5">
       <c r="A31" s="59" t="s">
         <v>325</v>
       </c>
@@ -7812,7 +8924,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
+    <row r="32" spans="1:10" ht="14.5">
       <c r="A32" s="59" t="s">
         <v>325</v>
       </c>
@@ -7846,7 +8958,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10" ht="14.5">
       <c r="A33" s="59" t="s">
         <v>325</v>
       </c>
@@ -7880,7 +8992,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10" ht="14.5">
       <c r="A34" s="59" t="s">
         <v>325</v>
       </c>
@@ -7914,7 +9026,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
+    <row r="35" spans="1:10" ht="14.5">
       <c r="A35" s="59" t="s">
         <v>319</v>
       </c>
@@ -7948,7 +9060,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4">
+    <row r="36" spans="1:10" ht="14.5">
       <c r="A36" s="30" t="s">
         <v>319</v>
       </c>
@@ -7982,7 +9094,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
+    <row r="37" spans="1:10" ht="14.5">
       <c r="A37" s="30" t="s">
         <v>314</v>
       </c>
@@ -8016,7 +9128,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4">
+    <row r="38" spans="1:10" ht="14.5">
       <c r="A38" s="77" t="s">
         <v>311</v>
       </c>
@@ -8050,7 +9162,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
+    <row r="39" spans="1:10" ht="14.5">
       <c r="A39" s="30" t="s">
         <v>306</v>
       </c>
@@ -8084,7 +9196,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10" ht="14.5">
       <c r="A40" s="30" t="s">
         <v>280</v>
       </c>
@@ -8118,7 +9230,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10" ht="14.5">
       <c r="A41" s="30" t="s">
         <v>280</v>
       </c>
@@ -8152,7 +9264,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4">
+    <row r="42" spans="1:10" ht="14.5">
       <c r="A42" s="30" t="s">
         <v>280</v>
       </c>
@@ -8186,7 +9298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4">
+    <row r="43" spans="1:10" ht="14.5">
       <c r="A43" s="30" t="s">
         <v>280</v>
       </c>
@@ -8220,7 +9332,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4">
+    <row r="44" spans="1:10" ht="14.5">
       <c r="A44" s="30" t="s">
         <v>272</v>
       </c>
@@ -8254,7 +9366,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4">
+    <row r="45" spans="1:10" ht="14.5">
       <c r="A45" s="30" t="s">
         <v>272</v>
       </c>
@@ -8288,7 +9400,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4">
+    <row r="46" spans="1:10" ht="14.5">
       <c r="A46" s="30" t="s">
         <v>272</v>
       </c>
@@ -8322,7 +9434,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.4">
+    <row r="47" spans="1:10" ht="14.5">
       <c r="A47" s="30" t="s">
         <v>280</v>
       </c>
@@ -8356,7 +9468,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4">
+    <row r="48" spans="1:10" ht="14.5">
       <c r="A48" s="30" t="s">
         <v>280</v>
       </c>
@@ -8390,7 +9502,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.4">
+    <row r="49" spans="1:10" ht="14.5">
       <c r="A49" s="30" t="s">
         <v>280</v>
       </c>
@@ -8424,7 +9536,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4">
+    <row r="50" spans="1:10" ht="14.5">
       <c r="A50" s="30" t="s">
         <v>272</v>
       </c>
@@ -8458,7 +9570,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4">
+    <row r="51" spans="1:10" ht="14.5">
       <c r="A51" s="30" t="s">
         <v>272</v>
       </c>
@@ -8492,7 +9604,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4">
+    <row r="52" spans="1:10" ht="14.5">
       <c r="A52" s="30" t="s">
         <v>272</v>
       </c>
@@ -8526,7 +9638,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.4">
+    <row r="53" spans="1:10" ht="14.5">
       <c r="A53" s="111" t="s">
         <v>11</v>
       </c>
@@ -8560,7 +9672,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4">
+    <row r="54" spans="1:10" ht="14.5">
       <c r="A54" s="111" t="s">
         <v>11</v>
       </c>
@@ -8594,7 +9706,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.4">
+    <row r="55" spans="1:10" ht="14.5">
       <c r="A55" s="111" t="s">
         <v>11</v>
       </c>
@@ -8628,7 +9740,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4">
+    <row r="56" spans="1:10" ht="14.5">
       <c r="A56" s="111" t="s">
         <v>11</v>
       </c>
@@ -8662,7 +9774,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4">
+    <row r="57" spans="1:10" ht="14.5">
       <c r="A57" s="111" t="s">
         <v>11</v>
       </c>
@@ -8696,7 +9808,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.4">
+    <row r="58" spans="1:10" ht="14.5">
       <c r="A58" s="75" t="s">
         <v>11</v>
       </c>
@@ -8728,7 +9840,7 @@
       </c>
       <c r="J58" s="95"/>
     </row>
-    <row r="59" spans="1:10" ht="14.4">
+    <row r="59" spans="1:10" ht="14.5">
       <c r="A59" s="30" t="s">
         <v>199</v>
       </c>
@@ -8762,7 +9874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4">
+    <row r="60" spans="1:10" ht="14.5">
       <c r="A60" s="30" t="s">
         <v>199</v>
       </c>
@@ -8796,7 +9908,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4">
+    <row r="61" spans="1:10" ht="14.5">
       <c r="A61" s="30" t="s">
         <v>199</v>
       </c>
@@ -8830,7 +9942,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4">
+    <row r="62" spans="1:10" ht="14.5">
       <c r="A62" s="30" t="s">
         <v>199</v>
       </c>
@@ -8864,7 +9976,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4">
+    <row r="63" spans="1:10" ht="14.5">
       <c r="A63" s="30" t="s">
         <v>199</v>
       </c>
@@ -8898,7 +10010,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4">
+    <row r="64" spans="1:10" ht="14.5">
       <c r="A64" s="30" t="s">
         <v>199</v>
       </c>
@@ -8932,7 +10044,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.4">
+    <row r="65" spans="1:10" ht="14.5">
       <c r="A65" s="30" t="s">
         <v>199</v>
       </c>
@@ -8966,7 +10078,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.4">
+    <row r="66" spans="1:10" ht="14.5">
       <c r="A66" s="30" t="s">
         <v>199</v>
       </c>
@@ -9000,7 +10112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4">
+    <row r="67" spans="1:10" ht="14.5">
       <c r="A67" s="30" t="s">
         <v>199</v>
       </c>
@@ -9034,7 +10146,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.4">
+    <row r="68" spans="1:10" ht="14.5">
       <c r="A68" s="77" t="s">
         <v>199</v>
       </c>
@@ -9068,7 +10180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.4">
+    <row r="69" spans="1:10" ht="14.5">
       <c r="A69" s="77" t="s">
         <v>199</v>
       </c>
@@ -9102,7 +10214,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.4">
+    <row r="70" spans="1:10" ht="14.5">
       <c r="A70" s="77" t="s">
         <v>199</v>
       </c>
@@ -9136,7 +10248,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.4">
+    <row r="71" spans="1:10" ht="14.5">
       <c r="A71" s="30" t="s">
         <v>199</v>
       </c>
@@ -9170,7 +10282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.4">
+    <row r="72" spans="1:10" ht="14.5">
       <c r="A72" s="30" t="s">
         <v>199</v>
       </c>
@@ -9204,7 +10316,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.4">
+    <row r="73" spans="1:10" ht="14.5">
       <c r="A73" s="118" t="s">
         <v>199</v>
       </c>
@@ -9238,7 +10350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4">
+    <row r="74" spans="1:10" ht="14.5">
       <c r="A74" s="77" t="s">
         <v>199</v>
       </c>
@@ -9272,7 +10384,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28.8">
+    <row r="75" spans="1:10" ht="29">
       <c r="A75" s="123" t="s">
         <v>199</v>
       </c>
@@ -9306,7 +10418,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14.4">
+    <row r="76" spans="1:10" ht="14.5">
       <c r="A76" s="30" t="s">
         <v>199</v>
       </c>
@@ -9340,7 +10452,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14.4">
+    <row r="77" spans="1:10" ht="14.5">
       <c r="A77" s="77" t="s">
         <v>199</v>
       </c>
@@ -9374,7 +10486,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.4">
+    <row r="78" spans="1:10" ht="14.5">
       <c r="A78" s="30" t="s">
         <v>199</v>
       </c>
@@ -9408,7 +10520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14.4">
+    <row r="79" spans="1:10" ht="14.5">
       <c r="A79" s="30" t="s">
         <v>199</v>
       </c>
@@ -9442,7 +10554,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.4">
+    <row r="80" spans="1:10" ht="14.5">
       <c r="A80" s="125" t="s">
         <v>194</v>
       </c>
@@ -9476,7 +10588,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.4">
+    <row r="81" spans="1:10" ht="14.5">
       <c r="A81" s="30" t="s">
         <v>189</v>
       </c>
@@ -9510,7 +10622,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.4">
+    <row r="82" spans="1:10" ht="14.5">
       <c r="A82" s="30" t="s">
         <v>178</v>
       </c>
@@ -9544,7 +10656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.4">
+    <row r="83" spans="1:10" ht="14.5">
       <c r="A83" s="30" t="s">
         <v>178</v>
       </c>
@@ -9578,7 +10690,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.4">
+    <row r="84" spans="1:10" ht="14.5">
       <c r="A84" s="30" t="s">
         <v>178</v>
       </c>
@@ -9612,7 +10724,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.4">
+    <row r="85" spans="1:10" ht="14.5">
       <c r="A85" s="30" t="s">
         <v>178</v>
       </c>
@@ -9646,7 +10758,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.4">
+    <row r="86" spans="1:10" ht="14.5">
       <c r="A86" s="30" t="s">
         <v>178</v>
       </c>
@@ -9680,7 +10792,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.4">
+    <row r="87" spans="1:10" ht="14.5">
       <c r="A87" s="30" t="s">
         <v>176</v>
       </c>
@@ -9714,7 +10826,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.4">
+    <row r="88" spans="1:10" ht="14.5">
       <c r="A88" s="30" t="s">
         <v>173</v>
       </c>
@@ -9748,7 +10860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.4">
+    <row r="89" spans="1:10" ht="14.5">
       <c r="A89" s="77" t="s">
         <v>156</v>
       </c>
@@ -9782,7 +10894,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.4">
+    <row r="90" spans="1:10" ht="14.5">
       <c r="A90" s="30" t="s">
         <v>156</v>
       </c>
@@ -9816,7 +10928,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.4">
+    <row r="91" spans="1:10" ht="14.5">
       <c r="A91" s="77" t="s">
         <v>156</v>
       </c>
@@ -9850,7 +10962,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.4">
+    <row r="92" spans="1:10" ht="14.5">
       <c r="A92" s="30" t="s">
         <v>156</v>
       </c>
@@ -9884,7 +10996,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.4">
+    <row r="93" spans="1:10" ht="14.5">
       <c r="A93" s="30" t="s">
         <v>156</v>
       </c>
@@ -9918,7 +11030,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.4">
+    <row r="94" spans="1:10" ht="14.5">
       <c r="A94" s="30" t="s">
         <v>156</v>
       </c>
@@ -9952,7 +11064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4">
+    <row r="95" spans="1:10" ht="14.5">
       <c r="A95" s="30" t="s">
         <v>156</v>
       </c>
@@ -9986,7 +11098,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.4">
+    <row r="96" spans="1:10" ht="14.5">
       <c r="A96" s="30" t="s">
         <v>156</v>
       </c>
@@ -10020,7 +11132,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.4">
+    <row r="97" spans="1:10" ht="14.5">
       <c r="A97" s="30" t="s">
         <v>156</v>
       </c>
@@ -10054,7 +11166,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.4">
+    <row r="98" spans="1:10" ht="14.5">
       <c r="A98" s="30" t="s">
         <v>147</v>
       </c>
@@ -10074,7 +11186,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="93">
-        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
+        <f t="shared" ref="G98:G99" si="3">E98*F98</f>
         <v>18.760000000000002</v>
       </c>
       <c r="H98" s="94">
@@ -10088,7 +11200,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.4">
+    <row r="99" spans="1:10" ht="14.5">
       <c r="A99" s="30" t="s">
         <v>147</v>
       </c>
@@ -10124,111 +11236,111 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
-    <hyperlink ref="J33" r:id="rId32"/>
-    <hyperlink ref="J34" r:id="rId33"/>
-    <hyperlink ref="J35" r:id="rId34"/>
-    <hyperlink ref="J36" r:id="rId35"/>
-    <hyperlink ref="J37" r:id="rId36"/>
-    <hyperlink ref="J38" r:id="rId37"/>
-    <hyperlink ref="J39" r:id="rId38" location="catalog/121/3218/=x4w39v"/>
-    <hyperlink ref="J40" r:id="rId39"/>
-    <hyperlink ref="J41" r:id="rId40"/>
-    <hyperlink ref="J42" r:id="rId41"/>
-    <hyperlink ref="J43" r:id="rId42"/>
-    <hyperlink ref="J44" r:id="rId43"/>
-    <hyperlink ref="J45" r:id="rId44"/>
-    <hyperlink ref="J46" r:id="rId45"/>
-    <hyperlink ref="J47" r:id="rId46"/>
-    <hyperlink ref="J48" r:id="rId47"/>
-    <hyperlink ref="J49" r:id="rId48"/>
-    <hyperlink ref="J50" r:id="rId49"/>
-    <hyperlink ref="J51" r:id="rId50"/>
-    <hyperlink ref="J52" r:id="rId51"/>
-    <hyperlink ref="J53" r:id="rId52"/>
-    <hyperlink ref="J54" r:id="rId53"/>
-    <hyperlink ref="J55" r:id="rId54"/>
-    <hyperlink ref="J56" r:id="rId55"/>
-    <hyperlink ref="J57" r:id="rId56"/>
-    <hyperlink ref="J59" r:id="rId57"/>
-    <hyperlink ref="J60" r:id="rId58"/>
-    <hyperlink ref="J61" r:id="rId59"/>
-    <hyperlink ref="J62" r:id="rId60"/>
-    <hyperlink ref="J63" r:id="rId61"/>
-    <hyperlink ref="J64" r:id="rId62"/>
-    <hyperlink ref="J65" r:id="rId63"/>
-    <hyperlink ref="J66" r:id="rId64"/>
-    <hyperlink ref="J67" r:id="rId65"/>
-    <hyperlink ref="J68" r:id="rId66"/>
-    <hyperlink ref="J69" r:id="rId67"/>
-    <hyperlink ref="J70" r:id="rId68"/>
-    <hyperlink ref="J71" r:id="rId69"/>
-    <hyperlink ref="J72" r:id="rId70"/>
-    <hyperlink ref="J73" r:id="rId71"/>
-    <hyperlink ref="J74" r:id="rId72"/>
-    <hyperlink ref="J75" r:id="rId73"/>
-    <hyperlink ref="J76" r:id="rId74"/>
-    <hyperlink ref="J77" r:id="rId75"/>
-    <hyperlink ref="J78" r:id="rId76"/>
-    <hyperlink ref="J79" r:id="rId77"/>
-    <hyperlink ref="A80" r:id="rId78"/>
-    <hyperlink ref="J80" r:id="rId79"/>
-    <hyperlink ref="J81" r:id="rId80"/>
-    <hyperlink ref="J82" r:id="rId81"/>
-    <hyperlink ref="J83" r:id="rId82"/>
-    <hyperlink ref="J84" r:id="rId83"/>
-    <hyperlink ref="J85" r:id="rId84"/>
-    <hyperlink ref="J86" r:id="rId85"/>
-    <hyperlink ref="J87" r:id="rId86"/>
-    <hyperlink ref="J88" r:id="rId87"/>
-    <hyperlink ref="J89" r:id="rId88" location="read-more"/>
-    <hyperlink ref="J90" r:id="rId89"/>
-    <hyperlink ref="J91" r:id="rId90"/>
-    <hyperlink ref="J92" r:id="rId91" location="read-more"/>
-    <hyperlink ref="J93" r:id="rId92"/>
-    <hyperlink ref="J94" r:id="rId93"/>
-    <hyperlink ref="J95" r:id="rId94"/>
-    <hyperlink ref="J96" r:id="rId95"/>
-    <hyperlink ref="J97" r:id="rId96"/>
-    <hyperlink ref="J98" r:id="rId97"/>
-    <hyperlink ref="J99" r:id="rId98"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="J39" r:id="rId38" location="catalog/121/3218/=x4w39v" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="J40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="J42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="J43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="J47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="J49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="J50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="J51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="J52" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="J53" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="J57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="J59" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="J60" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="J61" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="J62" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="J63" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="J64" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="J65" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="J66" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="J67" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="J68" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="J69" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="J70" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="J71" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="J72" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="J73" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="J74" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="J75" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="J76" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="J77" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="J78" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="J79" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="A80" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="J80" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="J81" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="J82" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="J83" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="J84" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="J85" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="J86" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="J87" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="J88" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="J89" r:id="rId88" location="read-more" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="J90" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="J91" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="J92" r:id="rId91" location="read-more" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="J93" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="J94" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="J95" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="J96" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="J97" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="J98" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="J99" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10238,14 +11350,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="85.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="153.33203125" customWidth="1"/>
+    <col min="4" max="4" width="85.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="153.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
+    <row r="1" spans="1:11" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10411,10 +11523,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
